--- a/Projects/scrapping_js/lexus_maritime/Lexus_Inventory.xlsx
+++ b/Projects/scrapping_js/lexus_maritime/Lexus_Inventory.xlsx
@@ -732,10 +732,10 @@
         <v>$71078</v>
       </c>
       <c r="F13" t="str">
-        <v>5TDAAAB67RS011953</v>
+        <v>5TDAAAB6XRS010005</v>
       </c>
       <c r="G13" t="str">
-        <v>24143</v>
+        <v>24131</v>
       </c>
       <c r="H13" t="str">
         <v>Luxury</v>
@@ -750,7 +750,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -777,13 +777,13 @@
         <v>2024LexusRX</v>
       </c>
       <c r="B2" t="str">
-        <v>75850</v>
+        <v>67850</v>
       </c>
       <c r="C2" t="str">
-        <v>350 EXECUTIVE PKG</v>
+        <v>350 LUXURY PKG</v>
       </c>
       <c r="D2" t="str">
-        <v>#LX7529</v>
+        <v>#LX7552</v>
       </c>
       <c r="E2" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -791,16 +791,16 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2024LexusRX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B3" t="str">
-        <v>71500</v>
+        <v>69808</v>
       </c>
       <c r="C3" t="str">
-        <v>350 ULTRA LUXURY</v>
+        <v>350h EXECUTIVE</v>
       </c>
       <c r="D3" t="str">
-        <v>#LX7531</v>
+        <v>#LX7551</v>
       </c>
       <c r="E3" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -808,16 +808,16 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2024LexusRX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B4" t="str">
-        <v>75350</v>
+        <v>77265</v>
       </c>
       <c r="C4" t="str">
-        <v>350 F SPORT 3</v>
+        <v>450h+ F SPORT 3</v>
       </c>
       <c r="D4" t="str">
-        <v>#LX7530</v>
+        <v>#LX7546</v>
       </c>
       <c r="E4" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -825,16 +825,16 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2024LexusIS</v>
+        <v>2025LexusUX</v>
       </c>
       <c r="B5" t="str">
-        <v>47750</v>
+        <v>44255</v>
       </c>
       <c r="C5" t="str">
-        <v>300 PREMIUM PKG</v>
+        <v>300h</v>
       </c>
       <c r="D5" t="str">
-        <v>#LX7526</v>
+        <v>#LX7541</v>
       </c>
       <c r="E5" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -842,16 +842,16 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>2025LexusNX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B6" t="str">
-        <v>59799</v>
+        <v>75850</v>
       </c>
       <c r="C6" t="str">
-        <v>350 LUXURY</v>
+        <v>350 EXECUTIVE PKG</v>
       </c>
       <c r="D6" t="str">
-        <v>#LX7524</v>
+        <v>#LX7529</v>
       </c>
       <c r="E6" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -859,16 +859,16 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>2025LexusNX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B7" t="str">
-        <v>59149</v>
+        <v>71500</v>
       </c>
       <c r="C7" t="str">
-        <v>350 LUXURY</v>
+        <v>350 ULTRA LUXURY</v>
       </c>
       <c r="D7" t="str">
-        <v>#LX7521</v>
+        <v>#LX7531</v>
       </c>
       <c r="E7" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -876,16 +876,16 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2025LexusNX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B8" t="str">
-        <v>62842</v>
+        <v>75350</v>
       </c>
       <c r="C8" t="str">
-        <v>350 F SPORT 2</v>
+        <v>350 F SPORT 3</v>
       </c>
       <c r="D8" t="str">
-        <v>#LX7522</v>
+        <v>#LX7530</v>
       </c>
       <c r="E8" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -893,16 +893,16 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2025LexusNX</v>
+        <v>2024LexusIS</v>
       </c>
       <c r="B9" t="str">
-        <v>54470</v>
+        <v>47750</v>
       </c>
       <c r="C9" t="str">
-        <v>350 PREMIUM</v>
+        <v>300 PREMIUM PKG</v>
       </c>
       <c r="D9" t="str">
-        <v>#LX7514</v>
+        <v>#LX7526</v>
       </c>
       <c r="E9" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -910,16 +910,16 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2024LexusIS</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B10" t="str">
-        <v>58150</v>
+        <v>59799</v>
       </c>
       <c r="C10" t="str">
-        <v>350 F SPORT 2</v>
+        <v>350 LUXURY</v>
       </c>
       <c r="D10" t="str">
-        <v>#LX7510</v>
+        <v>#LX7524</v>
       </c>
       <c r="E10" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -927,16 +927,16 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2024LexusIS</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B11" t="str">
-        <v>56350</v>
+        <v>62842</v>
       </c>
       <c r="C11" t="str">
-        <v>300 ULTRA LUXURY</v>
+        <v>350 F SPORT 2</v>
       </c>
       <c r="D11" t="str">
-        <v>#LX7497</v>
+        <v>#LX7522</v>
       </c>
       <c r="E11" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -944,16 +944,16 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2024LexusTX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B12" t="str">
-        <v>68750</v>
+        <v>54470</v>
       </c>
       <c r="C12" t="str">
-        <v>350 Luxury PKG</v>
+        <v>350 PREMIUM</v>
       </c>
       <c r="D12" t="str">
-        <v>#LX7495</v>
+        <v>#LX7514</v>
       </c>
       <c r="E12" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -961,16 +961,16 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2024LexusTX</v>
+        <v>2024LexusIS</v>
       </c>
       <c r="B13" t="str">
-        <v>68750</v>
+        <v>58150</v>
       </c>
       <c r="C13" t="str">
-        <v>350 Luxury PKG</v>
+        <v>350 F SPORT 2</v>
       </c>
       <c r="D13" t="str">
-        <v>#LX7489</v>
+        <v>#LX7510</v>
       </c>
       <c r="E13" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -978,16 +978,16 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2024LexusTX</v>
+        <v>2024LexusIS</v>
       </c>
       <c r="B14" t="str">
-        <v>84200</v>
+        <v>56350</v>
       </c>
       <c r="C14" t="str">
-        <v>500h F SPORT PERFORMANCE 2</v>
+        <v>300 ULTRA LUXURY</v>
       </c>
       <c r="D14" t="str">
-        <v>#LX7484</v>
+        <v>#LX7497</v>
       </c>
       <c r="E14" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -995,16 +995,16 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2025LexusNX</v>
+        <v>2024LexusTX</v>
       </c>
       <c r="B15" t="str">
-        <v>56415</v>
+        <v>68750</v>
       </c>
       <c r="C15" t="str">
-        <v>350h PREMIUM</v>
+        <v>350 Luxury PKG</v>
       </c>
       <c r="D15" t="str">
-        <v>#LX7488</v>
+        <v>#LX7495</v>
       </c>
       <c r="E15" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1012,19 +1012,19 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>2024LexusES</v>
+        <v>2024LexusTX</v>
       </c>
       <c r="B16" t="str">
-        <v>63250</v>
+        <v>68750</v>
       </c>
       <c r="C16" t="str">
-        <v>350 ULTRA LUXURY</v>
+        <v>350 Luxury PKG</v>
       </c>
       <c r="D16" t="str">
-        <v>#LX7481</v>
+        <v>#LX7489</v>
       </c>
       <c r="E16" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="17">
@@ -1032,13 +1032,13 @@
         <v>2024LexusTX</v>
       </c>
       <c r="B17" t="str">
-        <v>71500</v>
+        <v>84200</v>
       </c>
       <c r="C17" t="str">
-        <v>350</v>
+        <v>500h F SPORT PERFORMANCE 2</v>
       </c>
       <c r="D17" t="str">
-        <v>#LX7477</v>
+        <v>#LX7484</v>
       </c>
       <c r="E17" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1049,13 +1049,13 @@
         <v>2025LexusNX</v>
       </c>
       <c r="B18" t="str">
-        <v>62842</v>
+        <v>56415</v>
       </c>
       <c r="C18" t="str">
-        <v>350 F SPORT 2</v>
+        <v>350h PREMIUM</v>
       </c>
       <c r="D18" t="str">
-        <v>#LX7475</v>
+        <v>#LX7488</v>
       </c>
       <c r="E18" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1063,33 +1063,33 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>2024LexusTX</v>
+        <v>2024LexusES</v>
       </c>
       <c r="B19" t="str">
-        <v>72000</v>
+        <v>63250</v>
       </c>
       <c r="C19" t="str">
         <v>350 ULTRA LUXURY</v>
       </c>
       <c r="D19" t="str">
-        <v>#LX7471</v>
+        <v>#LX7481</v>
       </c>
       <c r="E19" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>2024LexusRX</v>
+        <v>2024LexusTX</v>
       </c>
       <c r="B20" t="str">
-        <v>75850</v>
+        <v>71500</v>
       </c>
       <c r="C20" t="str">
-        <v>350 F SPORT 3</v>
+        <v>350</v>
       </c>
       <c r="D20" t="str">
-        <v>#LX7460</v>
+        <v>#LX7477</v>
       </c>
       <c r="E20" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1100,13 +1100,13 @@
         <v>2025LexusNX</v>
       </c>
       <c r="B21" t="str">
-        <v>54470</v>
+        <v>62842</v>
       </c>
       <c r="C21" t="str">
-        <v>350</v>
+        <v>350 F SPORT 2</v>
       </c>
       <c r="D21" t="str">
-        <v>#LX7442</v>
+        <v>#LX7475</v>
       </c>
       <c r="E21" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1114,16 +1114,16 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>2024LexusRX</v>
+        <v>2024LexusTX</v>
       </c>
       <c r="B22" t="str">
-        <v>60350</v>
+        <v>72000</v>
       </c>
       <c r="C22" t="str">
-        <v>350 PREMIUM PKG</v>
+        <v>350 ULTRA LUXURY</v>
       </c>
       <c r="D22" t="str">
-        <v>#LX7437</v>
+        <v>#LX7471</v>
       </c>
       <c r="E22" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1134,13 +1134,13 @@
         <v>2024LexusRX</v>
       </c>
       <c r="B23" t="str">
-        <v>60350</v>
+        <v>75850</v>
       </c>
       <c r="C23" t="str">
-        <v>350 PREMIUM PKG</v>
+        <v>350 F SPORT 3</v>
       </c>
       <c r="D23" t="str">
-        <v>#LX7432</v>
+        <v>#LX7460</v>
       </c>
       <c r="E23" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1148,16 +1148,16 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>2024LexusTX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B24" t="str">
-        <v>71500</v>
+        <v>54470</v>
       </c>
       <c r="C24" t="str">
-        <v>350 ULTRA LUXURY</v>
+        <v>350</v>
       </c>
       <c r="D24" t="str">
-        <v>#LX7430</v>
+        <v>#LX7442</v>
       </c>
       <c r="E24" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1165,16 +1165,16 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>2024LexusNX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B25" t="str">
-        <v>62400</v>
+        <v>60350</v>
       </c>
       <c r="C25" t="str">
-        <v>350 ULTRA LUXURY</v>
+        <v>350 PREMIUM PKG</v>
       </c>
       <c r="D25" t="str">
-        <v>#LX7422</v>
+        <v>#LX7437</v>
       </c>
       <c r="E25" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1182,16 +1182,16 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>2024LexusNX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B26" t="str">
-        <v>61000</v>
+        <v>60350</v>
       </c>
       <c r="C26" t="str">
-        <v>350 F SPORT 2</v>
+        <v>350 PREMIUM PKG</v>
       </c>
       <c r="D26" t="str">
-        <v>#LX7420</v>
+        <v>#LX7432</v>
       </c>
       <c r="E26" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1199,16 +1199,16 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>2024LexusNX</v>
+        <v>2024LexusTX</v>
       </c>
       <c r="B27" t="str">
-        <v>61500</v>
+        <v>71500</v>
       </c>
       <c r="C27" t="str">
-        <v>350 F SPORT 2</v>
+        <v>350 ULTRA LUXURY</v>
       </c>
       <c r="D27" t="str">
-        <v>#LX7408</v>
+        <v>#LX7430</v>
       </c>
       <c r="E27" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1216,16 +1216,16 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>2024LexusRX</v>
+        <v>2024LexusNX</v>
       </c>
       <c r="B28" t="str">
-        <v>72850</v>
+        <v>62400</v>
       </c>
       <c r="C28" t="str">
-        <v>350h ULTRA LUXURY</v>
+        <v>350 ULTRA LUXURY</v>
       </c>
       <c r="D28" t="str">
-        <v>#LX7406</v>
+        <v>#LX7422</v>
       </c>
       <c r="E28" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1236,13 +1236,13 @@
         <v>2024LexusNX</v>
       </c>
       <c r="B29" t="str">
-        <v>62400</v>
+        <v>61000</v>
       </c>
       <c r="C29" t="str">
-        <v>350</v>
+        <v>350 F SPORT 2</v>
       </c>
       <c r="D29" t="str">
-        <v>#LX7405</v>
+        <v>#LX7420</v>
       </c>
       <c r="E29" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1250,16 +1250,16 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>2024LexusRX</v>
+        <v>2024LexusNX</v>
       </c>
       <c r="B30" t="str">
-        <v>75850</v>
+        <v>61500</v>
       </c>
       <c r="C30" t="str">
-        <v>350 F SPORT 3</v>
+        <v>350 F SPORT 2</v>
       </c>
       <c r="D30" t="str">
-        <v>#LX7404</v>
+        <v>#LX7408</v>
       </c>
       <c r="E30" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1270,13 +1270,13 @@
         <v>2024LexusRX</v>
       </c>
       <c r="B31" t="str">
-        <v>81100</v>
+        <v>72850</v>
       </c>
       <c r="C31" t="str">
-        <v>500h F SPORT PERFORMANCE 2</v>
+        <v>350h ULTRA LUXURY</v>
       </c>
       <c r="D31" t="str">
-        <v>#LX7306</v>
+        <v>#LX7406</v>
       </c>
       <c r="E31" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1284,16 +1284,16 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>2024LexusTX</v>
+        <v>2024LexusNX</v>
       </c>
       <c r="B32" t="str">
-        <v>71500</v>
+        <v>62400</v>
       </c>
       <c r="C32" t="str">
-        <v>350 ULTRA LUXURY</v>
+        <v>350</v>
       </c>
       <c r="D32" t="str">
-        <v>#LX7305</v>
+        <v>#LX7405</v>
       </c>
       <c r="E32" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1301,16 +1301,16 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>2024LexusTX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B33" t="str">
-        <v>84200</v>
+        <v>75850</v>
       </c>
       <c r="C33" t="str">
-        <v>500h F SPORT PERFORMANCE 2</v>
+        <v>350 F SPORT 3</v>
       </c>
       <c r="D33" t="str">
-        <v>#LX7304</v>
+        <v>#LX7404</v>
       </c>
       <c r="E33" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1318,16 +1318,16 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>2024LexusTX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B34" t="str">
-        <v>71500</v>
+        <v>81100</v>
       </c>
       <c r="C34" t="str">
-        <v>350 ULTRA LUXURY</v>
+        <v>500h F SPORT PERFORMANCE 2</v>
       </c>
       <c r="D34" t="str">
-        <v>#LX7294</v>
+        <v>#LX7306</v>
       </c>
       <c r="E34" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1335,24 +1335,75 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
+        <v>2024LexusTX</v>
+      </c>
+      <c r="B35" t="str">
+        <v>71500</v>
+      </c>
+      <c r="C35" t="str">
+        <v>350 ULTRA LUXURY</v>
+      </c>
+      <c r="D35" t="str">
+        <v>#LX7305</v>
+      </c>
+      <c r="E35" t="str">
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>2024LexusTX</v>
+      </c>
+      <c r="B36" t="str">
+        <v>84200</v>
+      </c>
+      <c r="C36" t="str">
+        <v>500h F SPORT PERFORMANCE 2</v>
+      </c>
+      <c r="D36" t="str">
+        <v>#LX7304</v>
+      </c>
+      <c r="E36" t="str">
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>2024LexusTX</v>
+      </c>
+      <c r="B37" t="str">
+        <v>71500</v>
+      </c>
+      <c r="C37" t="str">
+        <v>350 ULTRA LUXURY</v>
+      </c>
+      <c r="D37" t="str">
+        <v>#LX7294</v>
+      </c>
+      <c r="E37" t="str">
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
         <v>2024LexusNX</v>
       </c>
-      <c r="B35" t="str">
+      <c r="B38" t="str">
         <v>67050</v>
       </c>
-      <c r="C35" t="str">
+      <c r="C38" t="str">
         <v>350</v>
       </c>
-      <c r="D35" t="str">
+      <c r="D38" t="str">
         <v>#LX7272</v>
       </c>
-      <c r="E35" t="str">
+      <c r="E38" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E35"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E38"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Projects/scrapping_js/lexus_maritime/Lexus_Inventory.xlsx
+++ b/Projects/scrapping_js/lexus_maritime/Lexus_Inventory.xlsx
@@ -431,7 +431,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2025 UX HYBRID 300h</v>
+        <v>2025 NX 350</v>
       </c>
       <c r="B2" t="str">
         <v>All Wheel Drive</v>
@@ -440,16 +440,16 @@
         <v>Automatic</v>
       </c>
       <c r="D2" t="str">
-        <v>2L 4cyl.</v>
+        <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E2" t="str">
-        <v>$46583</v>
+        <v>$56798</v>
       </c>
       <c r="F2" t="str">
-        <v>JTHUCJDH5S2001262</v>
+        <v>2T2GGCEZ4SC065750</v>
       </c>
       <c r="G2" t="str">
-        <v>25004</v>
+        <v>25027</v>
       </c>
       <c r="H2" t="str">
         <v>Premium</v>
@@ -457,7 +457,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2025 NX 350</v>
+        <v>2024 NX 350</v>
       </c>
       <c r="B3" t="str">
         <v>All Wheel Drive</v>
@@ -469,21 +469,21 @@
         <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E3" t="str">
-        <v>$56798</v>
+        <v>$59728</v>
       </c>
       <c r="F3" t="str">
-        <v>2T2GGCEZ4SC065750</v>
+        <v>2T2GGCEZXRC046968</v>
       </c>
       <c r="G3" t="str">
-        <v>25027</v>
+        <v>24041</v>
       </c>
       <c r="H3" t="str">
-        <v>Premium</v>
+        <v>Ultra Premium</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2024 NX 350</v>
+        <v>2025 NX F SPORT</v>
       </c>
       <c r="B4" t="str">
         <v>All Wheel Drive</v>
@@ -495,21 +495,21 @@
         <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E4" t="str">
-        <v>$59728</v>
+        <v>$62268</v>
       </c>
       <c r="F4" t="str">
-        <v>2T2GGCEZXRC046968</v>
+        <v>2T2KGCEZ0SC063844</v>
       </c>
       <c r="G4" t="str">
-        <v>24041</v>
+        <v>25017</v>
       </c>
       <c r="H4" t="str">
-        <v>Ultra Premium</v>
+        <v>F SPORT 1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2025 NX F SPORT</v>
+        <v>2024 RX 350</v>
       </c>
       <c r="B5" t="str">
         <v>All Wheel Drive</v>
@@ -521,21 +521,21 @@
         <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E5" t="str">
-        <v>$62268</v>
+        <v>$62678</v>
       </c>
       <c r="F5" t="str">
-        <v>2T2KGCEZ0SC063844</v>
+        <v>2T2BAMCA6RC074233</v>
       </c>
       <c r="G5" t="str">
-        <v>25017</v>
+        <v>24168</v>
       </c>
       <c r="H5" t="str">
-        <v>F SPORT 1</v>
+        <v>Premium</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>2024 RX 350</v>
+        <v>2024 NX 350</v>
       </c>
       <c r="B6" t="str">
         <v>All Wheel Drive</v>
@@ -547,21 +547,21 @@
         <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E6" t="str">
-        <v>$62678</v>
+        <v>$64228</v>
       </c>
       <c r="F6" t="str">
-        <v>2T2BAMCA6RC074233</v>
+        <v>2T2GGCEZ6RC040973</v>
       </c>
       <c r="G6" t="str">
-        <v>24168</v>
+        <v>24019</v>
       </c>
       <c r="H6" t="str">
-        <v>Premium</v>
+        <v>Ultra Luxury</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>2024 NX 350</v>
+        <v>2025 NX F SPORT</v>
       </c>
       <c r="B7" t="str">
         <v>All Wheel Drive</v>
@@ -573,68 +573,68 @@
         <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E7" t="str">
-        <v>$64228</v>
+        <v>$65170</v>
       </c>
       <c r="F7" t="str">
-        <v>2T2GGCEZ6RC040973</v>
+        <v>2T2KGCEZ7SC065560</v>
       </c>
       <c r="G7" t="str">
-        <v>24019</v>
+        <v>25026</v>
       </c>
       <c r="H7" t="str">
-        <v>Ultra Luxury</v>
+        <v>F SPORT 2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2025 NX F SPORT</v>
+        <v>2024 ES 350</v>
       </c>
       <c r="B8" t="str">
-        <v>All Wheel Drive</v>
+        <v>Front Wheel Drive</v>
       </c>
       <c r="C8" t="str">
         <v>Automatic</v>
       </c>
       <c r="D8" t="str">
-        <v>2.4L TURBO 4cyl.</v>
+        <v>3.5L 6cyl.</v>
       </c>
       <c r="E8" t="str">
-        <v>$65170</v>
+        <v>$66078</v>
       </c>
       <c r="F8" t="str">
-        <v>2T2KGCEZ7SC065560</v>
+        <v>58AFZ1B18RU173495</v>
       </c>
       <c r="G8" t="str">
-        <v>25026</v>
+        <v>24095</v>
       </c>
       <c r="H8" t="str">
-        <v>F SPORT 2</v>
+        <v>Ultra Luxury</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2024 ES 350</v>
+        <v>2024 RX 350</v>
       </c>
       <c r="B9" t="str">
-        <v>Front Wheel Drive</v>
+        <v>All Wheel Drive</v>
       </c>
       <c r="C9" t="str">
         <v>Automatic</v>
       </c>
       <c r="D9" t="str">
-        <v>3.5L 6cyl.</v>
+        <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E9" t="str">
-        <v>$66078</v>
+        <v>$69678</v>
       </c>
       <c r="F9" t="str">
-        <v>58AFZ1B18RU173495</v>
+        <v>2T2BAMCA9RC075859</v>
       </c>
       <c r="G9" t="str">
-        <v>24095</v>
+        <v>24176</v>
       </c>
       <c r="H9" t="str">
-        <v>Ultra Luxury</v>
+        <v>Luxury</v>
       </c>
     </row>
     <row r="10">
@@ -651,13 +651,13 @@
         <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E10" t="str">
-        <v>$69678</v>
+        <v>$70178</v>
       </c>
       <c r="F10" t="str">
-        <v>2T2BAMCA7RC076153</v>
+        <v>2T2BAMCA8RC055604</v>
       </c>
       <c r="G10" t="str">
-        <v>24175</v>
+        <v>24084</v>
       </c>
       <c r="H10" t="str">
         <v>Luxury</v>
@@ -665,7 +665,7 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2024 RX 350</v>
+        <v>2024 TX 350 Luxury</v>
       </c>
       <c r="B11" t="str">
         <v>All Wheel Drive</v>
@@ -677,13 +677,13 @@
         <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E11" t="str">
-        <v>$69678</v>
+        <v>$71078</v>
       </c>
       <c r="F11" t="str">
-        <v>2T2BAMCA9RC075859</v>
+        <v>5TDAAAB6XRS010005</v>
       </c>
       <c r="G11" t="str">
-        <v>24176</v>
+        <v>24131</v>
       </c>
       <c r="H11" t="str">
         <v>Luxury</v>
@@ -691,7 +691,7 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2024 RX 350</v>
+        <v>2024 TX 350 Luxury</v>
       </c>
       <c r="B12" t="str">
         <v>All Wheel Drive</v>
@@ -703,13 +703,13 @@
         <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E12" t="str">
-        <v>$70178</v>
+        <v>$71078</v>
       </c>
       <c r="F12" t="str">
-        <v>2T2BAMCA8RC055604</v>
+        <v>5TDAAAB66RS007506</v>
       </c>
       <c r="G12" t="str">
-        <v>24084</v>
+        <v>24108</v>
       </c>
       <c r="H12" t="str">
         <v>Luxury</v>
@@ -732,10 +732,10 @@
         <v>$71078</v>
       </c>
       <c r="F13" t="str">
-        <v>5TDAAAB6XRS010005</v>
+        <v>5TDAAAB67RS011953</v>
       </c>
       <c r="G13" t="str">
-        <v>24131</v>
+        <v>24143</v>
       </c>
       <c r="H13" t="str">
         <v>Luxury</v>
@@ -825,33 +825,33 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2025LexusUX</v>
+        <v>2024LexusGX</v>
       </c>
       <c r="B5" t="str">
-        <v>44255</v>
+        <v>92500</v>
       </c>
       <c r="C5" t="str">
-        <v>300h</v>
+        <v>550 PREMIUM</v>
       </c>
       <c r="D5" t="str">
-        <v>#LX7541</v>
+        <v>#LX7545</v>
       </c>
       <c r="E5" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>4x4, Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>2024LexusRX</v>
+        <v>2025LexusUX</v>
       </c>
       <c r="B6" t="str">
-        <v>75850</v>
+        <v>44255</v>
       </c>
       <c r="C6" t="str">
-        <v>350 EXECUTIVE PKG</v>
+        <v>300h</v>
       </c>
       <c r="D6" t="str">
-        <v>#LX7529</v>
+        <v>#LX7541</v>
       </c>
       <c r="E6" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -859,16 +859,16 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>2024LexusRX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B7" t="str">
-        <v>71500</v>
+        <v>60640</v>
       </c>
       <c r="C7" t="str">
-        <v>350 ULTRA LUXURY</v>
+        <v>450h+ ULTRA PREMIUM</v>
       </c>
       <c r="D7" t="str">
-        <v>#LX7531</v>
+        <v>#LX7538</v>
       </c>
       <c r="E7" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -879,13 +879,13 @@
         <v>2024LexusRX</v>
       </c>
       <c r="B8" t="str">
-        <v>75350</v>
+        <v>75850</v>
       </c>
       <c r="C8" t="str">
-        <v>350 F SPORT 3</v>
+        <v>350 EXECUTIVE PKG</v>
       </c>
       <c r="D8" t="str">
-        <v>#LX7530</v>
+        <v>#LX7529</v>
       </c>
       <c r="E8" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -893,16 +893,16 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2024LexusIS</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B9" t="str">
-        <v>47750</v>
+        <v>71500</v>
       </c>
       <c r="C9" t="str">
-        <v>300 PREMIUM PKG</v>
+        <v>350 ULTRA LUXURY</v>
       </c>
       <c r="D9" t="str">
-        <v>#LX7526</v>
+        <v>#LX7531</v>
       </c>
       <c r="E9" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -910,16 +910,16 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2025LexusNX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B10" t="str">
-        <v>59799</v>
+        <v>75350</v>
       </c>
       <c r="C10" t="str">
-        <v>350 LUXURY</v>
+        <v>350 F SPORT 3</v>
       </c>
       <c r="D10" t="str">
-        <v>#LX7524</v>
+        <v>#LX7530</v>
       </c>
       <c r="E10" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -927,16 +927,16 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2025LexusNX</v>
+        <v>2024LexusIS</v>
       </c>
       <c r="B11" t="str">
-        <v>62842</v>
+        <v>47750</v>
       </c>
       <c r="C11" t="str">
-        <v>350 F SPORT 2</v>
+        <v>300 PREMIUM PKG</v>
       </c>
       <c r="D11" t="str">
-        <v>#LX7522</v>
+        <v>#LX7526</v>
       </c>
       <c r="E11" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -947,13 +947,13 @@
         <v>2025LexusNX</v>
       </c>
       <c r="B12" t="str">
-        <v>54470</v>
+        <v>59799</v>
       </c>
       <c r="C12" t="str">
-        <v>350 PREMIUM</v>
+        <v>350 LUXURY</v>
       </c>
       <c r="D12" t="str">
-        <v>#LX7514</v>
+        <v>#LX7524</v>
       </c>
       <c r="E12" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -961,16 +961,16 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2024LexusIS</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B13" t="str">
-        <v>58150</v>
+        <v>62842</v>
       </c>
       <c r="C13" t="str">
         <v>350 F SPORT 2</v>
       </c>
       <c r="D13" t="str">
-        <v>#LX7510</v>
+        <v>#LX7522</v>
       </c>
       <c r="E13" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -978,16 +978,16 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2024LexusIS</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B14" t="str">
-        <v>56350</v>
+        <v>54470</v>
       </c>
       <c r="C14" t="str">
-        <v>300 ULTRA LUXURY</v>
+        <v>350 PREMIUM</v>
       </c>
       <c r="D14" t="str">
-        <v>#LX7497</v>
+        <v>#LX7514</v>
       </c>
       <c r="E14" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -995,16 +995,16 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2024LexusTX</v>
+        <v>2024LexusIS</v>
       </c>
       <c r="B15" t="str">
-        <v>68750</v>
+        <v>56350</v>
       </c>
       <c r="C15" t="str">
-        <v>350 Luxury PKG</v>
+        <v>300 ULTRA LUXURY</v>
       </c>
       <c r="D15" t="str">
-        <v>#LX7495</v>
+        <v>#LX7497</v>
       </c>
       <c r="E15" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1021,7 +1021,7 @@
         <v>350 Luxury PKG</v>
       </c>
       <c r="D16" t="str">
-        <v>#LX7489</v>
+        <v>#LX7495</v>
       </c>
       <c r="E16" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1032,13 +1032,13 @@
         <v>2024LexusTX</v>
       </c>
       <c r="B17" t="str">
-        <v>84200</v>
+        <v>68750</v>
       </c>
       <c r="C17" t="str">
-        <v>500h F SPORT PERFORMANCE 2</v>
+        <v>350 Luxury PKG</v>
       </c>
       <c r="D17" t="str">
-        <v>#LX7484</v>
+        <v>#LX7489</v>
       </c>
       <c r="E17" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1046,16 +1046,16 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>2025LexusNX</v>
+        <v>2024LexusTX</v>
       </c>
       <c r="B18" t="str">
-        <v>56415</v>
+        <v>84200</v>
       </c>
       <c r="C18" t="str">
-        <v>350h PREMIUM</v>
+        <v>500h F SPORT PERFORMANCE 2</v>
       </c>
       <c r="D18" t="str">
-        <v>#LX7488</v>
+        <v>#LX7484</v>
       </c>
       <c r="E18" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1063,50 +1063,50 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>2024LexusES</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B19" t="str">
-        <v>63250</v>
+        <v>56415</v>
       </c>
       <c r="C19" t="str">
-        <v>350 ULTRA LUXURY</v>
+        <v>350h PREMIUM</v>
       </c>
       <c r="D19" t="str">
-        <v>#LX7481</v>
+        <v>#LX7488</v>
       </c>
       <c r="E19" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>2024LexusTX</v>
+        <v>2024LexusES</v>
       </c>
       <c r="B20" t="str">
-        <v>71500</v>
+        <v>63250</v>
       </c>
       <c r="C20" t="str">
-        <v>350</v>
+        <v>350 ULTRA LUXURY</v>
       </c>
       <c r="D20" t="str">
-        <v>#LX7477</v>
+        <v>#LX7481</v>
       </c>
       <c r="E20" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>2025LexusNX</v>
+        <v>2024LexusTX</v>
       </c>
       <c r="B21" t="str">
-        <v>62842</v>
+        <v>71500</v>
       </c>
       <c r="C21" t="str">
-        <v>350 F SPORT 2</v>
+        <v>350</v>
       </c>
       <c r="D21" t="str">
-        <v>#LX7475</v>
+        <v>#LX7477</v>
       </c>
       <c r="E21" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1114,16 +1114,16 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>2024LexusTX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B22" t="str">
-        <v>72000</v>
+        <v>62842</v>
       </c>
       <c r="C22" t="str">
-        <v>350 ULTRA LUXURY</v>
+        <v>350 F SPORT 2</v>
       </c>
       <c r="D22" t="str">
-        <v>#LX7471</v>
+        <v>#LX7475</v>
       </c>
       <c r="E22" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1131,16 +1131,16 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>2024LexusRX</v>
+        <v>2024LexusTX</v>
       </c>
       <c r="B23" t="str">
-        <v>75850</v>
+        <v>72000</v>
       </c>
       <c r="C23" t="str">
-        <v>350 F SPORT 3</v>
+        <v>350 ULTRA LUXURY</v>
       </c>
       <c r="D23" t="str">
-        <v>#LX7460</v>
+        <v>#LX7471</v>
       </c>
       <c r="E23" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1148,16 +1148,16 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>2025LexusNX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B24" t="str">
-        <v>54470</v>
+        <v>75850</v>
       </c>
       <c r="C24" t="str">
-        <v>350</v>
+        <v>350 F SPORT 3</v>
       </c>
       <c r="D24" t="str">
-        <v>#LX7442</v>
+        <v>#LX7460</v>
       </c>
       <c r="E24" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1165,16 +1165,16 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>2024LexusRX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B25" t="str">
-        <v>60350</v>
+        <v>54470</v>
       </c>
       <c r="C25" t="str">
-        <v>350 PREMIUM PKG</v>
+        <v>350</v>
       </c>
       <c r="D25" t="str">
-        <v>#LX7437</v>
+        <v>#LX7442</v>
       </c>
       <c r="E25" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1191,7 +1191,7 @@
         <v>350 PREMIUM PKG</v>
       </c>
       <c r="D26" t="str">
-        <v>#LX7432</v>
+        <v>#LX7437</v>
       </c>
       <c r="E26" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1199,16 +1199,16 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>2024LexusTX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B27" t="str">
-        <v>71500</v>
+        <v>60350</v>
       </c>
       <c r="C27" t="str">
-        <v>350 ULTRA LUXURY</v>
+        <v>350 PREMIUM PKG</v>
       </c>
       <c r="D27" t="str">
-        <v>#LX7430</v>
+        <v>#LX7432</v>
       </c>
       <c r="E27" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1216,16 +1216,16 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>2024LexusNX</v>
+        <v>2024LexusTX</v>
       </c>
       <c r="B28" t="str">
-        <v>62400</v>
+        <v>71500</v>
       </c>
       <c r="C28" t="str">
         <v>350 ULTRA LUXURY</v>
       </c>
       <c r="D28" t="str">
-        <v>#LX7422</v>
+        <v>#LX7430</v>
       </c>
       <c r="E28" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1236,13 +1236,13 @@
         <v>2024LexusNX</v>
       </c>
       <c r="B29" t="str">
-        <v>61000</v>
+        <v>62400</v>
       </c>
       <c r="C29" t="str">
-        <v>350 F SPORT 2</v>
+        <v>350 ULTRA LUXURY</v>
       </c>
       <c r="D29" t="str">
-        <v>#LX7420</v>
+        <v>#LX7422</v>
       </c>
       <c r="E29" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1253,13 +1253,13 @@
         <v>2024LexusNX</v>
       </c>
       <c r="B30" t="str">
-        <v>61500</v>
+        <v>61000</v>
       </c>
       <c r="C30" t="str">
         <v>350 F SPORT 2</v>
       </c>
       <c r="D30" t="str">
-        <v>#LX7408</v>
+        <v>#LX7420</v>
       </c>
       <c r="E30" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1267,16 +1267,16 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>2024LexusRX</v>
+        <v>2024LexusNX</v>
       </c>
       <c r="B31" t="str">
-        <v>72850</v>
+        <v>61500</v>
       </c>
       <c r="C31" t="str">
-        <v>350h ULTRA LUXURY</v>
+        <v>350 F SPORT 2</v>
       </c>
       <c r="D31" t="str">
-        <v>#LX7406</v>
+        <v>#LX7408</v>
       </c>
       <c r="E31" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1284,16 +1284,16 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>2024LexusNX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B32" t="str">
-        <v>62400</v>
+        <v>72850</v>
       </c>
       <c r="C32" t="str">
-        <v>350</v>
+        <v>350h ULTRA LUXURY</v>
       </c>
       <c r="D32" t="str">
-        <v>#LX7405</v>
+        <v>#LX7406</v>
       </c>
       <c r="E32" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>

--- a/Projects/scrapping_js/lexus_maritime/Lexus_Inventory.xlsx
+++ b/Projects/scrapping_js/lexus_maritime/Lexus_Inventory.xlsx
@@ -469,16 +469,16 @@
         <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E3" t="str">
-        <v>$59728</v>
+        <v>$64228</v>
       </c>
       <c r="F3" t="str">
-        <v>2T2GGCEZXRC046968</v>
+        <v>2T2GGCEZ6RC040973</v>
       </c>
       <c r="G3" t="str">
-        <v>24041</v>
+        <v>24019</v>
       </c>
       <c r="H3" t="str">
-        <v>Ultra Premium</v>
+        <v>Ultra Luxury</v>
       </c>
     </row>
     <row r="4">
@@ -535,7 +535,7 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>2024 NX 350</v>
+        <v>2025 NX F SPORT</v>
       </c>
       <c r="B6" t="str">
         <v>All Wheel Drive</v>
@@ -547,73 +547,73 @@
         <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E6" t="str">
-        <v>$64228</v>
+        <v>$65170</v>
       </c>
       <c r="F6" t="str">
-        <v>2T2GGCEZ6RC040973</v>
+        <v>2T2KGCEZ7SC065560</v>
       </c>
       <c r="G6" t="str">
-        <v>24019</v>
+        <v>25026</v>
       </c>
       <c r="H6" t="str">
-        <v>Ultra Luxury</v>
+        <v>F SPORT 2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>2025 NX F SPORT</v>
+        <v>2024 ES 350</v>
       </c>
       <c r="B7" t="str">
-        <v>All Wheel Drive</v>
+        <v>Front Wheel Drive</v>
       </c>
       <c r="C7" t="str">
         <v>Automatic</v>
       </c>
       <c r="D7" t="str">
-        <v>2.4L TURBO 4cyl.</v>
+        <v>3.5L 6cyl.</v>
       </c>
       <c r="E7" t="str">
-        <v>$65170</v>
+        <v>$66078</v>
       </c>
       <c r="F7" t="str">
-        <v>2T2KGCEZ7SC065560</v>
+        <v>58AFZ1B18RU173495</v>
       </c>
       <c r="G7" t="str">
-        <v>25026</v>
+        <v>24095</v>
       </c>
       <c r="H7" t="str">
-        <v>F SPORT 2</v>
+        <v>Ultra Luxury</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2024 ES 350</v>
+        <v>2024 RX 350</v>
       </c>
       <c r="B8" t="str">
-        <v>Front Wheel Drive</v>
+        <v>All Wheel Drive</v>
       </c>
       <c r="C8" t="str">
         <v>Automatic</v>
       </c>
       <c r="D8" t="str">
-        <v>3.5L 6cyl.</v>
+        <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E8" t="str">
-        <v>$66078</v>
+        <v>$69678</v>
       </c>
       <c r="F8" t="str">
-        <v>58AFZ1B18RU173495</v>
+        <v>2T2BAMCA9RC075859</v>
       </c>
       <c r="G8" t="str">
-        <v>24095</v>
+        <v>24176</v>
       </c>
       <c r="H8" t="str">
-        <v>Ultra Luxury</v>
+        <v>Luxury</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2024 RX 350</v>
+        <v>2024 TX 350 Luxury</v>
       </c>
       <c r="B9" t="str">
         <v>All Wheel Drive</v>
@@ -625,13 +625,13 @@
         <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E9" t="str">
-        <v>$69678</v>
+        <v>$71078</v>
       </c>
       <c r="F9" t="str">
-        <v>2T2BAMCA9RC075859</v>
+        <v>5TDAAAB67RS011953</v>
       </c>
       <c r="G9" t="str">
-        <v>24176</v>
+        <v>24143</v>
       </c>
       <c r="H9" t="str">
         <v>Luxury</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2024 RX 350</v>
+        <v>2024 TX 350 Luxury</v>
       </c>
       <c r="B10" t="str">
         <v>All Wheel Drive</v>
@@ -651,13 +651,13 @@
         <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E10" t="str">
-        <v>$70178</v>
+        <v>$71078</v>
       </c>
       <c r="F10" t="str">
-        <v>2T2BAMCA8RC055604</v>
+        <v>5TDAAAB66RS007506</v>
       </c>
       <c r="G10" t="str">
-        <v>24084</v>
+        <v>24108</v>
       </c>
       <c r="H10" t="str">
         <v>Luxury</v>
@@ -703,13 +703,13 @@
         <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E12" t="str">
-        <v>$71078</v>
+        <v>$71578</v>
       </c>
       <c r="F12" t="str">
-        <v>5TDAAAB66RS007506</v>
+        <v>5TDAAAB69RS009802</v>
       </c>
       <c r="G12" t="str">
-        <v>24108</v>
+        <v>24132</v>
       </c>
       <c r="H12" t="str">
         <v>Luxury</v>
@@ -717,7 +717,7 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2024 TX 350 Luxury</v>
+        <v>2024 RX HYBRID 350h</v>
       </c>
       <c r="B13" t="str">
         <v>All Wheel Drive</v>
@@ -726,16 +726,16 @@
         <v>Automatic</v>
       </c>
       <c r="D13" t="str">
-        <v>2.4L TURBO 4cyl.</v>
+        <v>2.5L 4cyl.</v>
       </c>
       <c r="E13" t="str">
-        <v>$71078</v>
+        <v>$71678</v>
       </c>
       <c r="F13" t="str">
-        <v>5TDAAAB67RS011953</v>
+        <v>2T2BBMCA8RC052232</v>
       </c>
       <c r="G13" t="str">
-        <v>24143</v>
+        <v>24184</v>
       </c>
       <c r="H13" t="str">
         <v>Luxury</v>
@@ -750,7 +750,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -777,13 +777,13 @@
         <v>2024LexusRX</v>
       </c>
       <c r="B2" t="str">
-        <v>67850</v>
+        <v>75350</v>
       </c>
       <c r="C2" t="str">
-        <v>350 LUXURY PKG</v>
+        <v>350 EXECUTIVE PKG</v>
       </c>
       <c r="D2" t="str">
-        <v>#LX7552</v>
+        <v>#LX7563</v>
       </c>
       <c r="E2" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -791,16 +791,16 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2025LexusNX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B3" t="str">
-        <v>69808</v>
+        <v>70850</v>
       </c>
       <c r="C3" t="str">
-        <v>350h EXECUTIVE</v>
+        <v>350 ULTRA LUXURY</v>
       </c>
       <c r="D3" t="str">
-        <v>#LX7551</v>
+        <v>#LX7558</v>
       </c>
       <c r="E3" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -811,13 +811,13 @@
         <v>2025LexusNX</v>
       </c>
       <c r="B4" t="str">
-        <v>77265</v>
+        <v>69808</v>
       </c>
       <c r="C4" t="str">
-        <v>450h+ F SPORT 3</v>
+        <v>350h EXECUTIVE</v>
       </c>
       <c r="D4" t="str">
-        <v>#LX7546</v>
+        <v>#LX7551</v>
       </c>
       <c r="E4" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -825,50 +825,50 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2024LexusGX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B5" t="str">
-        <v>92500</v>
+        <v>77265</v>
       </c>
       <c r="C5" t="str">
-        <v>550 PREMIUM</v>
+        <v>450h+ F SPORT 3</v>
       </c>
       <c r="D5" t="str">
-        <v>#LX7545</v>
+        <v>#LX7546</v>
       </c>
       <c r="E5" t="str">
-        <v>4x4, Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>2025LexusUX</v>
+        <v>2024LexusGX</v>
       </c>
       <c r="B6" t="str">
-        <v>44255</v>
+        <v>92500</v>
       </c>
       <c r="C6" t="str">
-        <v>300h</v>
+        <v>550 PREMIUM</v>
       </c>
       <c r="D6" t="str">
-        <v>#LX7541</v>
+        <v>#LX7545</v>
       </c>
       <c r="E6" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>4x4, Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>2025LexusNX</v>
+        <v>2025LexusUX</v>
       </c>
       <c r="B7" t="str">
-        <v>60640</v>
+        <v>44255</v>
       </c>
       <c r="C7" t="str">
-        <v>450h+ ULTRA PREMIUM</v>
+        <v>300h</v>
       </c>
       <c r="D7" t="str">
-        <v>#LX7538</v>
+        <v>#LX7541</v>
       </c>
       <c r="E7" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1063,50 +1063,50 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>2025LexusNX</v>
+        <v>2024LexusES</v>
       </c>
       <c r="B19" t="str">
-        <v>56415</v>
+        <v>63250</v>
       </c>
       <c r="C19" t="str">
-        <v>350h PREMIUM</v>
+        <v>350 ULTRA LUXURY</v>
       </c>
       <c r="D19" t="str">
-        <v>#LX7488</v>
+        <v>#LX7481</v>
       </c>
       <c r="E19" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>2024LexusES</v>
+        <v>2024LexusTX</v>
       </c>
       <c r="B20" t="str">
-        <v>63250</v>
+        <v>71500</v>
       </c>
       <c r="C20" t="str">
-        <v>350 ULTRA LUXURY</v>
+        <v>350</v>
       </c>
       <c r="D20" t="str">
-        <v>#LX7481</v>
+        <v>#LX7477</v>
       </c>
       <c r="E20" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>2024LexusTX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B21" t="str">
-        <v>71500</v>
+        <v>62842</v>
       </c>
       <c r="C21" t="str">
-        <v>350</v>
+        <v>350 F SPORT 2</v>
       </c>
       <c r="D21" t="str">
-        <v>#LX7477</v>
+        <v>#LX7475</v>
       </c>
       <c r="E21" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1114,16 +1114,16 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>2025LexusNX</v>
+        <v>2024LexusTX</v>
       </c>
       <c r="B22" t="str">
-        <v>62842</v>
+        <v>72000</v>
       </c>
       <c r="C22" t="str">
-        <v>350 F SPORT 2</v>
+        <v>350 ULTRA LUXURY</v>
       </c>
       <c r="D22" t="str">
-        <v>#LX7475</v>
+        <v>#LX7471</v>
       </c>
       <c r="E22" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1131,16 +1131,16 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>2024LexusTX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B23" t="str">
-        <v>72000</v>
+        <v>75850</v>
       </c>
       <c r="C23" t="str">
-        <v>350 ULTRA LUXURY</v>
+        <v>350 F SPORT 3</v>
       </c>
       <c r="D23" t="str">
-        <v>#LX7471</v>
+        <v>#LX7460</v>
       </c>
       <c r="E23" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1148,16 +1148,16 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>2024LexusRX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B24" t="str">
-        <v>75850</v>
+        <v>54470</v>
       </c>
       <c r="C24" t="str">
-        <v>350 F SPORT 3</v>
+        <v>350</v>
       </c>
       <c r="D24" t="str">
-        <v>#LX7460</v>
+        <v>#LX7442</v>
       </c>
       <c r="E24" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1165,16 +1165,16 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>2025LexusNX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B25" t="str">
-        <v>54470</v>
+        <v>60350</v>
       </c>
       <c r="C25" t="str">
-        <v>350</v>
+        <v>350 PREMIUM PKG</v>
       </c>
       <c r="D25" t="str">
-        <v>#LX7442</v>
+        <v>#LX7437</v>
       </c>
       <c r="E25" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1191,7 +1191,7 @@
         <v>350 PREMIUM PKG</v>
       </c>
       <c r="D26" t="str">
-        <v>#LX7437</v>
+        <v>#LX7432</v>
       </c>
       <c r="E26" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1199,16 +1199,16 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>2024LexusRX</v>
+        <v>2024LexusTX</v>
       </c>
       <c r="B27" t="str">
-        <v>60350</v>
+        <v>71500</v>
       </c>
       <c r="C27" t="str">
-        <v>350 PREMIUM PKG</v>
+        <v>350 ULTRA LUXURY</v>
       </c>
       <c r="D27" t="str">
-        <v>#LX7432</v>
+        <v>#LX7430</v>
       </c>
       <c r="E27" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1216,16 +1216,16 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>2024LexusTX</v>
+        <v>2024LexusNX</v>
       </c>
       <c r="B28" t="str">
-        <v>71500</v>
+        <v>62400</v>
       </c>
       <c r="C28" t="str">
         <v>350 ULTRA LUXURY</v>
       </c>
       <c r="D28" t="str">
-        <v>#LX7430</v>
+        <v>#LX7422</v>
       </c>
       <c r="E28" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1236,13 +1236,13 @@
         <v>2024LexusNX</v>
       </c>
       <c r="B29" t="str">
-        <v>62400</v>
+        <v>61000</v>
       </c>
       <c r="C29" t="str">
-        <v>350 ULTRA LUXURY</v>
+        <v>350 F SPORT 2</v>
       </c>
       <c r="D29" t="str">
-        <v>#LX7422</v>
+        <v>#LX7420</v>
       </c>
       <c r="E29" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1253,13 +1253,13 @@
         <v>2024LexusNX</v>
       </c>
       <c r="B30" t="str">
-        <v>61000</v>
+        <v>61500</v>
       </c>
       <c r="C30" t="str">
         <v>350 F SPORT 2</v>
       </c>
       <c r="D30" t="str">
-        <v>#LX7420</v>
+        <v>#LX7408</v>
       </c>
       <c r="E30" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1267,16 +1267,16 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>2024LexusNX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B31" t="str">
-        <v>61500</v>
+        <v>72850</v>
       </c>
       <c r="C31" t="str">
-        <v>350 F SPORT 2</v>
+        <v>350h ULTRA LUXURY</v>
       </c>
       <c r="D31" t="str">
-        <v>#LX7408</v>
+        <v>#LX7406</v>
       </c>
       <c r="E31" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1287,13 +1287,13 @@
         <v>2024LexusRX</v>
       </c>
       <c r="B32" t="str">
-        <v>72850</v>
+        <v>75850</v>
       </c>
       <c r="C32" t="str">
-        <v>350h ULTRA LUXURY</v>
+        <v>350 F SPORT 3</v>
       </c>
       <c r="D32" t="str">
-        <v>#LX7406</v>
+        <v>#LX7404</v>
       </c>
       <c r="E32" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1304,13 +1304,13 @@
         <v>2024LexusRX</v>
       </c>
       <c r="B33" t="str">
-        <v>75850</v>
+        <v>81100</v>
       </c>
       <c r="C33" t="str">
-        <v>350 F SPORT 3</v>
+        <v>500h F SPORT PERFORMANCE 2</v>
       </c>
       <c r="D33" t="str">
-        <v>#LX7404</v>
+        <v>#LX7306</v>
       </c>
       <c r="E33" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1318,16 +1318,16 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>2024LexusRX</v>
+        <v>2024LexusTX</v>
       </c>
       <c r="B34" t="str">
-        <v>81100</v>
+        <v>71500</v>
       </c>
       <c r="C34" t="str">
-        <v>500h F SPORT PERFORMANCE 2</v>
+        <v>350 ULTRA LUXURY</v>
       </c>
       <c r="D34" t="str">
-        <v>#LX7306</v>
+        <v>#LX7305</v>
       </c>
       <c r="E34" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1338,13 +1338,13 @@
         <v>2024LexusTX</v>
       </c>
       <c r="B35" t="str">
-        <v>71500</v>
+        <v>84200</v>
       </c>
       <c r="C35" t="str">
-        <v>350 ULTRA LUXURY</v>
+        <v>500h F SPORT PERFORMANCE 2</v>
       </c>
       <c r="D35" t="str">
-        <v>#LX7305</v>
+        <v>#LX7304</v>
       </c>
       <c r="E35" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1355,13 +1355,13 @@
         <v>2024LexusTX</v>
       </c>
       <c r="B36" t="str">
-        <v>84200</v>
+        <v>71500</v>
       </c>
       <c r="C36" t="str">
-        <v>500h F SPORT PERFORMANCE 2</v>
+        <v>350 ULTRA LUXURY</v>
       </c>
       <c r="D36" t="str">
-        <v>#LX7304</v>
+        <v>#LX7294</v>
       </c>
       <c r="E36" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1369,41 +1369,24 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>2024LexusTX</v>
+        <v>2024LexusNX</v>
       </c>
       <c r="B37" t="str">
-        <v>71500</v>
+        <v>67050</v>
       </c>
       <c r="C37" t="str">
-        <v>350 ULTRA LUXURY</v>
+        <v>350</v>
       </c>
       <c r="D37" t="str">
-        <v>#LX7294</v>
+        <v>#LX7272</v>
       </c>
       <c r="E37" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="str">
-        <v>2024LexusNX</v>
-      </c>
-      <c r="B38" t="str">
-        <v>67050</v>
-      </c>
-      <c r="C38" t="str">
-        <v>350</v>
-      </c>
-      <c r="D38" t="str">
-        <v>#LX7272</v>
-      </c>
-      <c r="E38" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E38"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E37"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Projects/scrapping_js/lexus_maritime/Lexus_Inventory.xlsx
+++ b/Projects/scrapping_js/lexus_maritime/Lexus_Inventory.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2024 NX 350</v>
+        <v>2024 RX 350</v>
       </c>
       <c r="B3" t="str">
         <v>All Wheel Drive</v>
@@ -469,16 +469,16 @@
         <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E3" t="str">
-        <v>$64228</v>
+        <v>$62178</v>
       </c>
       <c r="F3" t="str">
-        <v>2T2GGCEZ6RC040973</v>
+        <v>2T2BAMCA9RC080110</v>
       </c>
       <c r="G3" t="str">
-        <v>24019</v>
+        <v>24186</v>
       </c>
       <c r="H3" t="str">
-        <v>Ultra Luxury</v>
+        <v>Premium</v>
       </c>
     </row>
     <row r="4">
@@ -535,51 +535,51 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>2025 NX F SPORT</v>
+        <v>2024 ES 350</v>
       </c>
       <c r="B6" t="str">
-        <v>All Wheel Drive</v>
+        <v>Front Wheel Drive</v>
       </c>
       <c r="C6" t="str">
         <v>Automatic</v>
       </c>
       <c r="D6" t="str">
-        <v>2.4L TURBO 4cyl.</v>
+        <v>3.5L 6cyl.</v>
       </c>
       <c r="E6" t="str">
-        <v>$65170</v>
+        <v>$66078</v>
       </c>
       <c r="F6" t="str">
-        <v>2T2KGCEZ7SC065560</v>
+        <v>58AFZ1B18RU173495</v>
       </c>
       <c r="G6" t="str">
-        <v>25026</v>
+        <v>24095</v>
       </c>
       <c r="H6" t="str">
-        <v>F SPORT 2</v>
+        <v>Ultra Luxury</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>2024 ES 350</v>
+        <v>2025 NX 350</v>
       </c>
       <c r="B7" t="str">
-        <v>Front Wheel Drive</v>
+        <v>All Wheel Drive</v>
       </c>
       <c r="C7" t="str">
         <v>Automatic</v>
       </c>
       <c r="D7" t="str">
-        <v>3.5L 6cyl.</v>
+        <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E7" t="str">
-        <v>$66078</v>
+        <v>$66095</v>
       </c>
       <c r="F7" t="str">
-        <v>58AFZ1B18RU173495</v>
+        <v>2T2GGCEZ6SC067497</v>
       </c>
       <c r="G7" t="str">
-        <v>24095</v>
+        <v>25034</v>
       </c>
       <c r="H7" t="str">
         <v>Ultra Luxury</v>
@@ -587,33 +587,33 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2024 RX 350</v>
+        <v>2025 ES HYBRID Ultra Luxury</v>
       </c>
       <c r="B8" t="str">
-        <v>All Wheel Drive</v>
+        <v>Front Wheel Drive</v>
       </c>
       <c r="C8" t="str">
         <v>Automatic</v>
       </c>
       <c r="D8" t="str">
-        <v>2.4L TURBO 4cyl.</v>
+        <v>2.5L 4cyl.</v>
       </c>
       <c r="E8" t="str">
-        <v>$69678</v>
+        <v>$68547</v>
       </c>
       <c r="F8" t="str">
-        <v>2T2BAMCA9RC075859</v>
+        <v>58AB21B1XSU015099</v>
       </c>
       <c r="G8" t="str">
-        <v>24176</v>
+        <v>25035</v>
       </c>
       <c r="H8" t="str">
-        <v>Luxury</v>
+        <v>Ultra Luxury</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2024 TX 350 Luxury</v>
+        <v>2024 RX 350</v>
       </c>
       <c r="B9" t="str">
         <v>All Wheel Drive</v>
@@ -625,13 +625,13 @@
         <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E9" t="str">
-        <v>$71078</v>
+        <v>$69678</v>
       </c>
       <c r="F9" t="str">
-        <v>5TDAAAB67RS011953</v>
+        <v>2T2BAMCA9RC075859</v>
       </c>
       <c r="G9" t="str">
-        <v>24143</v>
+        <v>24176</v>
       </c>
       <c r="H9" t="str">
         <v>Luxury</v>
@@ -654,10 +654,10 @@
         <v>$71078</v>
       </c>
       <c r="F10" t="str">
-        <v>5TDAAAB66RS007506</v>
+        <v>5TDAAAB6XRS010005</v>
       </c>
       <c r="G10" t="str">
-        <v>24108</v>
+        <v>24131</v>
       </c>
       <c r="H10" t="str">
         <v>Luxury</v>
@@ -680,10 +680,10 @@
         <v>$71078</v>
       </c>
       <c r="F11" t="str">
-        <v>5TDAAAB6XRS010005</v>
+        <v>5TDAAAB67RS011953</v>
       </c>
       <c r="G11" t="str">
-        <v>24131</v>
+        <v>24143</v>
       </c>
       <c r="H11" t="str">
         <v>Luxury</v>
@@ -703,13 +703,13 @@
         <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E12" t="str">
-        <v>$71578</v>
+        <v>$71078</v>
       </c>
       <c r="F12" t="str">
-        <v>5TDAAAB69RS009802</v>
+        <v>5TDAAAB66RS007506</v>
       </c>
       <c r="G12" t="str">
-        <v>24132</v>
+        <v>24108</v>
       </c>
       <c r="H12" t="str">
         <v>Luxury</v>
@@ -717,7 +717,7 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2024 RX HYBRID 350h</v>
+        <v>2024 TX 350 Luxury</v>
       </c>
       <c r="B13" t="str">
         <v>All Wheel Drive</v>
@@ -726,16 +726,16 @@
         <v>Automatic</v>
       </c>
       <c r="D13" t="str">
-        <v>2.5L 4cyl.</v>
+        <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E13" t="str">
-        <v>$71678</v>
+        <v>$71578</v>
       </c>
       <c r="F13" t="str">
-        <v>2T2BBMCA8RC052232</v>
+        <v>5TDAAAB69RS009802</v>
       </c>
       <c r="G13" t="str">
-        <v>24184</v>
+        <v>24132</v>
       </c>
       <c r="H13" t="str">
         <v>Luxury</v>
@@ -774,33 +774,33 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2024LexusRX</v>
+        <v>2025LexusES</v>
       </c>
       <c r="B2" t="str">
-        <v>75350</v>
+        <v>54014</v>
       </c>
       <c r="C2" t="str">
-        <v>350 EXECUTIVE PKG</v>
+        <v>350 PREMIUM</v>
       </c>
       <c r="D2" t="str">
-        <v>#LX7563</v>
+        <v>#LX7573</v>
       </c>
       <c r="E2" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2024LexusRX</v>
+        <v>2024LexusIS</v>
       </c>
       <c r="B3" t="str">
-        <v>70850</v>
+        <v>54900</v>
       </c>
       <c r="C3" t="str">
-        <v>350 ULTRA LUXURY</v>
+        <v>300 F SPORT 2</v>
       </c>
       <c r="D3" t="str">
-        <v>#LX7558</v>
+        <v>#LX7570</v>
       </c>
       <c r="E3" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -808,16 +808,16 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2025LexusNX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B4" t="str">
-        <v>69808</v>
+        <v>75350</v>
       </c>
       <c r="C4" t="str">
-        <v>350h EXECUTIVE</v>
+        <v>350 EXECUTIVE PKG</v>
       </c>
       <c r="D4" t="str">
-        <v>#LX7551</v>
+        <v>#LX7563</v>
       </c>
       <c r="E4" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -825,16 +825,16 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2025LexusNX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B5" t="str">
-        <v>77265</v>
+        <v>70850</v>
       </c>
       <c r="C5" t="str">
-        <v>450h+ F SPORT 3</v>
+        <v>350 ULTRA LUXURY</v>
       </c>
       <c r="D5" t="str">
-        <v>#LX7546</v>
+        <v>#LX7558</v>
       </c>
       <c r="E5" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -842,50 +842,50 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>2024LexusGX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B6" t="str">
-        <v>92500</v>
+        <v>77265</v>
       </c>
       <c r="C6" t="str">
-        <v>550 PREMIUM</v>
+        <v>450h+ F SPORT 3</v>
       </c>
       <c r="D6" t="str">
-        <v>#LX7545</v>
+        <v>#LX7546</v>
       </c>
       <c r="E6" t="str">
-        <v>4x4, Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>2025LexusUX</v>
+        <v>2024LexusGX</v>
       </c>
       <c r="B7" t="str">
-        <v>44255</v>
+        <v>92500</v>
       </c>
       <c r="C7" t="str">
-        <v>300h</v>
+        <v>550 PREMIUM</v>
       </c>
       <c r="D7" t="str">
-        <v>#LX7541</v>
+        <v>#LX7545</v>
       </c>
       <c r="E7" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>4x4, Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2024LexusRX</v>
+        <v>2025LexusUX</v>
       </c>
       <c r="B8" t="str">
-        <v>75850</v>
+        <v>44255</v>
       </c>
       <c r="C8" t="str">
-        <v>350 EXECUTIVE PKG</v>
+        <v>300h</v>
       </c>
       <c r="D8" t="str">
-        <v>#LX7529</v>
+        <v>#LX7541</v>
       </c>
       <c r="E8" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -896,13 +896,13 @@
         <v>2024LexusRX</v>
       </c>
       <c r="B9" t="str">
-        <v>71500</v>
+        <v>75850</v>
       </c>
       <c r="C9" t="str">
-        <v>350 ULTRA LUXURY</v>
+        <v>350 EXECUTIVE PKG</v>
       </c>
       <c r="D9" t="str">
-        <v>#LX7531</v>
+        <v>#LX7529</v>
       </c>
       <c r="E9" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -913,13 +913,13 @@
         <v>2024LexusRX</v>
       </c>
       <c r="B10" t="str">
-        <v>75350</v>
+        <v>71500</v>
       </c>
       <c r="C10" t="str">
-        <v>350 F SPORT 3</v>
+        <v>350 ULTRA LUXURY</v>
       </c>
       <c r="D10" t="str">
-        <v>#LX7530</v>
+        <v>#LX7531</v>
       </c>
       <c r="E10" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -927,16 +927,16 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2024LexusIS</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B11" t="str">
-        <v>47750</v>
+        <v>75350</v>
       </c>
       <c r="C11" t="str">
-        <v>300 PREMIUM PKG</v>
+        <v>350 F SPORT 3</v>
       </c>
       <c r="D11" t="str">
-        <v>#LX7526</v>
+        <v>#LX7530</v>
       </c>
       <c r="E11" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -944,16 +944,16 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2025LexusNX</v>
+        <v>2024LexusIS</v>
       </c>
       <c r="B12" t="str">
-        <v>59799</v>
+        <v>47750</v>
       </c>
       <c r="C12" t="str">
-        <v>350 LUXURY</v>
+        <v>300 PREMIUM PKG</v>
       </c>
       <c r="D12" t="str">
-        <v>#LX7524</v>
+        <v>#LX7526</v>
       </c>
       <c r="E12" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -964,13 +964,13 @@
         <v>2025LexusNX</v>
       </c>
       <c r="B13" t="str">
-        <v>62842</v>
+        <v>59799</v>
       </c>
       <c r="C13" t="str">
-        <v>350 F SPORT 2</v>
+        <v>350 LUXURY</v>
       </c>
       <c r="D13" t="str">
-        <v>#LX7522</v>
+        <v>#LX7524</v>
       </c>
       <c r="E13" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -981,13 +981,13 @@
         <v>2025LexusNX</v>
       </c>
       <c r="B14" t="str">
-        <v>54470</v>
+        <v>62842</v>
       </c>
       <c r="C14" t="str">
-        <v>350 PREMIUM</v>
+        <v>350 F SPORT 2</v>
       </c>
       <c r="D14" t="str">
-        <v>#LX7514</v>
+        <v>#LX7522</v>
       </c>
       <c r="E14" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -995,16 +995,16 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2024LexusIS</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B15" t="str">
-        <v>56350</v>
+        <v>54470</v>
       </c>
       <c r="C15" t="str">
-        <v>300 ULTRA LUXURY</v>
+        <v>350 PREMIUM</v>
       </c>
       <c r="D15" t="str">
-        <v>#LX7497</v>
+        <v>#LX7514</v>
       </c>
       <c r="E15" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1012,16 +1012,16 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>2024LexusTX</v>
+        <v>2024LexusIS</v>
       </c>
       <c r="B16" t="str">
-        <v>68750</v>
+        <v>56350</v>
       </c>
       <c r="C16" t="str">
-        <v>350 Luxury PKG</v>
+        <v>300 ULTRA LUXURY</v>
       </c>
       <c r="D16" t="str">
-        <v>#LX7495</v>
+        <v>#LX7497</v>
       </c>
       <c r="E16" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1038,7 +1038,7 @@
         <v>350 Luxury PKG</v>
       </c>
       <c r="D17" t="str">
-        <v>#LX7489</v>
+        <v>#LX7495</v>
       </c>
       <c r="E17" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1049,13 +1049,13 @@
         <v>2024LexusTX</v>
       </c>
       <c r="B18" t="str">
-        <v>84200</v>
+        <v>68750</v>
       </c>
       <c r="C18" t="str">
-        <v>500h F SPORT PERFORMANCE 2</v>
+        <v>350 Luxury PKG</v>
       </c>
       <c r="D18" t="str">
-        <v>#LX7484</v>
+        <v>#LX7489</v>
       </c>
       <c r="E18" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1063,50 +1063,50 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>2024LexusES</v>
+        <v>2024LexusTX</v>
       </c>
       <c r="B19" t="str">
-        <v>63250</v>
+        <v>84200</v>
       </c>
       <c r="C19" t="str">
-        <v>350 ULTRA LUXURY</v>
+        <v>500h F SPORT PERFORMANCE 2</v>
       </c>
       <c r="D19" t="str">
-        <v>#LX7481</v>
+        <v>#LX7484</v>
       </c>
       <c r="E19" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>2024LexusTX</v>
+        <v>2024LexusES</v>
       </c>
       <c r="B20" t="str">
-        <v>71500</v>
+        <v>63250</v>
       </c>
       <c r="C20" t="str">
-        <v>350</v>
+        <v>350 ULTRA LUXURY</v>
       </c>
       <c r="D20" t="str">
-        <v>#LX7477</v>
+        <v>#LX7481</v>
       </c>
       <c r="E20" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>2025LexusNX</v>
+        <v>2024LexusTX</v>
       </c>
       <c r="B21" t="str">
-        <v>62842</v>
+        <v>71500</v>
       </c>
       <c r="C21" t="str">
-        <v>350 F SPORT 2</v>
+        <v>350</v>
       </c>
       <c r="D21" t="str">
-        <v>#LX7475</v>
+        <v>#LX7477</v>
       </c>
       <c r="E21" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1114,16 +1114,16 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>2024LexusTX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B22" t="str">
-        <v>72000</v>
+        <v>62842</v>
       </c>
       <c r="C22" t="str">
-        <v>350 ULTRA LUXURY</v>
+        <v>350 F SPORT 2</v>
       </c>
       <c r="D22" t="str">
-        <v>#LX7471</v>
+        <v>#LX7475</v>
       </c>
       <c r="E22" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1131,16 +1131,16 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>2024LexusRX</v>
+        <v>2024LexusTX</v>
       </c>
       <c r="B23" t="str">
-        <v>75850</v>
+        <v>72000</v>
       </c>
       <c r="C23" t="str">
-        <v>350 F SPORT 3</v>
+        <v>350 ULTRA LUXURY</v>
       </c>
       <c r="D23" t="str">
-        <v>#LX7460</v>
+        <v>#LX7471</v>
       </c>
       <c r="E23" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1148,16 +1148,16 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>2025LexusNX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B24" t="str">
-        <v>54470</v>
+        <v>75850</v>
       </c>
       <c r="C24" t="str">
-        <v>350</v>
+        <v>350 F SPORT 3</v>
       </c>
       <c r="D24" t="str">
-        <v>#LX7442</v>
+        <v>#LX7460</v>
       </c>
       <c r="E24" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1165,16 +1165,16 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>2024LexusRX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B25" t="str">
-        <v>60350</v>
+        <v>54470</v>
       </c>
       <c r="C25" t="str">
-        <v>350 PREMIUM PKG</v>
+        <v>350</v>
       </c>
       <c r="D25" t="str">
-        <v>#LX7437</v>
+        <v>#LX7442</v>
       </c>
       <c r="E25" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1191,7 +1191,7 @@
         <v>350 PREMIUM PKG</v>
       </c>
       <c r="D26" t="str">
-        <v>#LX7432</v>
+        <v>#LX7437</v>
       </c>
       <c r="E26" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1199,16 +1199,16 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>2024LexusTX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B27" t="str">
-        <v>71500</v>
+        <v>60350</v>
       </c>
       <c r="C27" t="str">
-        <v>350 ULTRA LUXURY</v>
+        <v>350 PREMIUM PKG</v>
       </c>
       <c r="D27" t="str">
-        <v>#LX7430</v>
+        <v>#LX7432</v>
       </c>
       <c r="E27" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1216,16 +1216,16 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>2024LexusNX</v>
+        <v>2024LexusTX</v>
       </c>
       <c r="B28" t="str">
-        <v>62400</v>
+        <v>71500</v>
       </c>
       <c r="C28" t="str">
         <v>350 ULTRA LUXURY</v>
       </c>
       <c r="D28" t="str">
-        <v>#LX7422</v>
+        <v>#LX7430</v>
       </c>
       <c r="E28" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1236,13 +1236,13 @@
         <v>2024LexusNX</v>
       </c>
       <c r="B29" t="str">
-        <v>61000</v>
+        <v>62400</v>
       </c>
       <c r="C29" t="str">
-        <v>350 F SPORT 2</v>
+        <v>350 ULTRA LUXURY</v>
       </c>
       <c r="D29" t="str">
-        <v>#LX7420</v>
+        <v>#LX7422</v>
       </c>
       <c r="E29" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>

--- a/Projects/scrapping_js/lexus_maritime/Lexus_Inventory.xlsx
+++ b/Projects/scrapping_js/lexus_maritime/Lexus_Inventory.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2024 RX 350</v>
+        <v>2025 NX 350</v>
       </c>
       <c r="B3" t="str">
         <v>All Wheel Drive</v>
@@ -469,21 +469,21 @@
         <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E3" t="str">
-        <v>$62178</v>
+        <v>$62127</v>
       </c>
       <c r="F3" t="str">
-        <v>2T2BAMCA9RC080110</v>
+        <v>2T2GGCEZ0SC068662</v>
       </c>
       <c r="G3" t="str">
-        <v>24186</v>
+        <v>25037</v>
       </c>
       <c r="H3" t="str">
-        <v>Premium</v>
+        <v>Luxury</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2025 NX F SPORT</v>
+        <v>2024 RX 350</v>
       </c>
       <c r="B4" t="str">
         <v>All Wheel Drive</v>
@@ -495,21 +495,21 @@
         <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E4" t="str">
-        <v>$62268</v>
+        <v>$62178</v>
       </c>
       <c r="F4" t="str">
-        <v>2T2KGCEZ0SC063844</v>
+        <v>2T2BAMCA9RC080110</v>
       </c>
       <c r="G4" t="str">
-        <v>25017</v>
+        <v>24186</v>
       </c>
       <c r="H4" t="str">
-        <v>F SPORT 1</v>
+        <v>Premium</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2024 RX 350</v>
+        <v>2025 NX F SPORT</v>
       </c>
       <c r="B5" t="str">
         <v>All Wheel Drive</v>
@@ -521,65 +521,65 @@
         <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E5" t="str">
-        <v>$62678</v>
+        <v>$62268</v>
       </c>
       <c r="F5" t="str">
-        <v>2T2BAMCA6RC074233</v>
+        <v>2T2KGCEZ0SC063844</v>
       </c>
       <c r="G5" t="str">
-        <v>24168</v>
+        <v>25017</v>
       </c>
       <c r="H5" t="str">
-        <v>Premium</v>
+        <v>F SPORT 1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>2024 ES 350</v>
+        <v>2024 RX 350</v>
       </c>
       <c r="B6" t="str">
-        <v>Front Wheel Drive</v>
+        <v>All Wheel Drive</v>
       </c>
       <c r="C6" t="str">
         <v>Automatic</v>
       </c>
       <c r="D6" t="str">
-        <v>3.5L 6cyl.</v>
+        <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E6" t="str">
-        <v>$66078</v>
+        <v>$62678</v>
       </c>
       <c r="F6" t="str">
-        <v>58AFZ1B18RU173495</v>
+        <v>2T2BAMCA3RC081463</v>
       </c>
       <c r="G6" t="str">
-        <v>24095</v>
+        <v>24188</v>
       </c>
       <c r="H6" t="str">
-        <v>Ultra Luxury</v>
+        <v>Premium</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>2025 NX 350</v>
+        <v>2024 ES 350</v>
       </c>
       <c r="B7" t="str">
-        <v>All Wheel Drive</v>
+        <v>Front Wheel Drive</v>
       </c>
       <c r="C7" t="str">
         <v>Automatic</v>
       </c>
       <c r="D7" t="str">
-        <v>2.4L TURBO 4cyl.</v>
+        <v>3.5L 6cyl.</v>
       </c>
       <c r="E7" t="str">
-        <v>$66095</v>
+        <v>$66078</v>
       </c>
       <c r="F7" t="str">
-        <v>2T2GGCEZ6SC067497</v>
+        <v>58AFZ1B18RU173495</v>
       </c>
       <c r="G7" t="str">
-        <v>25034</v>
+        <v>24095</v>
       </c>
       <c r="H7" t="str">
         <v>Ultra Luxury</v>
@@ -587,7 +587,7 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2025 ES HYBRID Ultra Luxury</v>
+        <v>2025 ES HYBRID Luxury</v>
       </c>
       <c r="B8" t="str">
         <v>Front Wheel Drive</v>
@@ -599,16 +599,16 @@
         <v>2.5L 4cyl.</v>
       </c>
       <c r="E8" t="str">
-        <v>$68547</v>
+        <v>$65042</v>
       </c>
       <c r="F8" t="str">
-        <v>58AB21B1XSU015099</v>
+        <v>58AB21B13SU015090</v>
       </c>
       <c r="G8" t="str">
-        <v>25035</v>
+        <v>25036</v>
       </c>
       <c r="H8" t="str">
-        <v>Ultra Luxury</v>
+        <v>Luxury</v>
       </c>
     </row>
     <row r="9">
@@ -654,10 +654,10 @@
         <v>$71078</v>
       </c>
       <c r="F10" t="str">
-        <v>5TDAAAB6XRS010005</v>
+        <v>5TDAAAB67RS011953</v>
       </c>
       <c r="G10" t="str">
-        <v>24131</v>
+        <v>24143</v>
       </c>
       <c r="H10" t="str">
         <v>Luxury</v>
@@ -680,10 +680,10 @@
         <v>$71078</v>
       </c>
       <c r="F11" t="str">
-        <v>5TDAAAB67RS011953</v>
+        <v>5TDAAAB6XRS010005</v>
       </c>
       <c r="G11" t="str">
-        <v>24143</v>
+        <v>24131</v>
       </c>
       <c r="H11" t="str">
         <v>Luxury</v>
@@ -750,7 +750,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -774,50 +774,50 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2025LexusES</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B2" t="str">
-        <v>54014</v>
+        <v>71350</v>
       </c>
       <c r="C2" t="str">
-        <v>350 PREMIUM</v>
+        <v>350 LUXURY</v>
       </c>
       <c r="D2" t="str">
-        <v>#LX7573</v>
+        <v>#LX7584</v>
       </c>
       <c r="E2" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2024LexusIS</v>
+        <v>2025LexusES</v>
       </c>
       <c r="B3" t="str">
-        <v>54900</v>
+        <v>54014</v>
       </c>
       <c r="C3" t="str">
-        <v>300 F SPORT 2</v>
+        <v>350 PREMIUM</v>
       </c>
       <c r="D3" t="str">
-        <v>#LX7570</v>
+        <v>#LX7573</v>
       </c>
       <c r="E3" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2024LexusRX</v>
+        <v>2024LexusIS</v>
       </c>
       <c r="B4" t="str">
-        <v>75350</v>
+        <v>54900</v>
       </c>
       <c r="C4" t="str">
-        <v>350 EXECUTIVE PKG</v>
+        <v>300 F SPORT 2</v>
       </c>
       <c r="D4" t="str">
-        <v>#LX7563</v>
+        <v>#LX7570</v>
       </c>
       <c r="E4" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1384,9 +1384,43 @@
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>2024LexusRX</v>
+      </c>
+      <c r="B38" t="str">
+        <v>67850</v>
+      </c>
+      <c r="C38" t="str">
+        <v>350 LUXURY PKG</v>
+      </c>
+      <c r="D38" t="str">
+        <v>#LX7583</v>
+      </c>
+      <c r="E38" t="str">
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>2024LexusRX</v>
+      </c>
+      <c r="B39" t="str">
+        <v>69850</v>
+      </c>
+      <c r="C39" t="str">
+        <v>350h LUXURY PKG</v>
+      </c>
+      <c r="D39" t="str">
+        <v>#LX7581</v>
+      </c>
+      <c r="E39" t="str">
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E37"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E39"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Projects/scrapping_js/lexus_maritime/Lexus_Inventory.xlsx
+++ b/Projects/scrapping_js/lexus_maritime/Lexus_Inventory.xlsx
@@ -431,7 +431,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2025 NX 350</v>
+        <v>2025 UX HYBRID 300h</v>
       </c>
       <c r="B2" t="str">
         <v>All Wheel Drive</v>
@@ -440,24 +440,24 @@
         <v>Automatic</v>
       </c>
       <c r="D2" t="str">
-        <v>2.4L TURBO 4cyl.</v>
+        <v>2L 4cyl.</v>
       </c>
       <c r="E2" t="str">
-        <v>$56798</v>
+        <v>$52047</v>
       </c>
       <c r="F2" t="str">
-        <v>2T2GGCEZ4SC065750</v>
+        <v>JTHUCJDHXS2003590</v>
       </c>
       <c r="G2" t="str">
-        <v>25027</v>
+        <v>25038</v>
       </c>
       <c r="H2" t="str">
-        <v>Premium</v>
+        <v>Luxury</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2025 NX 350</v>
+        <v>2025 NX 250 SIGNATURE</v>
       </c>
       <c r="B3" t="str">
         <v>All Wheel Drive</v>
@@ -466,24 +466,24 @@
         <v>Automatic</v>
       </c>
       <c r="D3" t="str">
-        <v>2.4L TURBO 4cyl.</v>
+        <v>2.5L 4cyl.</v>
       </c>
       <c r="E3" t="str">
-        <v>$62127</v>
+        <v>$53143</v>
       </c>
       <c r="F3" t="str">
-        <v>2T2GGCEZ0SC068662</v>
+        <v>2T2ADCEZXSC006460</v>
       </c>
       <c r="G3" t="str">
-        <v>25037</v>
+        <v>25039</v>
       </c>
       <c r="H3" t="str">
-        <v>Luxury</v>
+        <v>Signature</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2024 RX 350</v>
+        <v>2025 NX 350</v>
       </c>
       <c r="B4" t="str">
         <v>All Wheel Drive</v>
@@ -495,13 +495,13 @@
         <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E4" t="str">
-        <v>$62178</v>
+        <v>$56798</v>
       </c>
       <c r="F4" t="str">
-        <v>2T2BAMCA9RC080110</v>
+        <v>2T2GGCEZ4SC065750</v>
       </c>
       <c r="G4" t="str">
-        <v>24186</v>
+        <v>25027</v>
       </c>
       <c r="H4" t="str">
         <v>Premium</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2025 NX F SPORT</v>
+        <v>2024 RX 350</v>
       </c>
       <c r="B5" t="str">
         <v>All Wheel Drive</v>
@@ -521,21 +521,21 @@
         <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E5" t="str">
-        <v>$62268</v>
+        <v>$62178</v>
       </c>
       <c r="F5" t="str">
-        <v>2T2KGCEZ0SC063844</v>
+        <v>2T2BAMCA9RC080110</v>
       </c>
       <c r="G5" t="str">
-        <v>25017</v>
+        <v>24186</v>
       </c>
       <c r="H5" t="str">
-        <v>F SPORT 1</v>
+        <v>Premium</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>2024 RX 350</v>
+        <v>2025 NX F SPORT</v>
       </c>
       <c r="B6" t="str">
         <v>All Wheel Drive</v>
@@ -547,47 +547,47 @@
         <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E6" t="str">
-        <v>$62678</v>
+        <v>$62268</v>
       </c>
       <c r="F6" t="str">
-        <v>2T2BAMCA3RC081463</v>
+        <v>2T2KGCEZ0SC063844</v>
       </c>
       <c r="G6" t="str">
-        <v>24188</v>
+        <v>25017</v>
       </c>
       <c r="H6" t="str">
-        <v>Premium</v>
+        <v>F SPORT 1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>2024 ES 350</v>
+        <v>2024 RX 350</v>
       </c>
       <c r="B7" t="str">
-        <v>Front Wheel Drive</v>
+        <v>All Wheel Drive</v>
       </c>
       <c r="C7" t="str">
         <v>Automatic</v>
       </c>
       <c r="D7" t="str">
-        <v>3.5L 6cyl.</v>
+        <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E7" t="str">
-        <v>$66078</v>
+        <v>$62678</v>
       </c>
       <c r="F7" t="str">
-        <v>58AFZ1B18RU173495</v>
+        <v>2T2BAMCA3RC081463</v>
       </c>
       <c r="G7" t="str">
-        <v>24095</v>
+        <v>24188</v>
       </c>
       <c r="H7" t="str">
-        <v>Ultra Luxury</v>
+        <v>Premium</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2025 ES HYBRID Luxury</v>
+        <v>2024 ES 350</v>
       </c>
       <c r="B8" t="str">
         <v>Front Wheel Drive</v>
@@ -596,42 +596,42 @@
         <v>Automatic</v>
       </c>
       <c r="D8" t="str">
-        <v>2.5L 4cyl.</v>
+        <v>3.5L 6cyl.</v>
       </c>
       <c r="E8" t="str">
-        <v>$65042</v>
+        <v>$66078</v>
       </c>
       <c r="F8" t="str">
-        <v>58AB21B13SU015090</v>
+        <v>58AFZ1B18RU173495</v>
       </c>
       <c r="G8" t="str">
-        <v>25036</v>
+        <v>24095</v>
       </c>
       <c r="H8" t="str">
-        <v>Luxury</v>
+        <v>Ultra Luxury</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2024 RX 350</v>
+        <v>2025 ES HYBRID Luxury</v>
       </c>
       <c r="B9" t="str">
-        <v>All Wheel Drive</v>
+        <v>Front Wheel Drive</v>
       </c>
       <c r="C9" t="str">
         <v>Automatic</v>
       </c>
       <c r="D9" t="str">
-        <v>2.4L TURBO 4cyl.</v>
+        <v>2.5L 4cyl.</v>
       </c>
       <c r="E9" t="str">
-        <v>$69678</v>
+        <v>$65042</v>
       </c>
       <c r="F9" t="str">
-        <v>2T2BAMCA9RC075859</v>
+        <v>58AB21B13SU015090</v>
       </c>
       <c r="G9" t="str">
-        <v>24176</v>
+        <v>25036</v>
       </c>
       <c r="H9" t="str">
         <v>Luxury</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2024 TX 350 Luxury</v>
+        <v>2024 RX 350</v>
       </c>
       <c r="B10" t="str">
         <v>All Wheel Drive</v>
@@ -651,13 +651,13 @@
         <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E10" t="str">
-        <v>$71078</v>
+        <v>$69678</v>
       </c>
       <c r="F10" t="str">
-        <v>5TDAAAB67RS011953</v>
+        <v>2T2BAMCA9RC075859</v>
       </c>
       <c r="G10" t="str">
-        <v>24143</v>
+        <v>24176</v>
       </c>
       <c r="H10" t="str">
         <v>Luxury</v>
@@ -680,10 +680,10 @@
         <v>$71078</v>
       </c>
       <c r="F11" t="str">
-        <v>5TDAAAB6XRS010005</v>
+        <v>5TDAAAB67RS011953</v>
       </c>
       <c r="G11" t="str">
-        <v>24131</v>
+        <v>24143</v>
       </c>
       <c r="H11" t="str">
         <v>Luxury</v>
@@ -729,13 +729,13 @@
         <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E13" t="str">
-        <v>$71578</v>
+        <v>$71078</v>
       </c>
       <c r="F13" t="str">
-        <v>5TDAAAB69RS009802</v>
+        <v>5TDAAAB6XRS010005</v>
       </c>
       <c r="G13" t="str">
-        <v>24132</v>
+        <v>24131</v>
       </c>
       <c r="H13" t="str">
         <v>Luxury</v>
@@ -777,13 +777,13 @@
         <v>2024LexusRX</v>
       </c>
       <c r="B2" t="str">
-        <v>71350</v>
+        <v>77350</v>
       </c>
       <c r="C2" t="str">
-        <v>350 LUXURY</v>
+        <v>350h EXECUTIVE PKG</v>
       </c>
       <c r="D2" t="str">
-        <v>#LX7584</v>
+        <v>#LX7592</v>
       </c>
       <c r="E2" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -791,33 +791,33 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2025LexusES</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B3" t="str">
-        <v>54014</v>
+        <v>68383</v>
       </c>
       <c r="C3" t="str">
         <v>350 PREMIUM</v>
       </c>
       <c r="D3" t="str">
-        <v>#LX7573</v>
+        <v>#LX7585</v>
       </c>
       <c r="E3" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2024LexusIS</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B4" t="str">
-        <v>54900</v>
+        <v>67850</v>
       </c>
       <c r="C4" t="str">
-        <v>300 F SPORT 2</v>
+        <v>350 LUXURY PKG</v>
       </c>
       <c r="D4" t="str">
-        <v>#LX7570</v>
+        <v>#LX7583</v>
       </c>
       <c r="E4" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -828,13 +828,13 @@
         <v>2024LexusRX</v>
       </c>
       <c r="B5" t="str">
-        <v>70850</v>
+        <v>71350</v>
       </c>
       <c r="C5" t="str">
-        <v>350 ULTRA LUXURY</v>
+        <v>350 LUXURY</v>
       </c>
       <c r="D5" t="str">
-        <v>#LX7558</v>
+        <v>#LX7584</v>
       </c>
       <c r="E5" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -842,50 +842,50 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>2025LexusNX</v>
+        <v>2025LexusES</v>
       </c>
       <c r="B6" t="str">
-        <v>77265</v>
+        <v>54014</v>
       </c>
       <c r="C6" t="str">
-        <v>450h+ F SPORT 3</v>
+        <v>350 PREMIUM</v>
       </c>
       <c r="D6" t="str">
-        <v>#LX7546</v>
+        <v>#LX7573</v>
       </c>
       <c r="E6" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>2024LexusGX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B7" t="str">
-        <v>92500</v>
+        <v>70850</v>
       </c>
       <c r="C7" t="str">
-        <v>550 PREMIUM</v>
+        <v>350 ULTRA LUXURY</v>
       </c>
       <c r="D7" t="str">
-        <v>#LX7545</v>
+        <v>#LX7558</v>
       </c>
       <c r="E7" t="str">
-        <v>4x4, Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2025LexusUX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B8" t="str">
-        <v>44255</v>
+        <v>77265</v>
       </c>
       <c r="C8" t="str">
-        <v>300h</v>
+        <v>450h+ F SPORT 3</v>
       </c>
       <c r="D8" t="str">
-        <v>#LX7541</v>
+        <v>#LX7546</v>
       </c>
       <c r="E8" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -893,33 +893,33 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2024LexusRX</v>
+        <v>2024LexusGX</v>
       </c>
       <c r="B9" t="str">
-        <v>75850</v>
+        <v>92500</v>
       </c>
       <c r="C9" t="str">
-        <v>350 EXECUTIVE PKG</v>
+        <v>550 PREMIUM</v>
       </c>
       <c r="D9" t="str">
-        <v>#LX7529</v>
+        <v>#LX7545</v>
       </c>
       <c r="E9" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>4x4, Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2024LexusRX</v>
+        <v>2025LexusUX</v>
       </c>
       <c r="B10" t="str">
-        <v>71500</v>
+        <v>44255</v>
       </c>
       <c r="C10" t="str">
-        <v>350 ULTRA LUXURY</v>
+        <v>300h</v>
       </c>
       <c r="D10" t="str">
-        <v>#LX7531</v>
+        <v>#LX7541</v>
       </c>
       <c r="E10" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -930,13 +930,13 @@
         <v>2024LexusRX</v>
       </c>
       <c r="B11" t="str">
-        <v>75350</v>
+        <v>75850</v>
       </c>
       <c r="C11" t="str">
-        <v>350 F SPORT 3</v>
+        <v>350 EXECUTIVE PKG</v>
       </c>
       <c r="D11" t="str">
-        <v>#LX7530</v>
+        <v>#LX7529</v>
       </c>
       <c r="E11" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -944,16 +944,16 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2024LexusIS</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B12" t="str">
-        <v>47750</v>
+        <v>71500</v>
       </c>
       <c r="C12" t="str">
-        <v>300 PREMIUM PKG</v>
+        <v>350 ULTRA LUXURY</v>
       </c>
       <c r="D12" t="str">
-        <v>#LX7526</v>
+        <v>#LX7531</v>
       </c>
       <c r="E12" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -961,16 +961,16 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2025LexusNX</v>
+        <v>2024LexusIS</v>
       </c>
       <c r="B13" t="str">
-        <v>59799</v>
+        <v>47750</v>
       </c>
       <c r="C13" t="str">
-        <v>350 LUXURY</v>
+        <v>300 PREMIUM PKG</v>
       </c>
       <c r="D13" t="str">
-        <v>#LX7524</v>
+        <v>#LX7526</v>
       </c>
       <c r="E13" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -981,13 +981,13 @@
         <v>2025LexusNX</v>
       </c>
       <c r="B14" t="str">
-        <v>62842</v>
+        <v>59799</v>
       </c>
       <c r="C14" t="str">
-        <v>350 F SPORT 2</v>
+        <v>350 LUXURY</v>
       </c>
       <c r="D14" t="str">
-        <v>#LX7522</v>
+        <v>#LX7524</v>
       </c>
       <c r="E14" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -998,13 +998,13 @@
         <v>2025LexusNX</v>
       </c>
       <c r="B15" t="str">
-        <v>54470</v>
+        <v>62842</v>
       </c>
       <c r="C15" t="str">
-        <v>350 PREMIUM</v>
+        <v>350 F SPORT 2</v>
       </c>
       <c r="D15" t="str">
-        <v>#LX7514</v>
+        <v>#LX7522</v>
       </c>
       <c r="E15" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1012,16 +1012,16 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>2024LexusIS</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B16" t="str">
-        <v>56350</v>
+        <v>54470</v>
       </c>
       <c r="C16" t="str">
-        <v>300 ULTRA LUXURY</v>
+        <v>350 PREMIUM</v>
       </c>
       <c r="D16" t="str">
-        <v>#LX7497</v>
+        <v>#LX7514</v>
       </c>
       <c r="E16" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1029,16 +1029,16 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>2024LexusTX</v>
+        <v>2024LexusIS</v>
       </c>
       <c r="B17" t="str">
-        <v>68750</v>
+        <v>56350</v>
       </c>
       <c r="C17" t="str">
-        <v>350 Luxury PKG</v>
+        <v>300 ULTRA LUXURY</v>
       </c>
       <c r="D17" t="str">
-        <v>#LX7495</v>
+        <v>#LX7497</v>
       </c>
       <c r="E17" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1055,7 +1055,7 @@
         <v>350 Luxury PKG</v>
       </c>
       <c r="D18" t="str">
-        <v>#LX7489</v>
+        <v>#LX7495</v>
       </c>
       <c r="E18" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1066,13 +1066,13 @@
         <v>2024LexusTX</v>
       </c>
       <c r="B19" t="str">
-        <v>84200</v>
+        <v>68750</v>
       </c>
       <c r="C19" t="str">
-        <v>500h F SPORT PERFORMANCE 2</v>
+        <v>350 Luxury PKG</v>
       </c>
       <c r="D19" t="str">
-        <v>#LX7484</v>
+        <v>#LX7489</v>
       </c>
       <c r="E19" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1080,50 +1080,50 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>2024LexusES</v>
+        <v>2024LexusTX</v>
       </c>
       <c r="B20" t="str">
-        <v>63250</v>
+        <v>84200</v>
       </c>
       <c r="C20" t="str">
-        <v>350 ULTRA LUXURY</v>
+        <v>500h F SPORT PERFORMANCE 2</v>
       </c>
       <c r="D20" t="str">
-        <v>#LX7481</v>
+        <v>#LX7484</v>
       </c>
       <c r="E20" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>2024LexusTX</v>
+        <v>2024LexusES</v>
       </c>
       <c r="B21" t="str">
-        <v>71500</v>
+        <v>63250</v>
       </c>
       <c r="C21" t="str">
-        <v>350</v>
+        <v>350 ULTRA LUXURY</v>
       </c>
       <c r="D21" t="str">
-        <v>#LX7477</v>
+        <v>#LX7481</v>
       </c>
       <c r="E21" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>2025LexusNX</v>
+        <v>2024LexusTX</v>
       </c>
       <c r="B22" t="str">
-        <v>62842</v>
+        <v>71500</v>
       </c>
       <c r="C22" t="str">
-        <v>350 F SPORT 2</v>
+        <v>350</v>
       </c>
       <c r="D22" t="str">
-        <v>#LX7475</v>
+        <v>#LX7477</v>
       </c>
       <c r="E22" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1131,16 +1131,16 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>2024LexusTX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B23" t="str">
-        <v>72000</v>
+        <v>62842</v>
       </c>
       <c r="C23" t="str">
-        <v>350 ULTRA LUXURY</v>
+        <v>350 F SPORT 2</v>
       </c>
       <c r="D23" t="str">
-        <v>#LX7471</v>
+        <v>#LX7475</v>
       </c>
       <c r="E23" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1148,16 +1148,16 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>2024LexusRX</v>
+        <v>2024LexusTX</v>
       </c>
       <c r="B24" t="str">
-        <v>75850</v>
+        <v>72000</v>
       </c>
       <c r="C24" t="str">
-        <v>350 F SPORT 3</v>
+        <v>350 ULTRA LUXURY</v>
       </c>
       <c r="D24" t="str">
-        <v>#LX7460</v>
+        <v>#LX7471</v>
       </c>
       <c r="E24" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1165,16 +1165,16 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>2025LexusNX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B25" t="str">
-        <v>54470</v>
+        <v>75850</v>
       </c>
       <c r="C25" t="str">
-        <v>350</v>
+        <v>350 F SPORT 3</v>
       </c>
       <c r="D25" t="str">
-        <v>#LX7442</v>
+        <v>#LX7460</v>
       </c>
       <c r="E25" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1182,16 +1182,16 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>2024LexusRX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B26" t="str">
-        <v>60350</v>
+        <v>54470</v>
       </c>
       <c r="C26" t="str">
-        <v>350 PREMIUM PKG</v>
+        <v>350</v>
       </c>
       <c r="D26" t="str">
-        <v>#LX7437</v>
+        <v>#LX7442</v>
       </c>
       <c r="E26" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1208,7 +1208,7 @@
         <v>350 PREMIUM PKG</v>
       </c>
       <c r="D27" t="str">
-        <v>#LX7432</v>
+        <v>#LX7437</v>
       </c>
       <c r="E27" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1216,16 +1216,16 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>2024LexusTX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B28" t="str">
-        <v>71500</v>
+        <v>60350</v>
       </c>
       <c r="C28" t="str">
-        <v>350 ULTRA LUXURY</v>
+        <v>350 PREMIUM PKG</v>
       </c>
       <c r="D28" t="str">
-        <v>#LX7430</v>
+        <v>#LX7432</v>
       </c>
       <c r="E28" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1233,16 +1233,16 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>2024LexusNX</v>
+        <v>2024LexusTX</v>
       </c>
       <c r="B29" t="str">
-        <v>62400</v>
+        <v>71500</v>
       </c>
       <c r="C29" t="str">
         <v>350 ULTRA LUXURY</v>
       </c>
       <c r="D29" t="str">
-        <v>#LX7422</v>
+        <v>#LX7430</v>
       </c>
       <c r="E29" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1253,13 +1253,13 @@
         <v>2024LexusNX</v>
       </c>
       <c r="B30" t="str">
-        <v>61500</v>
+        <v>62400</v>
       </c>
       <c r="C30" t="str">
-        <v>350 F SPORT 2</v>
+        <v>350 ULTRA LUXURY</v>
       </c>
       <c r="D30" t="str">
-        <v>#LX7408</v>
+        <v>#LX7422</v>
       </c>
       <c r="E30" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1386,16 +1386,16 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>2024LexusRX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B38" t="str">
-        <v>67850</v>
+        <v>77265</v>
       </c>
       <c r="C38" t="str">
-        <v>350 LUXURY PKG</v>
+        <v>450h+ F SPORT 3</v>
       </c>
       <c r="D38" t="str">
-        <v>#LX7583</v>
+        <v>#LX7590</v>
       </c>
       <c r="E38" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1406,13 +1406,13 @@
         <v>2024LexusRX</v>
       </c>
       <c r="B39" t="str">
-        <v>69850</v>
+        <v>60350</v>
       </c>
       <c r="C39" t="str">
-        <v>350h LUXURY PKG</v>
+        <v>350 PREMIUM PKG</v>
       </c>
       <c r="D39" t="str">
-        <v>#LX7581</v>
+        <v>#LX7593</v>
       </c>
       <c r="E39" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>

--- a/Projects/scrapping_js/lexus_maritime/Lexus_Inventory.xlsx
+++ b/Projects/scrapping_js/lexus_maritime/Lexus_Inventory.xlsx
@@ -680,10 +680,10 @@
         <v>$71078</v>
       </c>
       <c r="F11" t="str">
-        <v>5TDAAAB67RS011953</v>
+        <v>5TDAAAB66RS007506</v>
       </c>
       <c r="G11" t="str">
-        <v>24143</v>
+        <v>24108</v>
       </c>
       <c r="H11" t="str">
         <v>Luxury</v>
@@ -706,10 +706,10 @@
         <v>$71078</v>
       </c>
       <c r="F12" t="str">
-        <v>5TDAAAB66RS007506</v>
+        <v>5TDAAAB67RS011953</v>
       </c>
       <c r="G12" t="str">
-        <v>24108</v>
+        <v>24143</v>
       </c>
       <c r="H12" t="str">
         <v>Luxury</v>
@@ -750,7 +750,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -777,13 +777,13 @@
         <v>2024LexusRX</v>
       </c>
       <c r="B2" t="str">
-        <v>77350</v>
+        <v>59850</v>
       </c>
       <c r="C2" t="str">
-        <v>350h EXECUTIVE PKG</v>
+        <v>350 PREMIUM PKG</v>
       </c>
       <c r="D2" t="str">
-        <v>#LX7592</v>
+        <v>#LX7596</v>
       </c>
       <c r="E2" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -794,13 +794,13 @@
         <v>2025LexusNX</v>
       </c>
       <c r="B3" t="str">
-        <v>68383</v>
+        <v>77265</v>
       </c>
       <c r="C3" t="str">
-        <v>350 PREMIUM</v>
+        <v>450h+ F SPORT 3</v>
       </c>
       <c r="D3" t="str">
-        <v>#LX7585</v>
+        <v>#LX7590</v>
       </c>
       <c r="E3" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -811,13 +811,13 @@
         <v>2024LexusRX</v>
       </c>
       <c r="B4" t="str">
-        <v>67850</v>
+        <v>77350</v>
       </c>
       <c r="C4" t="str">
-        <v>350 LUXURY PKG</v>
+        <v>350h EXECUTIVE PKG</v>
       </c>
       <c r="D4" t="str">
-        <v>#LX7583</v>
+        <v>#LX7592</v>
       </c>
       <c r="E4" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -828,13 +828,13 @@
         <v>2024LexusRX</v>
       </c>
       <c r="B5" t="str">
-        <v>71350</v>
+        <v>60350</v>
       </c>
       <c r="C5" t="str">
-        <v>350 LUXURY</v>
+        <v>350 PREMIUM PKG</v>
       </c>
       <c r="D5" t="str">
-        <v>#LX7584</v>
+        <v>#LX7593</v>
       </c>
       <c r="E5" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -842,19 +842,19 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>2025LexusES</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B6" t="str">
-        <v>54014</v>
+        <v>68383</v>
       </c>
       <c r="C6" t="str">
         <v>350 PREMIUM</v>
       </c>
       <c r="D6" t="str">
-        <v>#LX7573</v>
+        <v>#LX7585</v>
       </c>
       <c r="E6" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="7">
@@ -862,13 +862,13 @@
         <v>2024LexusRX</v>
       </c>
       <c r="B7" t="str">
-        <v>70850</v>
+        <v>67850</v>
       </c>
       <c r="C7" t="str">
-        <v>350 ULTRA LUXURY</v>
+        <v>350 LUXURY PKG</v>
       </c>
       <c r="D7" t="str">
-        <v>#LX7558</v>
+        <v>#LX7583</v>
       </c>
       <c r="E7" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -876,16 +876,16 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2025LexusNX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B8" t="str">
-        <v>77265</v>
+        <v>71350</v>
       </c>
       <c r="C8" t="str">
-        <v>450h+ F SPORT 3</v>
+        <v>350 LUXURY</v>
       </c>
       <c r="D8" t="str">
-        <v>#LX7546</v>
+        <v>#LX7584</v>
       </c>
       <c r="E8" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -893,33 +893,33 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2024LexusGX</v>
+        <v>2025LexusES</v>
       </c>
       <c r="B9" t="str">
-        <v>92500</v>
+        <v>54014</v>
       </c>
       <c r="C9" t="str">
-        <v>550 PREMIUM</v>
+        <v>350 PREMIUM</v>
       </c>
       <c r="D9" t="str">
-        <v>#LX7545</v>
+        <v>#LX7573</v>
       </c>
       <c r="E9" t="str">
-        <v>4x4, Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2025LexusUX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B10" t="str">
-        <v>44255</v>
+        <v>70850</v>
       </c>
       <c r="C10" t="str">
-        <v>300h</v>
+        <v>350 ULTRA LUXURY</v>
       </c>
       <c r="D10" t="str">
-        <v>#LX7541</v>
+        <v>#LX7558</v>
       </c>
       <c r="E10" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -927,16 +927,16 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2024LexusRX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B11" t="str">
-        <v>75850</v>
+        <v>77265</v>
       </c>
       <c r="C11" t="str">
-        <v>350 EXECUTIVE PKG</v>
+        <v>450h+ F SPORT 3</v>
       </c>
       <c r="D11" t="str">
-        <v>#LX7529</v>
+        <v>#LX7546</v>
       </c>
       <c r="E11" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -947,13 +947,13 @@
         <v>2024LexusRX</v>
       </c>
       <c r="B12" t="str">
-        <v>71500</v>
+        <v>75850</v>
       </c>
       <c r="C12" t="str">
-        <v>350 ULTRA LUXURY</v>
+        <v>350 EXECUTIVE PKG</v>
       </c>
       <c r="D12" t="str">
-        <v>#LX7531</v>
+        <v>#LX7529</v>
       </c>
       <c r="E12" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -961,16 +961,16 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2024LexusIS</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B13" t="str">
-        <v>47750</v>
+        <v>71500</v>
       </c>
       <c r="C13" t="str">
-        <v>300 PREMIUM PKG</v>
+        <v>350 ULTRA LUXURY</v>
       </c>
       <c r="D13" t="str">
-        <v>#LX7526</v>
+        <v>#LX7531</v>
       </c>
       <c r="E13" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -978,16 +978,16 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2025LexusNX</v>
+        <v>2024LexusIS</v>
       </c>
       <c r="B14" t="str">
-        <v>59799</v>
+        <v>47750</v>
       </c>
       <c r="C14" t="str">
-        <v>350 LUXURY</v>
+        <v>300 PREMIUM PKG</v>
       </c>
       <c r="D14" t="str">
-        <v>#LX7524</v>
+        <v>#LX7526</v>
       </c>
       <c r="E14" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -998,13 +998,13 @@
         <v>2025LexusNX</v>
       </c>
       <c r="B15" t="str">
-        <v>62842</v>
+        <v>59799</v>
       </c>
       <c r="C15" t="str">
-        <v>350 F SPORT 2</v>
+        <v>350 LUXURY</v>
       </c>
       <c r="D15" t="str">
-        <v>#LX7522</v>
+        <v>#LX7524</v>
       </c>
       <c r="E15" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1015,13 +1015,13 @@
         <v>2025LexusNX</v>
       </c>
       <c r="B16" t="str">
-        <v>54470</v>
+        <v>62842</v>
       </c>
       <c r="C16" t="str">
-        <v>350 PREMIUM</v>
+        <v>350 F SPORT 2</v>
       </c>
       <c r="D16" t="str">
-        <v>#LX7514</v>
+        <v>#LX7522</v>
       </c>
       <c r="E16" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1029,16 +1029,16 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>2024LexusIS</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B17" t="str">
-        <v>56350</v>
+        <v>54470</v>
       </c>
       <c r="C17" t="str">
-        <v>300 ULTRA LUXURY</v>
+        <v>350 PREMIUM</v>
       </c>
       <c r="D17" t="str">
-        <v>#LX7497</v>
+        <v>#LX7514</v>
       </c>
       <c r="E17" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1046,16 +1046,16 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>2024LexusTX</v>
+        <v>2024LexusIS</v>
       </c>
       <c r="B18" t="str">
-        <v>68750</v>
+        <v>56350</v>
       </c>
       <c r="C18" t="str">
-        <v>350 Luxury PKG</v>
+        <v>300 ULTRA LUXURY</v>
       </c>
       <c r="D18" t="str">
-        <v>#LX7495</v>
+        <v>#LX7497</v>
       </c>
       <c r="E18" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1072,7 +1072,7 @@
         <v>350 Luxury PKG</v>
       </c>
       <c r="D19" t="str">
-        <v>#LX7489</v>
+        <v>#LX7495</v>
       </c>
       <c r="E19" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1083,13 +1083,13 @@
         <v>2024LexusTX</v>
       </c>
       <c r="B20" t="str">
-        <v>84200</v>
+        <v>68750</v>
       </c>
       <c r="C20" t="str">
-        <v>500h F SPORT PERFORMANCE 2</v>
+        <v>350 Luxury PKG</v>
       </c>
       <c r="D20" t="str">
-        <v>#LX7484</v>
+        <v>#LX7489</v>
       </c>
       <c r="E20" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1097,19 +1097,19 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>2024LexusES</v>
+        <v>2024LexusTX</v>
       </c>
       <c r="B21" t="str">
-        <v>63250</v>
+        <v>84200</v>
       </c>
       <c r="C21" t="str">
-        <v>350 ULTRA LUXURY</v>
+        <v>500h F SPORT PERFORMANCE 2</v>
       </c>
       <c r="D21" t="str">
-        <v>#LX7481</v>
+        <v>#LX7484</v>
       </c>
       <c r="E21" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="22">
@@ -1250,16 +1250,16 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>2024LexusNX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B30" t="str">
-        <v>62400</v>
+        <v>72850</v>
       </c>
       <c r="C30" t="str">
-        <v>350 ULTRA LUXURY</v>
+        <v>350h ULTRA LUXURY</v>
       </c>
       <c r="D30" t="str">
-        <v>#LX7422</v>
+        <v>#LX7406</v>
       </c>
       <c r="E30" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1270,13 +1270,13 @@
         <v>2024LexusRX</v>
       </c>
       <c r="B31" t="str">
-        <v>72850</v>
+        <v>75850</v>
       </c>
       <c r="C31" t="str">
-        <v>350h ULTRA LUXURY</v>
+        <v>350 F SPORT 3</v>
       </c>
       <c r="D31" t="str">
-        <v>#LX7406</v>
+        <v>#LX7404</v>
       </c>
       <c r="E31" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1287,13 +1287,13 @@
         <v>2024LexusRX</v>
       </c>
       <c r="B32" t="str">
-        <v>75850</v>
+        <v>81100</v>
       </c>
       <c r="C32" t="str">
-        <v>350 F SPORT 3</v>
+        <v>500h F SPORT PERFORMANCE 2</v>
       </c>
       <c r="D32" t="str">
-        <v>#LX7404</v>
+        <v>#LX7306</v>
       </c>
       <c r="E32" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1301,16 +1301,16 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>2024LexusRX</v>
+        <v>2024LexusTX</v>
       </c>
       <c r="B33" t="str">
-        <v>81100</v>
+        <v>71500</v>
       </c>
       <c r="C33" t="str">
-        <v>500h F SPORT PERFORMANCE 2</v>
+        <v>350 ULTRA LUXURY</v>
       </c>
       <c r="D33" t="str">
-        <v>#LX7306</v>
+        <v>#LX7305</v>
       </c>
       <c r="E33" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1321,13 +1321,13 @@
         <v>2024LexusTX</v>
       </c>
       <c r="B34" t="str">
-        <v>71500</v>
+        <v>84200</v>
       </c>
       <c r="C34" t="str">
-        <v>350 ULTRA LUXURY</v>
+        <v>500h F SPORT PERFORMANCE 2</v>
       </c>
       <c r="D34" t="str">
-        <v>#LX7305</v>
+        <v>#LX7304</v>
       </c>
       <c r="E34" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1338,13 +1338,13 @@
         <v>2024LexusTX</v>
       </c>
       <c r="B35" t="str">
-        <v>84200</v>
+        <v>71500</v>
       </c>
       <c r="C35" t="str">
-        <v>500h F SPORT PERFORMANCE 2</v>
+        <v>350 ULTRA LUXURY</v>
       </c>
       <c r="D35" t="str">
-        <v>#LX7304</v>
+        <v>#LX7294</v>
       </c>
       <c r="E35" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1352,75 +1352,24 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>2024LexusTX</v>
+        <v>2024LexusNX</v>
       </c>
       <c r="B36" t="str">
-        <v>71500</v>
+        <v>67050</v>
       </c>
       <c r="C36" t="str">
-        <v>350 ULTRA LUXURY</v>
+        <v>350</v>
       </c>
       <c r="D36" t="str">
-        <v>#LX7294</v>
+        <v>#LX7272</v>
       </c>
       <c r="E36" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="str">
-        <v>2024LexusNX</v>
-      </c>
-      <c r="B37" t="str">
-        <v>67050</v>
-      </c>
-      <c r="C37" t="str">
-        <v>350</v>
-      </c>
-      <c r="D37" t="str">
-        <v>#LX7272</v>
-      </c>
-      <c r="E37" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="str">
-        <v>2025LexusNX</v>
-      </c>
-      <c r="B38" t="str">
-        <v>77265</v>
-      </c>
-      <c r="C38" t="str">
-        <v>450h+ F SPORT 3</v>
-      </c>
-      <c r="D38" t="str">
-        <v>#LX7590</v>
-      </c>
-      <c r="E38" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="str">
-        <v>2024LexusRX</v>
-      </c>
-      <c r="B39" t="str">
-        <v>60350</v>
-      </c>
-      <c r="C39" t="str">
-        <v>350 PREMIUM PKG</v>
-      </c>
-      <c r="D39" t="str">
-        <v>#LX7593</v>
-      </c>
-      <c r="E39" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E39"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E36"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Projects/scrapping_js/lexus_maritime/Lexus_Inventory.xlsx
+++ b/Projects/scrapping_js/lexus_maritime/Lexus_Inventory.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2025 NX 250 SIGNATURE</v>
+        <v>2025 NX F SPORT</v>
       </c>
       <c r="B3" t="str">
         <v>All Wheel Drive</v>
@@ -466,45 +466,45 @@
         <v>Automatic</v>
       </c>
       <c r="D3" t="str">
-        <v>2.5L 4cyl.</v>
+        <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E3" t="str">
-        <v>$53143</v>
+        <v>$62268</v>
       </c>
       <c r="F3" t="str">
-        <v>2T2ADCEZXSC006460</v>
+        <v>2T2KGCEZ0SC063844</v>
       </c>
       <c r="G3" t="str">
-        <v>25039</v>
+        <v>25017</v>
       </c>
       <c r="H3" t="str">
-        <v>Signature</v>
+        <v>F SPORT 1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2025 NX 350</v>
+        <v>2024 ES 350</v>
       </c>
       <c r="B4" t="str">
-        <v>All Wheel Drive</v>
+        <v>Front Wheel Drive</v>
       </c>
       <c r="C4" t="str">
         <v>Automatic</v>
       </c>
       <c r="D4" t="str">
-        <v>2.4L TURBO 4cyl.</v>
+        <v>3.5L 6cyl.</v>
       </c>
       <c r="E4" t="str">
-        <v>$56798</v>
+        <v>$66078</v>
       </c>
       <c r="F4" t="str">
-        <v>2T2GGCEZ4SC065750</v>
+        <v>58AFZ1B18RU173495</v>
       </c>
       <c r="G4" t="str">
-        <v>25027</v>
+        <v>24095</v>
       </c>
       <c r="H4" t="str">
-        <v>Premium</v>
+        <v>Ultra Luxury</v>
       </c>
     </row>
     <row r="5">
@@ -521,21 +521,21 @@
         <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E5" t="str">
-        <v>$62178</v>
+        <v>$69678</v>
       </c>
       <c r="F5" t="str">
-        <v>2T2BAMCA9RC080110</v>
+        <v>2T2BAMCA9RC075859</v>
       </c>
       <c r="G5" t="str">
-        <v>24186</v>
+        <v>24176</v>
       </c>
       <c r="H5" t="str">
-        <v>Premium</v>
+        <v>Luxury</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>2025 NX F SPORT</v>
+        <v>2024 TX 350 Luxury</v>
       </c>
       <c r="B6" t="str">
         <v>All Wheel Drive</v>
@@ -547,21 +547,21 @@
         <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E6" t="str">
-        <v>$62268</v>
+        <v>$71078</v>
       </c>
       <c r="F6" t="str">
-        <v>2T2KGCEZ0SC063844</v>
+        <v>5TDAAAB66RS007506</v>
       </c>
       <c r="G6" t="str">
-        <v>25017</v>
+        <v>24108</v>
       </c>
       <c r="H6" t="str">
-        <v>F SPORT 1</v>
+        <v>Luxury</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>2024 RX 350</v>
+        <v>2024 TX 350 Luxury</v>
       </c>
       <c r="B7" t="str">
         <v>All Wheel Drive</v>
@@ -573,65 +573,65 @@
         <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E7" t="str">
-        <v>$62678</v>
+        <v>$71078</v>
       </c>
       <c r="F7" t="str">
-        <v>2T2BAMCA3RC081463</v>
+        <v>5TDAAAB67RS011953</v>
       </c>
       <c r="G7" t="str">
-        <v>24188</v>
+        <v>24143</v>
       </c>
       <c r="H7" t="str">
-        <v>Premium</v>
+        <v>Luxury</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2024 ES 350</v>
+        <v>2024 TX 350 Luxury</v>
       </c>
       <c r="B8" t="str">
-        <v>Front Wheel Drive</v>
+        <v>All Wheel Drive</v>
       </c>
       <c r="C8" t="str">
         <v>Automatic</v>
       </c>
       <c r="D8" t="str">
-        <v>3.5L 6cyl.</v>
+        <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E8" t="str">
-        <v>$66078</v>
+        <v>$71078</v>
       </c>
       <c r="F8" t="str">
-        <v>58AFZ1B18RU173495</v>
+        <v>5TDAAAB6XRS010005</v>
       </c>
       <c r="G8" t="str">
-        <v>24095</v>
+        <v>24131</v>
       </c>
       <c r="H8" t="str">
-        <v>Ultra Luxury</v>
+        <v>Luxury</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2025 ES HYBRID Luxury</v>
+        <v>2024 RX 350</v>
       </c>
       <c r="B9" t="str">
-        <v>Front Wheel Drive</v>
+        <v>All Wheel Drive</v>
       </c>
       <c r="C9" t="str">
         <v>Automatic</v>
       </c>
       <c r="D9" t="str">
-        <v>2.5L 4cyl.</v>
+        <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E9" t="str">
-        <v>$65042</v>
+        <v>$70178</v>
       </c>
       <c r="F9" t="str">
-        <v>58AB21B13SU015090</v>
+        <v>2T2BAMCA5RC083540</v>
       </c>
       <c r="G9" t="str">
-        <v>25036</v>
+        <v>24193</v>
       </c>
       <c r="H9" t="str">
         <v>Luxury</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2024 RX 350</v>
+        <v>2024 TX 350 Luxury</v>
       </c>
       <c r="B10" t="str">
         <v>All Wheel Drive</v>
@@ -651,13 +651,13 @@
         <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E10" t="str">
-        <v>$69678</v>
+        <v>$71578</v>
       </c>
       <c r="F10" t="str">
-        <v>2T2BAMCA9RC075859</v>
+        <v>5TDAAAB69RS009802</v>
       </c>
       <c r="G10" t="str">
-        <v>24176</v>
+        <v>24132</v>
       </c>
       <c r="H10" t="str">
         <v>Luxury</v>
@@ -665,7 +665,7 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2024 TX 350 Luxury</v>
+        <v>2024 TX 350 Ultra Luxury</v>
       </c>
       <c r="B11" t="str">
         <v>All Wheel Drive</v>
@@ -677,21 +677,21 @@
         <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E11" t="str">
-        <v>$71078</v>
+        <v>$73828</v>
       </c>
       <c r="F11" t="str">
-        <v>5TDAAAB67RS011953</v>
+        <v>5TDAAAB60RS014113</v>
       </c>
       <c r="G11" t="str">
-        <v>24143</v>
+        <v>24156</v>
       </c>
       <c r="H11" t="str">
-        <v>Luxury</v>
+        <v>Ultra Luxury</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2024 TX 350 Luxury</v>
+        <v>2024 TX 350 Ultra Luxury</v>
       </c>
       <c r="B12" t="str">
         <v>All Wheel Drive</v>
@@ -703,21 +703,21 @@
         <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E12" t="str">
-        <v>$71078</v>
+        <v>$73828</v>
       </c>
       <c r="F12" t="str">
-        <v>5TDAAAB66RS007506</v>
+        <v>5TDAAAB6XRS009467</v>
       </c>
       <c r="G12" t="str">
-        <v>24108</v>
+        <v>24117</v>
       </c>
       <c r="H12" t="str">
-        <v>Luxury</v>
+        <v>Ultra Luxury</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2024 TX 350 Luxury</v>
+        <v>2024 TX 350 Ultra Luxury</v>
       </c>
       <c r="B13" t="str">
         <v>All Wheel Drive</v>
@@ -729,16 +729,16 @@
         <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E13" t="str">
-        <v>$71078</v>
+        <v>$73828</v>
       </c>
       <c r="F13" t="str">
-        <v>5TDAAAB6XRS010005</v>
+        <v>5TDAAAB67RS013945</v>
       </c>
       <c r="G13" t="str">
-        <v>24131</v>
+        <v>24157</v>
       </c>
       <c r="H13" t="str">
-        <v>Luxury</v>
+        <v>Ultra Luxury</v>
       </c>
     </row>
   </sheetData>
@@ -750,7 +750,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -774,19 +774,19 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2024LexusRX</v>
+        <v>2024LexusLX</v>
       </c>
       <c r="B2" t="str">
-        <v>77350</v>
+        <v>131800</v>
       </c>
       <c r="C2" t="str">
-        <v>350h EXECUTIVE PKG</v>
+        <v>600 F SPORT 1</v>
       </c>
       <c r="D2" t="str">
-        <v>#LX7592</v>
+        <v>#LX7607</v>
       </c>
       <c r="E2" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>4x4, Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="3">
@@ -794,13 +794,13 @@
         <v>2025LexusNX</v>
       </c>
       <c r="B3" t="str">
-        <v>68383</v>
+        <v>59940</v>
       </c>
       <c r="C3" t="str">
-        <v>350 PREMIUM</v>
+        <v>350 F SPORT 1</v>
       </c>
       <c r="D3" t="str">
-        <v>#LX7585</v>
+        <v>#LX7606</v>
       </c>
       <c r="E3" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -808,16 +808,16 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2024LexusRX</v>
+        <v>2024LexusIS</v>
       </c>
       <c r="B4" t="str">
-        <v>67850</v>
+        <v>47750</v>
       </c>
       <c r="C4" t="str">
-        <v>350 LUXURY PKG</v>
+        <v>300 PREMIUM PKG</v>
       </c>
       <c r="D4" t="str">
-        <v>#LX7583</v>
+        <v>#LX7598</v>
       </c>
       <c r="E4" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -825,16 +825,16 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2024LexusRX</v>
+        <v>2024LexusIS</v>
       </c>
       <c r="B5" t="str">
-        <v>71350</v>
+        <v>55050</v>
       </c>
       <c r="C5" t="str">
-        <v>350 LUXURY</v>
+        <v>300 F SPORT 2</v>
       </c>
       <c r="D5" t="str">
-        <v>#LX7584</v>
+        <v>#LX7597</v>
       </c>
       <c r="E5" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -842,33 +842,33 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>2025LexusES</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B6" t="str">
-        <v>54014</v>
+        <v>59850</v>
       </c>
       <c r="C6" t="str">
-        <v>350 PREMIUM</v>
+        <v>350 PREMIUM PKG</v>
       </c>
       <c r="D6" t="str">
-        <v>#LX7573</v>
+        <v>#LX7596</v>
       </c>
       <c r="E6" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>2024LexusRX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B7" t="str">
-        <v>70850</v>
+        <v>77265</v>
       </c>
       <c r="C7" t="str">
-        <v>350 ULTRA LUXURY</v>
+        <v>450h+ F SPORT 3</v>
       </c>
       <c r="D7" t="str">
-        <v>#LX7558</v>
+        <v>#LX7590</v>
       </c>
       <c r="E7" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -876,16 +876,16 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2025LexusNX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B8" t="str">
-        <v>77265</v>
+        <v>77350</v>
       </c>
       <c r="C8" t="str">
-        <v>450h+ F SPORT 3</v>
+        <v>350h EXECUTIVE PKG</v>
       </c>
       <c r="D8" t="str">
-        <v>#LX7546</v>
+        <v>#LX7592</v>
       </c>
       <c r="E8" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -893,33 +893,33 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2024LexusGX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B9" t="str">
-        <v>92500</v>
+        <v>60350</v>
       </c>
       <c r="C9" t="str">
-        <v>550 PREMIUM</v>
+        <v>350 PREMIUM PKG</v>
       </c>
       <c r="D9" t="str">
-        <v>#LX7545</v>
+        <v>#LX7593</v>
       </c>
       <c r="E9" t="str">
-        <v>4x4, Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2025LexusUX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B10" t="str">
-        <v>44255</v>
+        <v>68383</v>
       </c>
       <c r="C10" t="str">
-        <v>300h</v>
+        <v>350 PREMIUM</v>
       </c>
       <c r="D10" t="str">
-        <v>#LX7541</v>
+        <v>#LX7585</v>
       </c>
       <c r="E10" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -930,13 +930,13 @@
         <v>2024LexusRX</v>
       </c>
       <c r="B11" t="str">
-        <v>75850</v>
+        <v>67850</v>
       </c>
       <c r="C11" t="str">
-        <v>350 EXECUTIVE PKG</v>
+        <v>350 LUXURY PKG</v>
       </c>
       <c r="D11" t="str">
-        <v>#LX7529</v>
+        <v>#LX7583</v>
       </c>
       <c r="E11" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -947,13 +947,13 @@
         <v>2024LexusRX</v>
       </c>
       <c r="B12" t="str">
-        <v>71500</v>
+        <v>71350</v>
       </c>
       <c r="C12" t="str">
-        <v>350 ULTRA LUXURY</v>
+        <v>350 LUXURY</v>
       </c>
       <c r="D12" t="str">
-        <v>#LX7531</v>
+        <v>#LX7584</v>
       </c>
       <c r="E12" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -961,33 +961,33 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2024LexusIS</v>
+        <v>2025LexusES</v>
       </c>
       <c r="B13" t="str">
-        <v>47750</v>
+        <v>54014</v>
       </c>
       <c r="C13" t="str">
-        <v>300 PREMIUM PKG</v>
+        <v>350 PREMIUM</v>
       </c>
       <c r="D13" t="str">
-        <v>#LX7526</v>
+        <v>#LX7573</v>
       </c>
       <c r="E13" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2025LexusNX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B14" t="str">
-        <v>59799</v>
+        <v>71500</v>
       </c>
       <c r="C14" t="str">
-        <v>350 LUXURY</v>
+        <v>350 ULTRA LUXURY</v>
       </c>
       <c r="D14" t="str">
-        <v>#LX7524</v>
+        <v>#LX7531</v>
       </c>
       <c r="E14" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -995,16 +995,16 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2025LexusNX</v>
+        <v>2024LexusIS</v>
       </c>
       <c r="B15" t="str">
-        <v>62842</v>
+        <v>47750</v>
       </c>
       <c r="C15" t="str">
-        <v>350 F SPORT 2</v>
+        <v>300 PREMIUM PKG</v>
       </c>
       <c r="D15" t="str">
-        <v>#LX7522</v>
+        <v>#LX7526</v>
       </c>
       <c r="E15" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1015,13 +1015,13 @@
         <v>2025LexusNX</v>
       </c>
       <c r="B16" t="str">
-        <v>54470</v>
+        <v>59799</v>
       </c>
       <c r="C16" t="str">
-        <v>350 PREMIUM</v>
+        <v>350 LUXURY</v>
       </c>
       <c r="D16" t="str">
-        <v>#LX7514</v>
+        <v>#LX7524</v>
       </c>
       <c r="E16" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1029,16 +1029,16 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>2024LexusIS</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B17" t="str">
-        <v>56350</v>
+        <v>54470</v>
       </c>
       <c r="C17" t="str">
-        <v>300 ULTRA LUXURY</v>
+        <v>350 PREMIUM</v>
       </c>
       <c r="D17" t="str">
-        <v>#LX7497</v>
+        <v>#LX7514</v>
       </c>
       <c r="E17" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1046,16 +1046,16 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>2024LexusTX</v>
+        <v>2024LexusIS</v>
       </c>
       <c r="B18" t="str">
-        <v>68750</v>
+        <v>56350</v>
       </c>
       <c r="C18" t="str">
-        <v>350 Luxury PKG</v>
+        <v>300 ULTRA LUXURY</v>
       </c>
       <c r="D18" t="str">
-        <v>#LX7495</v>
+        <v>#LX7497</v>
       </c>
       <c r="E18" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1072,7 +1072,7 @@
         <v>350 Luxury PKG</v>
       </c>
       <c r="D19" t="str">
-        <v>#LX7489</v>
+        <v>#LX7495</v>
       </c>
       <c r="E19" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1083,13 +1083,13 @@
         <v>2024LexusTX</v>
       </c>
       <c r="B20" t="str">
-        <v>84200</v>
+        <v>68750</v>
       </c>
       <c r="C20" t="str">
-        <v>500h F SPORT PERFORMANCE 2</v>
+        <v>350 Luxury PKG</v>
       </c>
       <c r="D20" t="str">
-        <v>#LX7484</v>
+        <v>#LX7489</v>
       </c>
       <c r="E20" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1097,19 +1097,19 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>2024LexusES</v>
+        <v>2024LexusTX</v>
       </c>
       <c r="B21" t="str">
-        <v>63250</v>
+        <v>84200</v>
       </c>
       <c r="C21" t="str">
-        <v>350 ULTRA LUXURY</v>
+        <v>500h F SPORT PERFORMANCE 2</v>
       </c>
       <c r="D21" t="str">
-        <v>#LX7481</v>
+        <v>#LX7484</v>
       </c>
       <c r="E21" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="22">
@@ -1250,16 +1250,16 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>2024LexusNX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B30" t="str">
-        <v>62400</v>
+        <v>72850</v>
       </c>
       <c r="C30" t="str">
-        <v>350 ULTRA LUXURY</v>
+        <v>350h ULTRA LUXURY</v>
       </c>
       <c r="D30" t="str">
-        <v>#LX7422</v>
+        <v>#LX7406</v>
       </c>
       <c r="E30" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1270,13 +1270,13 @@
         <v>2024LexusRX</v>
       </c>
       <c r="B31" t="str">
-        <v>72850</v>
+        <v>75850</v>
       </c>
       <c r="C31" t="str">
-        <v>350h ULTRA LUXURY</v>
+        <v>350 F SPORT 3</v>
       </c>
       <c r="D31" t="str">
-        <v>#LX7406</v>
+        <v>#LX7404</v>
       </c>
       <c r="E31" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1287,13 +1287,13 @@
         <v>2024LexusRX</v>
       </c>
       <c r="B32" t="str">
-        <v>75850</v>
+        <v>81100</v>
       </c>
       <c r="C32" t="str">
-        <v>350 F SPORT 3</v>
+        <v>500h F SPORT PERFORMANCE 2</v>
       </c>
       <c r="D32" t="str">
-        <v>#LX7404</v>
+        <v>#LX7306</v>
       </c>
       <c r="E32" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1301,16 +1301,16 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>2024LexusRX</v>
+        <v>2024LexusTX</v>
       </c>
       <c r="B33" t="str">
-        <v>81100</v>
+        <v>84200</v>
       </c>
       <c r="C33" t="str">
         <v>500h F SPORT PERFORMANCE 2</v>
       </c>
       <c r="D33" t="str">
-        <v>#LX7306</v>
+        <v>#LX7304</v>
       </c>
       <c r="E33" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1327,7 +1327,7 @@
         <v>350 ULTRA LUXURY</v>
       </c>
       <c r="D34" t="str">
-        <v>#LX7305</v>
+        <v>#LX7294</v>
       </c>
       <c r="E34" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1335,92 +1335,24 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>2024LexusTX</v>
+        <v>2025LexusES</v>
       </c>
       <c r="B35" t="str">
-        <v>84200</v>
+        <v>54014</v>
       </c>
       <c r="C35" t="str">
-        <v>500h F SPORT PERFORMANCE 2</v>
+        <v>350 PREMIUM</v>
       </c>
       <c r="D35" t="str">
-        <v>#LX7304</v>
+        <v>#LX7601</v>
       </c>
       <c r="E35" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="str">
-        <v>2024LexusTX</v>
-      </c>
-      <c r="B36" t="str">
-        <v>71500</v>
-      </c>
-      <c r="C36" t="str">
-        <v>350 ULTRA LUXURY</v>
-      </c>
-      <c r="D36" t="str">
-        <v>#LX7294</v>
-      </c>
-      <c r="E36" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="str">
-        <v>2024LexusNX</v>
-      </c>
-      <c r="B37" t="str">
-        <v>67050</v>
-      </c>
-      <c r="C37" t="str">
-        <v>350</v>
-      </c>
-      <c r="D37" t="str">
-        <v>#LX7272</v>
-      </c>
-      <c r="E37" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="str">
-        <v>2025LexusNX</v>
-      </c>
-      <c r="B38" t="str">
-        <v>77265</v>
-      </c>
-      <c r="C38" t="str">
-        <v>450h+ F SPORT 3</v>
-      </c>
-      <c r="D38" t="str">
-        <v>#LX7590</v>
-      </c>
-      <c r="E38" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="str">
-        <v>2024LexusRX</v>
-      </c>
-      <c r="B39" t="str">
-        <v>60350</v>
-      </c>
-      <c r="C39" t="str">
-        <v>350 PREMIUM PKG</v>
-      </c>
-      <c r="D39" t="str">
-        <v>#LX7593</v>
-      </c>
-      <c r="E39" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E39"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E35"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Projects/scrapping_js/lexus_maritime/Lexus_Inventory.xlsx
+++ b/Projects/scrapping_js/lexus_maritime/Lexus_Inventory.xlsx
@@ -483,33 +483,33 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2024 ES 350</v>
+        <v>2024 RX 350</v>
       </c>
       <c r="B4" t="str">
-        <v>Front Wheel Drive</v>
+        <v>All Wheel Drive</v>
       </c>
       <c r="C4" t="str">
         <v>Automatic</v>
       </c>
       <c r="D4" t="str">
-        <v>3.5L 6cyl.</v>
+        <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E4" t="str">
-        <v>$66078</v>
+        <v>$69678</v>
       </c>
       <c r="F4" t="str">
-        <v>58AFZ1B18RU173495</v>
+        <v>2T2BAMCA9RC075859</v>
       </c>
       <c r="G4" t="str">
-        <v>24095</v>
+        <v>24176</v>
       </c>
       <c r="H4" t="str">
-        <v>Ultra Luxury</v>
+        <v>Luxury</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2024 RX 350</v>
+        <v>2024 TX 350 Luxury</v>
       </c>
       <c r="B5" t="str">
         <v>All Wheel Drive</v>
@@ -521,13 +521,13 @@
         <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E5" t="str">
-        <v>$69678</v>
+        <v>$71078</v>
       </c>
       <c r="F5" t="str">
-        <v>2T2BAMCA9RC075859</v>
+        <v>5TDAAAB6XRS010005</v>
       </c>
       <c r="G5" t="str">
-        <v>24176</v>
+        <v>24131</v>
       </c>
       <c r="H5" t="str">
         <v>Luxury</v>
@@ -587,7 +587,7 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2024 TX 350 Luxury</v>
+        <v>2024 RX 350</v>
       </c>
       <c r="B8" t="str">
         <v>All Wheel Drive</v>
@@ -599,13 +599,13 @@
         <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E8" t="str">
-        <v>$71078</v>
+        <v>$70178</v>
       </c>
       <c r="F8" t="str">
-        <v>5TDAAAB6XRS010005</v>
+        <v>2T2BAMCA5RC083540</v>
       </c>
       <c r="G8" t="str">
-        <v>24131</v>
+        <v>24193</v>
       </c>
       <c r="H8" t="str">
         <v>Luxury</v>
@@ -613,7 +613,7 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2024 RX 350</v>
+        <v>2024 TX 350 Luxury</v>
       </c>
       <c r="B9" t="str">
         <v>All Wheel Drive</v>
@@ -625,13 +625,13 @@
         <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E9" t="str">
-        <v>$70178</v>
+        <v>$71578</v>
       </c>
       <c r="F9" t="str">
-        <v>2T2BAMCA5RC083540</v>
+        <v>5TDAAAB69RS009802</v>
       </c>
       <c r="G9" t="str">
-        <v>24193</v>
+        <v>24132</v>
       </c>
       <c r="H9" t="str">
         <v>Luxury</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2024 TX 350 Luxury</v>
+        <v>2024 TX 350 Ultra Luxury</v>
       </c>
       <c r="B10" t="str">
         <v>All Wheel Drive</v>
@@ -651,16 +651,16 @@
         <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E10" t="str">
-        <v>$71578</v>
+        <v>$73828</v>
       </c>
       <c r="F10" t="str">
-        <v>5TDAAAB69RS009802</v>
+        <v>5TDAAAB67RS013301</v>
       </c>
       <c r="G10" t="str">
-        <v>24132</v>
+        <v>24152</v>
       </c>
       <c r="H10" t="str">
-        <v>Luxury</v>
+        <v>Ultra Luxury</v>
       </c>
     </row>
     <row r="11">
@@ -680,10 +680,10 @@
         <v>$73828</v>
       </c>
       <c r="F11" t="str">
-        <v>5TDAAAB60RS014113</v>
+        <v>5TDAAAB6XRS008707</v>
       </c>
       <c r="G11" t="str">
-        <v>24156</v>
+        <v>24111</v>
       </c>
       <c r="H11" t="str">
         <v>Ultra Luxury</v>
@@ -706,10 +706,10 @@
         <v>$73828</v>
       </c>
       <c r="F12" t="str">
-        <v>5TDAAAB6XRS009467</v>
+        <v>5TDAAAB67RS013945</v>
       </c>
       <c r="G12" t="str">
-        <v>24117</v>
+        <v>24157</v>
       </c>
       <c r="H12" t="str">
         <v>Ultra Luxury</v>
@@ -732,10 +732,10 @@
         <v>$73828</v>
       </c>
       <c r="F13" t="str">
-        <v>5TDAAAB67RS013945</v>
+        <v>5TDAAAB60RS014113</v>
       </c>
       <c r="G13" t="str">
-        <v>24157</v>
+        <v>24156</v>
       </c>
       <c r="H13" t="str">
         <v>Ultra Luxury</v>
@@ -879,13 +879,13 @@
         <v>2024LexusRX</v>
       </c>
       <c r="B8" t="str">
-        <v>77350</v>
+        <v>60350</v>
       </c>
       <c r="C8" t="str">
-        <v>350h EXECUTIVE PKG</v>
+        <v>350 PREMIUM PKG</v>
       </c>
       <c r="D8" t="str">
-        <v>#LX7592</v>
+        <v>#LX7593</v>
       </c>
       <c r="E8" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -893,16 +893,16 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2024LexusRX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B9" t="str">
-        <v>60350</v>
+        <v>68383</v>
       </c>
       <c r="C9" t="str">
-        <v>350 PREMIUM PKG</v>
+        <v>350 PREMIUM</v>
       </c>
       <c r="D9" t="str">
-        <v>#LX7593</v>
+        <v>#LX7585</v>
       </c>
       <c r="E9" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -910,16 +910,16 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2025LexusNX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B10" t="str">
-        <v>68383</v>
+        <v>67850</v>
       </c>
       <c r="C10" t="str">
-        <v>350 PREMIUM</v>
+        <v>350 LUXURY PKG</v>
       </c>
       <c r="D10" t="str">
-        <v>#LX7585</v>
+        <v>#LX7583</v>
       </c>
       <c r="E10" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -927,19 +927,19 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2024LexusRX</v>
+        <v>2025LexusES</v>
       </c>
       <c r="B11" t="str">
-        <v>67850</v>
+        <v>54014</v>
       </c>
       <c r="C11" t="str">
-        <v>350 LUXURY PKG</v>
+        <v>350 PREMIUM</v>
       </c>
       <c r="D11" t="str">
-        <v>#LX7583</v>
+        <v>#LX7573</v>
       </c>
       <c r="E11" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
       </c>
     </row>
     <row r="12">
@@ -947,13 +947,13 @@
         <v>2024LexusRX</v>
       </c>
       <c r="B12" t="str">
-        <v>71350</v>
+        <v>71500</v>
       </c>
       <c r="C12" t="str">
-        <v>350 LUXURY</v>
+        <v>350 ULTRA LUXURY</v>
       </c>
       <c r="D12" t="str">
-        <v>#LX7584</v>
+        <v>#LX7531</v>
       </c>
       <c r="E12" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -961,33 +961,33 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2025LexusES</v>
+        <v>2024LexusIS</v>
       </c>
       <c r="B13" t="str">
-        <v>54014</v>
+        <v>47750</v>
       </c>
       <c r="C13" t="str">
-        <v>350 PREMIUM</v>
+        <v>300 PREMIUM PKG</v>
       </c>
       <c r="D13" t="str">
-        <v>#LX7573</v>
+        <v>#LX7526</v>
       </c>
       <c r="E13" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2024LexusRX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B14" t="str">
-        <v>71500</v>
+        <v>59799</v>
       </c>
       <c r="C14" t="str">
-        <v>350 ULTRA LUXURY</v>
+        <v>350 LUXURY</v>
       </c>
       <c r="D14" t="str">
-        <v>#LX7531</v>
+        <v>#LX7524</v>
       </c>
       <c r="E14" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -995,16 +995,16 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2024LexusIS</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B15" t="str">
-        <v>47750</v>
+        <v>54470</v>
       </c>
       <c r="C15" t="str">
-        <v>300 PREMIUM PKG</v>
+        <v>350 PREMIUM</v>
       </c>
       <c r="D15" t="str">
-        <v>#LX7526</v>
+        <v>#LX7514</v>
       </c>
       <c r="E15" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1012,16 +1012,16 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>2025LexusNX</v>
+        <v>2024LexusIS</v>
       </c>
       <c r="B16" t="str">
-        <v>59799</v>
+        <v>56350</v>
       </c>
       <c r="C16" t="str">
-        <v>350 LUXURY</v>
+        <v>300 ULTRA LUXURY</v>
       </c>
       <c r="D16" t="str">
-        <v>#LX7524</v>
+        <v>#LX7497</v>
       </c>
       <c r="E16" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1029,16 +1029,16 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>2025LexusNX</v>
+        <v>2024LexusTX</v>
       </c>
       <c r="B17" t="str">
-        <v>54470</v>
+        <v>68750</v>
       </c>
       <c r="C17" t="str">
-        <v>350 PREMIUM</v>
+        <v>350 Luxury PKG</v>
       </c>
       <c r="D17" t="str">
-        <v>#LX7514</v>
+        <v>#LX7495</v>
       </c>
       <c r="E17" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1046,16 +1046,16 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>2024LexusIS</v>
+        <v>2024LexusTX</v>
       </c>
       <c r="B18" t="str">
-        <v>56350</v>
+        <v>68750</v>
       </c>
       <c r="C18" t="str">
-        <v>300 ULTRA LUXURY</v>
+        <v>350 Luxury PKG</v>
       </c>
       <c r="D18" t="str">
-        <v>#LX7497</v>
+        <v>#LX7489</v>
       </c>
       <c r="E18" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1066,13 +1066,13 @@
         <v>2024LexusTX</v>
       </c>
       <c r="B19" t="str">
-        <v>68750</v>
+        <v>84200</v>
       </c>
       <c r="C19" t="str">
-        <v>350 Luxury PKG</v>
+        <v>500h F SPORT PERFORMANCE 2</v>
       </c>
       <c r="D19" t="str">
-        <v>#LX7495</v>
+        <v>#LX7484</v>
       </c>
       <c r="E19" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1083,13 +1083,13 @@
         <v>2024LexusTX</v>
       </c>
       <c r="B20" t="str">
-        <v>68750</v>
+        <v>71500</v>
       </c>
       <c r="C20" t="str">
-        <v>350 Luxury PKG</v>
+        <v>350</v>
       </c>
       <c r="D20" t="str">
-        <v>#LX7489</v>
+        <v>#LX7477</v>
       </c>
       <c r="E20" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1097,16 +1097,16 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>2024LexusTX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B21" t="str">
-        <v>84200</v>
+        <v>62842</v>
       </c>
       <c r="C21" t="str">
-        <v>500h F SPORT PERFORMANCE 2</v>
+        <v>350 F SPORT 2</v>
       </c>
       <c r="D21" t="str">
-        <v>#LX7484</v>
+        <v>#LX7475</v>
       </c>
       <c r="E21" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1117,13 +1117,13 @@
         <v>2024LexusTX</v>
       </c>
       <c r="B22" t="str">
-        <v>71500</v>
+        <v>72000</v>
       </c>
       <c r="C22" t="str">
-        <v>350</v>
+        <v>350 ULTRA LUXURY</v>
       </c>
       <c r="D22" t="str">
-        <v>#LX7477</v>
+        <v>#LX7471</v>
       </c>
       <c r="E22" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1131,16 +1131,16 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>2025LexusNX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B23" t="str">
-        <v>62842</v>
+        <v>75850</v>
       </c>
       <c r="C23" t="str">
-        <v>350 F SPORT 2</v>
+        <v>350 F SPORT 3</v>
       </c>
       <c r="D23" t="str">
-        <v>#LX7475</v>
+        <v>#LX7460</v>
       </c>
       <c r="E23" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1148,16 +1148,16 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>2024LexusTX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B24" t="str">
-        <v>72000</v>
+        <v>54470</v>
       </c>
       <c r="C24" t="str">
-        <v>350 ULTRA LUXURY</v>
+        <v>350</v>
       </c>
       <c r="D24" t="str">
-        <v>#LX7471</v>
+        <v>#LX7442</v>
       </c>
       <c r="E24" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1168,13 +1168,13 @@
         <v>2024LexusRX</v>
       </c>
       <c r="B25" t="str">
-        <v>75850</v>
+        <v>60350</v>
       </c>
       <c r="C25" t="str">
-        <v>350 F SPORT 3</v>
+        <v>350 PREMIUM PKG</v>
       </c>
       <c r="D25" t="str">
-        <v>#LX7460</v>
+        <v>#LX7437</v>
       </c>
       <c r="E25" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1182,16 +1182,16 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>2025LexusNX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B26" t="str">
-        <v>54470</v>
+        <v>60350</v>
       </c>
       <c r="C26" t="str">
-        <v>350</v>
+        <v>350 PREMIUM PKG</v>
       </c>
       <c r="D26" t="str">
-        <v>#LX7442</v>
+        <v>#LX7432</v>
       </c>
       <c r="E26" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1199,16 +1199,16 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>2024LexusRX</v>
+        <v>2024LexusTX</v>
       </c>
       <c r="B27" t="str">
-        <v>60350</v>
+        <v>71500</v>
       </c>
       <c r="C27" t="str">
-        <v>350 PREMIUM PKG</v>
+        <v>350 ULTRA LUXURY</v>
       </c>
       <c r="D27" t="str">
-        <v>#LX7437</v>
+        <v>#LX7430</v>
       </c>
       <c r="E27" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1219,13 +1219,13 @@
         <v>2024LexusRX</v>
       </c>
       <c r="B28" t="str">
-        <v>60350</v>
+        <v>72850</v>
       </c>
       <c r="C28" t="str">
-        <v>350 PREMIUM PKG</v>
+        <v>350h ULTRA LUXURY</v>
       </c>
       <c r="D28" t="str">
-        <v>#LX7432</v>
+        <v>#LX7406</v>
       </c>
       <c r="E28" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1233,16 +1233,16 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>2024LexusTX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B29" t="str">
-        <v>71500</v>
+        <v>75850</v>
       </c>
       <c r="C29" t="str">
-        <v>350 ULTRA LUXURY</v>
+        <v>350 F SPORT 3</v>
       </c>
       <c r="D29" t="str">
-        <v>#LX7430</v>
+        <v>#LX7404</v>
       </c>
       <c r="E29" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1253,13 +1253,13 @@
         <v>2024LexusRX</v>
       </c>
       <c r="B30" t="str">
-        <v>72850</v>
+        <v>81100</v>
       </c>
       <c r="C30" t="str">
-        <v>350h ULTRA LUXURY</v>
+        <v>500h F SPORT PERFORMANCE 2</v>
       </c>
       <c r="D30" t="str">
-        <v>#LX7406</v>
+        <v>#LX7306</v>
       </c>
       <c r="E30" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1267,16 +1267,16 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>2024LexusRX</v>
+        <v>2024LexusTX</v>
       </c>
       <c r="B31" t="str">
-        <v>75850</v>
+        <v>84200</v>
       </c>
       <c r="C31" t="str">
-        <v>350 F SPORT 3</v>
+        <v>500h F SPORT PERFORMANCE 2</v>
       </c>
       <c r="D31" t="str">
-        <v>#LX7404</v>
+        <v>#LX7304</v>
       </c>
       <c r="E31" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1284,16 +1284,16 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>2024LexusRX</v>
+        <v>2024LexusTX</v>
       </c>
       <c r="B32" t="str">
-        <v>81100</v>
+        <v>71500</v>
       </c>
       <c r="C32" t="str">
-        <v>500h F SPORT PERFORMANCE 2</v>
+        <v>350 ULTRA LUXURY</v>
       </c>
       <c r="D32" t="str">
-        <v>#LX7306</v>
+        <v>#LX7294</v>
       </c>
       <c r="E32" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1301,16 +1301,16 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>2024LexusTX</v>
+        <v>2024LexusIS</v>
       </c>
       <c r="B33" t="str">
-        <v>84200</v>
+        <v>56350</v>
       </c>
       <c r="C33" t="str">
-        <v>500h F SPORT PERFORMANCE 2</v>
+        <v>300 ULTRA LUXURY</v>
       </c>
       <c r="D33" t="str">
-        <v>#LX7304</v>
+        <v>#LX7613</v>
       </c>
       <c r="E33" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1318,16 +1318,16 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>2024LexusTX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B34" t="str">
-        <v>71500</v>
+        <v>72850</v>
       </c>
       <c r="C34" t="str">
-        <v>350 ULTRA LUXURY</v>
+        <v>350h ULTRA LUXURY</v>
       </c>
       <c r="D34" t="str">
-        <v>#LX7294</v>
+        <v>#LX7616</v>
       </c>
       <c r="E34" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>

--- a/Projects/scrapping_js/lexus_maritime/Lexus_Inventory.xlsx
+++ b/Projects/scrapping_js/lexus_maritime/Lexus_Inventory.xlsx
@@ -431,7 +431,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2025 UX HYBRID 300h</v>
+        <v>2024 TX 350 Luxury</v>
       </c>
       <c r="B2" t="str">
         <v>All Wheel Drive</v>
@@ -440,16 +440,16 @@
         <v>Automatic</v>
       </c>
       <c r="D2" t="str">
-        <v>2L 4cyl.</v>
+        <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E2" t="str">
-        <v>$52047</v>
+        <v>$71078</v>
       </c>
       <c r="F2" t="str">
-        <v>JTHUCJDHXS2003590</v>
+        <v>5TDAAAB66RS007506</v>
       </c>
       <c r="G2" t="str">
-        <v>25038</v>
+        <v>24108</v>
       </c>
       <c r="H2" t="str">
         <v>Luxury</v>
@@ -457,7 +457,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2025 NX F SPORT</v>
+        <v>2024 TX 350 Luxury</v>
       </c>
       <c r="B3" t="str">
         <v>All Wheel Drive</v>
@@ -469,21 +469,21 @@
         <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E3" t="str">
-        <v>$62268</v>
+        <v>$71078</v>
       </c>
       <c r="F3" t="str">
-        <v>2T2KGCEZ0SC063844</v>
+        <v>5TDAAAB6XRS010005</v>
       </c>
       <c r="G3" t="str">
-        <v>25017</v>
+        <v>24131</v>
       </c>
       <c r="H3" t="str">
-        <v>F SPORT 1</v>
+        <v>Luxury</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2024 RX 350</v>
+        <v>2024 TX 350 Luxury</v>
       </c>
       <c r="B4" t="str">
         <v>All Wheel Drive</v>
@@ -495,13 +495,13 @@
         <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E4" t="str">
-        <v>$69678</v>
+        <v>$71078</v>
       </c>
       <c r="F4" t="str">
-        <v>2T2BAMCA9RC075859</v>
+        <v>5TDAAAB67RS011953</v>
       </c>
       <c r="G4" t="str">
-        <v>24176</v>
+        <v>24143</v>
       </c>
       <c r="H4" t="str">
         <v>Luxury</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2024 TX 350 Luxury</v>
+        <v>2024 RX 350</v>
       </c>
       <c r="B5" t="str">
         <v>All Wheel Drive</v>
@@ -521,13 +521,13 @@
         <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E5" t="str">
-        <v>$71078</v>
+        <v>$69678</v>
       </c>
       <c r="F5" t="str">
-        <v>5TDAAAB6XRS010005</v>
+        <v>2T2BAMCA9RC075859</v>
       </c>
       <c r="G5" t="str">
-        <v>24131</v>
+        <v>24176</v>
       </c>
       <c r="H5" t="str">
         <v>Luxury</v>
@@ -547,13 +547,13 @@
         <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E6" t="str">
-        <v>$71078</v>
+        <v>$71578</v>
       </c>
       <c r="F6" t="str">
-        <v>5TDAAAB66RS007506</v>
+        <v>5TDAAAB69RS009802</v>
       </c>
       <c r="G6" t="str">
-        <v>24108</v>
+        <v>24132</v>
       </c>
       <c r="H6" t="str">
         <v>Luxury</v>
@@ -561,7 +561,7 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>2024 TX 350 Luxury</v>
+        <v>2024 RX 350</v>
       </c>
       <c r="B7" t="str">
         <v>All Wheel Drive</v>
@@ -573,13 +573,13 @@
         <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E7" t="str">
-        <v>$71078</v>
+        <v>$70178</v>
       </c>
       <c r="F7" t="str">
-        <v>5TDAAAB67RS011953</v>
+        <v>2T2BAMCA5RC083540</v>
       </c>
       <c r="G7" t="str">
-        <v>24143</v>
+        <v>24193</v>
       </c>
       <c r="H7" t="str">
         <v>Luxury</v>
@@ -587,7 +587,7 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2024 RX 350</v>
+        <v>2024 TX 350 Ultra Luxury</v>
       </c>
       <c r="B8" t="str">
         <v>All Wheel Drive</v>
@@ -599,21 +599,21 @@
         <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E8" t="str">
-        <v>$70178</v>
+        <v>$73828</v>
       </c>
       <c r="F8" t="str">
-        <v>2T2BAMCA5RC083540</v>
+        <v>5TDAAAB67RS013945</v>
       </c>
       <c r="G8" t="str">
-        <v>24193</v>
+        <v>24157</v>
       </c>
       <c r="H8" t="str">
-        <v>Luxury</v>
+        <v>Ultra Luxury</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2024 TX 350 Luxury</v>
+        <v>2024 TX 350 Ultra Luxury</v>
       </c>
       <c r="B9" t="str">
         <v>All Wheel Drive</v>
@@ -625,16 +625,16 @@
         <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E9" t="str">
-        <v>$71578</v>
+        <v>$73828</v>
       </c>
       <c r="F9" t="str">
-        <v>5TDAAAB69RS009802</v>
+        <v>5TDAAAB67RS013301</v>
       </c>
       <c r="G9" t="str">
-        <v>24132</v>
+        <v>24152</v>
       </c>
       <c r="H9" t="str">
-        <v>Luxury</v>
+        <v>Ultra Luxury</v>
       </c>
     </row>
     <row r="10">
@@ -654,10 +654,10 @@
         <v>$73828</v>
       </c>
       <c r="F10" t="str">
-        <v>5TDAAAB67RS013301</v>
+        <v>5TDAAAB6XRS008707</v>
       </c>
       <c r="G10" t="str">
-        <v>24152</v>
+        <v>24111</v>
       </c>
       <c r="H10" t="str">
         <v>Ultra Luxury</v>
@@ -680,10 +680,10 @@
         <v>$73828</v>
       </c>
       <c r="F11" t="str">
-        <v>5TDAAAB6XRS008707</v>
+        <v>5TDAAAB60RS014113</v>
       </c>
       <c r="G11" t="str">
-        <v>24111</v>
+        <v>24156</v>
       </c>
       <c r="H11" t="str">
         <v>Ultra Luxury</v>
@@ -706,10 +706,10 @@
         <v>$73828</v>
       </c>
       <c r="F12" t="str">
-        <v>5TDAAAB67RS013945</v>
+        <v>5TDAAAB63RS013487</v>
       </c>
       <c r="G12" t="str">
-        <v>24157</v>
+        <v>24158</v>
       </c>
       <c r="H12" t="str">
         <v>Ultra Luxury</v>
@@ -732,10 +732,10 @@
         <v>$73828</v>
       </c>
       <c r="F13" t="str">
-        <v>5TDAAAB60RS014113</v>
+        <v>5TDAAAB61RS005453</v>
       </c>
       <c r="G13" t="str">
-        <v>24156</v>
+        <v>24094</v>
       </c>
       <c r="H13" t="str">
         <v>Ultra Luxury</v>
@@ -774,33 +774,33 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2024LexusLX</v>
+        <v>2025LexusUX</v>
       </c>
       <c r="B2" t="str">
-        <v>131800</v>
+        <v>43605</v>
       </c>
       <c r="C2" t="str">
-        <v>600 F SPORT 1</v>
+        <v>300h PREMIUM PKG</v>
       </c>
       <c r="D2" t="str">
-        <v>#LX7607</v>
+        <v>#LX7618</v>
       </c>
       <c r="E2" t="str">
-        <v>4x4, Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2025LexusNX</v>
+        <v>2024LexusIS</v>
       </c>
       <c r="B3" t="str">
-        <v>59940</v>
+        <v>56350</v>
       </c>
       <c r="C3" t="str">
-        <v>350 F SPORT 1</v>
+        <v>300 ULTRA LUXURY</v>
       </c>
       <c r="D3" t="str">
-        <v>#LX7606</v>
+        <v>#LX7613</v>
       </c>
       <c r="E3" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -808,16 +808,16 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2024LexusIS</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B4" t="str">
-        <v>47750</v>
+        <v>72850</v>
       </c>
       <c r="C4" t="str">
-        <v>300 PREMIUM PKG</v>
+        <v>350h ULTRA LUXURY</v>
       </c>
       <c r="D4" t="str">
-        <v>#LX7598</v>
+        <v>#LX7616</v>
       </c>
       <c r="E4" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -825,36 +825,36 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2024LexusIS</v>
+        <v>2024LexusLX</v>
       </c>
       <c r="B5" t="str">
-        <v>55050</v>
+        <v>131800</v>
       </c>
       <c r="C5" t="str">
-        <v>300 F SPORT 2</v>
+        <v>600 F SPORT 1</v>
       </c>
       <c r="D5" t="str">
-        <v>#LX7597</v>
+        <v>#LX7607</v>
       </c>
       <c r="E5" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>4x4, Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>2024LexusRX</v>
+        <v>2025LexusES</v>
       </c>
       <c r="B6" t="str">
-        <v>59850</v>
+        <v>54014</v>
       </c>
       <c r="C6" t="str">
-        <v>350 PREMIUM PKG</v>
+        <v>350 PREMIUM</v>
       </c>
       <c r="D6" t="str">
-        <v>#LX7596</v>
+        <v>#LX7601</v>
       </c>
       <c r="E6" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
       </c>
     </row>
     <row r="7">
@@ -862,13 +862,13 @@
         <v>2025LexusNX</v>
       </c>
       <c r="B7" t="str">
-        <v>77265</v>
+        <v>59940</v>
       </c>
       <c r="C7" t="str">
-        <v>450h+ F SPORT 3</v>
+        <v>350 F SPORT 1</v>
       </c>
       <c r="D7" t="str">
-        <v>#LX7590</v>
+        <v>#LX7606</v>
       </c>
       <c r="E7" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -876,16 +876,16 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2024LexusRX</v>
+        <v>2024LexusIS</v>
       </c>
       <c r="B8" t="str">
-        <v>60350</v>
+        <v>47750</v>
       </c>
       <c r="C8" t="str">
-        <v>350 PREMIUM PKG</v>
+        <v>300 PREMIUM PKG</v>
       </c>
       <c r="D8" t="str">
-        <v>#LX7593</v>
+        <v>#LX7598</v>
       </c>
       <c r="E8" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -893,16 +893,16 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2025LexusNX</v>
+        <v>2024LexusIS</v>
       </c>
       <c r="B9" t="str">
-        <v>68383</v>
+        <v>55050</v>
       </c>
       <c r="C9" t="str">
-        <v>350 PREMIUM</v>
+        <v>300 F SPORT 2</v>
       </c>
       <c r="D9" t="str">
-        <v>#LX7585</v>
+        <v>#LX7597</v>
       </c>
       <c r="E9" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -913,13 +913,13 @@
         <v>2024LexusRX</v>
       </c>
       <c r="B10" t="str">
-        <v>67850</v>
+        <v>59850</v>
       </c>
       <c r="C10" t="str">
-        <v>350 LUXURY PKG</v>
+        <v>350 PREMIUM PKG</v>
       </c>
       <c r="D10" t="str">
-        <v>#LX7583</v>
+        <v>#LX7596</v>
       </c>
       <c r="E10" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -927,33 +927,33 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2025LexusES</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B11" t="str">
-        <v>54014</v>
+        <v>60350</v>
       </c>
       <c r="C11" t="str">
-        <v>350 PREMIUM</v>
+        <v>350 PREMIUM PKG</v>
       </c>
       <c r="D11" t="str">
-        <v>#LX7573</v>
+        <v>#LX7593</v>
       </c>
       <c r="E11" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2024LexusRX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B12" t="str">
-        <v>71500</v>
+        <v>68383</v>
       </c>
       <c r="C12" t="str">
-        <v>350 ULTRA LUXURY</v>
+        <v>350 PREMIUM</v>
       </c>
       <c r="D12" t="str">
-        <v>#LX7531</v>
+        <v>#LX7585</v>
       </c>
       <c r="E12" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -961,16 +961,16 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2024LexusIS</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B13" t="str">
-        <v>47750</v>
+        <v>67850</v>
       </c>
       <c r="C13" t="str">
-        <v>300 PREMIUM PKG</v>
+        <v>350 LUXURY PKG</v>
       </c>
       <c r="D13" t="str">
-        <v>#LX7526</v>
+        <v>#LX7583</v>
       </c>
       <c r="E13" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -978,33 +978,33 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2025LexusNX</v>
+        <v>2025LexusES</v>
       </c>
       <c r="B14" t="str">
-        <v>59799</v>
+        <v>54014</v>
       </c>
       <c r="C14" t="str">
-        <v>350 LUXURY</v>
+        <v>350 PREMIUM</v>
       </c>
       <c r="D14" t="str">
-        <v>#LX7524</v>
+        <v>#LX7573</v>
       </c>
       <c r="E14" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2025LexusNX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B15" t="str">
-        <v>54470</v>
+        <v>71500</v>
       </c>
       <c r="C15" t="str">
-        <v>350 PREMIUM</v>
+        <v>350 ULTRA LUXURY</v>
       </c>
       <c r="D15" t="str">
-        <v>#LX7514</v>
+        <v>#LX7531</v>
       </c>
       <c r="E15" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1015,13 +1015,13 @@
         <v>2024LexusIS</v>
       </c>
       <c r="B16" t="str">
-        <v>56350</v>
+        <v>47750</v>
       </c>
       <c r="C16" t="str">
-        <v>300 ULTRA LUXURY</v>
+        <v>300 PREMIUM PKG</v>
       </c>
       <c r="D16" t="str">
-        <v>#LX7497</v>
+        <v>#LX7526</v>
       </c>
       <c r="E16" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1029,16 +1029,16 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>2024LexusTX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B17" t="str">
-        <v>68750</v>
+        <v>54470</v>
       </c>
       <c r="C17" t="str">
-        <v>350 Luxury PKG</v>
+        <v>350 PREMIUM</v>
       </c>
       <c r="D17" t="str">
-        <v>#LX7495</v>
+        <v>#LX7514</v>
       </c>
       <c r="E17" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1046,16 +1046,16 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>2024LexusTX</v>
+        <v>2024LexusIS</v>
       </c>
       <c r="B18" t="str">
-        <v>68750</v>
+        <v>56350</v>
       </c>
       <c r="C18" t="str">
-        <v>350 Luxury PKG</v>
+        <v>300 ULTRA LUXURY</v>
       </c>
       <c r="D18" t="str">
-        <v>#LX7489</v>
+        <v>#LX7497</v>
       </c>
       <c r="E18" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1066,13 +1066,13 @@
         <v>2024LexusTX</v>
       </c>
       <c r="B19" t="str">
-        <v>84200</v>
+        <v>68750</v>
       </c>
       <c r="C19" t="str">
-        <v>500h F SPORT PERFORMANCE 2</v>
+        <v>350 Luxury PKG</v>
       </c>
       <c r="D19" t="str">
-        <v>#LX7484</v>
+        <v>#LX7495</v>
       </c>
       <c r="E19" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1083,13 +1083,13 @@
         <v>2024LexusTX</v>
       </c>
       <c r="B20" t="str">
-        <v>71500</v>
+        <v>68750</v>
       </c>
       <c r="C20" t="str">
-        <v>350</v>
+        <v>350 Luxury PKG</v>
       </c>
       <c r="D20" t="str">
-        <v>#LX7477</v>
+        <v>#LX7489</v>
       </c>
       <c r="E20" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1097,16 +1097,16 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>2025LexusNX</v>
+        <v>2024LexusTX</v>
       </c>
       <c r="B21" t="str">
-        <v>62842</v>
+        <v>84200</v>
       </c>
       <c r="C21" t="str">
-        <v>350 F SPORT 2</v>
+        <v>500h F SPORT PERFORMANCE 2</v>
       </c>
       <c r="D21" t="str">
-        <v>#LX7475</v>
+        <v>#LX7484</v>
       </c>
       <c r="E21" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1117,13 +1117,13 @@
         <v>2024LexusTX</v>
       </c>
       <c r="B22" t="str">
-        <v>72000</v>
+        <v>71500</v>
       </c>
       <c r="C22" t="str">
-        <v>350 ULTRA LUXURY</v>
+        <v>350</v>
       </c>
       <c r="D22" t="str">
-        <v>#LX7471</v>
+        <v>#LX7477</v>
       </c>
       <c r="E22" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1131,16 +1131,16 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>2024LexusRX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B23" t="str">
-        <v>75850</v>
+        <v>62842</v>
       </c>
       <c r="C23" t="str">
-        <v>350 F SPORT 3</v>
+        <v>350 F SPORT 2</v>
       </c>
       <c r="D23" t="str">
-        <v>#LX7460</v>
+        <v>#LX7475</v>
       </c>
       <c r="E23" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1148,16 +1148,16 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>2025LexusNX</v>
+        <v>2024LexusTX</v>
       </c>
       <c r="B24" t="str">
-        <v>54470</v>
+        <v>72000</v>
       </c>
       <c r="C24" t="str">
-        <v>350</v>
+        <v>350 ULTRA LUXURY</v>
       </c>
       <c r="D24" t="str">
-        <v>#LX7442</v>
+        <v>#LX7471</v>
       </c>
       <c r="E24" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1165,16 +1165,16 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>2024LexusRX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B25" t="str">
-        <v>60350</v>
+        <v>54470</v>
       </c>
       <c r="C25" t="str">
-        <v>350 PREMIUM PKG</v>
+        <v>350</v>
       </c>
       <c r="D25" t="str">
-        <v>#LX7437</v>
+        <v>#LX7442</v>
       </c>
       <c r="E25" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1191,7 +1191,7 @@
         <v>350 PREMIUM PKG</v>
       </c>
       <c r="D26" t="str">
-        <v>#LX7432</v>
+        <v>#LX7437</v>
       </c>
       <c r="E26" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1199,16 +1199,16 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>2024LexusTX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B27" t="str">
-        <v>71500</v>
+        <v>60350</v>
       </c>
       <c r="C27" t="str">
-        <v>350 ULTRA LUXURY</v>
+        <v>350 PREMIUM PKG</v>
       </c>
       <c r="D27" t="str">
-        <v>#LX7430</v>
+        <v>#LX7432</v>
       </c>
       <c r="E27" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1216,16 +1216,16 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>2024LexusRX</v>
+        <v>2024LexusTX</v>
       </c>
       <c r="B28" t="str">
-        <v>72850</v>
+        <v>71500</v>
       </c>
       <c r="C28" t="str">
-        <v>350h ULTRA LUXURY</v>
+        <v>350 ULTRA LUXURY</v>
       </c>
       <c r="D28" t="str">
-        <v>#LX7406</v>
+        <v>#LX7430</v>
       </c>
       <c r="E28" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1236,13 +1236,13 @@
         <v>2024LexusRX</v>
       </c>
       <c r="B29" t="str">
-        <v>75850</v>
+        <v>72850</v>
       </c>
       <c r="C29" t="str">
-        <v>350 F SPORT 3</v>
+        <v>350h ULTRA LUXURY</v>
       </c>
       <c r="D29" t="str">
-        <v>#LX7404</v>
+        <v>#LX7406</v>
       </c>
       <c r="E29" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1253,13 +1253,13 @@
         <v>2024LexusRX</v>
       </c>
       <c r="B30" t="str">
-        <v>81100</v>
+        <v>75850</v>
       </c>
       <c r="C30" t="str">
-        <v>500h F SPORT PERFORMANCE 2</v>
+        <v>350 F SPORT 3</v>
       </c>
       <c r="D30" t="str">
-        <v>#LX7306</v>
+        <v>#LX7404</v>
       </c>
       <c r="E30" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1267,16 +1267,16 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>2024LexusTX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B31" t="str">
-        <v>84200</v>
+        <v>81100</v>
       </c>
       <c r="C31" t="str">
         <v>500h F SPORT PERFORMANCE 2</v>
       </c>
       <c r="D31" t="str">
-        <v>#LX7304</v>
+        <v>#LX7306</v>
       </c>
       <c r="E31" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1287,13 +1287,13 @@
         <v>2024LexusTX</v>
       </c>
       <c r="B32" t="str">
-        <v>71500</v>
+        <v>84200</v>
       </c>
       <c r="C32" t="str">
-        <v>350 ULTRA LUXURY</v>
+        <v>500h F SPORT PERFORMANCE 2</v>
       </c>
       <c r="D32" t="str">
-        <v>#LX7294</v>
+        <v>#LX7304</v>
       </c>
       <c r="E32" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1301,16 +1301,16 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>2024LexusIS</v>
+        <v>2024LexusTX</v>
       </c>
       <c r="B33" t="str">
-        <v>56350</v>
+        <v>71500</v>
       </c>
       <c r="C33" t="str">
-        <v>300 ULTRA LUXURY</v>
+        <v>350 ULTRA LUXURY</v>
       </c>
       <c r="D33" t="str">
-        <v>#LX7613</v>
+        <v>#LX7294</v>
       </c>
       <c r="E33" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1321,13 +1321,13 @@
         <v>2024LexusRX</v>
       </c>
       <c r="B34" t="str">
-        <v>72850</v>
+        <v>77350</v>
       </c>
       <c r="C34" t="str">
-        <v>350h ULTRA LUXURY</v>
+        <v>350h EXECUTIVE PKG</v>
       </c>
       <c r="D34" t="str">
-        <v>#LX7616</v>
+        <v>#LX7625</v>
       </c>
       <c r="E34" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1335,19 +1335,19 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>2025LexusES</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B35" t="str">
-        <v>54014</v>
+        <v>86950</v>
       </c>
       <c r="C35" t="str">
-        <v>350 PREMIUM</v>
+        <v>450h+ EXECUTIVE PKG</v>
       </c>
       <c r="D35" t="str">
-        <v>#LX7601</v>
+        <v>#LX7623</v>
       </c>
       <c r="E35" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
+        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/scrapping_js/lexus_maritime/Lexus_Inventory.xlsx
+++ b/Projects/scrapping_js/lexus_maritime/Lexus_Inventory.xlsx
@@ -446,10 +446,10 @@
         <v>$71078</v>
       </c>
       <c r="F2" t="str">
-        <v>5TDAAAB66RS007506</v>
+        <v>5TDAAAB6XRS010005</v>
       </c>
       <c r="G2" t="str">
-        <v>24108</v>
+        <v>24131</v>
       </c>
       <c r="H2" t="str">
         <v>Luxury</v>
@@ -472,10 +472,10 @@
         <v>$71078</v>
       </c>
       <c r="F3" t="str">
-        <v>5TDAAAB6XRS010005</v>
+        <v>5TDAAAB66RS007506</v>
       </c>
       <c r="G3" t="str">
-        <v>24131</v>
+        <v>24108</v>
       </c>
       <c r="H3" t="str">
         <v>Luxury</v>
@@ -602,10 +602,10 @@
         <v>$73828</v>
       </c>
       <c r="F8" t="str">
-        <v>5TDAAAB67RS013945</v>
+        <v>5TDAAAB67RS013301</v>
       </c>
       <c r="G8" t="str">
-        <v>24157</v>
+        <v>24152</v>
       </c>
       <c r="H8" t="str">
         <v>Ultra Luxury</v>
@@ -628,10 +628,10 @@
         <v>$73828</v>
       </c>
       <c r="F9" t="str">
-        <v>5TDAAAB67RS013301</v>
+        <v>5TDAAAB6XRS008707</v>
       </c>
       <c r="G9" t="str">
-        <v>24152</v>
+        <v>24111</v>
       </c>
       <c r="H9" t="str">
         <v>Ultra Luxury</v>
@@ -654,10 +654,10 @@
         <v>$73828</v>
       </c>
       <c r="F10" t="str">
-        <v>5TDAAAB6XRS008707</v>
+        <v>5TDAAAB67RS013945</v>
       </c>
       <c r="G10" t="str">
-        <v>24111</v>
+        <v>24157</v>
       </c>
       <c r="H10" t="str">
         <v>Ultra Luxury</v>
@@ -680,10 +680,10 @@
         <v>$73828</v>
       </c>
       <c r="F11" t="str">
-        <v>5TDAAAB60RS014113</v>
+        <v>5TDAAAB60RS009705</v>
       </c>
       <c r="G11" t="str">
-        <v>24156</v>
+        <v>24133</v>
       </c>
       <c r="H11" t="str">
         <v>Ultra Luxury</v>
@@ -706,10 +706,10 @@
         <v>$73828</v>
       </c>
       <c r="F12" t="str">
-        <v>5TDAAAB63RS013487</v>
+        <v>5TDAAAB60RS014113</v>
       </c>
       <c r="G12" t="str">
-        <v>24158</v>
+        <v>24156</v>
       </c>
       <c r="H12" t="str">
         <v>Ultra Luxury</v>
@@ -732,10 +732,10 @@
         <v>$73828</v>
       </c>
       <c r="F13" t="str">
-        <v>5TDAAAB61RS005453</v>
+        <v>5TDAAAB62RS012752</v>
       </c>
       <c r="G13" t="str">
-        <v>24094</v>
+        <v>24146</v>
       </c>
       <c r="H13" t="str">
         <v>Ultra Luxury</v>
@@ -750,7 +750,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -774,16 +774,16 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2025LexusUX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B2" t="str">
-        <v>43605</v>
+        <v>77350</v>
       </c>
       <c r="C2" t="str">
-        <v>300h PREMIUM PKG</v>
+        <v>350h EXECUTIVE PKG</v>
       </c>
       <c r="D2" t="str">
-        <v>#LX7618</v>
+        <v>#LX7625</v>
       </c>
       <c r="E2" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -791,16 +791,16 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2024LexusIS</v>
+        <v>2025LexusUX</v>
       </c>
       <c r="B3" t="str">
-        <v>56350</v>
+        <v>43605</v>
       </c>
       <c r="C3" t="str">
-        <v>300 ULTRA LUXURY</v>
+        <v>300h PREMIUM PKG</v>
       </c>
       <c r="D3" t="str">
-        <v>#LX7613</v>
+        <v>#LX7618</v>
       </c>
       <c r="E3" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -808,16 +808,16 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2024LexusRX</v>
+        <v>2024LexusIS</v>
       </c>
       <c r="B4" t="str">
-        <v>72850</v>
+        <v>56350</v>
       </c>
       <c r="C4" t="str">
-        <v>350h ULTRA LUXURY</v>
+        <v>300 ULTRA LUXURY</v>
       </c>
       <c r="D4" t="str">
-        <v>#LX7616</v>
+        <v>#LX7613</v>
       </c>
       <c r="E4" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -825,67 +825,67 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2024LexusLX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B5" t="str">
-        <v>131800</v>
+        <v>72850</v>
       </c>
       <c r="C5" t="str">
-        <v>600 F SPORT 1</v>
+        <v>350h ULTRA LUXURY</v>
       </c>
       <c r="D5" t="str">
-        <v>#LX7607</v>
+        <v>#LX7616</v>
       </c>
       <c r="E5" t="str">
-        <v>4x4, Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>2025LexusES</v>
+        <v>2024LexusLX</v>
       </c>
       <c r="B6" t="str">
-        <v>54014</v>
+        <v>131800</v>
       </c>
       <c r="C6" t="str">
-        <v>350 PREMIUM</v>
+        <v>600 F SPORT 1</v>
       </c>
       <c r="D6" t="str">
-        <v>#LX7601</v>
+        <v>#LX7607</v>
       </c>
       <c r="E6" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
+        <v>4x4, Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>2025LexusNX</v>
+        <v>2025LexusES</v>
       </c>
       <c r="B7" t="str">
-        <v>59940</v>
+        <v>54014</v>
       </c>
       <c r="C7" t="str">
-        <v>350 F SPORT 1</v>
+        <v>350 PREMIUM</v>
       </c>
       <c r="D7" t="str">
-        <v>#LX7606</v>
+        <v>#LX7601</v>
       </c>
       <c r="E7" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2024LexusIS</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B8" t="str">
-        <v>47750</v>
+        <v>59940</v>
       </c>
       <c r="C8" t="str">
-        <v>300 PREMIUM PKG</v>
+        <v>350 F SPORT 1</v>
       </c>
       <c r="D8" t="str">
-        <v>#LX7598</v>
+        <v>#LX7606</v>
       </c>
       <c r="E8" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -896,13 +896,13 @@
         <v>2024LexusIS</v>
       </c>
       <c r="B9" t="str">
-        <v>55050</v>
+        <v>47750</v>
       </c>
       <c r="C9" t="str">
-        <v>300 F SPORT 2</v>
+        <v>300 PREMIUM PKG</v>
       </c>
       <c r="D9" t="str">
-        <v>#LX7597</v>
+        <v>#LX7598</v>
       </c>
       <c r="E9" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -910,16 +910,16 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2024LexusRX</v>
+        <v>2024LexusIS</v>
       </c>
       <c r="B10" t="str">
-        <v>59850</v>
+        <v>55050</v>
       </c>
       <c r="C10" t="str">
-        <v>350 PREMIUM PKG</v>
+        <v>300 F SPORT 2</v>
       </c>
       <c r="D10" t="str">
-        <v>#LX7596</v>
+        <v>#LX7597</v>
       </c>
       <c r="E10" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -930,13 +930,13 @@
         <v>2024LexusRX</v>
       </c>
       <c r="B11" t="str">
-        <v>60350</v>
+        <v>59850</v>
       </c>
       <c r="C11" t="str">
         <v>350 PREMIUM PKG</v>
       </c>
       <c r="D11" t="str">
-        <v>#LX7593</v>
+        <v>#LX7596</v>
       </c>
       <c r="E11" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1321,38 +1321,89 @@
         <v>2024LexusRX</v>
       </c>
       <c r="B34" t="str">
-        <v>77350</v>
+        <v>86950</v>
       </c>
       <c r="C34" t="str">
-        <v>350h EXECUTIVE PKG</v>
+        <v>450h+ EXECUTIVE PKG</v>
       </c>
       <c r="D34" t="str">
-        <v>#LX7625</v>
+        <v>#LX7639</v>
       </c>
       <c r="E34" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
+        <v>2025LexusUX</v>
+      </c>
+      <c r="B35" t="str">
+        <v>51344</v>
+      </c>
+      <c r="C35" t="str">
+        <v>300h F SPORT 2</v>
+      </c>
+      <c r="D35" t="str">
+        <v>#LX7633</v>
+      </c>
+      <c r="E35" t="str">
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
         <v>2024LexusRX</v>
       </c>
-      <c r="B35" t="str">
+      <c r="B36" t="str">
+        <v>61850</v>
+      </c>
+      <c r="C36" t="str">
+        <v>350h PREMIUM PKG</v>
+      </c>
+      <c r="D36" t="str">
+        <v>#LX7638</v>
+      </c>
+      <c r="E36" t="str">
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>2025LexusNX</v>
+      </c>
+      <c r="B37" t="str">
+        <v>55120</v>
+      </c>
+      <c r="C37" t="str">
+        <v>350 PREMIUM</v>
+      </c>
+      <c r="D37" t="str">
+        <v>#LX7634</v>
+      </c>
+      <c r="E37" t="str">
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>2024LexusRX</v>
+      </c>
+      <c r="B38" t="str">
         <v>86950</v>
       </c>
-      <c r="C35" t="str">
+      <c r="C38" t="str">
         <v>450h+ EXECUTIVE PKG</v>
       </c>
-      <c r="D35" t="str">
+      <c r="D38" t="str">
         <v>#LX7623</v>
       </c>
-      <c r="E35" t="str">
+      <c r="E38" t="str">
         <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E35"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E38"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Projects/scrapping_js/lexus_maritime/Lexus_Inventory.xlsx
+++ b/Projects/scrapping_js/lexus_maritime/Lexus_Inventory.xlsx
@@ -472,10 +472,10 @@
         <v>$71078</v>
       </c>
       <c r="F3" t="str">
-        <v>5TDAAAB66RS007506</v>
+        <v>5TDAAAB67RS011953</v>
       </c>
       <c r="G3" t="str">
-        <v>24108</v>
+        <v>24143</v>
       </c>
       <c r="H3" t="str">
         <v>Luxury</v>
@@ -498,10 +498,10 @@
         <v>$71078</v>
       </c>
       <c r="F4" t="str">
-        <v>5TDAAAB67RS011953</v>
+        <v>5TDAAAB66RS007506</v>
       </c>
       <c r="G4" t="str">
-        <v>24143</v>
+        <v>24108</v>
       </c>
       <c r="H4" t="str">
         <v>Luxury</v>
@@ -654,10 +654,10 @@
         <v>$73828</v>
       </c>
       <c r="F10" t="str">
-        <v>5TDAAAB67RS013945</v>
+        <v>5TDAAAB60RS014113</v>
       </c>
       <c r="G10" t="str">
-        <v>24157</v>
+        <v>24156</v>
       </c>
       <c r="H10" t="str">
         <v>Ultra Luxury</v>
@@ -680,10 +680,10 @@
         <v>$73828</v>
       </c>
       <c r="F11" t="str">
-        <v>5TDAAAB60RS009705</v>
+        <v>5TDAAAB67RS013945</v>
       </c>
       <c r="G11" t="str">
-        <v>24133</v>
+        <v>24157</v>
       </c>
       <c r="H11" t="str">
         <v>Ultra Luxury</v>
@@ -706,10 +706,10 @@
         <v>$73828</v>
       </c>
       <c r="F12" t="str">
-        <v>5TDAAAB60RS014113</v>
+        <v>5TDAAAB63RS013487</v>
       </c>
       <c r="G12" t="str">
-        <v>24156</v>
+        <v>24158</v>
       </c>
       <c r="H12" t="str">
         <v>Ultra Luxury</v>
@@ -732,10 +732,10 @@
         <v>$73828</v>
       </c>
       <c r="F13" t="str">
-        <v>5TDAAAB62RS012752</v>
+        <v>5TDAAAB60RS009705</v>
       </c>
       <c r="G13" t="str">
-        <v>24146</v>
+        <v>24133</v>
       </c>
       <c r="H13" t="str">
         <v>Ultra Luxury</v>
@@ -910,16 +910,16 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2024LexusIS</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B10" t="str">
-        <v>55050</v>
+        <v>59850</v>
       </c>
       <c r="C10" t="str">
-        <v>300 F SPORT 2</v>
+        <v>350 PREMIUM PKG</v>
       </c>
       <c r="D10" t="str">
-        <v>#LX7597</v>
+        <v>#LX7596</v>
       </c>
       <c r="E10" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -927,16 +927,16 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2024LexusRX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B11" t="str">
-        <v>59850</v>
+        <v>68383</v>
       </c>
       <c r="C11" t="str">
-        <v>350 PREMIUM PKG</v>
+        <v>350 PREMIUM</v>
       </c>
       <c r="D11" t="str">
-        <v>#LX7596</v>
+        <v>#LX7585</v>
       </c>
       <c r="E11" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -944,16 +944,16 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2025LexusNX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B12" t="str">
-        <v>68383</v>
+        <v>67850</v>
       </c>
       <c r="C12" t="str">
-        <v>350 PREMIUM</v>
+        <v>350 LUXURY PKG</v>
       </c>
       <c r="D12" t="str">
-        <v>#LX7585</v>
+        <v>#LX7583</v>
       </c>
       <c r="E12" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -961,50 +961,50 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2024LexusRX</v>
+        <v>2025LexusES</v>
       </c>
       <c r="B13" t="str">
-        <v>67850</v>
+        <v>54014</v>
       </c>
       <c r="C13" t="str">
-        <v>350 LUXURY PKG</v>
+        <v>350 PREMIUM</v>
       </c>
       <c r="D13" t="str">
-        <v>#LX7583</v>
+        <v>#LX7573</v>
       </c>
       <c r="E13" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2025LexusES</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B14" t="str">
-        <v>54014</v>
+        <v>71500</v>
       </c>
       <c r="C14" t="str">
-        <v>350 PREMIUM</v>
+        <v>350 ULTRA LUXURY</v>
       </c>
       <c r="D14" t="str">
-        <v>#LX7573</v>
+        <v>#LX7531</v>
       </c>
       <c r="E14" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2024LexusRX</v>
+        <v>2024LexusIS</v>
       </c>
       <c r="B15" t="str">
-        <v>71500</v>
+        <v>47750</v>
       </c>
       <c r="C15" t="str">
-        <v>350 ULTRA LUXURY</v>
+        <v>300 PREMIUM PKG</v>
       </c>
       <c r="D15" t="str">
-        <v>#LX7531</v>
+        <v>#LX7526</v>
       </c>
       <c r="E15" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1015,13 +1015,13 @@
         <v>2024LexusIS</v>
       </c>
       <c r="B16" t="str">
-        <v>47750</v>
+        <v>56350</v>
       </c>
       <c r="C16" t="str">
-        <v>300 PREMIUM PKG</v>
+        <v>300 ULTRA LUXURY</v>
       </c>
       <c r="D16" t="str">
-        <v>#LX7526</v>
+        <v>#LX7497</v>
       </c>
       <c r="E16" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1029,16 +1029,16 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>2025LexusNX</v>
+        <v>2024LexusTX</v>
       </c>
       <c r="B17" t="str">
-        <v>54470</v>
+        <v>68750</v>
       </c>
       <c r="C17" t="str">
-        <v>350 PREMIUM</v>
+        <v>350 Luxury PKG</v>
       </c>
       <c r="D17" t="str">
-        <v>#LX7514</v>
+        <v>#LX7495</v>
       </c>
       <c r="E17" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1046,16 +1046,16 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>2024LexusIS</v>
+        <v>2024LexusTX</v>
       </c>
       <c r="B18" t="str">
-        <v>56350</v>
+        <v>68750</v>
       </c>
       <c r="C18" t="str">
-        <v>300 ULTRA LUXURY</v>
+        <v>350 Luxury PKG</v>
       </c>
       <c r="D18" t="str">
-        <v>#LX7497</v>
+        <v>#LX7489</v>
       </c>
       <c r="E18" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1066,13 +1066,13 @@
         <v>2024LexusTX</v>
       </c>
       <c r="B19" t="str">
-        <v>68750</v>
+        <v>84200</v>
       </c>
       <c r="C19" t="str">
-        <v>350 Luxury PKG</v>
+        <v>500h F SPORT PERFORMANCE 2</v>
       </c>
       <c r="D19" t="str">
-        <v>#LX7495</v>
+        <v>#LX7484</v>
       </c>
       <c r="E19" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1083,13 +1083,13 @@
         <v>2024LexusTX</v>
       </c>
       <c r="B20" t="str">
-        <v>68750</v>
+        <v>71500</v>
       </c>
       <c r="C20" t="str">
-        <v>350 Luxury PKG</v>
+        <v>350</v>
       </c>
       <c r="D20" t="str">
-        <v>#LX7489</v>
+        <v>#LX7477</v>
       </c>
       <c r="E20" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1097,16 +1097,16 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>2024LexusTX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B21" t="str">
-        <v>84200</v>
+        <v>62842</v>
       </c>
       <c r="C21" t="str">
-        <v>500h F SPORT PERFORMANCE 2</v>
+        <v>350 F SPORT 2</v>
       </c>
       <c r="D21" t="str">
-        <v>#LX7484</v>
+        <v>#LX7475</v>
       </c>
       <c r="E21" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1117,13 +1117,13 @@
         <v>2024LexusTX</v>
       </c>
       <c r="B22" t="str">
-        <v>71500</v>
+        <v>72000</v>
       </c>
       <c r="C22" t="str">
-        <v>350</v>
+        <v>350 ULTRA LUXURY</v>
       </c>
       <c r="D22" t="str">
-        <v>#LX7477</v>
+        <v>#LX7471</v>
       </c>
       <c r="E22" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1134,13 +1134,13 @@
         <v>2025LexusNX</v>
       </c>
       <c r="B23" t="str">
-        <v>62842</v>
+        <v>54470</v>
       </c>
       <c r="C23" t="str">
-        <v>350 F SPORT 2</v>
+        <v>350</v>
       </c>
       <c r="D23" t="str">
-        <v>#LX7475</v>
+        <v>#LX7442</v>
       </c>
       <c r="E23" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1148,16 +1148,16 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>2024LexusTX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B24" t="str">
-        <v>72000</v>
+        <v>60350</v>
       </c>
       <c r="C24" t="str">
-        <v>350 ULTRA LUXURY</v>
+        <v>350 PREMIUM PKG</v>
       </c>
       <c r="D24" t="str">
-        <v>#LX7471</v>
+        <v>#LX7437</v>
       </c>
       <c r="E24" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1165,16 +1165,16 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>2025LexusNX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B25" t="str">
-        <v>54470</v>
+        <v>60350</v>
       </c>
       <c r="C25" t="str">
-        <v>350</v>
+        <v>350 PREMIUM PKG</v>
       </c>
       <c r="D25" t="str">
-        <v>#LX7442</v>
+        <v>#LX7432</v>
       </c>
       <c r="E25" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1182,16 +1182,16 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>2024LexusRX</v>
+        <v>2024LexusTX</v>
       </c>
       <c r="B26" t="str">
-        <v>60350</v>
+        <v>71500</v>
       </c>
       <c r="C26" t="str">
-        <v>350 PREMIUM PKG</v>
+        <v>350 ULTRA LUXURY</v>
       </c>
       <c r="D26" t="str">
-        <v>#LX7437</v>
+        <v>#LX7430</v>
       </c>
       <c r="E26" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1202,13 +1202,13 @@
         <v>2024LexusRX</v>
       </c>
       <c r="B27" t="str">
-        <v>60350</v>
+        <v>72850</v>
       </c>
       <c r="C27" t="str">
-        <v>350 PREMIUM PKG</v>
+        <v>350h ULTRA LUXURY</v>
       </c>
       <c r="D27" t="str">
-        <v>#LX7432</v>
+        <v>#LX7406</v>
       </c>
       <c r="E27" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1216,16 +1216,16 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>2024LexusTX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B28" t="str">
-        <v>71500</v>
+        <v>75850</v>
       </c>
       <c r="C28" t="str">
-        <v>350 ULTRA LUXURY</v>
+        <v>350 F SPORT 3</v>
       </c>
       <c r="D28" t="str">
-        <v>#LX7430</v>
+        <v>#LX7404</v>
       </c>
       <c r="E28" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1236,13 +1236,13 @@
         <v>2024LexusRX</v>
       </c>
       <c r="B29" t="str">
-        <v>72850</v>
+        <v>81100</v>
       </c>
       <c r="C29" t="str">
-        <v>350h ULTRA LUXURY</v>
+        <v>500h F SPORT PERFORMANCE 2</v>
       </c>
       <c r="D29" t="str">
-        <v>#LX7406</v>
+        <v>#LX7306</v>
       </c>
       <c r="E29" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1250,16 +1250,16 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>2024LexusRX</v>
+        <v>2024LexusTX</v>
       </c>
       <c r="B30" t="str">
-        <v>75850</v>
+        <v>84200</v>
       </c>
       <c r="C30" t="str">
-        <v>350 F SPORT 3</v>
+        <v>500h F SPORT PERFORMANCE 2</v>
       </c>
       <c r="D30" t="str">
-        <v>#LX7404</v>
+        <v>#LX7304</v>
       </c>
       <c r="E30" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1267,16 +1267,16 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>2024LexusRX</v>
+        <v>2024LexusTX</v>
       </c>
       <c r="B31" t="str">
-        <v>81100</v>
+        <v>71500</v>
       </c>
       <c r="C31" t="str">
-        <v>500h F SPORT PERFORMANCE 2</v>
+        <v>350 ULTRA LUXURY</v>
       </c>
       <c r="D31" t="str">
-        <v>#LX7306</v>
+        <v>#LX7294</v>
       </c>
       <c r="E31" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1284,16 +1284,16 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>2024LexusTX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B32" t="str">
-        <v>84200</v>
+        <v>75850</v>
       </c>
       <c r="C32" t="str">
-        <v>500h F SPORT PERFORMANCE 2</v>
+        <v>350 EXECUTIVE PKG</v>
       </c>
       <c r="D32" t="str">
-        <v>#LX7304</v>
+        <v>#LX7642</v>
       </c>
       <c r="E32" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1301,19 +1301,19 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>2024LexusTX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B33" t="str">
-        <v>71500</v>
+        <v>87450</v>
       </c>
       <c r="C33" t="str">
-        <v>350 ULTRA LUXURY</v>
+        <v>450h+ EXECUTIVE PKG</v>
       </c>
       <c r="D33" t="str">
-        <v>#LX7294</v>
+        <v>#LX7641</v>
       </c>
       <c r="E33" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
       </c>
     </row>
     <row r="34">

--- a/Projects/scrapping_js/lexus_maritime/Lexus_Inventory.xlsx
+++ b/Projects/scrapping_js/lexus_maritime/Lexus_Inventory.xlsx
@@ -431,7 +431,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2024 TX 350 Luxury</v>
+        <v>2025 NX 350</v>
       </c>
       <c r="B2" t="str">
         <v>All Wheel Drive</v>
@@ -443,21 +443,21 @@
         <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E2" t="str">
-        <v>$71078</v>
+        <v>$56798</v>
       </c>
       <c r="F2" t="str">
-        <v>5TDAAAB6XRS010005</v>
+        <v>2T2GGCEZ3SC072687</v>
       </c>
       <c r="G2" t="str">
-        <v>24131</v>
+        <v>25051</v>
       </c>
       <c r="H2" t="str">
-        <v>Luxury</v>
+        <v>Premium</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2024 TX 350 Luxury</v>
+        <v>2025 NX HYBRID 350h</v>
       </c>
       <c r="B3" t="str">
         <v>All Wheel Drive</v>
@@ -466,19 +466,19 @@
         <v>Automatic</v>
       </c>
       <c r="D3" t="str">
-        <v>2.4L TURBO 4cyl.</v>
+        <v>2.5L 4cyl.</v>
       </c>
       <c r="E3" t="str">
-        <v>$71078</v>
+        <v>$59393</v>
       </c>
       <c r="F3" t="str">
-        <v>5TDAAAB67RS011953</v>
+        <v>2T2GKCEZ2SC042109</v>
       </c>
       <c r="G3" t="str">
-        <v>24143</v>
+        <v>25052</v>
       </c>
       <c r="H3" t="str">
-        <v>Luxury</v>
+        <v>Premium</v>
       </c>
     </row>
     <row r="4">
@@ -498,10 +498,10 @@
         <v>$71078</v>
       </c>
       <c r="F4" t="str">
-        <v>5TDAAAB66RS007506</v>
+        <v>5TDAAAB6XRS010005</v>
       </c>
       <c r="G4" t="str">
-        <v>24108</v>
+        <v>24131</v>
       </c>
       <c r="H4" t="str">
         <v>Luxury</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2024 RX 350</v>
+        <v>2024 TX 350 Luxury</v>
       </c>
       <c r="B5" t="str">
         <v>All Wheel Drive</v>
@@ -521,13 +521,13 @@
         <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E5" t="str">
-        <v>$69678</v>
+        <v>$71078</v>
       </c>
       <c r="F5" t="str">
-        <v>2T2BAMCA9RC075859</v>
+        <v>5TDAAAB67RS011953</v>
       </c>
       <c r="G5" t="str">
-        <v>24176</v>
+        <v>24143</v>
       </c>
       <c r="H5" t="str">
         <v>Luxury</v>
@@ -547,13 +547,13 @@
         <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E6" t="str">
-        <v>$71578</v>
+        <v>$71078</v>
       </c>
       <c r="F6" t="str">
-        <v>5TDAAAB69RS009802</v>
+        <v>5TDAAAB66RS007506</v>
       </c>
       <c r="G6" t="str">
-        <v>24132</v>
+        <v>24108</v>
       </c>
       <c r="H6" t="str">
         <v>Luxury</v>
@@ -561,7 +561,7 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>2024 RX 350</v>
+        <v>2024 TX 350 Luxury</v>
       </c>
       <c r="B7" t="str">
         <v>All Wheel Drive</v>
@@ -573,13 +573,13 @@
         <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E7" t="str">
-        <v>$70178</v>
+        <v>$71578</v>
       </c>
       <c r="F7" t="str">
-        <v>2T2BAMCA5RC083540</v>
+        <v>5TDAAAB69RS009802</v>
       </c>
       <c r="G7" t="str">
-        <v>24193</v>
+        <v>24132</v>
       </c>
       <c r="H7" t="str">
         <v>Luxury</v>
@@ -587,7 +587,7 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2024 TX 350 Ultra Luxury</v>
+        <v>2024 RX 350</v>
       </c>
       <c r="B8" t="str">
         <v>All Wheel Drive</v>
@@ -599,21 +599,21 @@
         <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E8" t="str">
-        <v>$73828</v>
+        <v>$70178</v>
       </c>
       <c r="F8" t="str">
-        <v>5TDAAAB67RS013301</v>
+        <v>2T2BAMCA5RC083540</v>
       </c>
       <c r="G8" t="str">
-        <v>24152</v>
+        <v>24193</v>
       </c>
       <c r="H8" t="str">
-        <v>Ultra Luxury</v>
+        <v>Luxury</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2024 TX 350 Ultra Luxury</v>
+        <v>2025 NX 350</v>
       </c>
       <c r="B9" t="str">
         <v>All Wheel Drive</v>
@@ -625,16 +625,16 @@
         <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E9" t="str">
-        <v>$73828</v>
+        <v>$71361</v>
       </c>
       <c r="F9" t="str">
-        <v>5TDAAAB6XRS008707</v>
+        <v>2T2GGCEZ2SC072194</v>
       </c>
       <c r="G9" t="str">
-        <v>24111</v>
+        <v>25050</v>
       </c>
       <c r="H9" t="str">
-        <v>Ultra Luxury</v>
+        <v>Executive</v>
       </c>
     </row>
     <row r="10">
@@ -654,10 +654,10 @@
         <v>$73828</v>
       </c>
       <c r="F10" t="str">
-        <v>5TDAAAB60RS014113</v>
+        <v>5TDAAAB6XRS008707</v>
       </c>
       <c r="G10" t="str">
-        <v>24156</v>
+        <v>24111</v>
       </c>
       <c r="H10" t="str">
         <v>Ultra Luxury</v>
@@ -680,10 +680,10 @@
         <v>$73828</v>
       </c>
       <c r="F11" t="str">
-        <v>5TDAAAB67RS013945</v>
+        <v>5TDAAAB67RS013301</v>
       </c>
       <c r="G11" t="str">
-        <v>24157</v>
+        <v>24152</v>
       </c>
       <c r="H11" t="str">
         <v>Ultra Luxury</v>
@@ -706,10 +706,10 @@
         <v>$73828</v>
       </c>
       <c r="F12" t="str">
-        <v>5TDAAAB63RS013487</v>
+        <v>5TDAAAB62RS012752</v>
       </c>
       <c r="G12" t="str">
-        <v>24158</v>
+        <v>24146</v>
       </c>
       <c r="H12" t="str">
         <v>Ultra Luxury</v>
@@ -732,10 +732,10 @@
         <v>$73828</v>
       </c>
       <c r="F13" t="str">
-        <v>5TDAAAB60RS009705</v>
+        <v>5TDAAAB63RS013487</v>
       </c>
       <c r="G13" t="str">
-        <v>24133</v>
+        <v>24158</v>
       </c>
       <c r="H13" t="str">
         <v>Ultra Luxury</v>
@@ -750,7 +750,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -774,16 +774,16 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2024LexusRX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B2" t="str">
-        <v>77350</v>
+        <v>55120</v>
       </c>
       <c r="C2" t="str">
-        <v>350h EXECUTIVE PKG</v>
+        <v>350 PREMIUM</v>
       </c>
       <c r="D2" t="str">
-        <v>#LX7625</v>
+        <v>#LX7634</v>
       </c>
       <c r="E2" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -791,16 +791,16 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2025LexusUX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B3" t="str">
-        <v>43605</v>
+        <v>77350</v>
       </c>
       <c r="C3" t="str">
-        <v>300h PREMIUM PKG</v>
+        <v>350h EXECUTIVE PKG</v>
       </c>
       <c r="D3" t="str">
-        <v>#LX7618</v>
+        <v>#LX7625</v>
       </c>
       <c r="E3" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -808,16 +808,16 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2024LexusIS</v>
+        <v>2025LexusUX</v>
       </c>
       <c r="B4" t="str">
-        <v>56350</v>
+        <v>43605</v>
       </c>
       <c r="C4" t="str">
-        <v>300 ULTRA LUXURY</v>
+        <v>300h PREMIUM PKG</v>
       </c>
       <c r="D4" t="str">
-        <v>#LX7613</v>
+        <v>#LX7618</v>
       </c>
       <c r="E4" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -825,16 +825,16 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2024LexusRX</v>
+        <v>2024LexusIS</v>
       </c>
       <c r="B5" t="str">
-        <v>72850</v>
+        <v>56350</v>
       </c>
       <c r="C5" t="str">
-        <v>350h ULTRA LUXURY</v>
+        <v>300 ULTRA LUXURY</v>
       </c>
       <c r="D5" t="str">
-        <v>#LX7616</v>
+        <v>#LX7613</v>
       </c>
       <c r="E5" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -842,50 +842,50 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>2024LexusLX</v>
+        <v>2025LexusES</v>
       </c>
       <c r="B6" t="str">
-        <v>131800</v>
+        <v>54014</v>
       </c>
       <c r="C6" t="str">
-        <v>600 F SPORT 1</v>
+        <v>350 PREMIUM</v>
       </c>
       <c r="D6" t="str">
-        <v>#LX7607</v>
+        <v>#LX7601</v>
       </c>
       <c r="E6" t="str">
-        <v>4x4, Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>2025LexusES</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B7" t="str">
-        <v>54014</v>
+        <v>59940</v>
       </c>
       <c r="C7" t="str">
-        <v>350 PREMIUM</v>
+        <v>350 F SPORT 1</v>
       </c>
       <c r="D7" t="str">
-        <v>#LX7601</v>
+        <v>#LX7606</v>
       </c>
       <c r="E7" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2025LexusNX</v>
+        <v>2024LexusIS</v>
       </c>
       <c r="B8" t="str">
-        <v>59940</v>
+        <v>47750</v>
       </c>
       <c r="C8" t="str">
-        <v>350 F SPORT 1</v>
+        <v>300 PREMIUM PKG</v>
       </c>
       <c r="D8" t="str">
-        <v>#LX7606</v>
+        <v>#LX7598</v>
       </c>
       <c r="E8" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -893,16 +893,16 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2024LexusIS</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B9" t="str">
-        <v>47750</v>
+        <v>68383</v>
       </c>
       <c r="C9" t="str">
-        <v>300 PREMIUM PKG</v>
+        <v>350 PREMIUM</v>
       </c>
       <c r="D9" t="str">
-        <v>#LX7598</v>
+        <v>#LX7585</v>
       </c>
       <c r="E9" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -913,13 +913,13 @@
         <v>2024LexusRX</v>
       </c>
       <c r="B10" t="str">
-        <v>59850</v>
+        <v>67850</v>
       </c>
       <c r="C10" t="str">
-        <v>350 PREMIUM PKG</v>
+        <v>350 LUXURY PKG</v>
       </c>
       <c r="D10" t="str">
-        <v>#LX7596</v>
+        <v>#LX7583</v>
       </c>
       <c r="E10" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -927,19 +927,19 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2025LexusNX</v>
+        <v>2025LexusES</v>
       </c>
       <c r="B11" t="str">
-        <v>68383</v>
+        <v>54014</v>
       </c>
       <c r="C11" t="str">
         <v>350 PREMIUM</v>
       </c>
       <c r="D11" t="str">
-        <v>#LX7585</v>
+        <v>#LX7573</v>
       </c>
       <c r="E11" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
       </c>
     </row>
     <row r="12">
@@ -947,13 +947,13 @@
         <v>2024LexusRX</v>
       </c>
       <c r="B12" t="str">
-        <v>67850</v>
+        <v>71500</v>
       </c>
       <c r="C12" t="str">
-        <v>350 LUXURY PKG</v>
+        <v>350 ULTRA LUXURY</v>
       </c>
       <c r="D12" t="str">
-        <v>#LX7583</v>
+        <v>#LX7531</v>
       </c>
       <c r="E12" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -961,33 +961,33 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2025LexusES</v>
+        <v>2024LexusIS</v>
       </c>
       <c r="B13" t="str">
-        <v>54014</v>
+        <v>47750</v>
       </c>
       <c r="C13" t="str">
-        <v>350 PREMIUM</v>
+        <v>300 PREMIUM PKG</v>
       </c>
       <c r="D13" t="str">
-        <v>#LX7573</v>
+        <v>#LX7526</v>
       </c>
       <c r="E13" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2024LexusRX</v>
+        <v>2024LexusIS</v>
       </c>
       <c r="B14" t="str">
-        <v>71500</v>
+        <v>56350</v>
       </c>
       <c r="C14" t="str">
-        <v>350 ULTRA LUXURY</v>
+        <v>300 ULTRA LUXURY</v>
       </c>
       <c r="D14" t="str">
-        <v>#LX7531</v>
+        <v>#LX7497</v>
       </c>
       <c r="E14" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -995,16 +995,16 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2024LexusIS</v>
+        <v>2024LexusTX</v>
       </c>
       <c r="B15" t="str">
-        <v>47750</v>
+        <v>68750</v>
       </c>
       <c r="C15" t="str">
-        <v>300 PREMIUM PKG</v>
+        <v>350 Luxury PKG</v>
       </c>
       <c r="D15" t="str">
-        <v>#LX7526</v>
+        <v>#LX7495</v>
       </c>
       <c r="E15" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1012,16 +1012,16 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>2024LexusIS</v>
+        <v>2024LexusTX</v>
       </c>
       <c r="B16" t="str">
-        <v>56350</v>
+        <v>68750</v>
       </c>
       <c r="C16" t="str">
-        <v>300 ULTRA LUXURY</v>
+        <v>350 Luxury PKG</v>
       </c>
       <c r="D16" t="str">
-        <v>#LX7497</v>
+        <v>#LX7489</v>
       </c>
       <c r="E16" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1032,13 +1032,13 @@
         <v>2024LexusTX</v>
       </c>
       <c r="B17" t="str">
-        <v>68750</v>
+        <v>84200</v>
       </c>
       <c r="C17" t="str">
-        <v>350 Luxury PKG</v>
+        <v>500h F SPORT PERFORMANCE 2</v>
       </c>
       <c r="D17" t="str">
-        <v>#LX7495</v>
+        <v>#LX7484</v>
       </c>
       <c r="E17" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1049,13 +1049,13 @@
         <v>2024LexusTX</v>
       </c>
       <c r="B18" t="str">
-        <v>68750</v>
+        <v>71500</v>
       </c>
       <c r="C18" t="str">
-        <v>350 Luxury PKG</v>
+        <v>350</v>
       </c>
       <c r="D18" t="str">
-        <v>#LX7489</v>
+        <v>#LX7477</v>
       </c>
       <c r="E18" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1063,16 +1063,16 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>2024LexusTX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B19" t="str">
-        <v>84200</v>
+        <v>62842</v>
       </c>
       <c r="C19" t="str">
-        <v>500h F SPORT PERFORMANCE 2</v>
+        <v>350 F SPORT 2</v>
       </c>
       <c r="D19" t="str">
-        <v>#LX7484</v>
+        <v>#LX7475</v>
       </c>
       <c r="E19" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1083,13 +1083,13 @@
         <v>2024LexusTX</v>
       </c>
       <c r="B20" t="str">
-        <v>71500</v>
+        <v>72000</v>
       </c>
       <c r="C20" t="str">
-        <v>350</v>
+        <v>350 ULTRA LUXURY</v>
       </c>
       <c r="D20" t="str">
-        <v>#LX7477</v>
+        <v>#LX7471</v>
       </c>
       <c r="E20" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1100,13 +1100,13 @@
         <v>2025LexusNX</v>
       </c>
       <c r="B21" t="str">
-        <v>62842</v>
+        <v>54470</v>
       </c>
       <c r="C21" t="str">
-        <v>350 F SPORT 2</v>
+        <v>350</v>
       </c>
       <c r="D21" t="str">
-        <v>#LX7475</v>
+        <v>#LX7442</v>
       </c>
       <c r="E21" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1114,16 +1114,16 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>2024LexusTX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B22" t="str">
-        <v>72000</v>
+        <v>60350</v>
       </c>
       <c r="C22" t="str">
-        <v>350 ULTRA LUXURY</v>
+        <v>350 PREMIUM PKG</v>
       </c>
       <c r="D22" t="str">
-        <v>#LX7471</v>
+        <v>#LX7437</v>
       </c>
       <c r="E22" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1131,16 +1131,16 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>2025LexusNX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B23" t="str">
-        <v>54470</v>
+        <v>60350</v>
       </c>
       <c r="C23" t="str">
-        <v>350</v>
+        <v>350 PREMIUM PKG</v>
       </c>
       <c r="D23" t="str">
-        <v>#LX7442</v>
+        <v>#LX7432</v>
       </c>
       <c r="E23" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1148,16 +1148,16 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>2024LexusRX</v>
+        <v>2024LexusTX</v>
       </c>
       <c r="B24" t="str">
-        <v>60350</v>
+        <v>71500</v>
       </c>
       <c r="C24" t="str">
-        <v>350 PREMIUM PKG</v>
+        <v>350 ULTRA LUXURY</v>
       </c>
       <c r="D24" t="str">
-        <v>#LX7437</v>
+        <v>#LX7430</v>
       </c>
       <c r="E24" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1168,13 +1168,13 @@
         <v>2024LexusRX</v>
       </c>
       <c r="B25" t="str">
-        <v>60350</v>
+        <v>72850</v>
       </c>
       <c r="C25" t="str">
-        <v>350 PREMIUM PKG</v>
+        <v>350h ULTRA LUXURY</v>
       </c>
       <c r="D25" t="str">
-        <v>#LX7432</v>
+        <v>#LX7406</v>
       </c>
       <c r="E25" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1182,16 +1182,16 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>2024LexusTX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B26" t="str">
-        <v>71500</v>
+        <v>75850</v>
       </c>
       <c r="C26" t="str">
-        <v>350 ULTRA LUXURY</v>
+        <v>350 F SPORT 3</v>
       </c>
       <c r="D26" t="str">
-        <v>#LX7430</v>
+        <v>#LX7404</v>
       </c>
       <c r="E26" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1202,13 +1202,13 @@
         <v>2024LexusRX</v>
       </c>
       <c r="B27" t="str">
-        <v>72850</v>
+        <v>81100</v>
       </c>
       <c r="C27" t="str">
-        <v>350h ULTRA LUXURY</v>
+        <v>500h F SPORT PERFORMANCE 2</v>
       </c>
       <c r="D27" t="str">
-        <v>#LX7406</v>
+        <v>#LX7306</v>
       </c>
       <c r="E27" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1216,16 +1216,16 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>2024LexusRX</v>
+        <v>2024LexusTX</v>
       </c>
       <c r="B28" t="str">
-        <v>75850</v>
+        <v>84200</v>
       </c>
       <c r="C28" t="str">
-        <v>350 F SPORT 3</v>
+        <v>500h F SPORT PERFORMANCE 2</v>
       </c>
       <c r="D28" t="str">
-        <v>#LX7404</v>
+        <v>#LX7304</v>
       </c>
       <c r="E28" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1233,16 +1233,16 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>2024LexusRX</v>
+        <v>2024LexusTX</v>
       </c>
       <c r="B29" t="str">
-        <v>81100</v>
+        <v>71500</v>
       </c>
       <c r="C29" t="str">
-        <v>500h F SPORT PERFORMANCE 2</v>
+        <v>350 ULTRA LUXURY</v>
       </c>
       <c r="D29" t="str">
-        <v>#LX7306</v>
+        <v>#LX7294</v>
       </c>
       <c r="E29" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1250,16 +1250,16 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>2024LexusTX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B30" t="str">
-        <v>84200</v>
+        <v>62192</v>
       </c>
       <c r="C30" t="str">
-        <v>500h F SPORT PERFORMANCE 2</v>
+        <v>350</v>
       </c>
       <c r="D30" t="str">
-        <v>#LX7304</v>
+        <v>#LX7644</v>
       </c>
       <c r="E30" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1267,16 +1267,16 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>2024LexusTX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B31" t="str">
-        <v>71500</v>
+        <v>75850</v>
       </c>
       <c r="C31" t="str">
-        <v>350 ULTRA LUXURY</v>
+        <v>350 EXECUTIVE PKG</v>
       </c>
       <c r="D31" t="str">
-        <v>#LX7294</v>
+        <v>#LX7642</v>
       </c>
       <c r="E31" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1287,16 +1287,16 @@
         <v>2024LexusRX</v>
       </c>
       <c r="B32" t="str">
-        <v>75850</v>
+        <v>87450</v>
       </c>
       <c r="C32" t="str">
-        <v>350 EXECUTIVE PKG</v>
+        <v>450h+ EXECUTIVE PKG</v>
       </c>
       <c r="D32" t="str">
-        <v>#LX7642</v>
+        <v>#LX7641</v>
       </c>
       <c r="E32" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
       </c>
     </row>
     <row r="33">
@@ -1304,13 +1304,13 @@
         <v>2024LexusRX</v>
       </c>
       <c r="B33" t="str">
-        <v>87450</v>
+        <v>86950</v>
       </c>
       <c r="C33" t="str">
         <v>450h+ EXECUTIVE PKG</v>
       </c>
       <c r="D33" t="str">
-        <v>#LX7641</v>
+        <v>#LX7639</v>
       </c>
       <c r="E33" t="str">
         <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
@@ -1318,92 +1318,41 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>2024LexusRX</v>
+        <v>2025LexusUX</v>
       </c>
       <c r="B34" t="str">
-        <v>86950</v>
+        <v>51344</v>
       </c>
       <c r="C34" t="str">
-        <v>450h+ EXECUTIVE PKG</v>
+        <v>300h F SPORT 2</v>
       </c>
       <c r="D34" t="str">
-        <v>#LX7639</v>
+        <v>#LX7633</v>
       </c>
       <c r="E34" t="str">
-        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>2025LexusUX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B35" t="str">
-        <v>51344</v>
+        <v>61850</v>
       </c>
       <c r="C35" t="str">
-        <v>300h F SPORT 2</v>
+        <v>350h PREMIUM PKG</v>
       </c>
       <c r="D35" t="str">
-        <v>#LX7633</v>
+        <v>#LX7638</v>
       </c>
       <c r="E35" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="str">
-        <v>2024LexusRX</v>
-      </c>
-      <c r="B36" t="str">
-        <v>61850</v>
-      </c>
-      <c r="C36" t="str">
-        <v>350h PREMIUM PKG</v>
-      </c>
-      <c r="D36" t="str">
-        <v>#LX7638</v>
-      </c>
-      <c r="E36" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="str">
-        <v>2025LexusNX</v>
-      </c>
-      <c r="B37" t="str">
-        <v>55120</v>
-      </c>
-      <c r="C37" t="str">
-        <v>350 PREMIUM</v>
-      </c>
-      <c r="D37" t="str">
-        <v>#LX7634</v>
-      </c>
-      <c r="E37" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="str">
-        <v>2024LexusRX</v>
-      </c>
-      <c r="B38" t="str">
-        <v>86950</v>
-      </c>
-      <c r="C38" t="str">
-        <v>450h+ EXECUTIVE PKG</v>
-      </c>
-      <c r="D38" t="str">
-        <v>#LX7623</v>
-      </c>
-      <c r="E38" t="str">
-        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E38"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E35"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Projects/scrapping_js/lexus_maritime/Lexus_Inventory.xlsx
+++ b/Projects/scrapping_js/lexus_maritime/Lexus_Inventory.xlsx
@@ -446,10 +446,10 @@
         <v>$56798</v>
       </c>
       <c r="F2" t="str">
-        <v>2T2GGCEZ3SC072687</v>
+        <v>2T2GGCEZXSC072802</v>
       </c>
       <c r="G2" t="str">
-        <v>25051</v>
+        <v>25053</v>
       </c>
       <c r="H2" t="str">
         <v>Premium</v>
@@ -457,7 +457,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2025 NX HYBRID 350h</v>
+        <v>2025 NX 350</v>
       </c>
       <c r="B3" t="str">
         <v>All Wheel Drive</v>
@@ -466,16 +466,16 @@
         <v>Automatic</v>
       </c>
       <c r="D3" t="str">
-        <v>2.5L 4cyl.</v>
+        <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E3" t="str">
-        <v>$59393</v>
+        <v>$56798</v>
       </c>
       <c r="F3" t="str">
-        <v>2T2GKCEZ2SC042109</v>
+        <v>2T2GGCEZ3SC072687</v>
       </c>
       <c r="G3" t="str">
-        <v>25052</v>
+        <v>25051</v>
       </c>
       <c r="H3" t="str">
         <v>Premium</v>
@@ -483,7 +483,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2024 TX 350 Luxury</v>
+        <v>2025 NX HYBRID 350h</v>
       </c>
       <c r="B4" t="str">
         <v>All Wheel Drive</v>
@@ -492,19 +492,19 @@
         <v>Automatic</v>
       </c>
       <c r="D4" t="str">
-        <v>2.4L TURBO 4cyl.</v>
+        <v>2.5L 4cyl.</v>
       </c>
       <c r="E4" t="str">
-        <v>$71078</v>
+        <v>$59393</v>
       </c>
       <c r="F4" t="str">
-        <v>5TDAAAB6XRS010005</v>
+        <v>2T2GKCEZ2SC042109</v>
       </c>
       <c r="G4" t="str">
-        <v>24131</v>
+        <v>25052</v>
       </c>
       <c r="H4" t="str">
-        <v>Luxury</v>
+        <v>Premium</v>
       </c>
     </row>
     <row r="5">
@@ -524,10 +524,10 @@
         <v>$71078</v>
       </c>
       <c r="F5" t="str">
-        <v>5TDAAAB67RS011953</v>
+        <v>5TDAAAB66RS007506</v>
       </c>
       <c r="G5" t="str">
-        <v>24143</v>
+        <v>24108</v>
       </c>
       <c r="H5" t="str">
         <v>Luxury</v>
@@ -550,10 +550,10 @@
         <v>$71078</v>
       </c>
       <c r="F6" t="str">
-        <v>5TDAAAB66RS007506</v>
+        <v>5TDAAAB6XRS010005</v>
       </c>
       <c r="G6" t="str">
-        <v>24108</v>
+        <v>24131</v>
       </c>
       <c r="H6" t="str">
         <v>Luxury</v>
@@ -573,13 +573,13 @@
         <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E7" t="str">
-        <v>$71578</v>
+        <v>$71078</v>
       </c>
       <c r="F7" t="str">
-        <v>5TDAAAB69RS009802</v>
+        <v>5TDAAAB67RS011953</v>
       </c>
       <c r="G7" t="str">
-        <v>24132</v>
+        <v>24143</v>
       </c>
       <c r="H7" t="str">
         <v>Luxury</v>
@@ -587,7 +587,7 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2024 RX 350</v>
+        <v>2024 TX 350 Luxury</v>
       </c>
       <c r="B8" t="str">
         <v>All Wheel Drive</v>
@@ -599,13 +599,13 @@
         <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E8" t="str">
-        <v>$70178</v>
+        <v>$71578</v>
       </c>
       <c r="F8" t="str">
-        <v>2T2BAMCA5RC083540</v>
+        <v>5TDAAAB69RS009802</v>
       </c>
       <c r="G8" t="str">
-        <v>24193</v>
+        <v>24132</v>
       </c>
       <c r="H8" t="str">
         <v>Luxury</v>
@@ -613,7 +613,7 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2025 NX 350</v>
+        <v>2024 RX 350</v>
       </c>
       <c r="B9" t="str">
         <v>All Wheel Drive</v>
@@ -625,21 +625,21 @@
         <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E9" t="str">
-        <v>$71361</v>
+        <v>$70178</v>
       </c>
       <c r="F9" t="str">
-        <v>2T2GGCEZ2SC072194</v>
+        <v>2T2BAMCA5RC083540</v>
       </c>
       <c r="G9" t="str">
-        <v>25050</v>
+        <v>24193</v>
       </c>
       <c r="H9" t="str">
-        <v>Executive</v>
+        <v>Luxury</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2024 TX 350 Ultra Luxury</v>
+        <v>2025 NX 350</v>
       </c>
       <c r="B10" t="str">
         <v>All Wheel Drive</v>
@@ -651,16 +651,16 @@
         <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E10" t="str">
-        <v>$73828</v>
+        <v>$71361</v>
       </c>
       <c r="F10" t="str">
-        <v>5TDAAAB6XRS008707</v>
+        <v>2T2GGCEZ2SC072194</v>
       </c>
       <c r="G10" t="str">
-        <v>24111</v>
+        <v>25050</v>
       </c>
       <c r="H10" t="str">
-        <v>Ultra Luxury</v>
+        <v>Executive</v>
       </c>
     </row>
     <row r="11">
@@ -680,10 +680,10 @@
         <v>$73828</v>
       </c>
       <c r="F11" t="str">
-        <v>5TDAAAB67RS013301</v>
+        <v>5TDAAAB62RS012752</v>
       </c>
       <c r="G11" t="str">
-        <v>24152</v>
+        <v>24146</v>
       </c>
       <c r="H11" t="str">
         <v>Ultra Luxury</v>
@@ -706,10 +706,10 @@
         <v>$73828</v>
       </c>
       <c r="F12" t="str">
-        <v>5TDAAAB62RS012752</v>
+        <v>5TDAAAB67RS013945</v>
       </c>
       <c r="G12" t="str">
-        <v>24146</v>
+        <v>24157</v>
       </c>
       <c r="H12" t="str">
         <v>Ultra Luxury</v>
@@ -750,7 +750,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -774,33 +774,33 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2025LexusNX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B2" t="str">
-        <v>55120</v>
+        <v>87450</v>
       </c>
       <c r="C2" t="str">
-        <v>350 PREMIUM</v>
+        <v>450h+ EXECUTIVE PKG</v>
       </c>
       <c r="D2" t="str">
-        <v>#LX7634</v>
+        <v>#LX7641</v>
       </c>
       <c r="E2" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2024LexusRX</v>
+        <v>2025LexusUX</v>
       </c>
       <c r="B3" t="str">
-        <v>77350</v>
+        <v>51344</v>
       </c>
       <c r="C3" t="str">
-        <v>350h EXECUTIVE PKG</v>
+        <v>300h F SPORT 2</v>
       </c>
       <c r="D3" t="str">
-        <v>#LX7625</v>
+        <v>#LX7633</v>
       </c>
       <c r="E3" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -808,16 +808,16 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2025LexusUX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B4" t="str">
-        <v>43605</v>
+        <v>55120</v>
       </c>
       <c r="C4" t="str">
-        <v>300h PREMIUM PKG</v>
+        <v>350 PREMIUM</v>
       </c>
       <c r="D4" t="str">
-        <v>#LX7618</v>
+        <v>#LX7634</v>
       </c>
       <c r="E4" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -825,16 +825,16 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2024LexusIS</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B5" t="str">
-        <v>56350</v>
+        <v>77350</v>
       </c>
       <c r="C5" t="str">
-        <v>300 ULTRA LUXURY</v>
+        <v>350h EXECUTIVE PKG</v>
       </c>
       <c r="D5" t="str">
-        <v>#LX7613</v>
+        <v>#LX7625</v>
       </c>
       <c r="E5" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -842,33 +842,33 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>2025LexusES</v>
+        <v>2025LexusUX</v>
       </c>
       <c r="B6" t="str">
-        <v>54014</v>
+        <v>43605</v>
       </c>
       <c r="C6" t="str">
-        <v>350 PREMIUM</v>
+        <v>300h PREMIUM PKG</v>
       </c>
       <c r="D6" t="str">
-        <v>#LX7601</v>
+        <v>#LX7618</v>
       </c>
       <c r="E6" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>2025LexusNX</v>
+        <v>2024LexusIS</v>
       </c>
       <c r="B7" t="str">
-        <v>59940</v>
+        <v>56350</v>
       </c>
       <c r="C7" t="str">
-        <v>350 F SPORT 1</v>
+        <v>300 ULTRA LUXURY</v>
       </c>
       <c r="D7" t="str">
-        <v>#LX7606</v>
+        <v>#LX7613</v>
       </c>
       <c r="E7" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -876,19 +876,19 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2024LexusIS</v>
+        <v>2025LexusES</v>
       </c>
       <c r="B8" t="str">
-        <v>47750</v>
+        <v>54014</v>
       </c>
       <c r="C8" t="str">
-        <v>300 PREMIUM PKG</v>
+        <v>350 PREMIUM</v>
       </c>
       <c r="D8" t="str">
-        <v>#LX7598</v>
+        <v>#LX7601</v>
       </c>
       <c r="E8" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
       </c>
     </row>
     <row r="9">
@@ -896,13 +896,13 @@
         <v>2025LexusNX</v>
       </c>
       <c r="B9" t="str">
-        <v>68383</v>
+        <v>59940</v>
       </c>
       <c r="C9" t="str">
-        <v>350 PREMIUM</v>
+        <v>350 F SPORT 1</v>
       </c>
       <c r="D9" t="str">
-        <v>#LX7585</v>
+        <v>#LX7606</v>
       </c>
       <c r="E9" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -910,16 +910,16 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2024LexusRX</v>
+        <v>2024LexusIS</v>
       </c>
       <c r="B10" t="str">
-        <v>67850</v>
+        <v>47750</v>
       </c>
       <c r="C10" t="str">
-        <v>350 LUXURY PKG</v>
+        <v>300 PREMIUM PKG</v>
       </c>
       <c r="D10" t="str">
-        <v>#LX7583</v>
+        <v>#LX7598</v>
       </c>
       <c r="E10" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -927,19 +927,19 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2025LexusES</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B11" t="str">
-        <v>54014</v>
+        <v>68383</v>
       </c>
       <c r="C11" t="str">
         <v>350 PREMIUM</v>
       </c>
       <c r="D11" t="str">
-        <v>#LX7573</v>
+        <v>#LX7585</v>
       </c>
       <c r="E11" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="12">
@@ -947,13 +947,13 @@
         <v>2024LexusRX</v>
       </c>
       <c r="B12" t="str">
-        <v>71500</v>
+        <v>67850</v>
       </c>
       <c r="C12" t="str">
-        <v>350 ULTRA LUXURY</v>
+        <v>350 LUXURY PKG</v>
       </c>
       <c r="D12" t="str">
-        <v>#LX7531</v>
+        <v>#LX7583</v>
       </c>
       <c r="E12" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -961,33 +961,33 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2024LexusIS</v>
+        <v>2025LexusES</v>
       </c>
       <c r="B13" t="str">
-        <v>47750</v>
+        <v>54014</v>
       </c>
       <c r="C13" t="str">
-        <v>300 PREMIUM PKG</v>
+        <v>350 PREMIUM</v>
       </c>
       <c r="D13" t="str">
-        <v>#LX7526</v>
+        <v>#LX7573</v>
       </c>
       <c r="E13" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2024LexusIS</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B14" t="str">
-        <v>56350</v>
+        <v>71500</v>
       </c>
       <c r="C14" t="str">
-        <v>300 ULTRA LUXURY</v>
+        <v>350 ULTRA LUXURY</v>
       </c>
       <c r="D14" t="str">
-        <v>#LX7497</v>
+        <v>#LX7531</v>
       </c>
       <c r="E14" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -995,16 +995,16 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2024LexusTX</v>
+        <v>2024LexusIS</v>
       </c>
       <c r="B15" t="str">
-        <v>68750</v>
+        <v>47750</v>
       </c>
       <c r="C15" t="str">
-        <v>350 Luxury PKG</v>
+        <v>300 PREMIUM PKG</v>
       </c>
       <c r="D15" t="str">
-        <v>#LX7495</v>
+        <v>#LX7526</v>
       </c>
       <c r="E15" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1012,16 +1012,16 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>2024LexusTX</v>
+        <v>2024LexusIS</v>
       </c>
       <c r="B16" t="str">
-        <v>68750</v>
+        <v>56350</v>
       </c>
       <c r="C16" t="str">
-        <v>350 Luxury PKG</v>
+        <v>300 ULTRA LUXURY</v>
       </c>
       <c r="D16" t="str">
-        <v>#LX7489</v>
+        <v>#LX7497</v>
       </c>
       <c r="E16" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1032,13 +1032,13 @@
         <v>2024LexusTX</v>
       </c>
       <c r="B17" t="str">
-        <v>84200</v>
+        <v>68750</v>
       </c>
       <c r="C17" t="str">
-        <v>500h F SPORT PERFORMANCE 2</v>
+        <v>350 Luxury PKG</v>
       </c>
       <c r="D17" t="str">
-        <v>#LX7484</v>
+        <v>#LX7495</v>
       </c>
       <c r="E17" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1049,13 +1049,13 @@
         <v>2024LexusTX</v>
       </c>
       <c r="B18" t="str">
-        <v>71500</v>
+        <v>68750</v>
       </c>
       <c r="C18" t="str">
-        <v>350</v>
+        <v>350 Luxury PKG</v>
       </c>
       <c r="D18" t="str">
-        <v>#LX7477</v>
+        <v>#LX7489</v>
       </c>
       <c r="E18" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1063,16 +1063,16 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>2025LexusNX</v>
+        <v>2024LexusTX</v>
       </c>
       <c r="B19" t="str">
-        <v>62842</v>
+        <v>84200</v>
       </c>
       <c r="C19" t="str">
-        <v>350 F SPORT 2</v>
+        <v>500h F SPORT PERFORMANCE 2</v>
       </c>
       <c r="D19" t="str">
-        <v>#LX7475</v>
+        <v>#LX7484</v>
       </c>
       <c r="E19" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1083,13 +1083,13 @@
         <v>2024LexusTX</v>
       </c>
       <c r="B20" t="str">
-        <v>72000</v>
+        <v>71500</v>
       </c>
       <c r="C20" t="str">
-        <v>350 ULTRA LUXURY</v>
+        <v>350</v>
       </c>
       <c r="D20" t="str">
-        <v>#LX7471</v>
+        <v>#LX7477</v>
       </c>
       <c r="E20" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1100,13 +1100,13 @@
         <v>2025LexusNX</v>
       </c>
       <c r="B21" t="str">
-        <v>54470</v>
+        <v>62842</v>
       </c>
       <c r="C21" t="str">
-        <v>350</v>
+        <v>350 F SPORT 2</v>
       </c>
       <c r="D21" t="str">
-        <v>#LX7442</v>
+        <v>#LX7475</v>
       </c>
       <c r="E21" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1114,16 +1114,16 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>2024LexusRX</v>
+        <v>2024LexusTX</v>
       </c>
       <c r="B22" t="str">
-        <v>60350</v>
+        <v>72000</v>
       </c>
       <c r="C22" t="str">
-        <v>350 PREMIUM PKG</v>
+        <v>350 ULTRA LUXURY</v>
       </c>
       <c r="D22" t="str">
-        <v>#LX7437</v>
+        <v>#LX7471</v>
       </c>
       <c r="E22" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1131,16 +1131,16 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>2024LexusRX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B23" t="str">
-        <v>60350</v>
+        <v>54470</v>
       </c>
       <c r="C23" t="str">
-        <v>350 PREMIUM PKG</v>
+        <v>350</v>
       </c>
       <c r="D23" t="str">
-        <v>#LX7432</v>
+        <v>#LX7442</v>
       </c>
       <c r="E23" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1148,16 +1148,16 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>2024LexusTX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B24" t="str">
-        <v>71500</v>
+        <v>60350</v>
       </c>
       <c r="C24" t="str">
-        <v>350 ULTRA LUXURY</v>
+        <v>350 PREMIUM PKG</v>
       </c>
       <c r="D24" t="str">
-        <v>#LX7430</v>
+        <v>#LX7437</v>
       </c>
       <c r="E24" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1168,13 +1168,13 @@
         <v>2024LexusRX</v>
       </c>
       <c r="B25" t="str">
-        <v>72850</v>
+        <v>60350</v>
       </c>
       <c r="C25" t="str">
-        <v>350h ULTRA LUXURY</v>
+        <v>350 PREMIUM PKG</v>
       </c>
       <c r="D25" t="str">
-        <v>#LX7406</v>
+        <v>#LX7432</v>
       </c>
       <c r="E25" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1182,16 +1182,16 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>2024LexusRX</v>
+        <v>2024LexusTX</v>
       </c>
       <c r="B26" t="str">
-        <v>75850</v>
+        <v>71500</v>
       </c>
       <c r="C26" t="str">
-        <v>350 F SPORT 3</v>
+        <v>350 ULTRA LUXURY</v>
       </c>
       <c r="D26" t="str">
-        <v>#LX7404</v>
+        <v>#LX7430</v>
       </c>
       <c r="E26" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1202,13 +1202,13 @@
         <v>2024LexusRX</v>
       </c>
       <c r="B27" t="str">
-        <v>81100</v>
+        <v>72850</v>
       </c>
       <c r="C27" t="str">
-        <v>500h F SPORT PERFORMANCE 2</v>
+        <v>350h ULTRA LUXURY</v>
       </c>
       <c r="D27" t="str">
-        <v>#LX7306</v>
+        <v>#LX7406</v>
       </c>
       <c r="E27" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1216,16 +1216,16 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>2024LexusTX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B28" t="str">
-        <v>84200</v>
+        <v>75850</v>
       </c>
       <c r="C28" t="str">
-        <v>500h F SPORT PERFORMANCE 2</v>
+        <v>350 F SPORT 3</v>
       </c>
       <c r="D28" t="str">
-        <v>#LX7304</v>
+        <v>#LX7404</v>
       </c>
       <c r="E28" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1233,16 +1233,16 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>2024LexusTX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B29" t="str">
-        <v>71500</v>
+        <v>81100</v>
       </c>
       <c r="C29" t="str">
-        <v>350 ULTRA LUXURY</v>
+        <v>500h F SPORT PERFORMANCE 2</v>
       </c>
       <c r="D29" t="str">
-        <v>#LX7294</v>
+        <v>#LX7306</v>
       </c>
       <c r="E29" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1250,16 +1250,16 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>2025LexusNX</v>
+        <v>2024LexusTX</v>
       </c>
       <c r="B30" t="str">
-        <v>62192</v>
+        <v>84200</v>
       </c>
       <c r="C30" t="str">
-        <v>350</v>
+        <v>500h F SPORT PERFORMANCE 2</v>
       </c>
       <c r="D30" t="str">
-        <v>#LX7644</v>
+        <v>#LX7304</v>
       </c>
       <c r="E30" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1267,16 +1267,16 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>2024LexusRX</v>
+        <v>2024LexusTX</v>
       </c>
       <c r="B31" t="str">
-        <v>75850</v>
+        <v>71500</v>
       </c>
       <c r="C31" t="str">
-        <v>350 EXECUTIVE PKG</v>
+        <v>350 ULTRA LUXURY</v>
       </c>
       <c r="D31" t="str">
-        <v>#LX7642</v>
+        <v>#LX7294</v>
       </c>
       <c r="E31" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1287,16 +1287,16 @@
         <v>2024LexusRX</v>
       </c>
       <c r="B32" t="str">
-        <v>87450</v>
+        <v>75850</v>
       </c>
       <c r="C32" t="str">
-        <v>450h+ EXECUTIVE PKG</v>
+        <v>350 EXECUTIVE PKG</v>
       </c>
       <c r="D32" t="str">
-        <v>#LX7641</v>
+        <v>#LX7642</v>
       </c>
       <c r="E32" t="str">
-        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="33">
@@ -1316,43 +1316,9 @@
         <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="str">
-        <v>2025LexusUX</v>
-      </c>
-      <c r="B34" t="str">
-        <v>51344</v>
-      </c>
-      <c r="C34" t="str">
-        <v>300h F SPORT 2</v>
-      </c>
-      <c r="D34" t="str">
-        <v>#LX7633</v>
-      </c>
-      <c r="E34" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="str">
-        <v>2024LexusRX</v>
-      </c>
-      <c r="B35" t="str">
-        <v>61850</v>
-      </c>
-      <c r="C35" t="str">
-        <v>350h PREMIUM PKG</v>
-      </c>
-      <c r="D35" t="str">
-        <v>#LX7638</v>
-      </c>
-      <c r="E35" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E35"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E33"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Projects/scrapping_js/lexus_maritime/Lexus_Inventory.xlsx
+++ b/Projects/scrapping_js/lexus_maritime/Lexus_Inventory.xlsx
@@ -446,10 +446,10 @@
         <v>$56798</v>
       </c>
       <c r="F2" t="str">
-        <v>2T2GGCEZXSC072802</v>
+        <v>2T2GGCEZ3SC072687</v>
       </c>
       <c r="G2" t="str">
-        <v>25053</v>
+        <v>25051</v>
       </c>
       <c r="H2" t="str">
         <v>Premium</v>
@@ -472,10 +472,10 @@
         <v>$56798</v>
       </c>
       <c r="F3" t="str">
-        <v>2T2GGCEZ3SC072687</v>
+        <v>2T2GGCEZXSC072802</v>
       </c>
       <c r="G3" t="str">
-        <v>25051</v>
+        <v>25053</v>
       </c>
       <c r="H3" t="str">
         <v>Premium</v>
@@ -495,16 +495,16 @@
         <v>2.5L 4cyl.</v>
       </c>
       <c r="E4" t="str">
-        <v>$59393</v>
+        <v>$63423</v>
       </c>
       <c r="F4" t="str">
-        <v>2T2GKCEZ2SC042109</v>
+        <v>2T2GKCEZXSC043587</v>
       </c>
       <c r="G4" t="str">
-        <v>25052</v>
+        <v>25056</v>
       </c>
       <c r="H4" t="str">
-        <v>Premium</v>
+        <v>Luxury</v>
       </c>
     </row>
     <row r="5">
@@ -524,10 +524,10 @@
         <v>$71078</v>
       </c>
       <c r="F5" t="str">
-        <v>5TDAAAB66RS007506</v>
+        <v>5TDAAAB6XRS010005</v>
       </c>
       <c r="G5" t="str">
-        <v>24108</v>
+        <v>24131</v>
       </c>
       <c r="H5" t="str">
         <v>Luxury</v>
@@ -550,10 +550,10 @@
         <v>$71078</v>
       </c>
       <c r="F6" t="str">
-        <v>5TDAAAB6XRS010005</v>
+        <v>5TDAAAB67RS011953</v>
       </c>
       <c r="G6" t="str">
-        <v>24131</v>
+        <v>24143</v>
       </c>
       <c r="H6" t="str">
         <v>Luxury</v>
@@ -576,10 +576,10 @@
         <v>$71078</v>
       </c>
       <c r="F7" t="str">
-        <v>5TDAAAB67RS011953</v>
+        <v>5TDAAAB66RS007506</v>
       </c>
       <c r="G7" t="str">
-        <v>24143</v>
+        <v>24108</v>
       </c>
       <c r="H7" t="str">
         <v>Luxury</v>
@@ -680,10 +680,10 @@
         <v>$73828</v>
       </c>
       <c r="F11" t="str">
-        <v>5TDAAAB62RS012752</v>
+        <v>5TDAAAB6XRS008707</v>
       </c>
       <c r="G11" t="str">
-        <v>24146</v>
+        <v>24111</v>
       </c>
       <c r="H11" t="str">
         <v>Ultra Luxury</v>
@@ -706,10 +706,10 @@
         <v>$73828</v>
       </c>
       <c r="F12" t="str">
-        <v>5TDAAAB67RS013945</v>
+        <v>5TDAAAB62RS012752</v>
       </c>
       <c r="G12" t="str">
-        <v>24157</v>
+        <v>24146</v>
       </c>
       <c r="H12" t="str">
         <v>Ultra Luxury</v>
@@ -732,10 +732,10 @@
         <v>$73828</v>
       </c>
       <c r="F13" t="str">
-        <v>5TDAAAB63RS013487</v>
+        <v>5TDAAAB67RS013945</v>
       </c>
       <c r="G13" t="str">
-        <v>24158</v>
+        <v>24157</v>
       </c>
       <c r="H13" t="str">
         <v>Ultra Luxury</v>
@@ -750,7 +750,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -774,33 +774,33 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2024LexusRX</v>
+        <v>2025LexusRX</v>
       </c>
       <c r="B2" t="str">
-        <v>87450</v>
+        <v>67624</v>
       </c>
       <c r="C2" t="str">
-        <v>450h+ EXECUTIVE PKG</v>
+        <v>350 LUXURY PKG</v>
       </c>
       <c r="D2" t="str">
-        <v>#LX7641</v>
+        <v>#LX7660</v>
       </c>
       <c r="E2" t="str">
-        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2025LexusUX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B3" t="str">
-        <v>51344</v>
+        <v>75850</v>
       </c>
       <c r="C3" t="str">
-        <v>300h F SPORT 2</v>
+        <v>350 EXECUTIVE PKG</v>
       </c>
       <c r="D3" t="str">
-        <v>#LX7633</v>
+        <v>#LX7642</v>
       </c>
       <c r="E3" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -808,19 +808,19 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2025LexusNX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B4" t="str">
-        <v>55120</v>
+        <v>87450</v>
       </c>
       <c r="C4" t="str">
-        <v>350 PREMIUM</v>
+        <v>450h+ EXECUTIVE PKG</v>
       </c>
       <c r="D4" t="str">
-        <v>#LX7634</v>
+        <v>#LX7641</v>
       </c>
       <c r="E4" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
       </c>
     </row>
     <row r="5">
@@ -828,16 +828,16 @@
         <v>2024LexusRX</v>
       </c>
       <c r="B5" t="str">
-        <v>77350</v>
+        <v>86950</v>
       </c>
       <c r="C5" t="str">
-        <v>350h EXECUTIVE PKG</v>
+        <v>450h+ EXECUTIVE PKG</v>
       </c>
       <c r="D5" t="str">
-        <v>#LX7625</v>
+        <v>#LX7639</v>
       </c>
       <c r="E5" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
       </c>
     </row>
     <row r="6">
@@ -845,13 +845,13 @@
         <v>2025LexusUX</v>
       </c>
       <c r="B6" t="str">
-        <v>43605</v>
+        <v>51344</v>
       </c>
       <c r="C6" t="str">
-        <v>300h PREMIUM PKG</v>
+        <v>300h F SPORT 2</v>
       </c>
       <c r="D6" t="str">
-        <v>#LX7618</v>
+        <v>#LX7633</v>
       </c>
       <c r="E6" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -859,16 +859,16 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>2024LexusIS</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B7" t="str">
-        <v>56350</v>
+        <v>77350</v>
       </c>
       <c r="C7" t="str">
-        <v>300 ULTRA LUXURY</v>
+        <v>350h EXECUTIVE PKG</v>
       </c>
       <c r="D7" t="str">
-        <v>#LX7613</v>
+        <v>#LX7625</v>
       </c>
       <c r="E7" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -876,50 +876,50 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2025LexusES</v>
+        <v>2025LexusUX</v>
       </c>
       <c r="B8" t="str">
-        <v>54014</v>
+        <v>43605</v>
       </c>
       <c r="C8" t="str">
-        <v>350 PREMIUM</v>
+        <v>300h PREMIUM PKG</v>
       </c>
       <c r="D8" t="str">
-        <v>#LX7601</v>
+        <v>#LX7618</v>
       </c>
       <c r="E8" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2025LexusNX</v>
+        <v>2025LexusES</v>
       </c>
       <c r="B9" t="str">
-        <v>59940</v>
+        <v>54014</v>
       </c>
       <c r="C9" t="str">
-        <v>350 F SPORT 1</v>
+        <v>350 PREMIUM</v>
       </c>
       <c r="D9" t="str">
-        <v>#LX7606</v>
+        <v>#LX7601</v>
       </c>
       <c r="E9" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2024LexusIS</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B10" t="str">
-        <v>47750</v>
+        <v>68383</v>
       </c>
       <c r="C10" t="str">
-        <v>300 PREMIUM PKG</v>
+        <v>350 PREMIUM</v>
       </c>
       <c r="D10" t="str">
-        <v>#LX7598</v>
+        <v>#LX7585</v>
       </c>
       <c r="E10" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -927,16 +927,16 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2025LexusNX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B11" t="str">
-        <v>68383</v>
+        <v>67850</v>
       </c>
       <c r="C11" t="str">
-        <v>350 PREMIUM</v>
+        <v>350 LUXURY PKG</v>
       </c>
       <c r="D11" t="str">
-        <v>#LX7585</v>
+        <v>#LX7583</v>
       </c>
       <c r="E11" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -944,50 +944,50 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2024LexusRX</v>
+        <v>2025LexusES</v>
       </c>
       <c r="B12" t="str">
-        <v>67850</v>
+        <v>54014</v>
       </c>
       <c r="C12" t="str">
-        <v>350 LUXURY PKG</v>
+        <v>350 PREMIUM</v>
       </c>
       <c r="D12" t="str">
-        <v>#LX7583</v>
+        <v>#LX7573</v>
       </c>
       <c r="E12" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2025LexusES</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B13" t="str">
-        <v>54014</v>
+        <v>71500</v>
       </c>
       <c r="C13" t="str">
-        <v>350 PREMIUM</v>
+        <v>350 ULTRA LUXURY</v>
       </c>
       <c r="D13" t="str">
-        <v>#LX7573</v>
+        <v>#LX7531</v>
       </c>
       <c r="E13" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2024LexusRX</v>
+        <v>2024LexusIS</v>
       </c>
       <c r="B14" t="str">
-        <v>71500</v>
+        <v>56350</v>
       </c>
       <c r="C14" t="str">
-        <v>350 ULTRA LUXURY</v>
+        <v>300 ULTRA LUXURY</v>
       </c>
       <c r="D14" t="str">
-        <v>#LX7531</v>
+        <v>#LX7497</v>
       </c>
       <c r="E14" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -995,16 +995,16 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2024LexusIS</v>
+        <v>2024LexusTX</v>
       </c>
       <c r="B15" t="str">
-        <v>47750</v>
+        <v>68750</v>
       </c>
       <c r="C15" t="str">
-        <v>300 PREMIUM PKG</v>
+        <v>350 Luxury PKG</v>
       </c>
       <c r="D15" t="str">
-        <v>#LX7526</v>
+        <v>#LX7495</v>
       </c>
       <c r="E15" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1012,16 +1012,16 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>2024LexusIS</v>
+        <v>2024LexusTX</v>
       </c>
       <c r="B16" t="str">
-        <v>56350</v>
+        <v>68750</v>
       </c>
       <c r="C16" t="str">
-        <v>300 ULTRA LUXURY</v>
+        <v>350 Luxury PKG</v>
       </c>
       <c r="D16" t="str">
-        <v>#LX7497</v>
+        <v>#LX7489</v>
       </c>
       <c r="E16" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1032,13 +1032,13 @@
         <v>2024LexusTX</v>
       </c>
       <c r="B17" t="str">
-        <v>68750</v>
+        <v>84200</v>
       </c>
       <c r="C17" t="str">
-        <v>350 Luxury PKG</v>
+        <v>500h F SPORT PERFORMANCE 2</v>
       </c>
       <c r="D17" t="str">
-        <v>#LX7495</v>
+        <v>#LX7484</v>
       </c>
       <c r="E17" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1049,13 +1049,13 @@
         <v>2024LexusTX</v>
       </c>
       <c r="B18" t="str">
-        <v>68750</v>
+        <v>71500</v>
       </c>
       <c r="C18" t="str">
-        <v>350 Luxury PKG</v>
+        <v>350</v>
       </c>
       <c r="D18" t="str">
-        <v>#LX7489</v>
+        <v>#LX7477</v>
       </c>
       <c r="E18" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1063,16 +1063,16 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>2024LexusTX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B19" t="str">
-        <v>84200</v>
+        <v>62842</v>
       </c>
       <c r="C19" t="str">
-        <v>500h F SPORT PERFORMANCE 2</v>
+        <v>350 F SPORT 2</v>
       </c>
       <c r="D19" t="str">
-        <v>#LX7484</v>
+        <v>#LX7475</v>
       </c>
       <c r="E19" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1083,13 +1083,13 @@
         <v>2024LexusTX</v>
       </c>
       <c r="B20" t="str">
-        <v>71500</v>
+        <v>72000</v>
       </c>
       <c r="C20" t="str">
-        <v>350</v>
+        <v>350 ULTRA LUXURY</v>
       </c>
       <c r="D20" t="str">
-        <v>#LX7477</v>
+        <v>#LX7471</v>
       </c>
       <c r="E20" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1100,13 +1100,13 @@
         <v>2025LexusNX</v>
       </c>
       <c r="B21" t="str">
-        <v>62842</v>
+        <v>54470</v>
       </c>
       <c r="C21" t="str">
-        <v>350 F SPORT 2</v>
+        <v>350</v>
       </c>
       <c r="D21" t="str">
-        <v>#LX7475</v>
+        <v>#LX7442</v>
       </c>
       <c r="E21" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1114,16 +1114,16 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>2024LexusTX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B22" t="str">
-        <v>72000</v>
+        <v>60350</v>
       </c>
       <c r="C22" t="str">
-        <v>350 ULTRA LUXURY</v>
+        <v>350 PREMIUM PKG</v>
       </c>
       <c r="D22" t="str">
-        <v>#LX7471</v>
+        <v>#LX7437</v>
       </c>
       <c r="E22" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1131,16 +1131,16 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>2025LexusNX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B23" t="str">
-        <v>54470</v>
+        <v>60350</v>
       </c>
       <c r="C23" t="str">
-        <v>350</v>
+        <v>350 PREMIUM PKG</v>
       </c>
       <c r="D23" t="str">
-        <v>#LX7442</v>
+        <v>#LX7432</v>
       </c>
       <c r="E23" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1148,16 +1148,16 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>2024LexusRX</v>
+        <v>2024LexusTX</v>
       </c>
       <c r="B24" t="str">
-        <v>60350</v>
+        <v>71500</v>
       </c>
       <c r="C24" t="str">
-        <v>350 PREMIUM PKG</v>
+        <v>350 ULTRA LUXURY</v>
       </c>
       <c r="D24" t="str">
-        <v>#LX7437</v>
+        <v>#LX7430</v>
       </c>
       <c r="E24" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1168,13 +1168,13 @@
         <v>2024LexusRX</v>
       </c>
       <c r="B25" t="str">
-        <v>60350</v>
+        <v>72850</v>
       </c>
       <c r="C25" t="str">
-        <v>350 PREMIUM PKG</v>
+        <v>350h ULTRA LUXURY</v>
       </c>
       <c r="D25" t="str">
-        <v>#LX7432</v>
+        <v>#LX7406</v>
       </c>
       <c r="E25" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1182,16 +1182,16 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>2024LexusTX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B26" t="str">
-        <v>71500</v>
+        <v>75850</v>
       </c>
       <c r="C26" t="str">
-        <v>350 ULTRA LUXURY</v>
+        <v>350 F SPORT 3</v>
       </c>
       <c r="D26" t="str">
-        <v>#LX7430</v>
+        <v>#LX7404</v>
       </c>
       <c r="E26" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1202,13 +1202,13 @@
         <v>2024LexusRX</v>
       </c>
       <c r="B27" t="str">
-        <v>72850</v>
+        <v>81100</v>
       </c>
       <c r="C27" t="str">
-        <v>350h ULTRA LUXURY</v>
+        <v>500h F SPORT PERFORMANCE 2</v>
       </c>
       <c r="D27" t="str">
-        <v>#LX7406</v>
+        <v>#LX7306</v>
       </c>
       <c r="E27" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1216,16 +1216,16 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>2024LexusRX</v>
+        <v>2024LexusTX</v>
       </c>
       <c r="B28" t="str">
-        <v>75850</v>
+        <v>84200</v>
       </c>
       <c r="C28" t="str">
-        <v>350 F SPORT 3</v>
+        <v>500h F SPORT PERFORMANCE 2</v>
       </c>
       <c r="D28" t="str">
-        <v>#LX7404</v>
+        <v>#LX7304</v>
       </c>
       <c r="E28" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1233,16 +1233,16 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>2024LexusRX</v>
+        <v>2024LexusTX</v>
       </c>
       <c r="B29" t="str">
-        <v>81100</v>
+        <v>71500</v>
       </c>
       <c r="C29" t="str">
-        <v>500h F SPORT PERFORMANCE 2</v>
+        <v>350 ULTRA LUXURY</v>
       </c>
       <c r="D29" t="str">
-        <v>#LX7306</v>
+        <v>#LX7294</v>
       </c>
       <c r="E29" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1250,16 +1250,16 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>2024LexusTX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B30" t="str">
-        <v>84200</v>
+        <v>56415</v>
       </c>
       <c r="C30" t="str">
-        <v>500h F SPORT PERFORMANCE 2</v>
+        <v>350h</v>
       </c>
       <c r="D30" t="str">
-        <v>#LX7304</v>
+        <v>#LX7661</v>
       </c>
       <c r="E30" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1267,16 +1267,16 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>2024LexusTX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B31" t="str">
-        <v>71500</v>
+        <v>54470</v>
       </c>
       <c r="C31" t="str">
-        <v>350 ULTRA LUXURY</v>
+        <v>350 PREMIUM</v>
       </c>
       <c r="D31" t="str">
-        <v>#LX7294</v>
+        <v>#LX7654</v>
       </c>
       <c r="E31" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1284,41 +1284,24 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>2024LexusRX</v>
+        <v>2024LexusTX</v>
       </c>
       <c r="B32" t="str">
-        <v>75850</v>
+        <v>71500</v>
       </c>
       <c r="C32" t="str">
-        <v>350 EXECUTIVE PKG</v>
+        <v>350</v>
       </c>
       <c r="D32" t="str">
-        <v>#LX7642</v>
+        <v>#LX7651</v>
       </c>
       <c r="E32" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="str">
-        <v>2024LexusRX</v>
-      </c>
-      <c r="B33" t="str">
-        <v>86950</v>
-      </c>
-      <c r="C33" t="str">
-        <v>450h+ EXECUTIVE PKG</v>
-      </c>
-      <c r="D33" t="str">
-        <v>#LX7639</v>
-      </c>
-      <c r="E33" t="str">
-        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E33"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E32"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Projects/scrapping_js/lexus_maritime/Lexus_Inventory.xlsx
+++ b/Projects/scrapping_js/lexus_maritime/Lexus_Inventory.xlsx
@@ -431,7 +431,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2025 NX 350</v>
+        <v>2025 NX HYBRID 350h</v>
       </c>
       <c r="B2" t="str">
         <v>All Wheel Drive</v>
@@ -440,16 +440,16 @@
         <v>Automatic</v>
       </c>
       <c r="D2" t="str">
-        <v>2.4L TURBO 4cyl.</v>
+        <v>2.5L 4cyl.</v>
       </c>
       <c r="E2" t="str">
-        <v>$56798</v>
+        <v>$58743</v>
       </c>
       <c r="F2" t="str">
-        <v>2T2GGCEZ3SC072687</v>
+        <v>2T2GKCEZ4SC044315</v>
       </c>
       <c r="G2" t="str">
-        <v>25051</v>
+        <v>25057</v>
       </c>
       <c r="H2" t="str">
         <v>Premium</v>
@@ -457,7 +457,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2025 NX 350</v>
+        <v>2025 NX HYBRID 350h</v>
       </c>
       <c r="B3" t="str">
         <v>All Wheel Drive</v>
@@ -466,24 +466,24 @@
         <v>Automatic</v>
       </c>
       <c r="D3" t="str">
-        <v>2.4L TURBO 4cyl.</v>
+        <v>2.5L 4cyl.</v>
       </c>
       <c r="E3" t="str">
-        <v>$56798</v>
+        <v>$63423</v>
       </c>
       <c r="F3" t="str">
-        <v>2T2GGCEZXSC072802</v>
+        <v>2T2GKCEZXSC043587</v>
       </c>
       <c r="G3" t="str">
-        <v>25053</v>
+        <v>25056</v>
       </c>
       <c r="H3" t="str">
-        <v>Premium</v>
+        <v>Luxury</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2025 NX HYBRID 350h</v>
+        <v>2024 TX 350 Luxury</v>
       </c>
       <c r="B4" t="str">
         <v>All Wheel Drive</v>
@@ -492,16 +492,16 @@
         <v>Automatic</v>
       </c>
       <c r="D4" t="str">
-        <v>2.5L 4cyl.</v>
+        <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E4" t="str">
-        <v>$63423</v>
+        <v>$71078</v>
       </c>
       <c r="F4" t="str">
-        <v>2T2GKCEZXSC043587</v>
+        <v>5TDAAAB6XRS010005</v>
       </c>
       <c r="G4" t="str">
-        <v>25056</v>
+        <v>24131</v>
       </c>
       <c r="H4" t="str">
         <v>Luxury</v>
@@ -524,10 +524,10 @@
         <v>$71078</v>
       </c>
       <c r="F5" t="str">
-        <v>5TDAAAB6XRS010005</v>
+        <v>5TDAAAB67RS011953</v>
       </c>
       <c r="G5" t="str">
-        <v>24131</v>
+        <v>24143</v>
       </c>
       <c r="H5" t="str">
         <v>Luxury</v>
@@ -550,10 +550,10 @@
         <v>$71078</v>
       </c>
       <c r="F6" t="str">
-        <v>5TDAAAB67RS011953</v>
+        <v>5TDAAAB66RS007506</v>
       </c>
       <c r="G6" t="str">
-        <v>24143</v>
+        <v>24108</v>
       </c>
       <c r="H6" t="str">
         <v>Luxury</v>
@@ -573,13 +573,13 @@
         <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E7" t="str">
-        <v>$71078</v>
+        <v>$71578</v>
       </c>
       <c r="F7" t="str">
-        <v>5TDAAAB66RS007506</v>
+        <v>5TDAAAB69RS009802</v>
       </c>
       <c r="G7" t="str">
-        <v>24108</v>
+        <v>24132</v>
       </c>
       <c r="H7" t="str">
         <v>Luxury</v>
@@ -587,7 +587,7 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2024 TX 350 Luxury</v>
+        <v>2025 NX 350</v>
       </c>
       <c r="B8" t="str">
         <v>All Wheel Drive</v>
@@ -599,21 +599,21 @@
         <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E8" t="str">
-        <v>$71578</v>
+        <v>$71361</v>
       </c>
       <c r="F8" t="str">
-        <v>5TDAAAB69RS009802</v>
+        <v>2T2GGCEZ2SC072194</v>
       </c>
       <c r="G8" t="str">
-        <v>24132</v>
+        <v>25050</v>
       </c>
       <c r="H8" t="str">
-        <v>Luxury</v>
+        <v>Executive</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2024 RX 350</v>
+        <v>2024 TX 350 Ultra Luxury</v>
       </c>
       <c r="B9" t="str">
         <v>All Wheel Drive</v>
@@ -625,21 +625,21 @@
         <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E9" t="str">
-        <v>$70178</v>
+        <v>$73828</v>
       </c>
       <c r="F9" t="str">
-        <v>2T2BAMCA5RC083540</v>
+        <v>5TDAAAB6XRS008707</v>
       </c>
       <c r="G9" t="str">
-        <v>24193</v>
+        <v>24111</v>
       </c>
       <c r="H9" t="str">
-        <v>Luxury</v>
+        <v>Ultra Luxury</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2025 NX 350</v>
+        <v>2024 TX 350 Ultra Luxury</v>
       </c>
       <c r="B10" t="str">
         <v>All Wheel Drive</v>
@@ -651,16 +651,16 @@
         <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E10" t="str">
-        <v>$71361</v>
+        <v>$73828</v>
       </c>
       <c r="F10" t="str">
-        <v>2T2GGCEZ2SC072194</v>
+        <v>5TDAAAB62RS012752</v>
       </c>
       <c r="G10" t="str">
-        <v>25050</v>
+        <v>24146</v>
       </c>
       <c r="H10" t="str">
-        <v>Executive</v>
+        <v>Ultra Luxury</v>
       </c>
     </row>
     <row r="11">
@@ -680,10 +680,10 @@
         <v>$73828</v>
       </c>
       <c r="F11" t="str">
-        <v>5TDAAAB6XRS008707</v>
+        <v>5TDAAAB60RS014113</v>
       </c>
       <c r="G11" t="str">
-        <v>24111</v>
+        <v>24156</v>
       </c>
       <c r="H11" t="str">
         <v>Ultra Luxury</v>
@@ -706,10 +706,10 @@
         <v>$73828</v>
       </c>
       <c r="F12" t="str">
-        <v>5TDAAAB62RS012752</v>
+        <v>5TDAAAB67RS013945</v>
       </c>
       <c r="G12" t="str">
-        <v>24146</v>
+        <v>24157</v>
       </c>
       <c r="H12" t="str">
         <v>Ultra Luxury</v>
@@ -732,10 +732,10 @@
         <v>$73828</v>
       </c>
       <c r="F13" t="str">
-        <v>5TDAAAB67RS013945</v>
+        <v>5TDAAAB63RS013487</v>
       </c>
       <c r="G13" t="str">
-        <v>24157</v>
+        <v>24158</v>
       </c>
       <c r="H13" t="str">
         <v>Ultra Luxury</v>
@@ -750,7 +750,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -927,50 +927,50 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2024LexusRX</v>
+        <v>2025LexusES</v>
       </c>
       <c r="B11" t="str">
-        <v>67850</v>
+        <v>54014</v>
       </c>
       <c r="C11" t="str">
-        <v>350 LUXURY PKG</v>
+        <v>350 PREMIUM</v>
       </c>
       <c r="D11" t="str">
-        <v>#LX7583</v>
+        <v>#LX7573</v>
       </c>
       <c r="E11" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2025LexusES</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B12" t="str">
-        <v>54014</v>
+        <v>71500</v>
       </c>
       <c r="C12" t="str">
-        <v>350 PREMIUM</v>
+        <v>350 ULTRA LUXURY</v>
       </c>
       <c r="D12" t="str">
-        <v>#LX7573</v>
+        <v>#LX7531</v>
       </c>
       <c r="E12" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2024LexusRX</v>
+        <v>2024LexusIS</v>
       </c>
       <c r="B13" t="str">
-        <v>71500</v>
+        <v>56350</v>
       </c>
       <c r="C13" t="str">
-        <v>350 ULTRA LUXURY</v>
+        <v>300 ULTRA LUXURY</v>
       </c>
       <c r="D13" t="str">
-        <v>#LX7531</v>
+        <v>#LX7497</v>
       </c>
       <c r="E13" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -978,16 +978,16 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2024LexusIS</v>
+        <v>2024LexusTX</v>
       </c>
       <c r="B14" t="str">
-        <v>56350</v>
+        <v>68750</v>
       </c>
       <c r="C14" t="str">
-        <v>300 ULTRA LUXURY</v>
+        <v>350 Luxury PKG</v>
       </c>
       <c r="D14" t="str">
-        <v>#LX7497</v>
+        <v>#LX7495</v>
       </c>
       <c r="E14" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1004,7 +1004,7 @@
         <v>350 Luxury PKG</v>
       </c>
       <c r="D15" t="str">
-        <v>#LX7495</v>
+        <v>#LX7489</v>
       </c>
       <c r="E15" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1015,13 +1015,13 @@
         <v>2024LexusTX</v>
       </c>
       <c r="B16" t="str">
-        <v>68750</v>
+        <v>84200</v>
       </c>
       <c r="C16" t="str">
-        <v>350 Luxury PKG</v>
+        <v>500h F SPORT PERFORMANCE 2</v>
       </c>
       <c r="D16" t="str">
-        <v>#LX7489</v>
+        <v>#LX7484</v>
       </c>
       <c r="E16" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1032,13 +1032,13 @@
         <v>2024LexusTX</v>
       </c>
       <c r="B17" t="str">
-        <v>84200</v>
+        <v>71500</v>
       </c>
       <c r="C17" t="str">
-        <v>500h F SPORT PERFORMANCE 2</v>
+        <v>350</v>
       </c>
       <c r="D17" t="str">
-        <v>#LX7484</v>
+        <v>#LX7477</v>
       </c>
       <c r="E17" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1046,16 +1046,16 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>2024LexusTX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B18" t="str">
-        <v>71500</v>
+        <v>62842</v>
       </c>
       <c r="C18" t="str">
-        <v>350</v>
+        <v>350 F SPORT 2</v>
       </c>
       <c r="D18" t="str">
-        <v>#LX7477</v>
+        <v>#LX7475</v>
       </c>
       <c r="E18" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1063,16 +1063,16 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>2025LexusNX</v>
+        <v>2024LexusTX</v>
       </c>
       <c r="B19" t="str">
-        <v>62842</v>
+        <v>72000</v>
       </c>
       <c r="C19" t="str">
-        <v>350 F SPORT 2</v>
+        <v>350 ULTRA LUXURY</v>
       </c>
       <c r="D19" t="str">
-        <v>#LX7475</v>
+        <v>#LX7471</v>
       </c>
       <c r="E19" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1080,16 +1080,16 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>2024LexusTX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B20" t="str">
-        <v>72000</v>
+        <v>54470</v>
       </c>
       <c r="C20" t="str">
-        <v>350 ULTRA LUXURY</v>
+        <v>350</v>
       </c>
       <c r="D20" t="str">
-        <v>#LX7471</v>
+        <v>#LX7442</v>
       </c>
       <c r="E20" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1097,16 +1097,16 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>2025LexusNX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B21" t="str">
-        <v>54470</v>
+        <v>60350</v>
       </c>
       <c r="C21" t="str">
-        <v>350</v>
+        <v>350 PREMIUM PKG</v>
       </c>
       <c r="D21" t="str">
-        <v>#LX7442</v>
+        <v>#LX7437</v>
       </c>
       <c r="E21" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1123,7 +1123,7 @@
         <v>350 PREMIUM PKG</v>
       </c>
       <c r="D22" t="str">
-        <v>#LX7437</v>
+        <v>#LX7432</v>
       </c>
       <c r="E22" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1131,16 +1131,16 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>2024LexusRX</v>
+        <v>2024LexusTX</v>
       </c>
       <c r="B23" t="str">
-        <v>60350</v>
+        <v>71500</v>
       </c>
       <c r="C23" t="str">
-        <v>350 PREMIUM PKG</v>
+        <v>350 ULTRA LUXURY</v>
       </c>
       <c r="D23" t="str">
-        <v>#LX7432</v>
+        <v>#LX7430</v>
       </c>
       <c r="E23" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1148,16 +1148,16 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>2024LexusTX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B24" t="str">
-        <v>71500</v>
+        <v>75850</v>
       </c>
       <c r="C24" t="str">
-        <v>350 ULTRA LUXURY</v>
+        <v>350 F SPORT 3</v>
       </c>
       <c r="D24" t="str">
-        <v>#LX7430</v>
+        <v>#LX7404</v>
       </c>
       <c r="E24" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1168,13 +1168,13 @@
         <v>2024LexusRX</v>
       </c>
       <c r="B25" t="str">
-        <v>72850</v>
+        <v>81100</v>
       </c>
       <c r="C25" t="str">
-        <v>350h ULTRA LUXURY</v>
+        <v>500h F SPORT PERFORMANCE 2</v>
       </c>
       <c r="D25" t="str">
-        <v>#LX7406</v>
+        <v>#LX7306</v>
       </c>
       <c r="E25" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1182,16 +1182,16 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>2024LexusRX</v>
+        <v>2024LexusTX</v>
       </c>
       <c r="B26" t="str">
-        <v>75850</v>
+        <v>84200</v>
       </c>
       <c r="C26" t="str">
-        <v>350 F SPORT 3</v>
+        <v>500h F SPORT PERFORMANCE 2</v>
       </c>
       <c r="D26" t="str">
-        <v>#LX7404</v>
+        <v>#LX7304</v>
       </c>
       <c r="E26" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1199,16 +1199,16 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>2024LexusRX</v>
+        <v>2024LexusTX</v>
       </c>
       <c r="B27" t="str">
-        <v>81100</v>
+        <v>71500</v>
       </c>
       <c r="C27" t="str">
-        <v>500h F SPORT PERFORMANCE 2</v>
+        <v>350 ULTRA LUXURY</v>
       </c>
       <c r="D27" t="str">
-        <v>#LX7306</v>
+        <v>#LX7294</v>
       </c>
       <c r="E27" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1216,16 +1216,16 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>2024LexusTX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B28" t="str">
-        <v>84200</v>
+        <v>54470</v>
       </c>
       <c r="C28" t="str">
-        <v>500h F SPORT PERFORMANCE 2</v>
+        <v>350 PREMIUM</v>
       </c>
       <c r="D28" t="str">
-        <v>#LX7304</v>
+        <v>#LX7654</v>
       </c>
       <c r="E28" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1239,69 +1239,18 @@
         <v>71500</v>
       </c>
       <c r="C29" t="str">
-        <v>350 ULTRA LUXURY</v>
+        <v>350</v>
       </c>
       <c r="D29" t="str">
-        <v>#LX7294</v>
+        <v>#LX7651</v>
       </c>
       <c r="E29" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="str">
-        <v>2025LexusNX</v>
-      </c>
-      <c r="B30" t="str">
-        <v>56415</v>
-      </c>
-      <c r="C30" t="str">
-        <v>350h</v>
-      </c>
-      <c r="D30" t="str">
-        <v>#LX7661</v>
-      </c>
-      <c r="E30" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="str">
-        <v>2025LexusNX</v>
-      </c>
-      <c r="B31" t="str">
-        <v>54470</v>
-      </c>
-      <c r="C31" t="str">
-        <v>350 PREMIUM</v>
-      </c>
-      <c r="D31" t="str">
-        <v>#LX7654</v>
-      </c>
-      <c r="E31" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="str">
-        <v>2024LexusTX</v>
-      </c>
-      <c r="B32" t="str">
-        <v>71500</v>
-      </c>
-      <c r="C32" t="str">
-        <v>350</v>
-      </c>
-      <c r="D32" t="str">
-        <v>#LX7651</v>
-      </c>
-      <c r="E32" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E32"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E29"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Projects/scrapping_js/lexus_maritime/Lexus_Inventory.xlsx
+++ b/Projects/scrapping_js/lexus_maritime/Lexus_Inventory.xlsx
@@ -431,7 +431,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2025 NX HYBRID 350h</v>
+        <v>2025 UX HYBRID 300h</v>
       </c>
       <c r="B2" t="str">
         <v>All Wheel Drive</v>
@@ -440,16 +440,16 @@
         <v>Automatic</v>
       </c>
       <c r="D2" t="str">
-        <v>2.5L 4cyl.</v>
+        <v>2L 4cyl.</v>
       </c>
       <c r="E2" t="str">
-        <v>$58743</v>
+        <v>$46583</v>
       </c>
       <c r="F2" t="str">
-        <v>2T2GKCEZ4SC044315</v>
+        <v>JTHUCJDH1S2004921</v>
       </c>
       <c r="G2" t="str">
-        <v>25057</v>
+        <v>25058</v>
       </c>
       <c r="H2" t="str">
         <v>Premium</v>
@@ -457,7 +457,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2025 NX HYBRID 350h</v>
+        <v>2025 UX HYBRID 300h</v>
       </c>
       <c r="B3" t="str">
         <v>All Wheel Drive</v>
@@ -466,16 +466,16 @@
         <v>Automatic</v>
       </c>
       <c r="D3" t="str">
-        <v>2.5L 4cyl.</v>
+        <v>2L 4cyl.</v>
       </c>
       <c r="E3" t="str">
-        <v>$63423</v>
+        <v>$52047</v>
       </c>
       <c r="F3" t="str">
-        <v>2T2GKCEZXSC043587</v>
+        <v>JTHUCJDH7S2004938</v>
       </c>
       <c r="G3" t="str">
-        <v>25056</v>
+        <v>25059</v>
       </c>
       <c r="H3" t="str">
         <v>Luxury</v>
@@ -483,7 +483,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2024 TX 350 Luxury</v>
+        <v>2025 NX HYBRID 350h</v>
       </c>
       <c r="B4" t="str">
         <v>All Wheel Drive</v>
@@ -492,16 +492,16 @@
         <v>Automatic</v>
       </c>
       <c r="D4" t="str">
-        <v>2.4L TURBO 4cyl.</v>
+        <v>2.5L 4cyl.</v>
       </c>
       <c r="E4" t="str">
-        <v>$71078</v>
+        <v>$63423</v>
       </c>
       <c r="F4" t="str">
-        <v>5TDAAAB6XRS010005</v>
+        <v>2T2GKCEZXSC043587</v>
       </c>
       <c r="G4" t="str">
-        <v>24131</v>
+        <v>25056</v>
       </c>
       <c r="H4" t="str">
         <v>Luxury</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2024 TX 350 Luxury</v>
+        <v>2025 NX HYBRID 350h</v>
       </c>
       <c r="B5" t="str">
         <v>All Wheel Drive</v>
@@ -518,19 +518,19 @@
         <v>Automatic</v>
       </c>
       <c r="D5" t="str">
-        <v>2.4L TURBO 4cyl.</v>
+        <v>2.5L 4cyl.</v>
       </c>
       <c r="E5" t="str">
-        <v>$71078</v>
+        <v>$67390</v>
       </c>
       <c r="F5" t="str">
-        <v>5TDAAAB67RS011953</v>
+        <v>2T2GKCEZ4SC045139</v>
       </c>
       <c r="G5" t="str">
-        <v>24143</v>
+        <v>25065</v>
       </c>
       <c r="H5" t="str">
-        <v>Luxury</v>
+        <v>Ultra Luxury</v>
       </c>
     </row>
     <row r="6">
@@ -550,10 +550,10 @@
         <v>$71078</v>
       </c>
       <c r="F6" t="str">
-        <v>5TDAAAB66RS007506</v>
+        <v>5TDAAAB6XRS010005</v>
       </c>
       <c r="G6" t="str">
-        <v>24108</v>
+        <v>24131</v>
       </c>
       <c r="H6" t="str">
         <v>Luxury</v>
@@ -573,13 +573,13 @@
         <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E7" t="str">
-        <v>$71578</v>
+        <v>$71078</v>
       </c>
       <c r="F7" t="str">
-        <v>5TDAAAB69RS009802</v>
+        <v>5TDAAAB67RS011953</v>
       </c>
       <c r="G7" t="str">
-        <v>24132</v>
+        <v>24143</v>
       </c>
       <c r="H7" t="str">
         <v>Luxury</v>
@@ -587,7 +587,7 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2025 NX 350</v>
+        <v>2024 TX 350 Luxury</v>
       </c>
       <c r="B8" t="str">
         <v>All Wheel Drive</v>
@@ -599,21 +599,21 @@
         <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E8" t="str">
-        <v>$71361</v>
+        <v>$71078</v>
       </c>
       <c r="F8" t="str">
-        <v>2T2GGCEZ2SC072194</v>
+        <v>5TDAAAB66RS007506</v>
       </c>
       <c r="G8" t="str">
-        <v>25050</v>
+        <v>24108</v>
       </c>
       <c r="H8" t="str">
-        <v>Executive</v>
+        <v>Luxury</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2024 TX 350 Ultra Luxury</v>
+        <v>2024 TX 350 Luxury</v>
       </c>
       <c r="B9" t="str">
         <v>All Wheel Drive</v>
@@ -625,21 +625,21 @@
         <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E9" t="str">
-        <v>$73828</v>
+        <v>$71578</v>
       </c>
       <c r="F9" t="str">
-        <v>5TDAAAB6XRS008707</v>
+        <v>5TDAAAB69RS009802</v>
       </c>
       <c r="G9" t="str">
-        <v>24111</v>
+        <v>24132</v>
       </c>
       <c r="H9" t="str">
-        <v>Ultra Luxury</v>
+        <v>Luxury</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2024 TX 350 Ultra Luxury</v>
+        <v>2025 NX 350</v>
       </c>
       <c r="B10" t="str">
         <v>All Wheel Drive</v>
@@ -651,16 +651,16 @@
         <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E10" t="str">
-        <v>$73828</v>
+        <v>$71361</v>
       </c>
       <c r="F10" t="str">
-        <v>5TDAAAB62RS012752</v>
+        <v>2T2GGCEZ2SC072194</v>
       </c>
       <c r="G10" t="str">
-        <v>24146</v>
+        <v>25050</v>
       </c>
       <c r="H10" t="str">
-        <v>Ultra Luxury</v>
+        <v>Executive</v>
       </c>
     </row>
     <row r="11">
@@ -680,10 +680,10 @@
         <v>$73828</v>
       </c>
       <c r="F11" t="str">
-        <v>5TDAAAB60RS014113</v>
+        <v>5TDAAAB6XRS008707</v>
       </c>
       <c r="G11" t="str">
-        <v>24156</v>
+        <v>24111</v>
       </c>
       <c r="H11" t="str">
         <v>Ultra Luxury</v>
@@ -706,10 +706,10 @@
         <v>$73828</v>
       </c>
       <c r="F12" t="str">
-        <v>5TDAAAB67RS013945</v>
+        <v>5TDAAAB62RS012752</v>
       </c>
       <c r="G12" t="str">
-        <v>24157</v>
+        <v>24146</v>
       </c>
       <c r="H12" t="str">
         <v>Ultra Luxury</v>
@@ -732,10 +732,10 @@
         <v>$73828</v>
       </c>
       <c r="F13" t="str">
-        <v>5TDAAAB63RS013487</v>
+        <v>5TDAAAB61RS005453</v>
       </c>
       <c r="G13" t="str">
-        <v>24158</v>
+        <v>24094</v>
       </c>
       <c r="H13" t="str">
         <v>Ultra Luxury</v>
@@ -750,7 +750,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -777,13 +777,13 @@
         <v>2025LexusRX</v>
       </c>
       <c r="B2" t="str">
-        <v>67624</v>
+        <v>90574</v>
       </c>
       <c r="C2" t="str">
-        <v>350 LUXURY PKG</v>
+        <v>500h BLACK LINE SPECIAL EDITION</v>
       </c>
       <c r="D2" t="str">
-        <v>#LX7660</v>
+        <v>#LX7674</v>
       </c>
       <c r="E2" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -791,67 +791,67 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2024LexusRX</v>
+        <v>2025LexusRX</v>
       </c>
       <c r="B3" t="str">
-        <v>75850</v>
+        <v>88150</v>
       </c>
       <c r="C3" t="str">
-        <v>350 EXECUTIVE PKG</v>
+        <v>450h+ EXECUTIVE PKG</v>
       </c>
       <c r="D3" t="str">
-        <v>#LX7642</v>
+        <v>#LX7672</v>
       </c>
       <c r="E3" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2024LexusRX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B4" t="str">
-        <v>87450</v>
+        <v>50815</v>
       </c>
       <c r="C4" t="str">
-        <v>450h+ EXECUTIVE PKG</v>
+        <v>250 SIGNATURE</v>
       </c>
       <c r="D4" t="str">
-        <v>#LX7641</v>
+        <v>#LX7673</v>
       </c>
       <c r="E4" t="str">
-        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2024LexusRX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B5" t="str">
-        <v>86950</v>
+        <v>77795</v>
       </c>
       <c r="C5" t="str">
-        <v>450h+ EXECUTIVE PKG</v>
+        <v>450h+</v>
       </c>
       <c r="D5" t="str">
-        <v>#LX7639</v>
+        <v>#LX7670</v>
       </c>
       <c r="E5" t="str">
-        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>2025LexusUX</v>
+        <v>2025LexusRX</v>
       </c>
       <c r="B6" t="str">
-        <v>51344</v>
+        <v>67624</v>
       </c>
       <c r="C6" t="str">
-        <v>300h F SPORT 2</v>
+        <v>350 LUXURY PKG</v>
       </c>
       <c r="D6" t="str">
-        <v>#LX7633</v>
+        <v>#LX7660</v>
       </c>
       <c r="E6" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -862,64 +862,64 @@
         <v>2024LexusRX</v>
       </c>
       <c r="B7" t="str">
-        <v>77350</v>
+        <v>87450</v>
       </c>
       <c r="C7" t="str">
-        <v>350h EXECUTIVE PKG</v>
+        <v>450h+ EXECUTIVE PKG</v>
       </c>
       <c r="D7" t="str">
-        <v>#LX7625</v>
+        <v>#LX7641</v>
       </c>
       <c r="E7" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2025LexusUX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B8" t="str">
-        <v>43605</v>
+        <v>86950</v>
       </c>
       <c r="C8" t="str">
-        <v>300h PREMIUM PKG</v>
+        <v>450h+ EXECUTIVE PKG</v>
       </c>
       <c r="D8" t="str">
-        <v>#LX7618</v>
+        <v>#LX7639</v>
       </c>
       <c r="E8" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2025LexusES</v>
+        <v>2025LexusUX</v>
       </c>
       <c r="B9" t="str">
-        <v>54014</v>
+        <v>51344</v>
       </c>
       <c r="C9" t="str">
-        <v>350 PREMIUM</v>
+        <v>300h F SPORT 2</v>
       </c>
       <c r="D9" t="str">
-        <v>#LX7601</v>
+        <v>#LX7633</v>
       </c>
       <c r="E9" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2025LexusNX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B10" t="str">
-        <v>68383</v>
+        <v>77350</v>
       </c>
       <c r="C10" t="str">
-        <v>350 PREMIUM</v>
+        <v>350h EXECUTIVE PKG</v>
       </c>
       <c r="D10" t="str">
-        <v>#LX7585</v>
+        <v>#LX7625</v>
       </c>
       <c r="E10" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -936,7 +936,7 @@
         <v>350 PREMIUM</v>
       </c>
       <c r="D11" t="str">
-        <v>#LX7573</v>
+        <v>#LX7601</v>
       </c>
       <c r="E11" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
@@ -944,16 +944,16 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2024LexusRX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B12" t="str">
-        <v>71500</v>
+        <v>68383</v>
       </c>
       <c r="C12" t="str">
-        <v>350 ULTRA LUXURY</v>
+        <v>350 PREMIUM</v>
       </c>
       <c r="D12" t="str">
-        <v>#LX7531</v>
+        <v>#LX7585</v>
       </c>
       <c r="E12" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -961,33 +961,33 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2024LexusIS</v>
+        <v>2025LexusES</v>
       </c>
       <c r="B13" t="str">
-        <v>56350</v>
+        <v>54014</v>
       </c>
       <c r="C13" t="str">
-        <v>300 ULTRA LUXURY</v>
+        <v>350 PREMIUM</v>
       </c>
       <c r="D13" t="str">
-        <v>#LX7497</v>
+        <v>#LX7573</v>
       </c>
       <c r="E13" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2024LexusTX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B14" t="str">
-        <v>68750</v>
+        <v>71500</v>
       </c>
       <c r="C14" t="str">
-        <v>350 Luxury PKG</v>
+        <v>350 ULTRA LUXURY</v>
       </c>
       <c r="D14" t="str">
-        <v>#LX7495</v>
+        <v>#LX7531</v>
       </c>
       <c r="E14" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -995,16 +995,16 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2024LexusTX</v>
+        <v>2024LexusIS</v>
       </c>
       <c r="B15" t="str">
-        <v>68750</v>
+        <v>56350</v>
       </c>
       <c r="C15" t="str">
-        <v>350 Luxury PKG</v>
+        <v>300 ULTRA LUXURY</v>
       </c>
       <c r="D15" t="str">
-        <v>#LX7489</v>
+        <v>#LX7497</v>
       </c>
       <c r="E15" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1015,13 +1015,13 @@
         <v>2024LexusTX</v>
       </c>
       <c r="B16" t="str">
-        <v>84200</v>
+        <v>68750</v>
       </c>
       <c r="C16" t="str">
-        <v>500h F SPORT PERFORMANCE 2</v>
+        <v>350 Luxury PKG</v>
       </c>
       <c r="D16" t="str">
-        <v>#LX7484</v>
+        <v>#LX7495</v>
       </c>
       <c r="E16" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1032,13 +1032,13 @@
         <v>2024LexusTX</v>
       </c>
       <c r="B17" t="str">
-        <v>71500</v>
+        <v>68750</v>
       </c>
       <c r="C17" t="str">
-        <v>350</v>
+        <v>350 Luxury PKG</v>
       </c>
       <c r="D17" t="str">
-        <v>#LX7477</v>
+        <v>#LX7489</v>
       </c>
       <c r="E17" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1046,16 +1046,16 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>2025LexusNX</v>
+        <v>2024LexusTX</v>
       </c>
       <c r="B18" t="str">
-        <v>62842</v>
+        <v>84200</v>
       </c>
       <c r="C18" t="str">
-        <v>350 F SPORT 2</v>
+        <v>500h F SPORT PERFORMANCE 2</v>
       </c>
       <c r="D18" t="str">
-        <v>#LX7475</v>
+        <v>#LX7484</v>
       </c>
       <c r="E18" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1063,16 +1063,16 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>2024LexusTX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B19" t="str">
-        <v>72000</v>
+        <v>62842</v>
       </c>
       <c r="C19" t="str">
-        <v>350 ULTRA LUXURY</v>
+        <v>350 F SPORT 2</v>
       </c>
       <c r="D19" t="str">
-        <v>#LX7471</v>
+        <v>#LX7475</v>
       </c>
       <c r="E19" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1114,16 +1114,16 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>2024LexusRX</v>
+        <v>2024LexusTX</v>
       </c>
       <c r="B22" t="str">
-        <v>60350</v>
+        <v>71500</v>
       </c>
       <c r="C22" t="str">
-        <v>350 PREMIUM PKG</v>
+        <v>350 ULTRA LUXURY</v>
       </c>
       <c r="D22" t="str">
-        <v>#LX7432</v>
+        <v>#LX7430</v>
       </c>
       <c r="E22" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1131,16 +1131,16 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>2024LexusTX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B23" t="str">
-        <v>71500</v>
+        <v>81100</v>
       </c>
       <c r="C23" t="str">
-        <v>350 ULTRA LUXURY</v>
+        <v>500h F SPORT PERFORMANCE 2</v>
       </c>
       <c r="D23" t="str">
-        <v>#LX7430</v>
+        <v>#LX7306</v>
       </c>
       <c r="E23" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1148,16 +1148,16 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>2024LexusRX</v>
+        <v>2024LexusTX</v>
       </c>
       <c r="B24" t="str">
-        <v>75850</v>
+        <v>84200</v>
       </c>
       <c r="C24" t="str">
-        <v>350 F SPORT 3</v>
+        <v>500h F SPORT PERFORMANCE 2</v>
       </c>
       <c r="D24" t="str">
-        <v>#LX7404</v>
+        <v>#LX7304</v>
       </c>
       <c r="E24" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1165,16 +1165,16 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>2024LexusRX</v>
+        <v>2024LexusTX</v>
       </c>
       <c r="B25" t="str">
-        <v>81100</v>
+        <v>71500</v>
       </c>
       <c r="C25" t="str">
-        <v>500h F SPORT PERFORMANCE 2</v>
+        <v>350 ULTRA LUXURY</v>
       </c>
       <c r="D25" t="str">
-        <v>#LX7306</v>
+        <v>#LX7294</v>
       </c>
       <c r="E25" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1182,75 +1182,41 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>2024LexusTX</v>
+        <v>2024LexusLX</v>
       </c>
       <c r="B26" t="str">
-        <v>84200</v>
+        <v>136600</v>
       </c>
       <c r="C26" t="str">
-        <v>500h F SPORT PERFORMANCE 2</v>
+        <v>600 LUXURY PKG</v>
       </c>
       <c r="D26" t="str">
-        <v>#LX7304</v>
+        <v>#LX7680</v>
       </c>
       <c r="E26" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>4x4, Active Park Assist, Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>2024LexusTX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B27" t="str">
-        <v>71500</v>
+        <v>54470</v>
       </c>
       <c r="C27" t="str">
-        <v>350 ULTRA LUXURY</v>
+        <v>350 PREMIUM</v>
       </c>
       <c r="D27" t="str">
-        <v>#LX7294</v>
+        <v>#LX7654</v>
       </c>
       <c r="E27" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v>2025LexusNX</v>
-      </c>
-      <c r="B28" t="str">
-        <v>54470</v>
-      </c>
-      <c r="C28" t="str">
-        <v>350 PREMIUM</v>
-      </c>
-      <c r="D28" t="str">
-        <v>#LX7654</v>
-      </c>
-      <c r="E28" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="str">
-        <v>2024LexusTX</v>
-      </c>
-      <c r="B29" t="str">
-        <v>71500</v>
-      </c>
-      <c r="C29" t="str">
-        <v>350</v>
-      </c>
-      <c r="D29" t="str">
-        <v>#LX7651</v>
-      </c>
-      <c r="E29" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E29"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E27"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Projects/scrapping_js/lexus_maritime/Lexus_Inventory.xlsx
+++ b/Projects/scrapping_js/lexus_maritime/Lexus_Inventory.xlsx
@@ -446,10 +446,10 @@
         <v>$46583</v>
       </c>
       <c r="F2" t="str">
-        <v>JTHUCJDH1S2004921</v>
+        <v>JTHUCJDH2S2005978</v>
       </c>
       <c r="G2" t="str">
-        <v>25058</v>
+        <v>25070</v>
       </c>
       <c r="H2" t="str">
         <v>Premium</v>
@@ -469,21 +469,21 @@
         <v>2L 4cyl.</v>
       </c>
       <c r="E3" t="str">
-        <v>$52047</v>
+        <v>$46583</v>
       </c>
       <c r="F3" t="str">
-        <v>JTHUCJDH7S2004938</v>
+        <v>JTHUCJDH1S2004921</v>
       </c>
       <c r="G3" t="str">
-        <v>25059</v>
+        <v>25058</v>
       </c>
       <c r="H3" t="str">
-        <v>Luxury</v>
+        <v>Premium</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2025 NX HYBRID 350h</v>
+        <v>2025 UX HYBRID 300h</v>
       </c>
       <c r="B4" t="str">
         <v>All Wheel Drive</v>
@@ -492,16 +492,16 @@
         <v>Automatic</v>
       </c>
       <c r="D4" t="str">
-        <v>2.5L 4cyl.</v>
+        <v>2L 4cyl.</v>
       </c>
       <c r="E4" t="str">
-        <v>$63423</v>
+        <v>$52047</v>
       </c>
       <c r="F4" t="str">
-        <v>2T2GKCEZXSC043587</v>
+        <v>JTHUCJDH7S2004938</v>
       </c>
       <c r="G4" t="str">
-        <v>25056</v>
+        <v>25059</v>
       </c>
       <c r="H4" t="str">
         <v>Luxury</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2025 NX HYBRID 350h</v>
+        <v>2025 NX Plug-In Hybrid 450h</v>
       </c>
       <c r="B5" t="str">
         <v>All Wheel Drive</v>
@@ -521,21 +521,21 @@
         <v>2.5L 4cyl.</v>
       </c>
       <c r="E5" t="str">
-        <v>$67390</v>
+        <v>$62318</v>
       </c>
       <c r="F5" t="str">
-        <v>2T2GKCEZ4SC045139</v>
+        <v>JTJHKCFZ8S2053134</v>
       </c>
       <c r="G5" t="str">
-        <v>25065</v>
+        <v>25068</v>
       </c>
       <c r="H5" t="str">
-        <v>Ultra Luxury</v>
+        <v>Ultra Premium</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>2024 TX 350 Luxury</v>
+        <v>2025 NX Plug-In Hybrid 450h</v>
       </c>
       <c r="B6" t="str">
         <v>All Wheel Drive</v>
@@ -544,24 +544,24 @@
         <v>Automatic</v>
       </c>
       <c r="D6" t="str">
-        <v>2.4L TURBO 4cyl.</v>
+        <v>2.5L 4cyl.</v>
       </c>
       <c r="E6" t="str">
-        <v>$71078</v>
+        <v>$62318</v>
       </c>
       <c r="F6" t="str">
-        <v>5TDAAAB6XRS010005</v>
+        <v>JTJHKCFZ6S2052824</v>
       </c>
       <c r="G6" t="str">
-        <v>24131</v>
+        <v>25069</v>
       </c>
       <c r="H6" t="str">
-        <v>Luxury</v>
+        <v>Ultra Premium</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>2024 TX 350 Luxury</v>
+        <v>2025 NX HYBRID 350h</v>
       </c>
       <c r="B7" t="str">
         <v>All Wheel Drive</v>
@@ -570,16 +570,16 @@
         <v>Automatic</v>
       </c>
       <c r="D7" t="str">
-        <v>2.4L TURBO 4cyl.</v>
+        <v>2.5L 4cyl.</v>
       </c>
       <c r="E7" t="str">
-        <v>$71078</v>
+        <v>$63423</v>
       </c>
       <c r="F7" t="str">
-        <v>5TDAAAB67RS011953</v>
+        <v>2T2GKCEZXSC043587</v>
       </c>
       <c r="G7" t="str">
-        <v>24143</v>
+        <v>25056</v>
       </c>
       <c r="H7" t="str">
         <v>Luxury</v>
@@ -587,7 +587,7 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2024 TX 350 Luxury</v>
+        <v>2025 NX HYBRID 350h</v>
       </c>
       <c r="B8" t="str">
         <v>All Wheel Drive</v>
@@ -596,19 +596,19 @@
         <v>Automatic</v>
       </c>
       <c r="D8" t="str">
-        <v>2.4L TURBO 4cyl.</v>
+        <v>2.5L 4cyl.</v>
       </c>
       <c r="E8" t="str">
-        <v>$71078</v>
+        <v>$67390</v>
       </c>
       <c r="F8" t="str">
-        <v>5TDAAAB66RS007506</v>
+        <v>2T2GKCEZ4SC045139</v>
       </c>
       <c r="G8" t="str">
-        <v>24108</v>
+        <v>25065</v>
       </c>
       <c r="H8" t="str">
-        <v>Luxury</v>
+        <v>Ultra Luxury</v>
       </c>
     </row>
     <row r="9">
@@ -625,13 +625,13 @@
         <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E9" t="str">
-        <v>$71578</v>
+        <v>$71078</v>
       </c>
       <c r="F9" t="str">
-        <v>5TDAAAB69RS009802</v>
+        <v>5TDAAAB6XRS010005</v>
       </c>
       <c r="G9" t="str">
-        <v>24132</v>
+        <v>24131</v>
       </c>
       <c r="H9" t="str">
         <v>Luxury</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2025 NX 350</v>
+        <v>2024 TX 350 Luxury</v>
       </c>
       <c r="B10" t="str">
         <v>All Wheel Drive</v>
@@ -651,21 +651,21 @@
         <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E10" t="str">
-        <v>$71361</v>
+        <v>$71078</v>
       </c>
       <c r="F10" t="str">
-        <v>2T2GGCEZ2SC072194</v>
+        <v>5TDAAAB66RS007506</v>
       </c>
       <c r="G10" t="str">
-        <v>25050</v>
+        <v>24108</v>
       </c>
       <c r="H10" t="str">
-        <v>Executive</v>
+        <v>Luxury</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2024 TX 350 Ultra Luxury</v>
+        <v>2024 TX 350 Luxury</v>
       </c>
       <c r="B11" t="str">
         <v>All Wheel Drive</v>
@@ -677,21 +677,21 @@
         <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E11" t="str">
-        <v>$73828</v>
+        <v>$71078</v>
       </c>
       <c r="F11" t="str">
-        <v>5TDAAAB6XRS008707</v>
+        <v>5TDAAAB67RS011953</v>
       </c>
       <c r="G11" t="str">
-        <v>24111</v>
+        <v>24143</v>
       </c>
       <c r="H11" t="str">
-        <v>Ultra Luxury</v>
+        <v>Luxury</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2024 TX 350 Ultra Luxury</v>
+        <v>2024 TX 350 Luxury</v>
       </c>
       <c r="B12" t="str">
         <v>All Wheel Drive</v>
@@ -703,21 +703,21 @@
         <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E12" t="str">
-        <v>$73828</v>
+        <v>$71578</v>
       </c>
       <c r="F12" t="str">
-        <v>5TDAAAB62RS012752</v>
+        <v>5TDAAAB69RS009802</v>
       </c>
       <c r="G12" t="str">
-        <v>24146</v>
+        <v>24132</v>
       </c>
       <c r="H12" t="str">
-        <v>Ultra Luxury</v>
+        <v>Luxury</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2024 TX 350 Ultra Luxury</v>
+        <v>2025 NX 350</v>
       </c>
       <c r="B13" t="str">
         <v>All Wheel Drive</v>
@@ -729,16 +729,16 @@
         <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E13" t="str">
-        <v>$73828</v>
+        <v>$71361</v>
       </c>
       <c r="F13" t="str">
-        <v>5TDAAAB61RS005453</v>
+        <v>2T2GGCEZ2SC072194</v>
       </c>
       <c r="G13" t="str">
-        <v>24094</v>
+        <v>25050</v>
       </c>
       <c r="H13" t="str">
-        <v>Ultra Luxury</v>
+        <v>Executive</v>
       </c>
     </row>
   </sheetData>
@@ -750,7 +750,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -774,19 +774,19 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2025LexusRX</v>
+        <v>2024LexusLX</v>
       </c>
       <c r="B2" t="str">
-        <v>90574</v>
+        <v>136600</v>
       </c>
       <c r="C2" t="str">
-        <v>500h BLACK LINE SPECIAL EDITION</v>
+        <v>600 LUXURY PKG</v>
       </c>
       <c r="D2" t="str">
-        <v>#LX7674</v>
+        <v>#LX7680</v>
       </c>
       <c r="E2" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>4x4, Active Park Assist, Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
       </c>
     </row>
     <row r="3">
@@ -794,33 +794,33 @@
         <v>2025LexusRX</v>
       </c>
       <c r="B3" t="str">
-        <v>88150</v>
+        <v>90574</v>
       </c>
       <c r="C3" t="str">
-        <v>450h+ EXECUTIVE PKG</v>
+        <v>500h BLACK LINE SPECIAL EDITION</v>
       </c>
       <c r="D3" t="str">
-        <v>#LX7672</v>
+        <v>#LX7674</v>
       </c>
       <c r="E3" t="str">
-        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2025LexusNX</v>
+        <v>2025LexusRX</v>
       </c>
       <c r="B4" t="str">
-        <v>50815</v>
+        <v>88150</v>
       </c>
       <c r="C4" t="str">
-        <v>250 SIGNATURE</v>
+        <v>450h+ EXECUTIVE PKG</v>
       </c>
       <c r="D4" t="str">
-        <v>#LX7673</v>
+        <v>#LX7672</v>
       </c>
       <c r="E4" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
       </c>
     </row>
     <row r="5">
@@ -828,13 +828,13 @@
         <v>2025LexusNX</v>
       </c>
       <c r="B5" t="str">
-        <v>77795</v>
+        <v>50815</v>
       </c>
       <c r="C5" t="str">
-        <v>450h+</v>
+        <v>250 SIGNATURE</v>
       </c>
       <c r="D5" t="str">
-        <v>#LX7670</v>
+        <v>#LX7673</v>
       </c>
       <c r="E5" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -893,16 +893,16 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2025LexusUX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B9" t="str">
-        <v>51344</v>
+        <v>77350</v>
       </c>
       <c r="C9" t="str">
-        <v>300h F SPORT 2</v>
+        <v>350h EXECUTIVE PKG</v>
       </c>
       <c r="D9" t="str">
-        <v>#LX7633</v>
+        <v>#LX7625</v>
       </c>
       <c r="E9" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -910,84 +910,84 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2024LexusRX</v>
+        <v>2025LexusES</v>
       </c>
       <c r="B10" t="str">
-        <v>77350</v>
+        <v>54014</v>
       </c>
       <c r="C10" t="str">
-        <v>350h EXECUTIVE PKG</v>
+        <v>350 PREMIUM</v>
       </c>
       <c r="D10" t="str">
-        <v>#LX7625</v>
+        <v>#LX7601</v>
       </c>
       <c r="E10" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2025LexusES</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B11" t="str">
-        <v>54014</v>
+        <v>68383</v>
       </c>
       <c r="C11" t="str">
         <v>350 PREMIUM</v>
       </c>
       <c r="D11" t="str">
-        <v>#LX7601</v>
+        <v>#LX7585</v>
       </c>
       <c r="E11" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2025LexusNX</v>
+        <v>2025LexusES</v>
       </c>
       <c r="B12" t="str">
-        <v>68383</v>
+        <v>54014</v>
       </c>
       <c r="C12" t="str">
         <v>350 PREMIUM</v>
       </c>
       <c r="D12" t="str">
-        <v>#LX7585</v>
+        <v>#LX7573</v>
       </c>
       <c r="E12" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2025LexusES</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B13" t="str">
-        <v>54014</v>
+        <v>71500</v>
       </c>
       <c r="C13" t="str">
-        <v>350 PREMIUM</v>
+        <v>350 ULTRA LUXURY</v>
       </c>
       <c r="D13" t="str">
-        <v>#LX7573</v>
+        <v>#LX7531</v>
       </c>
       <c r="E13" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2024LexusRX</v>
+        <v>2024LexusIS</v>
       </c>
       <c r="B14" t="str">
-        <v>71500</v>
+        <v>56350</v>
       </c>
       <c r="C14" t="str">
-        <v>350 ULTRA LUXURY</v>
+        <v>300 ULTRA LUXURY</v>
       </c>
       <c r="D14" t="str">
-        <v>#LX7531</v>
+        <v>#LX7497</v>
       </c>
       <c r="E14" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -995,16 +995,16 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2024LexusIS</v>
+        <v>2024LexusTX</v>
       </c>
       <c r="B15" t="str">
-        <v>56350</v>
+        <v>68750</v>
       </c>
       <c r="C15" t="str">
-        <v>300 ULTRA LUXURY</v>
+        <v>350 Luxury PKG</v>
       </c>
       <c r="D15" t="str">
-        <v>#LX7497</v>
+        <v>#LX7495</v>
       </c>
       <c r="E15" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1021,7 +1021,7 @@
         <v>350 Luxury PKG</v>
       </c>
       <c r="D16" t="str">
-        <v>#LX7495</v>
+        <v>#LX7489</v>
       </c>
       <c r="E16" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1032,13 +1032,13 @@
         <v>2024LexusTX</v>
       </c>
       <c r="B17" t="str">
-        <v>68750</v>
+        <v>84200</v>
       </c>
       <c r="C17" t="str">
-        <v>350 Luxury PKG</v>
+        <v>500h F SPORT PERFORMANCE 2</v>
       </c>
       <c r="D17" t="str">
-        <v>#LX7489</v>
+        <v>#LX7484</v>
       </c>
       <c r="E17" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1046,16 +1046,16 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>2024LexusTX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B18" t="str">
-        <v>84200</v>
+        <v>62842</v>
       </c>
       <c r="C18" t="str">
-        <v>500h F SPORT PERFORMANCE 2</v>
+        <v>350 F SPORT 2</v>
       </c>
       <c r="D18" t="str">
-        <v>#LX7484</v>
+        <v>#LX7475</v>
       </c>
       <c r="E18" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1066,13 +1066,13 @@
         <v>2025LexusNX</v>
       </c>
       <c r="B19" t="str">
-        <v>62842</v>
+        <v>54470</v>
       </c>
       <c r="C19" t="str">
-        <v>350 F SPORT 2</v>
+        <v>350</v>
       </c>
       <c r="D19" t="str">
-        <v>#LX7475</v>
+        <v>#LX7442</v>
       </c>
       <c r="E19" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1080,16 +1080,16 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>2025LexusNX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B20" t="str">
-        <v>54470</v>
+        <v>81100</v>
       </c>
       <c r="C20" t="str">
-        <v>350</v>
+        <v>500h F SPORT PERFORMANCE 2</v>
       </c>
       <c r="D20" t="str">
-        <v>#LX7442</v>
+        <v>#LX7306</v>
       </c>
       <c r="E20" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1097,16 +1097,16 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>2024LexusRX</v>
+        <v>2024LexusTX</v>
       </c>
       <c r="B21" t="str">
-        <v>60350</v>
+        <v>84200</v>
       </c>
       <c r="C21" t="str">
-        <v>350 PREMIUM PKG</v>
+        <v>500h F SPORT PERFORMANCE 2</v>
       </c>
       <c r="D21" t="str">
-        <v>#LX7437</v>
+        <v>#LX7304</v>
       </c>
       <c r="E21" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1114,109 +1114,24 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>2024LexusTX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B22" t="str">
-        <v>71500</v>
+        <v>54470</v>
       </c>
       <c r="C22" t="str">
-        <v>350 ULTRA LUXURY</v>
+        <v>350 PREMIUM</v>
       </c>
       <c r="D22" t="str">
-        <v>#LX7430</v>
+        <v>#LX7654</v>
       </c>
       <c r="E22" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>2024LexusRX</v>
-      </c>
-      <c r="B23" t="str">
-        <v>81100</v>
-      </c>
-      <c r="C23" t="str">
-        <v>500h F SPORT PERFORMANCE 2</v>
-      </c>
-      <c r="D23" t="str">
-        <v>#LX7306</v>
-      </c>
-      <c r="E23" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>2024LexusTX</v>
-      </c>
-      <c r="B24" t="str">
-        <v>84200</v>
-      </c>
-      <c r="C24" t="str">
-        <v>500h F SPORT PERFORMANCE 2</v>
-      </c>
-      <c r="D24" t="str">
-        <v>#LX7304</v>
-      </c>
-      <c r="E24" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>2024LexusTX</v>
-      </c>
-      <c r="B25" t="str">
-        <v>71500</v>
-      </c>
-      <c r="C25" t="str">
-        <v>350 ULTRA LUXURY</v>
-      </c>
-      <c r="D25" t="str">
-        <v>#LX7294</v>
-      </c>
-      <c r="E25" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v>2024LexusLX</v>
-      </c>
-      <c r="B26" t="str">
-        <v>136600</v>
-      </c>
-      <c r="C26" t="str">
-        <v>600 LUXURY PKG</v>
-      </c>
-      <c r="D26" t="str">
-        <v>#LX7680</v>
-      </c>
-      <c r="E26" t="str">
-        <v>4x4, Active Park Assist, Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>2025LexusNX</v>
-      </c>
-      <c r="B27" t="str">
-        <v>54470</v>
-      </c>
-      <c r="C27" t="str">
-        <v>350 PREMIUM</v>
-      </c>
-      <c r="D27" t="str">
-        <v>#LX7654</v>
-      </c>
-      <c r="E27" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E27"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E22"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Projects/scrapping_js/lexus_maritime/Lexus_Inventory.xlsx
+++ b/Projects/scrapping_js/lexus_maritime/Lexus_Inventory.xlsx
@@ -446,10 +446,10 @@
         <v>$46583</v>
       </c>
       <c r="F2" t="str">
-        <v>JTHUCJDH2S2005978</v>
+        <v>JTHUCJDH1S2004921</v>
       </c>
       <c r="G2" t="str">
-        <v>25070</v>
+        <v>25058</v>
       </c>
       <c r="H2" t="str">
         <v>Premium</v>
@@ -472,10 +472,10 @@
         <v>$46583</v>
       </c>
       <c r="F3" t="str">
-        <v>JTHUCJDH1S2004921</v>
+        <v>JTHUCJDH2S2005978</v>
       </c>
       <c r="G3" t="str">
-        <v>25058</v>
+        <v>25070</v>
       </c>
       <c r="H3" t="str">
         <v>Premium</v>
@@ -524,10 +524,10 @@
         <v>$62318</v>
       </c>
       <c r="F5" t="str">
-        <v>JTJHKCFZ8S2053134</v>
+        <v>JTJHKCFZ1S2053010</v>
       </c>
       <c r="G5" t="str">
-        <v>25068</v>
+        <v>25067</v>
       </c>
       <c r="H5" t="str">
         <v>Ultra Premium</v>
@@ -750,7 +750,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1114,24 +1114,41 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
+        <v>2025LexusRX</v>
+      </c>
+      <c r="B22" t="str">
+        <v>87500</v>
+      </c>
+      <c r="C22" t="str">
+        <v>450h+</v>
+      </c>
+      <c r="D22" t="str">
+        <v>#LX7689</v>
+      </c>
+      <c r="E22" t="str">
+        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
         <v>2025LexusNX</v>
       </c>
-      <c r="B22" t="str">
+      <c r="B23" t="str">
         <v>54470</v>
       </c>
-      <c r="C22" t="str">
+      <c r="C23" t="str">
         <v>350 PREMIUM</v>
       </c>
-      <c r="D22" t="str">
+      <c r="D23" t="str">
         <v>#LX7654</v>
       </c>
-      <c r="E22" t="str">
+      <c r="E23" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E22"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E23"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Projects/scrapping_js/lexus_maritime/Lexus_Inventory.xlsx
+++ b/Projects/scrapping_js/lexus_maritime/Lexus_Inventory.xlsx
@@ -498,10 +498,10 @@
         <v>$52047</v>
       </c>
       <c r="F4" t="str">
-        <v>JTHUCJDH7S2004938</v>
+        <v>JTHUCJDH6S2006339</v>
       </c>
       <c r="G4" t="str">
-        <v>25059</v>
+        <v>25071</v>
       </c>
       <c r="H4" t="str">
         <v>Luxury</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2025 NX Plug-In Hybrid 450h</v>
+        <v>2025 UX HYBRID 300h</v>
       </c>
       <c r="B5" t="str">
         <v>All Wheel Drive</v>
@@ -518,24 +518,24 @@
         <v>Automatic</v>
       </c>
       <c r="D5" t="str">
-        <v>2.5L 4cyl.</v>
+        <v>2L 4cyl.</v>
       </c>
       <c r="E5" t="str">
-        <v>$62318</v>
+        <v>$52047</v>
       </c>
       <c r="F5" t="str">
-        <v>JTJHKCFZ1S2053010</v>
+        <v>JTHUCJDH7S2004938</v>
       </c>
       <c r="G5" t="str">
-        <v>25067</v>
+        <v>25059</v>
       </c>
       <c r="H5" t="str">
-        <v>Ultra Premium</v>
+        <v>Luxury</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>2025 NX Plug-In Hybrid 450h</v>
+        <v>2025 UX HYBRID F SPORT</v>
       </c>
       <c r="B6" t="str">
         <v>All Wheel Drive</v>
@@ -544,19 +544,19 @@
         <v>Automatic</v>
       </c>
       <c r="D6" t="str">
-        <v>2.5L 4cyl.</v>
+        <v>2L 4cyl.</v>
       </c>
       <c r="E6" t="str">
-        <v>$62318</v>
+        <v>$54322</v>
       </c>
       <c r="F6" t="str">
-        <v>JTJHKCFZ6S2052824</v>
+        <v>JTHUCJDH4S2006355</v>
       </c>
       <c r="G6" t="str">
-        <v>25069</v>
+        <v>25072</v>
       </c>
       <c r="H6" t="str">
-        <v>Ultra Premium</v>
+        <v>F SPORT SÉRIE 2</v>
       </c>
     </row>
     <row r="7">
@@ -628,10 +628,10 @@
         <v>$71078</v>
       </c>
       <c r="F9" t="str">
-        <v>5TDAAAB6XRS010005</v>
+        <v>5TDAAAB66RS007506</v>
       </c>
       <c r="G9" t="str">
-        <v>24131</v>
+        <v>24108</v>
       </c>
       <c r="H9" t="str">
         <v>Luxury</v>
@@ -654,10 +654,10 @@
         <v>$71078</v>
       </c>
       <c r="F10" t="str">
-        <v>5TDAAAB66RS007506</v>
+        <v>5TDAAAB6XRS010005</v>
       </c>
       <c r="G10" t="str">
-        <v>24108</v>
+        <v>24131</v>
       </c>
       <c r="H10" t="str">
         <v>Luxury</v>
@@ -750,7 +750,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -774,33 +774,33 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2024LexusLX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B2" t="str">
-        <v>136600</v>
+        <v>56415</v>
       </c>
       <c r="C2" t="str">
-        <v>600 LUXURY PKG</v>
+        <v>350h PREMIUM</v>
       </c>
       <c r="D2" t="str">
-        <v>#LX7680</v>
+        <v>#LX7701</v>
       </c>
       <c r="E2" t="str">
-        <v>4x4, Active Park Assist, Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2025LexusRX</v>
+        <v>2025LexusIS</v>
       </c>
       <c r="B3" t="str">
-        <v>90574</v>
+        <v>56218</v>
       </c>
       <c r="C3" t="str">
-        <v>500h BLACK LINE SPECIAL EDITION</v>
+        <v>300 PREMIUM</v>
       </c>
       <c r="D3" t="str">
-        <v>#LX7674</v>
+        <v>#LX7697</v>
       </c>
       <c r="E3" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -808,84 +808,84 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2025LexusRX</v>
+        <v>2025LexusUX</v>
       </c>
       <c r="B4" t="str">
-        <v>88150</v>
+        <v>49719</v>
       </c>
       <c r="C4" t="str">
-        <v>450h+ EXECUTIVE PKG</v>
+        <v>300h LUXURY PKG</v>
       </c>
       <c r="D4" t="str">
-        <v>#LX7672</v>
+        <v>#LX7696</v>
       </c>
       <c r="E4" t="str">
-        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2025LexusNX</v>
+        <v>2025LexusRX</v>
       </c>
       <c r="B5" t="str">
-        <v>50815</v>
+        <v>87500</v>
       </c>
       <c r="C5" t="str">
-        <v>250 SIGNATURE</v>
+        <v>450h+ EXECUTIVE PKG</v>
       </c>
       <c r="D5" t="str">
-        <v>#LX7673</v>
+        <v>#LX7689</v>
       </c>
       <c r="E5" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>2025LexusRX</v>
+        <v>2024LexusLX</v>
       </c>
       <c r="B6" t="str">
-        <v>67624</v>
+        <v>136600</v>
       </c>
       <c r="C6" t="str">
-        <v>350 LUXURY PKG</v>
+        <v>600 LUXURY PKG</v>
       </c>
       <c r="D6" t="str">
-        <v>#LX7660</v>
+        <v>#LX7680</v>
       </c>
       <c r="E6" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>4x4, Active Park Assist, Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>2024LexusRX</v>
+        <v>2025LexusRX</v>
       </c>
       <c r="B7" t="str">
-        <v>87450</v>
+        <v>90574</v>
       </c>
       <c r="C7" t="str">
-        <v>450h+ EXECUTIVE PKG</v>
+        <v>500h BLACK LINE SPECIAL EDITION</v>
       </c>
       <c r="D7" t="str">
-        <v>#LX7641</v>
+        <v>#LX7674</v>
       </c>
       <c r="E7" t="str">
-        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2024LexusRX</v>
+        <v>2025LexusRX</v>
       </c>
       <c r="B8" t="str">
-        <v>86950</v>
+        <v>88150</v>
       </c>
       <c r="C8" t="str">
         <v>450h+ EXECUTIVE PKG</v>
       </c>
       <c r="D8" t="str">
-        <v>#LX7639</v>
+        <v>#LX7672</v>
       </c>
       <c r="E8" t="str">
         <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
@@ -893,16 +893,16 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2024LexusRX</v>
+        <v>2025LexusRX</v>
       </c>
       <c r="B9" t="str">
-        <v>77350</v>
+        <v>67624</v>
       </c>
       <c r="C9" t="str">
-        <v>350h EXECUTIVE PKG</v>
+        <v>350 LUXURY PKG</v>
       </c>
       <c r="D9" t="str">
-        <v>#LX7625</v>
+        <v>#LX7660</v>
       </c>
       <c r="E9" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -910,84 +910,84 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2025LexusES</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B10" t="str">
-        <v>54014</v>
+        <v>87450</v>
       </c>
       <c r="C10" t="str">
-        <v>350 PREMIUM</v>
+        <v>450h+ EXECUTIVE PKG</v>
       </c>
       <c r="D10" t="str">
-        <v>#LX7601</v>
+        <v>#LX7641</v>
       </c>
       <c r="E10" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
+        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2025LexusNX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B11" t="str">
-        <v>68383</v>
+        <v>86950</v>
       </c>
       <c r="C11" t="str">
-        <v>350 PREMIUM</v>
+        <v>450h+ EXECUTIVE PKG</v>
       </c>
       <c r="D11" t="str">
-        <v>#LX7585</v>
+        <v>#LX7639</v>
       </c>
       <c r="E11" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2025LexusES</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B12" t="str">
-        <v>54014</v>
+        <v>77350</v>
       </c>
       <c r="C12" t="str">
-        <v>350 PREMIUM</v>
+        <v>350h EXECUTIVE PKG</v>
       </c>
       <c r="D12" t="str">
-        <v>#LX7573</v>
+        <v>#LX7625</v>
       </c>
       <c r="E12" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2024LexusRX</v>
+        <v>2025LexusES</v>
       </c>
       <c r="B13" t="str">
-        <v>71500</v>
+        <v>54014</v>
       </c>
       <c r="C13" t="str">
-        <v>350 ULTRA LUXURY</v>
+        <v>350 PREMIUM</v>
       </c>
       <c r="D13" t="str">
-        <v>#LX7531</v>
+        <v>#LX7601</v>
       </c>
       <c r="E13" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2024LexusIS</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B14" t="str">
-        <v>56350</v>
+        <v>68383</v>
       </c>
       <c r="C14" t="str">
-        <v>300 ULTRA LUXURY</v>
+        <v>350 PREMIUM</v>
       </c>
       <c r="D14" t="str">
-        <v>#LX7497</v>
+        <v>#LX7585</v>
       </c>
       <c r="E14" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -995,16 +995,16 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2024LexusTX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B15" t="str">
-        <v>68750</v>
+        <v>71500</v>
       </c>
       <c r="C15" t="str">
-        <v>350 Luxury PKG</v>
+        <v>350 ULTRA LUXURY</v>
       </c>
       <c r="D15" t="str">
-        <v>#LX7495</v>
+        <v>#LX7531</v>
       </c>
       <c r="E15" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1012,16 +1012,16 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>2024LexusTX</v>
+        <v>2024LexusIS</v>
       </c>
       <c r="B16" t="str">
-        <v>68750</v>
+        <v>56350</v>
       </c>
       <c r="C16" t="str">
-        <v>350 Luxury PKG</v>
+        <v>300 ULTRA LUXURY</v>
       </c>
       <c r="D16" t="str">
-        <v>#LX7489</v>
+        <v>#LX7497</v>
       </c>
       <c r="E16" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1032,13 +1032,13 @@
         <v>2024LexusTX</v>
       </c>
       <c r="B17" t="str">
-        <v>84200</v>
+        <v>68750</v>
       </c>
       <c r="C17" t="str">
-        <v>500h F SPORT PERFORMANCE 2</v>
+        <v>350 Luxury PKG</v>
       </c>
       <c r="D17" t="str">
-        <v>#LX7484</v>
+        <v>#LX7495</v>
       </c>
       <c r="E17" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1046,16 +1046,16 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>2025LexusNX</v>
+        <v>2024LexusTX</v>
       </c>
       <c r="B18" t="str">
-        <v>62842</v>
+        <v>68750</v>
       </c>
       <c r="C18" t="str">
-        <v>350 F SPORT 2</v>
+        <v>350 Luxury PKG</v>
       </c>
       <c r="D18" t="str">
-        <v>#LX7475</v>
+        <v>#LX7489</v>
       </c>
       <c r="E18" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1063,16 +1063,16 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>2025LexusNX</v>
+        <v>2024LexusTX</v>
       </c>
       <c r="B19" t="str">
-        <v>54470</v>
+        <v>84200</v>
       </c>
       <c r="C19" t="str">
-        <v>350</v>
+        <v>500h F SPORT PERFORMANCE 2</v>
       </c>
       <c r="D19" t="str">
-        <v>#LX7442</v>
+        <v>#LX7484</v>
       </c>
       <c r="E19" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1080,16 +1080,16 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>2024LexusRX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B20" t="str">
-        <v>81100</v>
+        <v>62842</v>
       </c>
       <c r="C20" t="str">
-        <v>500h F SPORT PERFORMANCE 2</v>
+        <v>350 F SPORT 2</v>
       </c>
       <c r="D20" t="str">
-        <v>#LX7306</v>
+        <v>#LX7475</v>
       </c>
       <c r="E20" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1097,16 +1097,16 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>2024LexusTX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B21" t="str">
-        <v>84200</v>
+        <v>81100</v>
       </c>
       <c r="C21" t="str">
         <v>500h F SPORT PERFORMANCE 2</v>
       </c>
       <c r="D21" t="str">
-        <v>#LX7304</v>
+        <v>#LX7306</v>
       </c>
       <c r="E21" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1114,19 +1114,19 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>2025LexusRX</v>
+        <v>2024LexusTX</v>
       </c>
       <c r="B22" t="str">
-        <v>87500</v>
+        <v>84200</v>
       </c>
       <c r="C22" t="str">
-        <v>450h+</v>
+        <v>500h F SPORT PERFORMANCE 2</v>
       </c>
       <c r="D22" t="str">
-        <v>#LX7689</v>
+        <v>#LX7304</v>
       </c>
       <c r="E22" t="str">
-        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="23">
@@ -1134,21 +1134,38 @@
         <v>2025LexusNX</v>
       </c>
       <c r="B23" t="str">
+        <v>61745</v>
+      </c>
+      <c r="C23" t="str">
+        <v>350h LUXURY</v>
+      </c>
+      <c r="D23" t="str">
+        <v>#LX7700</v>
+      </c>
+      <c r="E23" t="str">
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>2025LexusNX</v>
+      </c>
+      <c r="B24" t="str">
         <v>54470</v>
       </c>
-      <c r="C23" t="str">
+      <c r="C24" t="str">
         <v>350 PREMIUM</v>
       </c>
-      <c r="D23" t="str">
+      <c r="D24" t="str">
         <v>#LX7654</v>
       </c>
-      <c r="E23" t="str">
+      <c r="E24" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E23"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E24"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Projects/scrapping_js/lexus_maritime/Lexus_Inventory.xlsx
+++ b/Projects/scrapping_js/lexus_maritime/Lexus_Inventory.xlsx
@@ -443,7 +443,7 @@
         <v>2L 4cyl.</v>
       </c>
       <c r="E2" t="str">
-        <v>$46583</v>
+        <v>$47583</v>
       </c>
       <c r="F2" t="str">
         <v>JTHUCJDH1S2004921</v>
@@ -469,16 +469,16 @@
         <v>2L 4cyl.</v>
       </c>
       <c r="E3" t="str">
-        <v>$46583</v>
+        <v>$53047</v>
       </c>
       <c r="F3" t="str">
-        <v>JTHUCJDH2S2005978</v>
+        <v>JTHUCJDH6S2006339</v>
       </c>
       <c r="G3" t="str">
-        <v>25070</v>
+        <v>25071</v>
       </c>
       <c r="H3" t="str">
-        <v>Premium</v>
+        <v>Luxury</v>
       </c>
     </row>
     <row r="4">
@@ -495,13 +495,13 @@
         <v>2L 4cyl.</v>
       </c>
       <c r="E4" t="str">
-        <v>$52047</v>
+        <v>$53047</v>
       </c>
       <c r="F4" t="str">
-        <v>JTHUCJDH6S2006339</v>
+        <v>JTHUCJDH7S2004938</v>
       </c>
       <c r="G4" t="str">
-        <v>25071</v>
+        <v>25059</v>
       </c>
       <c r="H4" t="str">
         <v>Luxury</v>
@@ -521,13 +521,13 @@
         <v>2L 4cyl.</v>
       </c>
       <c r="E5" t="str">
-        <v>$52047</v>
+        <v>$53047</v>
       </c>
       <c r="F5" t="str">
-        <v>JTHUCJDH7S2004938</v>
+        <v>JTHUCJDH4S2006842</v>
       </c>
       <c r="G5" t="str">
-        <v>25059</v>
+        <v>25076</v>
       </c>
       <c r="H5" t="str">
         <v>Luxury</v>
@@ -547,7 +547,7 @@
         <v>2L 4cyl.</v>
       </c>
       <c r="E6" t="str">
-        <v>$54322</v>
+        <v>$55322</v>
       </c>
       <c r="F6" t="str">
         <v>JTHUCJDH4S2006355</v>
@@ -573,7 +573,7 @@
         <v>2.5L 4cyl.</v>
       </c>
       <c r="E7" t="str">
-        <v>$63423</v>
+        <v>$63723</v>
       </c>
       <c r="F7" t="str">
         <v>2T2GKCEZXSC043587</v>
@@ -599,7 +599,7 @@
         <v>2.5L 4cyl.</v>
       </c>
       <c r="E8" t="str">
-        <v>$67390</v>
+        <v>$67690</v>
       </c>
       <c r="F8" t="str">
         <v>2T2GKCEZ4SC045139</v>
@@ -628,10 +628,10 @@
         <v>$71078</v>
       </c>
       <c r="F9" t="str">
-        <v>5TDAAAB66RS007506</v>
+        <v>5TDAAAB67RS011953</v>
       </c>
       <c r="G9" t="str">
-        <v>24108</v>
+        <v>24143</v>
       </c>
       <c r="H9" t="str">
         <v>Luxury</v>
@@ -680,10 +680,10 @@
         <v>$71078</v>
       </c>
       <c r="F11" t="str">
-        <v>5TDAAAB67RS011953</v>
+        <v>5TDAAAB66RS007506</v>
       </c>
       <c r="G11" t="str">
-        <v>24143</v>
+        <v>24108</v>
       </c>
       <c r="H11" t="str">
         <v>Luxury</v>
@@ -750,7 +750,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -862,16 +862,16 @@
         <v>2025LexusRX</v>
       </c>
       <c r="B7" t="str">
-        <v>90574</v>
+        <v>88150</v>
       </c>
       <c r="C7" t="str">
-        <v>500h BLACK LINE SPECIAL EDITION</v>
+        <v>450h+ EXECUTIVE PKG</v>
       </c>
       <c r="D7" t="str">
-        <v>#LX7674</v>
+        <v>#LX7672</v>
       </c>
       <c r="E7" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
       </c>
     </row>
     <row r="8">
@@ -879,33 +879,33 @@
         <v>2025LexusRX</v>
       </c>
       <c r="B8" t="str">
-        <v>88150</v>
+        <v>67624</v>
       </c>
       <c r="C8" t="str">
-        <v>450h+ EXECUTIVE PKG</v>
+        <v>350 LUXURY PKG</v>
       </c>
       <c r="D8" t="str">
-        <v>#LX7672</v>
+        <v>#LX7660</v>
       </c>
       <c r="E8" t="str">
-        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2025LexusRX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B9" t="str">
-        <v>67624</v>
+        <v>87450</v>
       </c>
       <c r="C9" t="str">
-        <v>350 LUXURY PKG</v>
+        <v>450h+ EXECUTIVE PKG</v>
       </c>
       <c r="D9" t="str">
-        <v>#LX7660</v>
+        <v>#LX7641</v>
       </c>
       <c r="E9" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
       </c>
     </row>
     <row r="10">
@@ -913,13 +913,13 @@
         <v>2024LexusRX</v>
       </c>
       <c r="B10" t="str">
-        <v>87450</v>
+        <v>86950</v>
       </c>
       <c r="C10" t="str">
         <v>450h+ EXECUTIVE PKG</v>
       </c>
       <c r="D10" t="str">
-        <v>#LX7641</v>
+        <v>#LX7639</v>
       </c>
       <c r="E10" t="str">
         <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
@@ -930,64 +930,64 @@
         <v>2024LexusRX</v>
       </c>
       <c r="B11" t="str">
-        <v>86950</v>
+        <v>77350</v>
       </c>
       <c r="C11" t="str">
-        <v>450h+ EXECUTIVE PKG</v>
+        <v>350h EXECUTIVE PKG</v>
       </c>
       <c r="D11" t="str">
-        <v>#LX7639</v>
+        <v>#LX7625</v>
       </c>
       <c r="E11" t="str">
-        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2024LexusRX</v>
+        <v>2025LexusES</v>
       </c>
       <c r="B12" t="str">
-        <v>77350</v>
+        <v>54014</v>
       </c>
       <c r="C12" t="str">
-        <v>350h EXECUTIVE PKG</v>
+        <v>350 PREMIUM</v>
       </c>
       <c r="D12" t="str">
-        <v>#LX7625</v>
+        <v>#LX7601</v>
       </c>
       <c r="E12" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2025LexusES</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B13" t="str">
-        <v>54014</v>
+        <v>68383</v>
       </c>
       <c r="C13" t="str">
         <v>350 PREMIUM</v>
       </c>
       <c r="D13" t="str">
-        <v>#LX7601</v>
+        <v>#LX7585</v>
       </c>
       <c r="E13" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2025LexusNX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B14" t="str">
-        <v>68383</v>
+        <v>71500</v>
       </c>
       <c r="C14" t="str">
-        <v>350 PREMIUM</v>
+        <v>350 ULTRA LUXURY</v>
       </c>
       <c r="D14" t="str">
-        <v>#LX7585</v>
+        <v>#LX7531</v>
       </c>
       <c r="E14" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -995,16 +995,16 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2024LexusRX</v>
+        <v>2024LexusIS</v>
       </c>
       <c r="B15" t="str">
-        <v>71500</v>
+        <v>56350</v>
       </c>
       <c r="C15" t="str">
-        <v>350 ULTRA LUXURY</v>
+        <v>300 ULTRA LUXURY</v>
       </c>
       <c r="D15" t="str">
-        <v>#LX7531</v>
+        <v>#LX7497</v>
       </c>
       <c r="E15" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1012,16 +1012,16 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>2024LexusIS</v>
+        <v>2024LexusTX</v>
       </c>
       <c r="B16" t="str">
-        <v>56350</v>
+        <v>68750</v>
       </c>
       <c r="C16" t="str">
-        <v>300 ULTRA LUXURY</v>
+        <v>350 Luxury PKG</v>
       </c>
       <c r="D16" t="str">
-        <v>#LX7497</v>
+        <v>#LX7495</v>
       </c>
       <c r="E16" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1038,7 +1038,7 @@
         <v>350 Luxury PKG</v>
       </c>
       <c r="D17" t="str">
-        <v>#LX7495</v>
+        <v>#LX7489</v>
       </c>
       <c r="E17" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1049,13 +1049,13 @@
         <v>2024LexusTX</v>
       </c>
       <c r="B18" t="str">
-        <v>68750</v>
+        <v>84200</v>
       </c>
       <c r="C18" t="str">
-        <v>350 Luxury PKG</v>
+        <v>500h F SPORT PERFORMANCE 2</v>
       </c>
       <c r="D18" t="str">
-        <v>#LX7489</v>
+        <v>#LX7484</v>
       </c>
       <c r="E18" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1063,16 +1063,16 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>2024LexusTX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B19" t="str">
-        <v>84200</v>
+        <v>62842</v>
       </c>
       <c r="C19" t="str">
-        <v>500h F SPORT PERFORMANCE 2</v>
+        <v>350 F SPORT 2</v>
       </c>
       <c r="D19" t="str">
-        <v>#LX7484</v>
+        <v>#LX7475</v>
       </c>
       <c r="E19" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1080,16 +1080,16 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>2025LexusNX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B20" t="str">
-        <v>62842</v>
+        <v>81100</v>
       </c>
       <c r="C20" t="str">
-        <v>350 F SPORT 2</v>
+        <v>500h F SPORT PERFORMANCE 2</v>
       </c>
       <c r="D20" t="str">
-        <v>#LX7475</v>
+        <v>#LX7306</v>
       </c>
       <c r="E20" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1097,16 +1097,16 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>2024LexusRX</v>
+        <v>2024LexusTX</v>
       </c>
       <c r="B21" t="str">
-        <v>81100</v>
+        <v>84200</v>
       </c>
       <c r="C21" t="str">
         <v>500h F SPORT PERFORMANCE 2</v>
       </c>
       <c r="D21" t="str">
-        <v>#LX7306</v>
+        <v>#LX7304</v>
       </c>
       <c r="E21" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1114,16 +1114,16 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>2024LexusTX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B22" t="str">
-        <v>84200</v>
+        <v>61745</v>
       </c>
       <c r="C22" t="str">
-        <v>500h F SPORT PERFORMANCE 2</v>
+        <v>350h LUXURY</v>
       </c>
       <c r="D22" t="str">
-        <v>#LX7304</v>
+        <v>#LX7700</v>
       </c>
       <c r="E22" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1134,38 +1134,21 @@
         <v>2025LexusNX</v>
       </c>
       <c r="B23" t="str">
-        <v>61745</v>
+        <v>54470</v>
       </c>
       <c r="C23" t="str">
-        <v>350h LUXURY</v>
+        <v>350 PREMIUM</v>
       </c>
       <c r="D23" t="str">
-        <v>#LX7700</v>
+        <v>#LX7654</v>
       </c>
       <c r="E23" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>2025LexusNX</v>
-      </c>
-      <c r="B24" t="str">
-        <v>54470</v>
-      </c>
-      <c r="C24" t="str">
-        <v>350 PREMIUM</v>
-      </c>
-      <c r="D24" t="str">
-        <v>#LX7654</v>
-      </c>
-      <c r="E24" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E24"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E23"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Projects/scrapping_js/lexus_maritime/Lexus_Inventory.xlsx
+++ b/Projects/scrapping_js/lexus_maritime/Lexus_Inventory.xlsx
@@ -573,21 +573,21 @@
         <v>2.5L 4cyl.</v>
       </c>
       <c r="E7" t="str">
-        <v>$63723</v>
+        <v>$67690</v>
       </c>
       <c r="F7" t="str">
-        <v>2T2GKCEZXSC043587</v>
+        <v>2T2GKCEZ4SC045139</v>
       </c>
       <c r="G7" t="str">
-        <v>25056</v>
+        <v>25065</v>
       </c>
       <c r="H7" t="str">
-        <v>Luxury</v>
+        <v>Ultra Luxury</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2025 NX HYBRID 350h</v>
+        <v>2024 TX 350 Luxury</v>
       </c>
       <c r="B8" t="str">
         <v>All Wheel Drive</v>
@@ -596,19 +596,19 @@
         <v>Automatic</v>
       </c>
       <c r="D8" t="str">
-        <v>2.5L 4cyl.</v>
+        <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E8" t="str">
-        <v>$67690</v>
+        <v>$71078</v>
       </c>
       <c r="F8" t="str">
-        <v>2T2GKCEZ4SC045139</v>
+        <v>5TDAAAB67RS011953</v>
       </c>
       <c r="G8" t="str">
-        <v>25065</v>
+        <v>24143</v>
       </c>
       <c r="H8" t="str">
-        <v>Ultra Luxury</v>
+        <v>Luxury</v>
       </c>
     </row>
     <row r="9">
@@ -628,10 +628,10 @@
         <v>$71078</v>
       </c>
       <c r="F9" t="str">
-        <v>5TDAAAB67RS011953</v>
+        <v>5TDAAAB6XRS010005</v>
       </c>
       <c r="G9" t="str">
-        <v>24143</v>
+        <v>24131</v>
       </c>
       <c r="H9" t="str">
         <v>Luxury</v>
@@ -654,10 +654,10 @@
         <v>$71078</v>
       </c>
       <c r="F10" t="str">
-        <v>5TDAAAB6XRS010005</v>
+        <v>5TDAAAB66RS007506</v>
       </c>
       <c r="G10" t="str">
-        <v>24131</v>
+        <v>24108</v>
       </c>
       <c r="H10" t="str">
         <v>Luxury</v>
@@ -677,13 +677,13 @@
         <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E11" t="str">
-        <v>$71078</v>
+        <v>$71578</v>
       </c>
       <c r="F11" t="str">
-        <v>5TDAAAB66RS007506</v>
+        <v>5TDAAAB69RS009802</v>
       </c>
       <c r="G11" t="str">
-        <v>24108</v>
+        <v>24132</v>
       </c>
       <c r="H11" t="str">
         <v>Luxury</v>
@@ -691,7 +691,7 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2024 TX 350 Luxury</v>
+        <v>2025 NX 350</v>
       </c>
       <c r="B12" t="str">
         <v>All Wheel Drive</v>
@@ -703,21 +703,21 @@
         <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E12" t="str">
-        <v>$71578</v>
+        <v>$71361</v>
       </c>
       <c r="F12" t="str">
-        <v>5TDAAAB69RS009802</v>
+        <v>2T2GGCEZ2SC072194</v>
       </c>
       <c r="G12" t="str">
-        <v>24132</v>
+        <v>25050</v>
       </c>
       <c r="H12" t="str">
-        <v>Luxury</v>
+        <v>Executive</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2025 NX 350</v>
+        <v>2024 TX 350 Ultra Luxury</v>
       </c>
       <c r="B13" t="str">
         <v>All Wheel Drive</v>
@@ -729,16 +729,16 @@
         <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E13" t="str">
-        <v>$71361</v>
+        <v>$73828</v>
       </c>
       <c r="F13" t="str">
-        <v>2T2GGCEZ2SC072194</v>
+        <v>5TDAAAB60RS014113</v>
       </c>
       <c r="G13" t="str">
-        <v>25050</v>
+        <v>24156</v>
       </c>
       <c r="H13" t="str">
-        <v>Executive</v>
+        <v>Ultra Luxury</v>
       </c>
     </row>
   </sheetData>
@@ -750,7 +750,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -777,13 +777,13 @@
         <v>2025LexusNX</v>
       </c>
       <c r="B2" t="str">
-        <v>56415</v>
+        <v>70758</v>
       </c>
       <c r="C2" t="str">
-        <v>350h PREMIUM</v>
+        <v>350h EXECUTIVE</v>
       </c>
       <c r="D2" t="str">
-        <v>#LX7701</v>
+        <v>#LX7710</v>
       </c>
       <c r="E2" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -791,16 +791,16 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2025LexusIS</v>
+        <v>2025LexusUX</v>
       </c>
       <c r="B3" t="str">
-        <v>56218</v>
+        <v>50719</v>
       </c>
       <c r="C3" t="str">
-        <v>300 PREMIUM</v>
+        <v>300h LUXURY PKG</v>
       </c>
       <c r="D3" t="str">
-        <v>#LX7697</v>
+        <v>#LX7704</v>
       </c>
       <c r="E3" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -811,13 +811,13 @@
         <v>2025LexusUX</v>
       </c>
       <c r="B4" t="str">
-        <v>49719</v>
+        <v>45255</v>
       </c>
       <c r="C4" t="str">
-        <v>300h LUXURY PKG</v>
+        <v>300h PREMIUM</v>
       </c>
       <c r="D4" t="str">
-        <v>#LX7696</v>
+        <v>#LX7705</v>
       </c>
       <c r="E4" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -825,67 +825,67 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2025LexusRX</v>
+        <v>2025LexusUX</v>
       </c>
       <c r="B5" t="str">
-        <v>87500</v>
+        <v>45675</v>
       </c>
       <c r="C5" t="str">
-        <v>450h+ EXECUTIVE PKG</v>
+        <v>300h F SPORT DESIGN</v>
       </c>
       <c r="D5" t="str">
-        <v>#LX7689</v>
+        <v>#LX7706</v>
       </c>
       <c r="E5" t="str">
-        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>2024LexusLX</v>
+        <v>2025LexusUX</v>
       </c>
       <c r="B6" t="str">
-        <v>136600</v>
+        <v>50719</v>
       </c>
       <c r="C6" t="str">
-        <v>600 LUXURY PKG</v>
+        <v>300h LUXURY PKG</v>
       </c>
       <c r="D6" t="str">
-        <v>#LX7680</v>
+        <v>#LX7707</v>
       </c>
       <c r="E6" t="str">
-        <v>4x4, Active Park Assist, Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>2025LexusRX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B7" t="str">
-        <v>88150</v>
+        <v>56415</v>
       </c>
       <c r="C7" t="str">
-        <v>450h+ EXECUTIVE PKG</v>
+        <v>350h PREMIUM</v>
       </c>
       <c r="D7" t="str">
-        <v>#LX7672</v>
+        <v>#LX7701</v>
       </c>
       <c r="E7" t="str">
-        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2025LexusRX</v>
+        <v>2025LexusIS</v>
       </c>
       <c r="B8" t="str">
-        <v>67624</v>
+        <v>56218</v>
       </c>
       <c r="C8" t="str">
-        <v>350 LUXURY PKG</v>
+        <v>300 PREMIUM</v>
       </c>
       <c r="D8" t="str">
-        <v>#LX7660</v>
+        <v>#LX7697</v>
       </c>
       <c r="E8" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -893,33 +893,33 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2024LexusRX</v>
+        <v>2025LexusUX</v>
       </c>
       <c r="B9" t="str">
-        <v>87450</v>
+        <v>49719</v>
       </c>
       <c r="C9" t="str">
-        <v>450h+ EXECUTIVE PKG</v>
+        <v>300h LUXURY PKG</v>
       </c>
       <c r="D9" t="str">
-        <v>#LX7641</v>
+        <v>#LX7696</v>
       </c>
       <c r="E9" t="str">
-        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2024LexusRX</v>
+        <v>2025LexusRX</v>
       </c>
       <c r="B10" t="str">
-        <v>86950</v>
+        <v>87500</v>
       </c>
       <c r="C10" t="str">
         <v>450h+ EXECUTIVE PKG</v>
       </c>
       <c r="D10" t="str">
-        <v>#LX7639</v>
+        <v>#LX7689</v>
       </c>
       <c r="E10" t="str">
         <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
@@ -927,50 +927,50 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2024LexusRX</v>
+        <v>2024LexusLX</v>
       </c>
       <c r="B11" t="str">
-        <v>77350</v>
+        <v>136600</v>
       </c>
       <c r="C11" t="str">
-        <v>350h EXECUTIVE PKG</v>
+        <v>600 LUXURY PKG</v>
       </c>
       <c r="D11" t="str">
-        <v>#LX7625</v>
+        <v>#LX7680</v>
       </c>
       <c r="E11" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>4x4, Active Park Assist, Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2025LexusES</v>
+        <v>2025LexusRX</v>
       </c>
       <c r="B12" t="str">
-        <v>54014</v>
+        <v>88150</v>
       </c>
       <c r="C12" t="str">
-        <v>350 PREMIUM</v>
+        <v>450h+ EXECUTIVE PKG</v>
       </c>
       <c r="D12" t="str">
-        <v>#LX7601</v>
+        <v>#LX7672</v>
       </c>
       <c r="E12" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
+        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2025LexusNX</v>
+        <v>2025LexusRX</v>
       </c>
       <c r="B13" t="str">
-        <v>68383</v>
+        <v>67624</v>
       </c>
       <c r="C13" t="str">
-        <v>350 PREMIUM</v>
+        <v>350 LUXURY PKG</v>
       </c>
       <c r="D13" t="str">
-        <v>#LX7585</v>
+        <v>#LX7660</v>
       </c>
       <c r="E13" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -981,47 +981,47 @@
         <v>2024LexusRX</v>
       </c>
       <c r="B14" t="str">
-        <v>71500</v>
+        <v>87450</v>
       </c>
       <c r="C14" t="str">
-        <v>350 ULTRA LUXURY</v>
+        <v>450h+ EXECUTIVE PKG</v>
       </c>
       <c r="D14" t="str">
-        <v>#LX7531</v>
+        <v>#LX7641</v>
       </c>
       <c r="E14" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2024LexusIS</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B15" t="str">
-        <v>56350</v>
+        <v>86950</v>
       </c>
       <c r="C15" t="str">
-        <v>300 ULTRA LUXURY</v>
+        <v>450h+ EXECUTIVE PKG</v>
       </c>
       <c r="D15" t="str">
-        <v>#LX7497</v>
+        <v>#LX7639</v>
       </c>
       <c r="E15" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>2024LexusTX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B16" t="str">
-        <v>68750</v>
+        <v>77350</v>
       </c>
       <c r="C16" t="str">
-        <v>350 Luxury PKG</v>
+        <v>350h EXECUTIVE PKG</v>
       </c>
       <c r="D16" t="str">
-        <v>#LX7495</v>
+        <v>#LX7625</v>
       </c>
       <c r="E16" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1029,33 +1029,33 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>2024LexusTX</v>
+        <v>2025LexusES</v>
       </c>
       <c r="B17" t="str">
-        <v>68750</v>
+        <v>54014</v>
       </c>
       <c r="C17" t="str">
-        <v>350 Luxury PKG</v>
+        <v>350 PREMIUM</v>
       </c>
       <c r="D17" t="str">
-        <v>#LX7489</v>
+        <v>#LX7601</v>
       </c>
       <c r="E17" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>2024LexusTX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B18" t="str">
-        <v>84200</v>
+        <v>68383</v>
       </c>
       <c r="C18" t="str">
-        <v>500h F SPORT PERFORMANCE 2</v>
+        <v>350 PREMIUM</v>
       </c>
       <c r="D18" t="str">
-        <v>#LX7484</v>
+        <v>#LX7585</v>
       </c>
       <c r="E18" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1063,16 +1063,16 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>2025LexusNX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B19" t="str">
-        <v>62842</v>
+        <v>71500</v>
       </c>
       <c r="C19" t="str">
-        <v>350 F SPORT 2</v>
+        <v>350 ULTRA LUXURY</v>
       </c>
       <c r="D19" t="str">
-        <v>#LX7475</v>
+        <v>#LX7531</v>
       </c>
       <c r="E19" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1080,16 +1080,16 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>2024LexusRX</v>
+        <v>2024LexusIS</v>
       </c>
       <c r="B20" t="str">
-        <v>81100</v>
+        <v>56350</v>
       </c>
       <c r="C20" t="str">
-        <v>500h F SPORT PERFORMANCE 2</v>
+        <v>300 ULTRA LUXURY</v>
       </c>
       <c r="D20" t="str">
-        <v>#LX7306</v>
+        <v>#LX7497</v>
       </c>
       <c r="E20" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1100,13 +1100,13 @@
         <v>2024LexusTX</v>
       </c>
       <c r="B21" t="str">
-        <v>84200</v>
+        <v>68750</v>
       </c>
       <c r="C21" t="str">
-        <v>500h F SPORT PERFORMANCE 2</v>
+        <v>350 Luxury PKG</v>
       </c>
       <c r="D21" t="str">
-        <v>#LX7304</v>
+        <v>#LX7495</v>
       </c>
       <c r="E21" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1114,16 +1114,16 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>2025LexusNX</v>
+        <v>2024LexusTX</v>
       </c>
       <c r="B22" t="str">
-        <v>61745</v>
+        <v>68750</v>
       </c>
       <c r="C22" t="str">
-        <v>350h LUXURY</v>
+        <v>350 Luxury PKG</v>
       </c>
       <c r="D22" t="str">
-        <v>#LX7700</v>
+        <v>#LX7489</v>
       </c>
       <c r="E22" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1131,24 +1131,109 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
+        <v>2024LexusTX</v>
+      </c>
+      <c r="B23" t="str">
+        <v>84200</v>
+      </c>
+      <c r="C23" t="str">
+        <v>500h F SPORT PERFORMANCE 2</v>
+      </c>
+      <c r="D23" t="str">
+        <v>#LX7484</v>
+      </c>
+      <c r="E23" t="str">
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
         <v>2025LexusNX</v>
       </c>
-      <c r="B23" t="str">
+      <c r="B24" t="str">
+        <v>62842</v>
+      </c>
+      <c r="C24" t="str">
+        <v>350 F SPORT 2</v>
+      </c>
+      <c r="D24" t="str">
+        <v>#LX7475</v>
+      </c>
+      <c r="E24" t="str">
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>2024LexusRX</v>
+      </c>
+      <c r="B25" t="str">
+        <v>81100</v>
+      </c>
+      <c r="C25" t="str">
+        <v>500h F SPORT PERFORMANCE 2</v>
+      </c>
+      <c r="D25" t="str">
+        <v>#LX7306</v>
+      </c>
+      <c r="E25" t="str">
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>2024LexusTX</v>
+      </c>
+      <c r="B26" t="str">
+        <v>84200</v>
+      </c>
+      <c r="C26" t="str">
+        <v>500h F SPORT PERFORMANCE 2</v>
+      </c>
+      <c r="D26" t="str">
+        <v>#LX7304</v>
+      </c>
+      <c r="E26" t="str">
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>2025LexusNX</v>
+      </c>
+      <c r="B27" t="str">
+        <v>61745</v>
+      </c>
+      <c r="C27" t="str">
+        <v>350h LUXURY</v>
+      </c>
+      <c r="D27" t="str">
+        <v>#LX7700</v>
+      </c>
+      <c r="E27" t="str">
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>2025LexusNX</v>
+      </c>
+      <c r="B28" t="str">
         <v>54470</v>
       </c>
-      <c r="C23" t="str">
+      <c r="C28" t="str">
         <v>350 PREMIUM</v>
       </c>
-      <c r="D23" t="str">
+      <c r="D28" t="str">
         <v>#LX7654</v>
       </c>
-      <c r="E23" t="str">
+      <c r="E28" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E23"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E28"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Projects/scrapping_js/lexus_maritime/Lexus_Inventory.xlsx
+++ b/Projects/scrapping_js/lexus_maritime/Lexus_Inventory.xlsx
@@ -498,10 +498,10 @@
         <v>$53047</v>
       </c>
       <c r="F4" t="str">
-        <v>JTHUCJDH7S2004938</v>
+        <v>JTHUCJDH4S2006842</v>
       </c>
       <c r="G4" t="str">
-        <v>25059</v>
+        <v>25076</v>
       </c>
       <c r="H4" t="str">
         <v>Luxury</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2025 UX HYBRID 300h</v>
+        <v>2025 UX HYBRID F SPORT</v>
       </c>
       <c r="B5" t="str">
         <v>All Wheel Drive</v>
@@ -521,21 +521,21 @@
         <v>2L 4cyl.</v>
       </c>
       <c r="E5" t="str">
-        <v>$53047</v>
+        <v>$55322</v>
       </c>
       <c r="F5" t="str">
-        <v>JTHUCJDH4S2006842</v>
+        <v>JTHUCJDH4S2006355</v>
       </c>
       <c r="G5" t="str">
-        <v>25076</v>
+        <v>25072</v>
       </c>
       <c r="H5" t="str">
-        <v>Luxury</v>
+        <v>F SPORT SÉRIE 2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>2025 UX HYBRID F SPORT</v>
+        <v>2025 NX HYBRID 350h</v>
       </c>
       <c r="B6" t="str">
         <v>All Wheel Drive</v>
@@ -544,19 +544,19 @@
         <v>Automatic</v>
       </c>
       <c r="D6" t="str">
-        <v>2L 4cyl.</v>
+        <v>2.5L 4cyl.</v>
       </c>
       <c r="E6" t="str">
-        <v>$55322</v>
+        <v>$59043</v>
       </c>
       <c r="F6" t="str">
-        <v>JTHUCJDH4S2006355</v>
+        <v>2T2GKCEZ0SC047227</v>
       </c>
       <c r="G6" t="str">
-        <v>25072</v>
+        <v>25079</v>
       </c>
       <c r="H6" t="str">
-        <v>F SPORT SÉRIE 2</v>
+        <v>Premium</v>
       </c>
     </row>
     <row r="7">
@@ -573,21 +573,21 @@
         <v>2.5L 4cyl.</v>
       </c>
       <c r="E7" t="str">
-        <v>$67690</v>
+        <v>$59043</v>
       </c>
       <c r="F7" t="str">
-        <v>2T2GKCEZ4SC045139</v>
+        <v>2T2GKCEZ1SC046670</v>
       </c>
       <c r="G7" t="str">
-        <v>25065</v>
+        <v>25082</v>
       </c>
       <c r="H7" t="str">
-        <v>Ultra Luxury</v>
+        <v>Premium</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2024 TX 350 Luxury</v>
+        <v>2025 NX HYBRID 350h</v>
       </c>
       <c r="B8" t="str">
         <v>All Wheel Drive</v>
@@ -596,24 +596,24 @@
         <v>Automatic</v>
       </c>
       <c r="D8" t="str">
-        <v>2.4L TURBO 4cyl.</v>
+        <v>2.5L 4cyl.</v>
       </c>
       <c r="E8" t="str">
-        <v>$71078</v>
+        <v>$59043</v>
       </c>
       <c r="F8" t="str">
-        <v>5TDAAAB67RS011953</v>
+        <v>2T2GKCEZ1SC046457</v>
       </c>
       <c r="G8" t="str">
-        <v>24143</v>
+        <v>25083</v>
       </c>
       <c r="H8" t="str">
-        <v>Luxury</v>
+        <v>Premium</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2024 TX 350 Luxury</v>
+        <v>2025 NX HYBRID 350h</v>
       </c>
       <c r="B9" t="str">
         <v>All Wheel Drive</v>
@@ -622,24 +622,24 @@
         <v>Automatic</v>
       </c>
       <c r="D9" t="str">
-        <v>2.4L TURBO 4cyl.</v>
+        <v>2.5L 4cyl.</v>
       </c>
       <c r="E9" t="str">
-        <v>$71078</v>
+        <v>$59693</v>
       </c>
       <c r="F9" t="str">
-        <v>5TDAAAB6XRS010005</v>
+        <v>2T2GKCEZ2SC047133</v>
       </c>
       <c r="G9" t="str">
-        <v>24131</v>
+        <v>25077</v>
       </c>
       <c r="H9" t="str">
-        <v>Luxury</v>
+        <v>Premium</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2024 TX 350 Luxury</v>
+        <v>2025 NX Plug-In Hybrid 450h</v>
       </c>
       <c r="B10" t="str">
         <v>All Wheel Drive</v>
@@ -648,24 +648,24 @@
         <v>Automatic</v>
       </c>
       <c r="D10" t="str">
-        <v>2.4L TURBO 4cyl.</v>
+        <v>2.5L 4cyl.</v>
       </c>
       <c r="E10" t="str">
-        <v>$71078</v>
+        <v>$62318</v>
       </c>
       <c r="F10" t="str">
-        <v>5TDAAAB66RS007506</v>
+        <v>JTJHKCFZ6S2056033</v>
       </c>
       <c r="G10" t="str">
-        <v>24108</v>
+        <v>25085</v>
       </c>
       <c r="H10" t="str">
-        <v>Luxury</v>
+        <v>Ultra Premium</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2024 TX 350 Luxury</v>
+        <v>2025 NX Plug-In Hybrid 450h</v>
       </c>
       <c r="B11" t="str">
         <v>All Wheel Drive</v>
@@ -674,24 +674,24 @@
         <v>Automatic</v>
       </c>
       <c r="D11" t="str">
-        <v>2.4L TURBO 4cyl.</v>
+        <v>2.5L 4cyl.</v>
       </c>
       <c r="E11" t="str">
-        <v>$71578</v>
+        <v>$62318</v>
       </c>
       <c r="F11" t="str">
-        <v>5TDAAAB69RS009802</v>
+        <v>JTJHKCFZ9S2056138</v>
       </c>
       <c r="G11" t="str">
-        <v>24132</v>
+        <v>25086</v>
       </c>
       <c r="H11" t="str">
-        <v>Luxury</v>
+        <v>Ultra Premium</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2025 NX 350</v>
+        <v>2025 NX HYBRID 350h</v>
       </c>
       <c r="B12" t="str">
         <v>All Wheel Drive</v>
@@ -700,24 +700,24 @@
         <v>Automatic</v>
       </c>
       <c r="D12" t="str">
-        <v>2.4L TURBO 4cyl.</v>
+        <v>2.5L 4cyl.</v>
       </c>
       <c r="E12" t="str">
-        <v>$71361</v>
+        <v>$64373</v>
       </c>
       <c r="F12" t="str">
-        <v>2T2GGCEZ2SC072194</v>
+        <v>2T2GKCEZ2SC046905</v>
       </c>
       <c r="G12" t="str">
-        <v>25050</v>
+        <v>25084</v>
       </c>
       <c r="H12" t="str">
-        <v>Executive</v>
+        <v>Luxury</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2024 TX 350 Ultra Luxury</v>
+        <v>2025 NX HYBRID 350h</v>
       </c>
       <c r="B13" t="str">
         <v>All Wheel Drive</v>
@@ -726,16 +726,16 @@
         <v>Automatic</v>
       </c>
       <c r="D13" t="str">
-        <v>2.4L TURBO 4cyl.</v>
+        <v>2.5L 4cyl.</v>
       </c>
       <c r="E13" t="str">
-        <v>$73828</v>
+        <v>$67690</v>
       </c>
       <c r="F13" t="str">
-        <v>5TDAAAB60RS014113</v>
+        <v>2T2GKCEZ4SC045139</v>
       </c>
       <c r="G13" t="str">
-        <v>24156</v>
+        <v>25065</v>
       </c>
       <c r="H13" t="str">
         <v>Ultra Luxury</v>
@@ -750,7 +750,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -774,16 +774,16 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2025LexusNX</v>
+        <v>2025LexusRX</v>
       </c>
       <c r="B2" t="str">
-        <v>70758</v>
+        <v>68374</v>
       </c>
       <c r="C2" t="str">
-        <v>350h EXECUTIVE</v>
+        <v>350 LUXURY PKG</v>
       </c>
       <c r="D2" t="str">
-        <v>#LX7710</v>
+        <v>#LX7719</v>
       </c>
       <c r="E2" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -791,16 +791,16 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2025LexusUX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B3" t="str">
-        <v>50719</v>
+        <v>70758</v>
       </c>
       <c r="C3" t="str">
-        <v>300h LUXURY PKG</v>
+        <v>350h EXECUTIVE</v>
       </c>
       <c r="D3" t="str">
-        <v>#LX7704</v>
+        <v>#LX7710</v>
       </c>
       <c r="E3" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -811,13 +811,13 @@
         <v>2025LexusUX</v>
       </c>
       <c r="B4" t="str">
-        <v>45255</v>
+        <v>50719</v>
       </c>
       <c r="C4" t="str">
-        <v>300h PREMIUM</v>
+        <v>300h LUXURY PKG</v>
       </c>
       <c r="D4" t="str">
-        <v>#LX7705</v>
+        <v>#LX7704</v>
       </c>
       <c r="E4" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -828,13 +828,13 @@
         <v>2025LexusUX</v>
       </c>
       <c r="B5" t="str">
-        <v>45675</v>
+        <v>45255</v>
       </c>
       <c r="C5" t="str">
-        <v>300h F SPORT DESIGN</v>
+        <v>300h PREMIUM</v>
       </c>
       <c r="D5" t="str">
-        <v>#LX7706</v>
+        <v>#LX7705</v>
       </c>
       <c r="E5" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1202,13 +1202,13 @@
         <v>2025LexusNX</v>
       </c>
       <c r="B27" t="str">
-        <v>61745</v>
+        <v>51465</v>
       </c>
       <c r="C27" t="str">
-        <v>350h LUXURY</v>
+        <v>250 SIGNATURE</v>
       </c>
       <c r="D27" t="str">
-        <v>#LX7700</v>
+        <v>#LX7715</v>
       </c>
       <c r="E27" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1216,24 +1216,92 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
+        <v>2025LexusRX</v>
+      </c>
+      <c r="B28" t="str">
+        <v>60230</v>
+      </c>
+      <c r="C28" t="str">
+        <v>350 PREMIUM PKG</v>
+      </c>
+      <c r="D28" t="str">
+        <v>#LX7716</v>
+      </c>
+      <c r="E28" t="str">
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
         <v>2025LexusNX</v>
       </c>
-      <c r="B28" t="str">
+      <c r="B29" t="str">
+        <v>61395</v>
+      </c>
+      <c r="C29" t="str">
+        <v>350h LUXURY PKG</v>
+      </c>
+      <c r="D29" t="str">
+        <v>#LX7718</v>
+      </c>
+      <c r="E29" t="str">
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>2025LexusNX</v>
+      </c>
+      <c r="B30" t="str">
+        <v>56715</v>
+      </c>
+      <c r="C30" t="str">
+        <v>350h PREMIUM</v>
+      </c>
+      <c r="D30" t="str">
+        <v>#LX7714</v>
+      </c>
+      <c r="E30" t="str">
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>2025LexusNX</v>
+      </c>
+      <c r="B31" t="str">
+        <v>61745</v>
+      </c>
+      <c r="C31" t="str">
+        <v>350h LUXURY</v>
+      </c>
+      <c r="D31" t="str">
+        <v>#LX7700</v>
+      </c>
+      <c r="E31" t="str">
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>2025LexusNX</v>
+      </c>
+      <c r="B32" t="str">
         <v>54470</v>
       </c>
-      <c r="C28" t="str">
+      <c r="C32" t="str">
         <v>350 PREMIUM</v>
       </c>
-      <c r="D28" t="str">
+      <c r="D32" t="str">
         <v>#LX7654</v>
       </c>
-      <c r="E28" t="str">
+      <c r="E32" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E28"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E32"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Projects/scrapping_js/lexus_maritime/Lexus_Inventory.xlsx
+++ b/Projects/scrapping_js/lexus_maritime/Lexus_Inventory.xlsx
@@ -550,10 +550,10 @@
         <v>$59043</v>
       </c>
       <c r="F6" t="str">
-        <v>2T2GKCEZ0SC047227</v>
+        <v>2T2GKCEZ1SC046670</v>
       </c>
       <c r="G6" t="str">
-        <v>25079</v>
+        <v>25082</v>
       </c>
       <c r="H6" t="str">
         <v>Premium</v>
@@ -576,10 +576,10 @@
         <v>$59043</v>
       </c>
       <c r="F7" t="str">
-        <v>2T2GKCEZ1SC046670</v>
+        <v>2T2GKCEZ0SC047227</v>
       </c>
       <c r="G7" t="str">
-        <v>25082</v>
+        <v>25079</v>
       </c>
       <c r="H7" t="str">
         <v>Premium</v>
@@ -665,7 +665,7 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2025 NX Plug-In Hybrid 450h</v>
+        <v>2025 NX HYBRID 350h</v>
       </c>
       <c r="B11" t="str">
         <v>All Wheel Drive</v>
@@ -677,16 +677,16 @@
         <v>2.5L 4cyl.</v>
       </c>
       <c r="E11" t="str">
-        <v>$62318</v>
+        <v>$64373</v>
       </c>
       <c r="F11" t="str">
-        <v>JTJHKCFZ9S2056138</v>
+        <v>2T2GKCEZ2SC046905</v>
       </c>
       <c r="G11" t="str">
-        <v>25086</v>
+        <v>25084</v>
       </c>
       <c r="H11" t="str">
-        <v>Ultra Premium</v>
+        <v>Luxury</v>
       </c>
     </row>
     <row r="12">
@@ -703,21 +703,21 @@
         <v>2.5L 4cyl.</v>
       </c>
       <c r="E12" t="str">
-        <v>$64373</v>
+        <v>$67690</v>
       </c>
       <c r="F12" t="str">
-        <v>2T2GKCEZ2SC046905</v>
+        <v>2T2GKCEZ4SC045139</v>
       </c>
       <c r="G12" t="str">
-        <v>25084</v>
+        <v>25065</v>
       </c>
       <c r="H12" t="str">
-        <v>Luxury</v>
+        <v>Ultra Luxury</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2025 NX HYBRID 350h</v>
+        <v>2024 TX 350 Luxury</v>
       </c>
       <c r="B13" t="str">
         <v>All Wheel Drive</v>
@@ -726,19 +726,19 @@
         <v>Automatic</v>
       </c>
       <c r="D13" t="str">
-        <v>2.5L 4cyl.</v>
+        <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E13" t="str">
-        <v>$67690</v>
+        <v>$71078</v>
       </c>
       <c r="F13" t="str">
-        <v>2T2GKCEZ4SC045139</v>
+        <v>5TDAAAB66RS007506</v>
       </c>
       <c r="G13" t="str">
-        <v>25065</v>
+        <v>24108</v>
       </c>
       <c r="H13" t="str">
-        <v>Ultra Luxury</v>
+        <v>Luxury</v>
       </c>
     </row>
   </sheetData>
@@ -750,7 +750,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -774,16 +774,16 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2025LexusRX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B2" t="str">
-        <v>68374</v>
+        <v>56715</v>
       </c>
       <c r="C2" t="str">
-        <v>350 LUXURY PKG</v>
+        <v>350h</v>
       </c>
       <c r="D2" t="str">
-        <v>#LX7719</v>
+        <v>#LX7729</v>
       </c>
       <c r="E2" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -794,13 +794,13 @@
         <v>2025LexusNX</v>
       </c>
       <c r="B3" t="str">
-        <v>70758</v>
+        <v>54470</v>
       </c>
       <c r="C3" t="str">
-        <v>350h EXECUTIVE</v>
+        <v>350 PREMIUM</v>
       </c>
       <c r="D3" t="str">
-        <v>#LX7710</v>
+        <v>#LX7726</v>
       </c>
       <c r="E3" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -817,7 +817,7 @@
         <v>300h LUXURY PKG</v>
       </c>
       <c r="D4" t="str">
-        <v>#LX7704</v>
+        <v>#LX7724</v>
       </c>
       <c r="E4" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -825,16 +825,16 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2025LexusUX</v>
+        <v>2025LexusIS</v>
       </c>
       <c r="B5" t="str">
-        <v>45255</v>
+        <v>59338</v>
       </c>
       <c r="C5" t="str">
-        <v>300h PREMIUM</v>
+        <v>300 F SPORT 3</v>
       </c>
       <c r="D5" t="str">
-        <v>#LX7705</v>
+        <v>#LX7725</v>
       </c>
       <c r="E5" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -851,7 +851,7 @@
         <v>300h LUXURY PKG</v>
       </c>
       <c r="D6" t="str">
-        <v>#LX7707</v>
+        <v>#LX7723</v>
       </c>
       <c r="E6" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -862,13 +862,13 @@
         <v>2025LexusNX</v>
       </c>
       <c r="B7" t="str">
-        <v>56415</v>
+        <v>51465</v>
       </c>
       <c r="C7" t="str">
-        <v>350h PREMIUM</v>
+        <v>250 SIGNATURE</v>
       </c>
       <c r="D7" t="str">
-        <v>#LX7701</v>
+        <v>#LX7715</v>
       </c>
       <c r="E7" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -876,16 +876,16 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2025LexusIS</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B8" t="str">
-        <v>56218</v>
+        <v>61395</v>
       </c>
       <c r="C8" t="str">
-        <v>300 PREMIUM</v>
+        <v>350h LUXURY PKG</v>
       </c>
       <c r="D8" t="str">
-        <v>#LX7697</v>
+        <v>#LX7718</v>
       </c>
       <c r="E8" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -893,16 +893,16 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2025LexusUX</v>
+        <v>2025LexusRX</v>
       </c>
       <c r="B9" t="str">
-        <v>49719</v>
+        <v>68374</v>
       </c>
       <c r="C9" t="str">
-        <v>300h LUXURY PKG</v>
+        <v>350 LUXURY PKG</v>
       </c>
       <c r="D9" t="str">
-        <v>#LX7696</v>
+        <v>#LX7719</v>
       </c>
       <c r="E9" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -910,67 +910,67 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2025LexusRX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B10" t="str">
-        <v>87500</v>
+        <v>56715</v>
       </c>
       <c r="C10" t="str">
-        <v>450h+ EXECUTIVE PKG</v>
+        <v>350h PREMIUM</v>
       </c>
       <c r="D10" t="str">
-        <v>#LX7689</v>
+        <v>#LX7714</v>
       </c>
       <c r="E10" t="str">
-        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2024LexusLX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B11" t="str">
-        <v>136600</v>
+        <v>70758</v>
       </c>
       <c r="C11" t="str">
-        <v>600 LUXURY PKG</v>
+        <v>350h EXECUTIVE</v>
       </c>
       <c r="D11" t="str">
-        <v>#LX7680</v>
+        <v>#LX7710</v>
       </c>
       <c r="E11" t="str">
-        <v>4x4, Active Park Assist, Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2025LexusRX</v>
+        <v>2025LexusUX</v>
       </c>
       <c r="B12" t="str">
-        <v>88150</v>
+        <v>50719</v>
       </c>
       <c r="C12" t="str">
-        <v>450h+ EXECUTIVE PKG</v>
+        <v>300h LUXURY PKG</v>
       </c>
       <c r="D12" t="str">
-        <v>#LX7672</v>
+        <v>#LX7704</v>
       </c>
       <c r="E12" t="str">
-        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2025LexusRX</v>
+        <v>2025LexusUX</v>
       </c>
       <c r="B13" t="str">
-        <v>67624</v>
+        <v>45255</v>
       </c>
       <c r="C13" t="str">
-        <v>350 LUXURY PKG</v>
+        <v>300h PREMIUM</v>
       </c>
       <c r="D13" t="str">
-        <v>#LX7660</v>
+        <v>#LX7705</v>
       </c>
       <c r="E13" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -978,50 +978,50 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2024LexusRX</v>
+        <v>2025LexusUX</v>
       </c>
       <c r="B14" t="str">
-        <v>87450</v>
+        <v>50719</v>
       </c>
       <c r="C14" t="str">
-        <v>450h+ EXECUTIVE PKG</v>
+        <v>300h LUXURY PKG</v>
       </c>
       <c r="D14" t="str">
-        <v>#LX7641</v>
+        <v>#LX7707</v>
       </c>
       <c r="E14" t="str">
-        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2024LexusRX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B15" t="str">
-        <v>86950</v>
+        <v>56415</v>
       </c>
       <c r="C15" t="str">
-        <v>450h+ EXECUTIVE PKG</v>
+        <v>350h PREMIUM</v>
       </c>
       <c r="D15" t="str">
-        <v>#LX7639</v>
+        <v>#LX7701</v>
       </c>
       <c r="E15" t="str">
-        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>2024LexusRX</v>
+        <v>2025LexusIS</v>
       </c>
       <c r="B16" t="str">
-        <v>77350</v>
+        <v>56218</v>
       </c>
       <c r="C16" t="str">
-        <v>350h EXECUTIVE PKG</v>
+        <v>300 PREMIUM</v>
       </c>
       <c r="D16" t="str">
-        <v>#LX7625</v>
+        <v>#LX7697</v>
       </c>
       <c r="E16" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1029,84 +1029,84 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>2025LexusES</v>
+        <v>2025LexusUX</v>
       </c>
       <c r="B17" t="str">
-        <v>54014</v>
+        <v>49719</v>
       </c>
       <c r="C17" t="str">
-        <v>350 PREMIUM</v>
+        <v>300h LUXURY PKG</v>
       </c>
       <c r="D17" t="str">
-        <v>#LX7601</v>
+        <v>#LX7696</v>
       </c>
       <c r="E17" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>2025LexusNX</v>
+        <v>2025LexusRX</v>
       </c>
       <c r="B18" t="str">
-        <v>68383</v>
+        <v>87500</v>
       </c>
       <c r="C18" t="str">
-        <v>350 PREMIUM</v>
+        <v>450h+ EXECUTIVE PKG</v>
       </c>
       <c r="D18" t="str">
-        <v>#LX7585</v>
+        <v>#LX7689</v>
       </c>
       <c r="E18" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>2024LexusRX</v>
+        <v>2024LexusLX</v>
       </c>
       <c r="B19" t="str">
-        <v>71500</v>
+        <v>136600</v>
       </c>
       <c r="C19" t="str">
-        <v>350 ULTRA LUXURY</v>
+        <v>600 LUXURY PKG</v>
       </c>
       <c r="D19" t="str">
-        <v>#LX7531</v>
+        <v>#LX7680</v>
       </c>
       <c r="E19" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>4x4, Active Park Assist, Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>2024LexusIS</v>
+        <v>2025LexusRX</v>
       </c>
       <c r="B20" t="str">
-        <v>56350</v>
+        <v>88150</v>
       </c>
       <c r="C20" t="str">
-        <v>300 ULTRA LUXURY</v>
+        <v>450h+ EXECUTIVE PKG</v>
       </c>
       <c r="D20" t="str">
-        <v>#LX7497</v>
+        <v>#LX7672</v>
       </c>
       <c r="E20" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>2024LexusTX</v>
+        <v>2025LexusRX</v>
       </c>
       <c r="B21" t="str">
-        <v>68750</v>
+        <v>67624</v>
       </c>
       <c r="C21" t="str">
-        <v>350 Luxury PKG</v>
+        <v>350 LUXURY PKG</v>
       </c>
       <c r="D21" t="str">
-        <v>#LX7495</v>
+        <v>#LX7660</v>
       </c>
       <c r="E21" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1114,50 +1114,50 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>2024LexusTX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B22" t="str">
-        <v>68750</v>
+        <v>87450</v>
       </c>
       <c r="C22" t="str">
-        <v>350 Luxury PKG</v>
+        <v>450h+ EXECUTIVE PKG</v>
       </c>
       <c r="D22" t="str">
-        <v>#LX7489</v>
+        <v>#LX7641</v>
       </c>
       <c r="E22" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>2024LexusTX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B23" t="str">
-        <v>84200</v>
+        <v>86950</v>
       </c>
       <c r="C23" t="str">
-        <v>500h F SPORT PERFORMANCE 2</v>
+        <v>450h+ EXECUTIVE PKG</v>
       </c>
       <c r="D23" t="str">
-        <v>#LX7484</v>
+        <v>#LX7639</v>
       </c>
       <c r="E23" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>2025LexusNX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B24" t="str">
-        <v>62842</v>
+        <v>77350</v>
       </c>
       <c r="C24" t="str">
-        <v>350 F SPORT 2</v>
+        <v>350h EXECUTIVE PKG</v>
       </c>
       <c r="D24" t="str">
-        <v>#LX7475</v>
+        <v>#LX7625</v>
       </c>
       <c r="E24" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1165,33 +1165,33 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>2024LexusRX</v>
+        <v>2025LexusES</v>
       </c>
       <c r="B25" t="str">
-        <v>81100</v>
+        <v>54014</v>
       </c>
       <c r="C25" t="str">
-        <v>500h F SPORT PERFORMANCE 2</v>
+        <v>350 PREMIUM</v>
       </c>
       <c r="D25" t="str">
-        <v>#LX7306</v>
+        <v>#LX7601</v>
       </c>
       <c r="E25" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>2024LexusTX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B26" t="str">
-        <v>84200</v>
+        <v>68383</v>
       </c>
       <c r="C26" t="str">
-        <v>500h F SPORT PERFORMANCE 2</v>
+        <v>350 PREMIUM</v>
       </c>
       <c r="D26" t="str">
-        <v>#LX7304</v>
+        <v>#LX7585</v>
       </c>
       <c r="E26" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1199,16 +1199,16 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>2025LexusNX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B27" t="str">
-        <v>51465</v>
+        <v>71500</v>
       </c>
       <c r="C27" t="str">
-        <v>250 SIGNATURE</v>
+        <v>350 ULTRA LUXURY</v>
       </c>
       <c r="D27" t="str">
-        <v>#LX7715</v>
+        <v>#LX7531</v>
       </c>
       <c r="E27" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1216,16 +1216,16 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>2025LexusRX</v>
+        <v>2024LexusIS</v>
       </c>
       <c r="B28" t="str">
-        <v>60230</v>
+        <v>56350</v>
       </c>
       <c r="C28" t="str">
-        <v>350 PREMIUM PKG</v>
+        <v>300 ULTRA LUXURY</v>
       </c>
       <c r="D28" t="str">
-        <v>#LX7716</v>
+        <v>#LX7497</v>
       </c>
       <c r="E28" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1233,16 +1233,16 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>2025LexusNX</v>
+        <v>2024LexusTX</v>
       </c>
       <c r="B29" t="str">
-        <v>61395</v>
+        <v>84200</v>
       </c>
       <c r="C29" t="str">
-        <v>350h LUXURY PKG</v>
+        <v>500h F SPORT PERFORMANCE 2</v>
       </c>
       <c r="D29" t="str">
-        <v>#LX7718</v>
+        <v>#LX7484</v>
       </c>
       <c r="E29" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1253,13 +1253,13 @@
         <v>2025LexusNX</v>
       </c>
       <c r="B30" t="str">
-        <v>56715</v>
+        <v>62842</v>
       </c>
       <c r="C30" t="str">
-        <v>350h PREMIUM</v>
+        <v>350 F SPORT 2</v>
       </c>
       <c r="D30" t="str">
-        <v>#LX7714</v>
+        <v>#LX7475</v>
       </c>
       <c r="E30" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1267,16 +1267,16 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>2025LexusNX</v>
+        <v>2024LexusTX</v>
       </c>
       <c r="B31" t="str">
-        <v>61745</v>
+        <v>84200</v>
       </c>
       <c r="C31" t="str">
-        <v>350h LUXURY</v>
+        <v>500h F SPORT PERFORMANCE 2</v>
       </c>
       <c r="D31" t="str">
-        <v>#LX7700</v>
+        <v>#LX7304</v>
       </c>
       <c r="E31" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1284,24 +1284,75 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
+        <v>2025LexusUX</v>
+      </c>
+      <c r="B32" t="str">
+        <v>50719</v>
+      </c>
+      <c r="C32" t="str">
+        <v>300h LUXURY PKG</v>
+      </c>
+      <c r="D32" t="str">
+        <v>#LX7731</v>
+      </c>
+      <c r="E32" t="str">
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>2025LexusIS</v>
+      </c>
+      <c r="B33" t="str">
+        <v>63498</v>
+      </c>
+      <c r="C33" t="str">
+        <v>350 F SPORT 3</v>
+      </c>
+      <c r="D33" t="str">
+        <v>#LX7730</v>
+      </c>
+      <c r="E33" t="str">
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
         <v>2025LexusNX</v>
       </c>
-      <c r="B32" t="str">
+      <c r="B34" t="str">
+        <v>61745</v>
+      </c>
+      <c r="C34" t="str">
+        <v>350h LUXURY</v>
+      </c>
+      <c r="D34" t="str">
+        <v>#LX7700</v>
+      </c>
+      <c r="E34" t="str">
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>2025LexusNX</v>
+      </c>
+      <c r="B35" t="str">
         <v>54470</v>
       </c>
-      <c r="C32" t="str">
+      <c r="C35" t="str">
         <v>350 PREMIUM</v>
       </c>
-      <c r="D32" t="str">
+      <c r="D35" t="str">
         <v>#LX7654</v>
       </c>
-      <c r="E32" t="str">
+      <c r="E35" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E32"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E35"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Projects/scrapping_js/lexus_maritime/Lexus_Inventory.xlsx
+++ b/Projects/scrapping_js/lexus_maritime/Lexus_Inventory.xlsx
@@ -509,7 +509,7 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2025 UX HYBRID F SPORT</v>
+        <v>2025 UX HYBRID 300h</v>
       </c>
       <c r="B5" t="str">
         <v>All Wheel Drive</v>
@@ -521,21 +521,21 @@
         <v>2L 4cyl.</v>
       </c>
       <c r="E5" t="str">
-        <v>$55322</v>
+        <v>$53047</v>
       </c>
       <c r="F5" t="str">
-        <v>JTHUCJDH4S2006355</v>
+        <v>JTHUCJDH5S2007594</v>
       </c>
       <c r="G5" t="str">
-        <v>25072</v>
+        <v>25095</v>
       </c>
       <c r="H5" t="str">
-        <v>F SPORT SÉRIE 2</v>
+        <v>Luxury</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>2025 NX HYBRID 350h</v>
+        <v>2025 NX 250 SIGNATURE</v>
       </c>
       <c r="B6" t="str">
         <v>All Wheel Drive</v>
@@ -547,21 +547,21 @@
         <v>2.5L 4cyl.</v>
       </c>
       <c r="E6" t="str">
-        <v>$59043</v>
+        <v>$53793</v>
       </c>
       <c r="F6" t="str">
-        <v>2T2GKCEZ1SC046670</v>
+        <v>2T2ADCEZ7SC007081</v>
       </c>
       <c r="G6" t="str">
-        <v>25082</v>
+        <v>25088</v>
       </c>
       <c r="H6" t="str">
-        <v>Premium</v>
+        <v>Signature</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>2025 NX HYBRID 350h</v>
+        <v>2025 UX HYBRID F SPORT</v>
       </c>
       <c r="B7" t="str">
         <v>All Wheel Drive</v>
@@ -570,24 +570,24 @@
         <v>Automatic</v>
       </c>
       <c r="D7" t="str">
-        <v>2.5L 4cyl.</v>
+        <v>2L 4cyl.</v>
       </c>
       <c r="E7" t="str">
-        <v>$59043</v>
+        <v>$55322</v>
       </c>
       <c r="F7" t="str">
-        <v>2T2GKCEZ0SC047227</v>
+        <v>JTHUCJDH4S2006355</v>
       </c>
       <c r="G7" t="str">
-        <v>25079</v>
+        <v>25072</v>
       </c>
       <c r="H7" t="str">
-        <v>Premium</v>
+        <v>F SPORT SÉRIE 2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2025 NX HYBRID 350h</v>
+        <v>2025 NX 350</v>
       </c>
       <c r="B8" t="str">
         <v>All Wheel Drive</v>
@@ -596,16 +596,16 @@
         <v>Automatic</v>
       </c>
       <c r="D8" t="str">
-        <v>2.5L 4cyl.</v>
+        <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E8" t="str">
-        <v>$59043</v>
+        <v>$56798</v>
       </c>
       <c r="F8" t="str">
-        <v>2T2GKCEZ1SC046457</v>
+        <v>2T2GGCEZ3SC078425</v>
       </c>
       <c r="G8" t="str">
-        <v>25083</v>
+        <v>25091</v>
       </c>
       <c r="H8" t="str">
         <v>Premium</v>
@@ -625,13 +625,13 @@
         <v>2.5L 4cyl.</v>
       </c>
       <c r="E9" t="str">
-        <v>$59693</v>
+        <v>$59043</v>
       </c>
       <c r="F9" t="str">
-        <v>2T2GKCEZ2SC047133</v>
+        <v>2T2GKCEZ2SC047617</v>
       </c>
       <c r="G9" t="str">
-        <v>25077</v>
+        <v>25090</v>
       </c>
       <c r="H9" t="str">
         <v>Premium</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2025 NX Plug-In Hybrid 450h</v>
+        <v>2025 NX HYBRID 350h</v>
       </c>
       <c r="B10" t="str">
         <v>All Wheel Drive</v>
@@ -651,16 +651,16 @@
         <v>2.5L 4cyl.</v>
       </c>
       <c r="E10" t="str">
-        <v>$62318</v>
+        <v>$59043</v>
       </c>
       <c r="F10" t="str">
-        <v>JTJHKCFZ6S2056033</v>
+        <v>2T2GKCEZ1SC046670</v>
       </c>
       <c r="G10" t="str">
-        <v>25085</v>
+        <v>25082</v>
       </c>
       <c r="H10" t="str">
-        <v>Ultra Premium</v>
+        <v>Premium</v>
       </c>
     </row>
     <row r="11">
@@ -677,16 +677,16 @@
         <v>2.5L 4cyl.</v>
       </c>
       <c r="E11" t="str">
-        <v>$64373</v>
+        <v>$59043</v>
       </c>
       <c r="F11" t="str">
-        <v>2T2GKCEZ2SC046905</v>
+        <v>2T2GKCEZ0SC047227</v>
       </c>
       <c r="G11" t="str">
-        <v>25084</v>
+        <v>25079</v>
       </c>
       <c r="H11" t="str">
-        <v>Luxury</v>
+        <v>Premium</v>
       </c>
     </row>
     <row r="12">
@@ -703,21 +703,21 @@
         <v>2.5L 4cyl.</v>
       </c>
       <c r="E12" t="str">
-        <v>$67690</v>
+        <v>$59043</v>
       </c>
       <c r="F12" t="str">
-        <v>2T2GKCEZ4SC045139</v>
+        <v>2T2GKCEZ1SC046457</v>
       </c>
       <c r="G12" t="str">
-        <v>25065</v>
+        <v>25083</v>
       </c>
       <c r="H12" t="str">
-        <v>Ultra Luxury</v>
+        <v>Premium</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2024 TX 350 Luxury</v>
+        <v>2025 NX Plug-In Hybrid 450h</v>
       </c>
       <c r="B13" t="str">
         <v>All Wheel Drive</v>
@@ -726,19 +726,19 @@
         <v>Automatic</v>
       </c>
       <c r="D13" t="str">
-        <v>2.4L TURBO 4cyl.</v>
+        <v>2.5L 4cyl.</v>
       </c>
       <c r="E13" t="str">
-        <v>$71078</v>
+        <v>$62318</v>
       </c>
       <c r="F13" t="str">
-        <v>5TDAAAB66RS007506</v>
+        <v>JTJHKCFZ6S2056033</v>
       </c>
       <c r="G13" t="str">
-        <v>24108</v>
+        <v>25085</v>
       </c>
       <c r="H13" t="str">
-        <v>Luxury</v>
+        <v>Ultra Premium</v>
       </c>
     </row>
   </sheetData>
@@ -750,7 +750,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -774,16 +774,16 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2025LexusNX</v>
+        <v>2025LexusUX</v>
       </c>
       <c r="B2" t="str">
-        <v>56715</v>
+        <v>50719</v>
       </c>
       <c r="C2" t="str">
-        <v>350h</v>
+        <v>300h LUXURY PKG</v>
       </c>
       <c r="D2" t="str">
-        <v>#LX7729</v>
+        <v>#LX7731</v>
       </c>
       <c r="E2" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -862,13 +862,13 @@
         <v>2025LexusNX</v>
       </c>
       <c r="B7" t="str">
-        <v>51465</v>
+        <v>61395</v>
       </c>
       <c r="C7" t="str">
-        <v>250 SIGNATURE</v>
+        <v>350h LUXURY PKG</v>
       </c>
       <c r="D7" t="str">
-        <v>#LX7715</v>
+        <v>#LX7718</v>
       </c>
       <c r="E7" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -876,16 +876,16 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2025LexusNX</v>
+        <v>2025LexusRX</v>
       </c>
       <c r="B8" t="str">
-        <v>61395</v>
+        <v>68374</v>
       </c>
       <c r="C8" t="str">
-        <v>350h LUXURY PKG</v>
+        <v>350 LUXURY PKG</v>
       </c>
       <c r="D8" t="str">
-        <v>#LX7718</v>
+        <v>#LX7719</v>
       </c>
       <c r="E8" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -893,16 +893,16 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2025LexusRX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B9" t="str">
-        <v>68374</v>
+        <v>56715</v>
       </c>
       <c r="C9" t="str">
-        <v>350 LUXURY PKG</v>
+        <v>350h PREMIUM</v>
       </c>
       <c r="D9" t="str">
-        <v>#LX7719</v>
+        <v>#LX7714</v>
       </c>
       <c r="E9" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -910,16 +910,16 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2025LexusNX</v>
+        <v>2025LexusUX</v>
       </c>
       <c r="B10" t="str">
-        <v>56715</v>
+        <v>50719</v>
       </c>
       <c r="C10" t="str">
-        <v>350h PREMIUM</v>
+        <v>300h LUXURY PKG</v>
       </c>
       <c r="D10" t="str">
-        <v>#LX7714</v>
+        <v>#LX7704</v>
       </c>
       <c r="E10" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -927,16 +927,16 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2025LexusNX</v>
+        <v>2025LexusUX</v>
       </c>
       <c r="B11" t="str">
-        <v>70758</v>
+        <v>45255</v>
       </c>
       <c r="C11" t="str">
-        <v>350h EXECUTIVE</v>
+        <v>300h PREMIUM</v>
       </c>
       <c r="D11" t="str">
-        <v>#LX7710</v>
+        <v>#LX7705</v>
       </c>
       <c r="E11" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -953,7 +953,7 @@
         <v>300h LUXURY PKG</v>
       </c>
       <c r="D12" t="str">
-        <v>#LX7704</v>
+        <v>#LX7707</v>
       </c>
       <c r="E12" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -961,16 +961,16 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2025LexusUX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B13" t="str">
-        <v>45255</v>
+        <v>56415</v>
       </c>
       <c r="C13" t="str">
-        <v>300h PREMIUM</v>
+        <v>350h PREMIUM</v>
       </c>
       <c r="D13" t="str">
-        <v>#LX7705</v>
+        <v>#LX7701</v>
       </c>
       <c r="E13" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -978,16 +978,16 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2025LexusUX</v>
+        <v>2025LexusIS</v>
       </c>
       <c r="B14" t="str">
-        <v>50719</v>
+        <v>56218</v>
       </c>
       <c r="C14" t="str">
-        <v>300h LUXURY PKG</v>
+        <v>300 PREMIUM</v>
       </c>
       <c r="D14" t="str">
-        <v>#LX7707</v>
+        <v>#LX7697</v>
       </c>
       <c r="E14" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -995,16 +995,16 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2025LexusNX</v>
+        <v>2025LexusUX</v>
       </c>
       <c r="B15" t="str">
-        <v>56415</v>
+        <v>49719</v>
       </c>
       <c r="C15" t="str">
-        <v>350h PREMIUM</v>
+        <v>300h LUXURY PKG</v>
       </c>
       <c r="D15" t="str">
-        <v>#LX7701</v>
+        <v>#LX7696</v>
       </c>
       <c r="E15" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1012,36 +1012,36 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>2025LexusIS</v>
+        <v>2025LexusRX</v>
       </c>
       <c r="B16" t="str">
-        <v>56218</v>
+        <v>87500</v>
       </c>
       <c r="C16" t="str">
-        <v>300 PREMIUM</v>
+        <v>450h+ EXECUTIVE PKG</v>
       </c>
       <c r="D16" t="str">
-        <v>#LX7697</v>
+        <v>#LX7689</v>
       </c>
       <c r="E16" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>2025LexusUX</v>
+        <v>2025LexusRX</v>
       </c>
       <c r="B17" t="str">
-        <v>49719</v>
+        <v>88150</v>
       </c>
       <c r="C17" t="str">
-        <v>300h LUXURY PKG</v>
+        <v>450h+ EXECUTIVE PKG</v>
       </c>
       <c r="D17" t="str">
-        <v>#LX7696</v>
+        <v>#LX7672</v>
       </c>
       <c r="E17" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
       </c>
     </row>
     <row r="18">
@@ -1049,47 +1049,47 @@
         <v>2025LexusRX</v>
       </c>
       <c r="B18" t="str">
-        <v>87500</v>
+        <v>67624</v>
       </c>
       <c r="C18" t="str">
-        <v>450h+ EXECUTIVE PKG</v>
+        <v>350 LUXURY PKG</v>
       </c>
       <c r="D18" t="str">
-        <v>#LX7689</v>
+        <v>#LX7660</v>
       </c>
       <c r="E18" t="str">
-        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>2024LexusLX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B19" t="str">
-        <v>136600</v>
+        <v>87450</v>
       </c>
       <c r="C19" t="str">
-        <v>600 LUXURY PKG</v>
+        <v>450h+ EXECUTIVE PKG</v>
       </c>
       <c r="D19" t="str">
-        <v>#LX7680</v>
+        <v>#LX7641</v>
       </c>
       <c r="E19" t="str">
-        <v>4x4, Active Park Assist, Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
+        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>2025LexusRX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B20" t="str">
-        <v>88150</v>
+        <v>86950</v>
       </c>
       <c r="C20" t="str">
         <v>450h+ EXECUTIVE PKG</v>
       </c>
       <c r="D20" t="str">
-        <v>#LX7672</v>
+        <v>#LX7639</v>
       </c>
       <c r="E20" t="str">
         <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
@@ -1097,16 +1097,16 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>2025LexusRX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B21" t="str">
-        <v>67624</v>
+        <v>77350</v>
       </c>
       <c r="C21" t="str">
-        <v>350 LUXURY PKG</v>
+        <v>350h EXECUTIVE PKG</v>
       </c>
       <c r="D21" t="str">
-        <v>#LX7660</v>
+        <v>#LX7625</v>
       </c>
       <c r="E21" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1114,36 +1114,36 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>2024LexusRX</v>
+        <v>2025LexusES</v>
       </c>
       <c r="B22" t="str">
-        <v>87450</v>
+        <v>54014</v>
       </c>
       <c r="C22" t="str">
-        <v>450h+ EXECUTIVE PKG</v>
+        <v>350 PREMIUM</v>
       </c>
       <c r="D22" t="str">
-        <v>#LX7641</v>
+        <v>#LX7601</v>
       </c>
       <c r="E22" t="str">
-        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
+        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>2024LexusRX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B23" t="str">
-        <v>86950</v>
+        <v>68383</v>
       </c>
       <c r="C23" t="str">
-        <v>450h+ EXECUTIVE PKG</v>
+        <v>350 PREMIUM</v>
       </c>
       <c r="D23" t="str">
-        <v>#LX7639</v>
+        <v>#LX7585</v>
       </c>
       <c r="E23" t="str">
-        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="24">
@@ -1151,13 +1151,13 @@
         <v>2024LexusRX</v>
       </c>
       <c r="B24" t="str">
-        <v>77350</v>
+        <v>71500</v>
       </c>
       <c r="C24" t="str">
-        <v>350h EXECUTIVE PKG</v>
+        <v>350 ULTRA LUXURY</v>
       </c>
       <c r="D24" t="str">
-        <v>#LX7625</v>
+        <v>#LX7531</v>
       </c>
       <c r="E24" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1165,33 +1165,33 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>2025LexusES</v>
+        <v>2024LexusIS</v>
       </c>
       <c r="B25" t="str">
-        <v>54014</v>
+        <v>56350</v>
       </c>
       <c r="C25" t="str">
-        <v>350 PREMIUM</v>
+        <v>300 ULTRA LUXURY</v>
       </c>
       <c r="D25" t="str">
-        <v>#LX7601</v>
+        <v>#LX7497</v>
       </c>
       <c r="E25" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>2025LexusNX</v>
+        <v>2024LexusTX</v>
       </c>
       <c r="B26" t="str">
-        <v>68383</v>
+        <v>84200</v>
       </c>
       <c r="C26" t="str">
-        <v>350 PREMIUM</v>
+        <v>500h F SPORT PERFORMANCE 2</v>
       </c>
       <c r="D26" t="str">
-        <v>#LX7585</v>
+        <v>#LX7484</v>
       </c>
       <c r="E26" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1199,16 +1199,16 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>2024LexusRX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B27" t="str">
-        <v>71500</v>
+        <v>62842</v>
       </c>
       <c r="C27" t="str">
-        <v>350 ULTRA LUXURY</v>
+        <v>350 F SPORT 2</v>
       </c>
       <c r="D27" t="str">
-        <v>#LX7531</v>
+        <v>#LX7475</v>
       </c>
       <c r="E27" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1216,16 +1216,16 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>2024LexusIS</v>
+        <v>2024LexusTX</v>
       </c>
       <c r="B28" t="str">
-        <v>56350</v>
+        <v>84200</v>
       </c>
       <c r="C28" t="str">
-        <v>300 ULTRA LUXURY</v>
+        <v>500h F SPORT PERFORMANCE 2</v>
       </c>
       <c r="D28" t="str">
-        <v>#LX7497</v>
+        <v>#LX7304</v>
       </c>
       <c r="E28" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1233,16 +1233,16 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>2024LexusTX</v>
+        <v>2025LexusIS</v>
       </c>
       <c r="B29" t="str">
-        <v>84200</v>
+        <v>48258</v>
       </c>
       <c r="C29" t="str">
-        <v>500h F SPORT PERFORMANCE 2</v>
+        <v>300 PREMIUM PKG</v>
       </c>
       <c r="D29" t="str">
-        <v>#LX7484</v>
+        <v>#LX7741</v>
       </c>
       <c r="E29" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1250,33 +1250,33 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>2025LexusNX</v>
+        <v>2024LexusGX</v>
       </c>
       <c r="B30" t="str">
-        <v>62842</v>
+        <v>102350</v>
       </c>
       <c r="C30" t="str">
-        <v>350 F SPORT 2</v>
+        <v>550 LUXURY</v>
       </c>
       <c r="D30" t="str">
-        <v>#LX7475</v>
+        <v>#LX7740</v>
       </c>
       <c r="E30" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>4x4, Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>2024LexusTX</v>
+        <v>2025LexusIS</v>
       </c>
       <c r="B31" t="str">
-        <v>84200</v>
+        <v>63498</v>
       </c>
       <c r="C31" t="str">
-        <v>500h F SPORT PERFORMANCE 2</v>
+        <v>350 F SPORT 3</v>
       </c>
       <c r="D31" t="str">
-        <v>#LX7304</v>
+        <v>#LX7730</v>
       </c>
       <c r="E31" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1284,16 +1284,16 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>2025LexusUX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B32" t="str">
-        <v>50719</v>
+        <v>61745</v>
       </c>
       <c r="C32" t="str">
-        <v>300h LUXURY PKG</v>
+        <v>350h LUXURY</v>
       </c>
       <c r="D32" t="str">
-        <v>#LX7731</v>
+        <v>#LX7700</v>
       </c>
       <c r="E32" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1301,58 +1301,24 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>2025LexusIS</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B33" t="str">
-        <v>63498</v>
+        <v>54470</v>
       </c>
       <c r="C33" t="str">
-        <v>350 F SPORT 3</v>
+        <v>350 PREMIUM</v>
       </c>
       <c r="D33" t="str">
-        <v>#LX7730</v>
+        <v>#LX7654</v>
       </c>
       <c r="E33" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="str">
-        <v>2025LexusNX</v>
-      </c>
-      <c r="B34" t="str">
-        <v>61745</v>
-      </c>
-      <c r="C34" t="str">
-        <v>350h LUXURY</v>
-      </c>
-      <c r="D34" t="str">
-        <v>#LX7700</v>
-      </c>
-      <c r="E34" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="str">
-        <v>2025LexusNX</v>
-      </c>
-      <c r="B35" t="str">
-        <v>54470</v>
-      </c>
-      <c r="C35" t="str">
-        <v>350 PREMIUM</v>
-      </c>
-      <c r="D35" t="str">
-        <v>#LX7654</v>
-      </c>
-      <c r="E35" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E35"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E33"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Projects/scrapping_js/lexus_maritime/Lexus_Inventory.xlsx
+++ b/Projects/scrapping_js/lexus_maritime/Lexus_Inventory.xlsx
@@ -628,10 +628,10 @@
         <v>$59043</v>
       </c>
       <c r="F9" t="str">
-        <v>2T2GKCEZ2SC047617</v>
+        <v>2T2GKCEZ0SC047227</v>
       </c>
       <c r="G9" t="str">
-        <v>25090</v>
+        <v>25079</v>
       </c>
       <c r="H9" t="str">
         <v>Premium</v>
@@ -654,10 +654,10 @@
         <v>$59043</v>
       </c>
       <c r="F10" t="str">
-        <v>2T2GKCEZ1SC046670</v>
+        <v>2T2GKCEZ1SC048967</v>
       </c>
       <c r="G10" t="str">
-        <v>25082</v>
+        <v>25103</v>
       </c>
       <c r="H10" t="str">
         <v>Premium</v>
@@ -680,10 +680,10 @@
         <v>$59043</v>
       </c>
       <c r="F11" t="str">
-        <v>2T2GKCEZ0SC047227</v>
+        <v>2T2GKCEZ1SC046670</v>
       </c>
       <c r="G11" t="str">
-        <v>25079</v>
+        <v>25082</v>
       </c>
       <c r="H11" t="str">
         <v>Premium</v>
@@ -717,7 +717,7 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2025 NX Plug-In Hybrid 450h</v>
+        <v>2025 NX HYBRID 350h</v>
       </c>
       <c r="B13" t="str">
         <v>All Wheel Drive</v>
@@ -729,16 +729,16 @@
         <v>2.5L 4cyl.</v>
       </c>
       <c r="E13" t="str">
-        <v>$62318</v>
+        <v>$59043</v>
       </c>
       <c r="F13" t="str">
-        <v>JTJHKCFZ6S2056033</v>
+        <v>2T2GKCEZ2SC047617</v>
       </c>
       <c r="G13" t="str">
-        <v>25085</v>
+        <v>25090</v>
       </c>
       <c r="H13" t="str">
-        <v>Ultra Premium</v>
+        <v>Premium</v>
       </c>
     </row>
   </sheetData>
@@ -750,7 +750,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -774,16 +774,16 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2025LexusUX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B2" t="str">
-        <v>50719</v>
+        <v>62045</v>
       </c>
       <c r="C2" t="str">
-        <v>300h LUXURY PKG</v>
+        <v>350h LUXURY</v>
       </c>
       <c r="D2" t="str">
-        <v>#LX7731</v>
+        <v>#LX7745</v>
       </c>
       <c r="E2" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -791,16 +791,16 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2025LexusNX</v>
+        <v>2025LexusIS</v>
       </c>
       <c r="B3" t="str">
-        <v>54470</v>
+        <v>48258</v>
       </c>
       <c r="C3" t="str">
-        <v>350 PREMIUM</v>
+        <v>300 PREMIUM PKG</v>
       </c>
       <c r="D3" t="str">
-        <v>#LX7726</v>
+        <v>#LX7741</v>
       </c>
       <c r="E3" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -808,33 +808,33 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2025LexusUX</v>
+        <v>2024LexusGX</v>
       </c>
       <c r="B4" t="str">
-        <v>50719</v>
+        <v>102350</v>
       </c>
       <c r="C4" t="str">
-        <v>300h LUXURY PKG</v>
+        <v>550 LUXURY</v>
       </c>
       <c r="D4" t="str">
-        <v>#LX7724</v>
+        <v>#LX7740</v>
       </c>
       <c r="E4" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>4x4, Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2025LexusIS</v>
+        <v>2025LexusUX</v>
       </c>
       <c r="B5" t="str">
-        <v>59338</v>
+        <v>50719</v>
       </c>
       <c r="C5" t="str">
-        <v>300 F SPORT 3</v>
+        <v>300h LUXURY PKG</v>
       </c>
       <c r="D5" t="str">
-        <v>#LX7725</v>
+        <v>#LX7731</v>
       </c>
       <c r="E5" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -842,16 +842,16 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>2025LexusUX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B6" t="str">
-        <v>50719</v>
+        <v>54470</v>
       </c>
       <c r="C6" t="str">
-        <v>300h LUXURY PKG</v>
+        <v>350 PREMIUM</v>
       </c>
       <c r="D6" t="str">
-        <v>#LX7723</v>
+        <v>#LX7726</v>
       </c>
       <c r="E6" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -859,16 +859,16 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>2025LexusNX</v>
+        <v>2025LexusUX</v>
       </c>
       <c r="B7" t="str">
-        <v>61395</v>
+        <v>50719</v>
       </c>
       <c r="C7" t="str">
-        <v>350h LUXURY PKG</v>
+        <v>300h LUXURY PKG</v>
       </c>
       <c r="D7" t="str">
-        <v>#LX7718</v>
+        <v>#LX7724</v>
       </c>
       <c r="E7" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -876,16 +876,16 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2025LexusRX</v>
+        <v>2025LexusUX</v>
       </c>
       <c r="B8" t="str">
-        <v>68374</v>
+        <v>50719</v>
       </c>
       <c r="C8" t="str">
-        <v>350 LUXURY PKG</v>
+        <v>300h LUXURY PKG</v>
       </c>
       <c r="D8" t="str">
-        <v>#LX7719</v>
+        <v>#LX7723</v>
       </c>
       <c r="E8" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -896,13 +896,13 @@
         <v>2025LexusNX</v>
       </c>
       <c r="B9" t="str">
-        <v>56715</v>
+        <v>61395</v>
       </c>
       <c r="C9" t="str">
-        <v>350h PREMIUM</v>
+        <v>350h LUXURY PKG</v>
       </c>
       <c r="D9" t="str">
-        <v>#LX7714</v>
+        <v>#LX7718</v>
       </c>
       <c r="E9" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -910,16 +910,16 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2025LexusUX</v>
+        <v>2025LexusRX</v>
       </c>
       <c r="B10" t="str">
-        <v>50719</v>
+        <v>68374</v>
       </c>
       <c r="C10" t="str">
-        <v>300h LUXURY PKG</v>
+        <v>350 LUXURY PKG</v>
       </c>
       <c r="D10" t="str">
-        <v>#LX7704</v>
+        <v>#LX7719</v>
       </c>
       <c r="E10" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -930,13 +930,13 @@
         <v>2025LexusUX</v>
       </c>
       <c r="B11" t="str">
-        <v>45255</v>
+        <v>50719</v>
       </c>
       <c r="C11" t="str">
-        <v>300h PREMIUM</v>
+        <v>300h LUXURY PKG</v>
       </c>
       <c r="D11" t="str">
-        <v>#LX7705</v>
+        <v>#LX7704</v>
       </c>
       <c r="E11" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -947,13 +947,13 @@
         <v>2025LexusUX</v>
       </c>
       <c r="B12" t="str">
-        <v>50719</v>
+        <v>45255</v>
       </c>
       <c r="C12" t="str">
-        <v>300h LUXURY PKG</v>
+        <v>300h PREMIUM</v>
       </c>
       <c r="D12" t="str">
-        <v>#LX7707</v>
+        <v>#LX7705</v>
       </c>
       <c r="E12" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -961,16 +961,16 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2025LexusNX</v>
+        <v>2025LexusUX</v>
       </c>
       <c r="B13" t="str">
-        <v>56415</v>
+        <v>50719</v>
       </c>
       <c r="C13" t="str">
-        <v>350h PREMIUM</v>
+        <v>300h LUXURY PKG</v>
       </c>
       <c r="D13" t="str">
-        <v>#LX7701</v>
+        <v>#LX7707</v>
       </c>
       <c r="E13" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -978,16 +978,16 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2025LexusIS</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B14" t="str">
-        <v>56218</v>
+        <v>56415</v>
       </c>
       <c r="C14" t="str">
-        <v>300 PREMIUM</v>
+        <v>350h PREMIUM</v>
       </c>
       <c r="D14" t="str">
-        <v>#LX7697</v>
+        <v>#LX7701</v>
       </c>
       <c r="E14" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1233,16 +1233,16 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>2025LexusIS</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B29" t="str">
-        <v>48258</v>
+        <v>61395</v>
       </c>
       <c r="C29" t="str">
-        <v>300 PREMIUM PKG</v>
+        <v>350h LUXURY</v>
       </c>
       <c r="D29" t="str">
-        <v>#LX7741</v>
+        <v>#LX7746</v>
       </c>
       <c r="E29" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1250,33 +1250,33 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>2024LexusGX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B30" t="str">
-        <v>102350</v>
+        <v>57365</v>
       </c>
       <c r="C30" t="str">
-        <v>550 LUXURY</v>
+        <v>350h PREMIUM</v>
       </c>
       <c r="D30" t="str">
-        <v>#LX7740</v>
+        <v>#LX7748</v>
       </c>
       <c r="E30" t="str">
-        <v>4x4, Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>2025LexusIS</v>
+        <v>2025LexusRX</v>
       </c>
       <c r="B31" t="str">
-        <v>63498</v>
+        <v>78739</v>
       </c>
       <c r="C31" t="str">
-        <v>350 F SPORT 3</v>
+        <v>350h EXECUTIVE PKG</v>
       </c>
       <c r="D31" t="str">
-        <v>#LX7730</v>
+        <v>#LX7747</v>
       </c>
       <c r="E31" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1284,16 +1284,16 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>2025LexusNX</v>
+        <v>2025LexusRX</v>
       </c>
       <c r="B32" t="str">
-        <v>61745</v>
+        <v>74240</v>
       </c>
       <c r="C32" t="str">
-        <v>350h LUXURY</v>
+        <v>350h ULTRA LUXURY</v>
       </c>
       <c r="D32" t="str">
-        <v>#LX7700</v>
+        <v>#LX7744</v>
       </c>
       <c r="E32" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1301,24 +1301,58 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
+        <v>2025LexusIS</v>
+      </c>
+      <c r="B33" t="str">
+        <v>63498</v>
+      </c>
+      <c r="C33" t="str">
+        <v>350 F SPORT 3</v>
+      </c>
+      <c r="D33" t="str">
+        <v>#LX7730</v>
+      </c>
+      <c r="E33" t="str">
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
         <v>2025LexusNX</v>
       </c>
-      <c r="B33" t="str">
+      <c r="B34" t="str">
+        <v>61745</v>
+      </c>
+      <c r="C34" t="str">
+        <v>350h LUXURY</v>
+      </c>
+      <c r="D34" t="str">
+        <v>#LX7700</v>
+      </c>
+      <c r="E34" t="str">
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>2025LexusNX</v>
+      </c>
+      <c r="B35" t="str">
         <v>54470</v>
       </c>
-      <c r="C33" t="str">
+      <c r="C35" t="str">
         <v>350 PREMIUM</v>
       </c>
-      <c r="D33" t="str">
+      <c r="D35" t="str">
         <v>#LX7654</v>
       </c>
-      <c r="E33" t="str">
+      <c r="E35" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E33"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E35"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Projects/scrapping_js/lexus_maritime/Lexus_Inventory.xlsx
+++ b/Projects/scrapping_js/lexus_maritime/Lexus_Inventory.xlsx
@@ -431,7 +431,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2025 UX HYBRID 300h</v>
+        <v>2025 UXH 300h</v>
       </c>
       <c r="B2" t="str">
         <v>All Wheel Drive</v>
@@ -457,7 +457,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2025 UX HYBRID 300h</v>
+        <v>2025 UXH 300h</v>
       </c>
       <c r="B3" t="str">
         <v>All Wheel Drive</v>
@@ -483,7 +483,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2025 UX HYBRID 300h</v>
+        <v>2025 UXH 300h</v>
       </c>
       <c r="B4" t="str">
         <v>All Wheel Drive</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2025 UX HYBRID 300h</v>
+        <v>2025 UXH 300h</v>
       </c>
       <c r="B5" t="str">
         <v>All Wheel Drive</v>
@@ -561,7 +561,7 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>2025 UX HYBRID F SPORT</v>
+        <v>2025 UXH F SPORT</v>
       </c>
       <c r="B7" t="str">
         <v>All Wheel Drive</v>
@@ -613,7 +613,7 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2025 NX HYBRID 350h</v>
+        <v>2025 NXH 350h</v>
       </c>
       <c r="B9" t="str">
         <v>All Wheel Drive</v>
@@ -628,10 +628,10 @@
         <v>$59043</v>
       </c>
       <c r="F9" t="str">
-        <v>2T2GKCEZ0SC047227</v>
+        <v>2T2GKCEZ1SC048967</v>
       </c>
       <c r="G9" t="str">
-        <v>25079</v>
+        <v>25103</v>
       </c>
       <c r="H9" t="str">
         <v>Premium</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2025 NX HYBRID 350h</v>
+        <v>2025 NXH 350h</v>
       </c>
       <c r="B10" t="str">
         <v>All Wheel Drive</v>
@@ -654,10 +654,10 @@
         <v>$59043</v>
       </c>
       <c r="F10" t="str">
-        <v>2T2GKCEZ1SC048967</v>
+        <v>2T2GKCEZ1SC046670</v>
       </c>
       <c r="G10" t="str">
-        <v>25103</v>
+        <v>25082</v>
       </c>
       <c r="H10" t="str">
         <v>Premium</v>
@@ -665,7 +665,7 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2025 NX HYBRID 350h</v>
+        <v>2025 NXH 350h</v>
       </c>
       <c r="B11" t="str">
         <v>All Wheel Drive</v>
@@ -680,10 +680,10 @@
         <v>$59043</v>
       </c>
       <c r="F11" t="str">
-        <v>2T2GKCEZ1SC046670</v>
+        <v>2T2GKCEZ0SC047227</v>
       </c>
       <c r="G11" t="str">
-        <v>25082</v>
+        <v>25079</v>
       </c>
       <c r="H11" t="str">
         <v>Premium</v>
@@ -691,7 +691,7 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2025 NX HYBRID 350h</v>
+        <v>2025 NXH 350h</v>
       </c>
       <c r="B12" t="str">
         <v>All Wheel Drive</v>
@@ -717,7 +717,7 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2025 NX HYBRID 350h</v>
+        <v>2025 NXH 350h</v>
       </c>
       <c r="B13" t="str">
         <v>All Wheel Drive</v>
@@ -750,7 +750,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -777,13 +777,13 @@
         <v>2025LexusNX</v>
       </c>
       <c r="B2" t="str">
-        <v>62045</v>
+        <v>60640</v>
       </c>
       <c r="C2" t="str">
-        <v>350h LUXURY</v>
+        <v>450h+ ULTRA PREMIUM</v>
       </c>
       <c r="D2" t="str">
-        <v>#LX7745</v>
+        <v>#LX7754</v>
       </c>
       <c r="E2" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -791,16 +791,16 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2025LexusIS</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B3" t="str">
-        <v>48258</v>
+        <v>61395</v>
       </c>
       <c r="C3" t="str">
-        <v>300 PREMIUM PKG</v>
+        <v>350h LUXURY</v>
       </c>
       <c r="D3" t="str">
-        <v>#LX7741</v>
+        <v>#LX7749</v>
       </c>
       <c r="E3" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -808,33 +808,33 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2024LexusGX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B4" t="str">
-        <v>102350</v>
+        <v>62045</v>
       </c>
       <c r="C4" t="str">
-        <v>550 LUXURY</v>
+        <v>350h LUXURY</v>
       </c>
       <c r="D4" t="str">
-        <v>#LX7740</v>
+        <v>#LX7745</v>
       </c>
       <c r="E4" t="str">
-        <v>4x4, Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2025LexusUX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B5" t="str">
-        <v>50719</v>
+        <v>61395</v>
       </c>
       <c r="C5" t="str">
-        <v>300h LUXURY PKG</v>
+        <v>350h LUXURY</v>
       </c>
       <c r="D5" t="str">
-        <v>#LX7731</v>
+        <v>#LX7746</v>
       </c>
       <c r="E5" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -845,13 +845,13 @@
         <v>2025LexusNX</v>
       </c>
       <c r="B6" t="str">
-        <v>54470</v>
+        <v>57365</v>
       </c>
       <c r="C6" t="str">
-        <v>350 PREMIUM</v>
+        <v>350h PREMIUM</v>
       </c>
       <c r="D6" t="str">
-        <v>#LX7726</v>
+        <v>#LX7748</v>
       </c>
       <c r="E6" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -859,16 +859,16 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>2025LexusUX</v>
+        <v>2025LexusRX</v>
       </c>
       <c r="B7" t="str">
-        <v>50719</v>
+        <v>78739</v>
       </c>
       <c r="C7" t="str">
-        <v>300h LUXURY PKG</v>
+        <v>350h EXECUTIVE PKG</v>
       </c>
       <c r="D7" t="str">
-        <v>#LX7724</v>
+        <v>#LX7747</v>
       </c>
       <c r="E7" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -876,16 +876,16 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2025LexusUX</v>
+        <v>2025LexusIS</v>
       </c>
       <c r="B8" t="str">
-        <v>50719</v>
+        <v>48258</v>
       </c>
       <c r="C8" t="str">
-        <v>300h LUXURY PKG</v>
+        <v>300 PREMIUM PKG</v>
       </c>
       <c r="D8" t="str">
-        <v>#LX7723</v>
+        <v>#LX7741</v>
       </c>
       <c r="E8" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -893,16 +893,16 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2025LexusNX</v>
+        <v>2025LexusUX</v>
       </c>
       <c r="B9" t="str">
-        <v>61395</v>
+        <v>50719</v>
       </c>
       <c r="C9" t="str">
-        <v>350h LUXURY PKG</v>
+        <v>300h LUXURY PKG</v>
       </c>
       <c r="D9" t="str">
-        <v>#LX7718</v>
+        <v>#LX7731</v>
       </c>
       <c r="E9" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -910,16 +910,16 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2025LexusRX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B10" t="str">
-        <v>68374</v>
+        <v>54470</v>
       </c>
       <c r="C10" t="str">
-        <v>350 LUXURY PKG</v>
+        <v>350 PREMIUM</v>
       </c>
       <c r="D10" t="str">
-        <v>#LX7719</v>
+        <v>#LX7726</v>
       </c>
       <c r="E10" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -936,7 +936,7 @@
         <v>300h LUXURY PKG</v>
       </c>
       <c r="D11" t="str">
-        <v>#LX7704</v>
+        <v>#LX7723</v>
       </c>
       <c r="E11" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -944,16 +944,16 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2025LexusUX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B12" t="str">
-        <v>45255</v>
+        <v>61395</v>
       </c>
       <c r="C12" t="str">
-        <v>300h PREMIUM</v>
+        <v>350h LUXURY PKG</v>
       </c>
       <c r="D12" t="str">
-        <v>#LX7705</v>
+        <v>#LX7718</v>
       </c>
       <c r="E12" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -961,16 +961,16 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2025LexusUX</v>
+        <v>2025LexusRX</v>
       </c>
       <c r="B13" t="str">
-        <v>50719</v>
+        <v>68374</v>
       </c>
       <c r="C13" t="str">
-        <v>300h LUXURY PKG</v>
+        <v>350 LUXURY PKG</v>
       </c>
       <c r="D13" t="str">
-        <v>#LX7707</v>
+        <v>#LX7719</v>
       </c>
       <c r="E13" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -978,16 +978,16 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2025LexusNX</v>
+        <v>2025LexusUX</v>
       </c>
       <c r="B14" t="str">
-        <v>56415</v>
+        <v>50719</v>
       </c>
       <c r="C14" t="str">
-        <v>350h PREMIUM</v>
+        <v>300h LUXURY PKG</v>
       </c>
       <c r="D14" t="str">
-        <v>#LX7701</v>
+        <v>#LX7704</v>
       </c>
       <c r="E14" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -998,13 +998,13 @@
         <v>2025LexusUX</v>
       </c>
       <c r="B15" t="str">
-        <v>49719</v>
+        <v>45255</v>
       </c>
       <c r="C15" t="str">
-        <v>300h LUXURY PKG</v>
+        <v>300h PREMIUM</v>
       </c>
       <c r="D15" t="str">
-        <v>#LX7696</v>
+        <v>#LX7705</v>
       </c>
       <c r="E15" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1012,19 +1012,19 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>2025LexusRX</v>
+        <v>2025LexusUX</v>
       </c>
       <c r="B16" t="str">
-        <v>87500</v>
+        <v>49719</v>
       </c>
       <c r="C16" t="str">
-        <v>450h+ EXECUTIVE PKG</v>
+        <v>300h LUXURY PKG</v>
       </c>
       <c r="D16" t="str">
-        <v>#LX7689</v>
+        <v>#LX7696</v>
       </c>
       <c r="E16" t="str">
-        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="17">
@@ -1032,13 +1032,13 @@
         <v>2025LexusRX</v>
       </c>
       <c r="B17" t="str">
-        <v>88150</v>
+        <v>87500</v>
       </c>
       <c r="C17" t="str">
         <v>450h+ EXECUTIVE PKG</v>
       </c>
       <c r="D17" t="str">
-        <v>#LX7672</v>
+        <v>#LX7689</v>
       </c>
       <c r="E17" t="str">
         <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
@@ -1049,33 +1049,33 @@
         <v>2025LexusRX</v>
       </c>
       <c r="B18" t="str">
-        <v>67624</v>
+        <v>88150</v>
       </c>
       <c r="C18" t="str">
-        <v>350 LUXURY PKG</v>
+        <v>450h+ EXECUTIVE PKG</v>
       </c>
       <c r="D18" t="str">
-        <v>#LX7660</v>
+        <v>#LX7672</v>
       </c>
       <c r="E18" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>2024LexusRX</v>
+        <v>2025LexusRX</v>
       </c>
       <c r="B19" t="str">
-        <v>87450</v>
+        <v>67624</v>
       </c>
       <c r="C19" t="str">
-        <v>450h+ EXECUTIVE PKG</v>
+        <v>350 LUXURY PKG</v>
       </c>
       <c r="D19" t="str">
-        <v>#LX7641</v>
+        <v>#LX7660</v>
       </c>
       <c r="E19" t="str">
-        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="20">
@@ -1083,13 +1083,13 @@
         <v>2024LexusRX</v>
       </c>
       <c r="B20" t="str">
-        <v>86950</v>
+        <v>87450</v>
       </c>
       <c r="C20" t="str">
         <v>450h+ EXECUTIVE PKG</v>
       </c>
       <c r="D20" t="str">
-        <v>#LX7639</v>
+        <v>#LX7641</v>
       </c>
       <c r="E20" t="str">
         <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
@@ -1100,64 +1100,64 @@
         <v>2024LexusRX</v>
       </c>
       <c r="B21" t="str">
-        <v>77350</v>
+        <v>86950</v>
       </c>
       <c r="C21" t="str">
-        <v>350h EXECUTIVE PKG</v>
+        <v>450h+ EXECUTIVE PKG</v>
       </c>
       <c r="D21" t="str">
-        <v>#LX7625</v>
+        <v>#LX7639</v>
       </c>
       <c r="E21" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>2025LexusES</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B22" t="str">
-        <v>54014</v>
+        <v>77350</v>
       </c>
       <c r="C22" t="str">
-        <v>350 PREMIUM</v>
+        <v>350h EXECUTIVE PKG</v>
       </c>
       <c r="D22" t="str">
-        <v>#LX7601</v>
+        <v>#LX7625</v>
       </c>
       <c r="E22" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>2025LexusNX</v>
+        <v>2025LexusES</v>
       </c>
       <c r="B23" t="str">
-        <v>68383</v>
+        <v>54014</v>
       </c>
       <c r="C23" t="str">
         <v>350 PREMIUM</v>
       </c>
       <c r="D23" t="str">
-        <v>#LX7585</v>
+        <v>#LX7601</v>
       </c>
       <c r="E23" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>2024LexusRX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B24" t="str">
-        <v>71500</v>
+        <v>68383</v>
       </c>
       <c r="C24" t="str">
-        <v>350 ULTRA LUXURY</v>
+        <v>350 PREMIUM</v>
       </c>
       <c r="D24" t="str">
-        <v>#LX7531</v>
+        <v>#LX7585</v>
       </c>
       <c r="E24" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1165,16 +1165,16 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>2024LexusIS</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B25" t="str">
-        <v>56350</v>
+        <v>71500</v>
       </c>
       <c r="C25" t="str">
-        <v>300 ULTRA LUXURY</v>
+        <v>350 ULTRA LUXURY</v>
       </c>
       <c r="D25" t="str">
-        <v>#LX7497</v>
+        <v>#LX7531</v>
       </c>
       <c r="E25" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1182,16 +1182,16 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>2024LexusTX</v>
+        <v>2024LexusIS</v>
       </c>
       <c r="B26" t="str">
-        <v>84200</v>
+        <v>56350</v>
       </c>
       <c r="C26" t="str">
-        <v>500h F SPORT PERFORMANCE 2</v>
+        <v>300 ULTRA LUXURY</v>
       </c>
       <c r="D26" t="str">
-        <v>#LX7484</v>
+        <v>#LX7497</v>
       </c>
       <c r="E26" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1199,16 +1199,16 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>2025LexusNX</v>
+        <v>2024LexusTX</v>
       </c>
       <c r="B27" t="str">
-        <v>62842</v>
+        <v>84200</v>
       </c>
       <c r="C27" t="str">
-        <v>350 F SPORT 2</v>
+        <v>500h F SPORT PERFORMANCE 2</v>
       </c>
       <c r="D27" t="str">
-        <v>#LX7475</v>
+        <v>#LX7484</v>
       </c>
       <c r="E27" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1216,16 +1216,16 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>2024LexusTX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B28" t="str">
-        <v>84200</v>
+        <v>62842</v>
       </c>
       <c r="C28" t="str">
-        <v>500h F SPORT PERFORMANCE 2</v>
+        <v>350 F SPORT 2</v>
       </c>
       <c r="D28" t="str">
-        <v>#LX7304</v>
+        <v>#LX7475</v>
       </c>
       <c r="E28" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1233,16 +1233,16 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>2025LexusNX</v>
+        <v>2024LexusTX</v>
       </c>
       <c r="B29" t="str">
-        <v>61395</v>
+        <v>84200</v>
       </c>
       <c r="C29" t="str">
-        <v>350h LUXURY</v>
+        <v>500h F SPORT PERFORMANCE 2</v>
       </c>
       <c r="D29" t="str">
-        <v>#LX7746</v>
+        <v>#LX7304</v>
       </c>
       <c r="E29" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1250,16 +1250,16 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>2025LexusNX</v>
+        <v>2025LexusUX</v>
       </c>
       <c r="B30" t="str">
-        <v>57365</v>
+        <v>53382</v>
       </c>
       <c r="C30" t="str">
-        <v>350h PREMIUM</v>
+        <v>300h F SPORT 2</v>
       </c>
       <c r="D30" t="str">
-        <v>#LX7748</v>
+        <v>#LX7755</v>
       </c>
       <c r="E30" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1267,16 +1267,16 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>2025LexusRX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B31" t="str">
-        <v>78739</v>
+        <v>56715</v>
       </c>
       <c r="C31" t="str">
-        <v>350h EXECUTIVE PKG</v>
+        <v>350h PREMIUM</v>
       </c>
       <c r="D31" t="str">
-        <v>#LX7747</v>
+        <v>#LX7750</v>
       </c>
       <c r="E31" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1301,58 +1301,24 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>2025LexusIS</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B33" t="str">
-        <v>63498</v>
+        <v>54470</v>
       </c>
       <c r="C33" t="str">
-        <v>350 F SPORT 3</v>
+        <v>350 PREMIUM</v>
       </c>
       <c r="D33" t="str">
-        <v>#LX7730</v>
+        <v>#LX7654</v>
       </c>
       <c r="E33" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="str">
-        <v>2025LexusNX</v>
-      </c>
-      <c r="B34" t="str">
-        <v>61745</v>
-      </c>
-      <c r="C34" t="str">
-        <v>350h LUXURY</v>
-      </c>
-      <c r="D34" t="str">
-        <v>#LX7700</v>
-      </c>
-      <c r="E34" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="str">
-        <v>2025LexusNX</v>
-      </c>
-      <c r="B35" t="str">
-        <v>54470</v>
-      </c>
-      <c r="C35" t="str">
-        <v>350 PREMIUM</v>
-      </c>
-      <c r="D35" t="str">
-        <v>#LX7654</v>
-      </c>
-      <c r="E35" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E35"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E33"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Projects/scrapping_js/lexus_maritime/Lexus_Inventory.xlsx
+++ b/Projects/scrapping_js/lexus_maritime/Lexus_Inventory.xlsx
@@ -431,7 +431,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2025 UXH 300h</v>
+        <v>2025 UXH NONE</v>
       </c>
       <c r="B2" t="str">
         <v>All Wheel Drive</v>
@@ -457,7 +457,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2025 UXH 300h</v>
+        <v>2025 UXH NONE</v>
       </c>
       <c r="B3" t="str">
         <v>All Wheel Drive</v>
@@ -483,7 +483,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2025 UXH 300h</v>
+        <v>2025 UXH NONE</v>
       </c>
       <c r="B4" t="str">
         <v>All Wheel Drive</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2025 UXH 300h</v>
+        <v>2025 UXH NONE</v>
       </c>
       <c r="B5" t="str">
         <v>All Wheel Drive</v>
@@ -535,7 +535,7 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>2025 NX 250 SIGNATURE</v>
+        <v>2025 NX LUXURY</v>
       </c>
       <c r="B6" t="str">
         <v>All Wheel Drive</v>
@@ -561,7 +561,7 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>2025 UXH F SPORT</v>
+        <v>2025 NX LUXURY</v>
       </c>
       <c r="B7" t="str">
         <v>All Wheel Drive</v>
@@ -570,24 +570,24 @@
         <v>Automatic</v>
       </c>
       <c r="D7" t="str">
-        <v>2L 4cyl.</v>
+        <v>2.5L 4cyl.</v>
       </c>
       <c r="E7" t="str">
-        <v>$55322</v>
+        <v>$53793</v>
       </c>
       <c r="F7" t="str">
-        <v>JTHUCJDH4S2006355</v>
+        <v>2T2ADCEZ7SC007128</v>
       </c>
       <c r="G7" t="str">
-        <v>25072</v>
+        <v>25108</v>
       </c>
       <c r="H7" t="str">
-        <v>F SPORT SÉRIE 2</v>
+        <v>Signature</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2025 NX 350</v>
+        <v>2025 UXH NONE</v>
       </c>
       <c r="B8" t="str">
         <v>All Wheel Drive</v>
@@ -596,24 +596,24 @@
         <v>Automatic</v>
       </c>
       <c r="D8" t="str">
-        <v>2.4L TURBO 4cyl.</v>
+        <v>2L 4cyl.</v>
       </c>
       <c r="E8" t="str">
-        <v>$56798</v>
+        <v>$55322</v>
       </c>
       <c r="F8" t="str">
-        <v>2T2GGCEZ3SC078425</v>
+        <v>JTHUCJDH4S2006355</v>
       </c>
       <c r="G8" t="str">
-        <v>25091</v>
+        <v>25072</v>
       </c>
       <c r="H8" t="str">
-        <v>Premium</v>
+        <v>F SPORT SÉRIE 2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2025 NXH 350h</v>
+        <v>2025 NX LUXURY</v>
       </c>
       <c r="B9" t="str">
         <v>All Wheel Drive</v>
@@ -622,16 +622,16 @@
         <v>Automatic</v>
       </c>
       <c r="D9" t="str">
-        <v>2.5L 4cyl.</v>
+        <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E9" t="str">
-        <v>$59043</v>
+        <v>$56798</v>
       </c>
       <c r="F9" t="str">
-        <v>2T2GKCEZ1SC048967</v>
+        <v>2T2GGCEZ3SC078425</v>
       </c>
       <c r="G9" t="str">
-        <v>25103</v>
+        <v>25091</v>
       </c>
       <c r="H9" t="str">
         <v>Premium</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2025 NXH 350h</v>
+        <v>2025 NXH LUXURY</v>
       </c>
       <c r="B10" t="str">
         <v>All Wheel Drive</v>
@@ -665,7 +665,7 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2025 NXH 350h</v>
+        <v>2025 NXH LUXURY</v>
       </c>
       <c r="B11" t="str">
         <v>All Wheel Drive</v>
@@ -680,10 +680,10 @@
         <v>$59043</v>
       </c>
       <c r="F11" t="str">
-        <v>2T2GKCEZ0SC047227</v>
+        <v>2T2GKCEZ1SC048967</v>
       </c>
       <c r="G11" t="str">
-        <v>25079</v>
+        <v>25103</v>
       </c>
       <c r="H11" t="str">
         <v>Premium</v>
@@ -691,7 +691,7 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2025 NXH 350h</v>
+        <v>2025 NXH LUXURY</v>
       </c>
       <c r="B12" t="str">
         <v>All Wheel Drive</v>
@@ -706,10 +706,10 @@
         <v>$59043</v>
       </c>
       <c r="F12" t="str">
-        <v>2T2GKCEZ1SC046457</v>
+        <v>2T2GKCEZ0SC047227</v>
       </c>
       <c r="G12" t="str">
-        <v>25083</v>
+        <v>25079</v>
       </c>
       <c r="H12" t="str">
         <v>Premium</v>
@@ -717,7 +717,7 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2025 NXH 350h</v>
+        <v>2025 NXH LUXURY</v>
       </c>
       <c r="B13" t="str">
         <v>All Wheel Drive</v>
@@ -732,10 +732,10 @@
         <v>$59043</v>
       </c>
       <c r="F13" t="str">
-        <v>2T2GKCEZ2SC047617</v>
+        <v>2T2GKCEZ1SC046457</v>
       </c>
       <c r="G13" t="str">
-        <v>25090</v>
+        <v>25083</v>
       </c>
       <c r="H13" t="str">
         <v>Premium</v>
@@ -750,7 +750,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -774,16 +774,16 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2025LexusNX</v>
+        <v>2025LexusUX</v>
       </c>
       <c r="B2" t="str">
-        <v>60640</v>
+        <v>53382</v>
       </c>
       <c r="C2" t="str">
-        <v>450h+ ULTRA PREMIUM</v>
+        <v>300h F SPORT 2</v>
       </c>
       <c r="D2" t="str">
-        <v>#LX7754</v>
+        <v>#LX7755</v>
       </c>
       <c r="E2" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -794,13 +794,13 @@
         <v>2025LexusNX</v>
       </c>
       <c r="B3" t="str">
-        <v>61395</v>
+        <v>60640</v>
       </c>
       <c r="C3" t="str">
-        <v>350h LUXURY</v>
+        <v>450h+ ULTRA PREMIUM</v>
       </c>
       <c r="D3" t="str">
-        <v>#LX7749</v>
+        <v>#LX7754</v>
       </c>
       <c r="E3" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -811,13 +811,13 @@
         <v>2025LexusNX</v>
       </c>
       <c r="B4" t="str">
-        <v>62045</v>
+        <v>61395</v>
       </c>
       <c r="C4" t="str">
         <v>350h LUXURY</v>
       </c>
       <c r="D4" t="str">
-        <v>#LX7745</v>
+        <v>#LX7749</v>
       </c>
       <c r="E4" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -828,13 +828,13 @@
         <v>2025LexusNX</v>
       </c>
       <c r="B5" t="str">
-        <v>61395</v>
+        <v>62045</v>
       </c>
       <c r="C5" t="str">
         <v>350h LUXURY</v>
       </c>
       <c r="D5" t="str">
-        <v>#LX7746</v>
+        <v>#LX7745</v>
       </c>
       <c r="E5" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -845,13 +845,13 @@
         <v>2025LexusNX</v>
       </c>
       <c r="B6" t="str">
-        <v>57365</v>
+        <v>61395</v>
       </c>
       <c r="C6" t="str">
-        <v>350h PREMIUM</v>
+        <v>350h LUXURY</v>
       </c>
       <c r="D6" t="str">
-        <v>#LX7748</v>
+        <v>#LX7746</v>
       </c>
       <c r="E6" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -859,16 +859,16 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>2025LexusRX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B7" t="str">
-        <v>78739</v>
+        <v>57365</v>
       </c>
       <c r="C7" t="str">
-        <v>350h EXECUTIVE PKG</v>
+        <v>350h PREMIUM</v>
       </c>
       <c r="D7" t="str">
-        <v>#LX7747</v>
+        <v>#LX7748</v>
       </c>
       <c r="E7" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -876,16 +876,16 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2025LexusIS</v>
+        <v>2025LexusRX</v>
       </c>
       <c r="B8" t="str">
-        <v>48258</v>
+        <v>78739</v>
       </c>
       <c r="C8" t="str">
-        <v>300 PREMIUM PKG</v>
+        <v>350h EXECUTIVE PKG</v>
       </c>
       <c r="D8" t="str">
-        <v>#LX7741</v>
+        <v>#LX7747</v>
       </c>
       <c r="E8" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1250,16 +1250,16 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>2025LexusUX</v>
+        <v>2025LexusRX</v>
       </c>
       <c r="B30" t="str">
-        <v>53382</v>
+        <v>78739</v>
       </c>
       <c r="C30" t="str">
-        <v>300h F SPORT 2</v>
+        <v>350h</v>
       </c>
       <c r="D30" t="str">
-        <v>#LX7755</v>
+        <v>#LX7756</v>
       </c>
       <c r="E30" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1284,41 +1284,24 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>2025LexusRX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B32" t="str">
-        <v>74240</v>
+        <v>54470</v>
       </c>
       <c r="C32" t="str">
-        <v>350h ULTRA LUXURY</v>
+        <v>350 PREMIUM</v>
       </c>
       <c r="D32" t="str">
-        <v>#LX7744</v>
+        <v>#LX7654</v>
       </c>
       <c r="E32" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="str">
-        <v>2025LexusNX</v>
-      </c>
-      <c r="B33" t="str">
-        <v>54470</v>
-      </c>
-      <c r="C33" t="str">
-        <v>350 PREMIUM</v>
-      </c>
-      <c r="D33" t="str">
-        <v>#LX7654</v>
-      </c>
-      <c r="E33" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E33"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E32"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Projects/scrapping_js/lexus_maritime/Lexus_Inventory.xlsx
+++ b/Projects/scrapping_js/lexus_maritime/Lexus_Inventory.xlsx
@@ -680,10 +680,10 @@
         <v>$59043</v>
       </c>
       <c r="F11" t="str">
-        <v>2T2GKCEZ1SC048967</v>
+        <v>2T2GKCEZ0SC049124</v>
       </c>
       <c r="G11" t="str">
-        <v>25103</v>
+        <v>25107</v>
       </c>
       <c r="H11" t="str">
         <v>Premium</v>
@@ -706,10 +706,10 @@
         <v>$59043</v>
       </c>
       <c r="F12" t="str">
-        <v>2T2GKCEZ0SC047227</v>
+        <v>2T2GKCEZ2SC047617</v>
       </c>
       <c r="G12" t="str">
-        <v>25079</v>
+        <v>25090</v>
       </c>
       <c r="H12" t="str">
         <v>Premium</v>
@@ -732,10 +732,10 @@
         <v>$59043</v>
       </c>
       <c r="F13" t="str">
-        <v>2T2GKCEZ1SC046457</v>
+        <v>2T2GKCEZ0SC047227</v>
       </c>
       <c r="G13" t="str">
-        <v>25083</v>
+        <v>25079</v>
       </c>
       <c r="H13" t="str">
         <v>Premium</v>
@@ -750,7 +750,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -774,16 +774,16 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2025LexusUX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B2" t="str">
-        <v>53382</v>
+        <v>60640</v>
       </c>
       <c r="C2" t="str">
-        <v>300h F SPORT 2</v>
+        <v>450h+ ULTRA PREMIUM</v>
       </c>
       <c r="D2" t="str">
-        <v>#LX7755</v>
+        <v>#LX7765</v>
       </c>
       <c r="E2" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -791,16 +791,16 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2025LexusNX</v>
+        <v>2025LexusRX</v>
       </c>
       <c r="B3" t="str">
-        <v>60640</v>
+        <v>60880</v>
       </c>
       <c r="C3" t="str">
-        <v>450h+ ULTRA PREMIUM</v>
+        <v>350 PREMIUM PACKAGE</v>
       </c>
       <c r="D3" t="str">
-        <v>#LX7754</v>
+        <v>#LX7761</v>
       </c>
       <c r="E3" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -808,16 +808,16 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2025LexusNX</v>
+        <v>2025LexusUX</v>
       </c>
       <c r="B4" t="str">
-        <v>61395</v>
+        <v>53382</v>
       </c>
       <c r="C4" t="str">
-        <v>350h LUXURY</v>
+        <v>300h F SPORT 2</v>
       </c>
       <c r="D4" t="str">
-        <v>#LX7749</v>
+        <v>#LX7755</v>
       </c>
       <c r="E4" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -828,13 +828,13 @@
         <v>2025LexusNX</v>
       </c>
       <c r="B5" t="str">
-        <v>62045</v>
+        <v>61395</v>
       </c>
       <c r="C5" t="str">
         <v>350h LUXURY</v>
       </c>
       <c r="D5" t="str">
-        <v>#LX7745</v>
+        <v>#LX7749</v>
       </c>
       <c r="E5" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -845,13 +845,13 @@
         <v>2025LexusNX</v>
       </c>
       <c r="B6" t="str">
-        <v>61395</v>
+        <v>62045</v>
       </c>
       <c r="C6" t="str">
         <v>350h LUXURY</v>
       </c>
       <c r="D6" t="str">
-        <v>#LX7746</v>
+        <v>#LX7745</v>
       </c>
       <c r="E6" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -862,13 +862,13 @@
         <v>2025LexusNX</v>
       </c>
       <c r="B7" t="str">
-        <v>57365</v>
+        <v>61395</v>
       </c>
       <c r="C7" t="str">
-        <v>350h PREMIUM</v>
+        <v>350h LUXURY</v>
       </c>
       <c r="D7" t="str">
-        <v>#LX7748</v>
+        <v>#LX7746</v>
       </c>
       <c r="E7" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -876,16 +876,16 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2025LexusRX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B8" t="str">
-        <v>78739</v>
+        <v>57365</v>
       </c>
       <c r="C8" t="str">
-        <v>350h EXECUTIVE PKG</v>
+        <v>350h PREMIUM</v>
       </c>
       <c r="D8" t="str">
-        <v>#LX7747</v>
+        <v>#LX7748</v>
       </c>
       <c r="E8" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -893,16 +893,16 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2025LexusUX</v>
+        <v>2025LexusRX</v>
       </c>
       <c r="B9" t="str">
-        <v>50719</v>
+        <v>78739</v>
       </c>
       <c r="C9" t="str">
-        <v>300h LUXURY PKG</v>
+        <v>350h EXECUTIVE PKG</v>
       </c>
       <c r="D9" t="str">
-        <v>#LX7731</v>
+        <v>#LX7747</v>
       </c>
       <c r="E9" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -910,16 +910,16 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2025LexusNX</v>
+        <v>2025LexusUX</v>
       </c>
       <c r="B10" t="str">
-        <v>54470</v>
+        <v>50719</v>
       </c>
       <c r="C10" t="str">
-        <v>350 PREMIUM</v>
+        <v>300h LUXURY PKG</v>
       </c>
       <c r="D10" t="str">
-        <v>#LX7726</v>
+        <v>#LX7731</v>
       </c>
       <c r="E10" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1018,7 +1018,7 @@
         <v>49719</v>
       </c>
       <c r="C16" t="str">
-        <v>300h LUXURY PKG</v>
+        <v>300h LUXURY PKG (SAMS DEMO)</v>
       </c>
       <c r="D16" t="str">
         <v>#LX7696</v>
@@ -1148,16 +1148,16 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>2025LexusNX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B24" t="str">
-        <v>68383</v>
+        <v>71500</v>
       </c>
       <c r="C24" t="str">
-        <v>350 PREMIUM</v>
+        <v>350 ULTRA LUXURY</v>
       </c>
       <c r="D24" t="str">
-        <v>#LX7585</v>
+        <v>#LX7531</v>
       </c>
       <c r="E24" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1165,16 +1165,16 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>2024LexusRX</v>
+        <v>2024LexusIS</v>
       </c>
       <c r="B25" t="str">
-        <v>71500</v>
+        <v>56350</v>
       </c>
       <c r="C25" t="str">
-        <v>350 ULTRA LUXURY</v>
+        <v>300 ULTRA LUXURY</v>
       </c>
       <c r="D25" t="str">
-        <v>#LX7531</v>
+        <v>#LX7497</v>
       </c>
       <c r="E25" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1182,16 +1182,16 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>2024LexusIS</v>
+        <v>2024LexusTX</v>
       </c>
       <c r="B26" t="str">
-        <v>56350</v>
+        <v>84200</v>
       </c>
       <c r="C26" t="str">
-        <v>300 ULTRA LUXURY</v>
+        <v>500h F SPORT PERFORMANCE 2</v>
       </c>
       <c r="D26" t="str">
-        <v>#LX7497</v>
+        <v>#LX7484</v>
       </c>
       <c r="E26" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1199,16 +1199,16 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>2024LexusTX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B27" t="str">
-        <v>84200</v>
+        <v>62842</v>
       </c>
       <c r="C27" t="str">
-        <v>500h F SPORT PERFORMANCE 2</v>
+        <v>350 F SPORT 2</v>
       </c>
       <c r="D27" t="str">
-        <v>#LX7484</v>
+        <v>#LX7475</v>
       </c>
       <c r="E27" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1216,16 +1216,16 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>2025LexusNX</v>
+        <v>2025LexusRX</v>
       </c>
       <c r="B28" t="str">
-        <v>62842</v>
+        <v>63240</v>
       </c>
       <c r="C28" t="str">
-        <v>350 F SPORT 2</v>
+        <v>350h PREMIUM PKG</v>
       </c>
       <c r="D28" t="str">
-        <v>#LX7475</v>
+        <v>#LX7775</v>
       </c>
       <c r="E28" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1233,16 +1233,16 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>2024LexusTX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B29" t="str">
-        <v>84200</v>
+        <v>70108</v>
       </c>
       <c r="C29" t="str">
-        <v>500h F SPORT PERFORMANCE 2</v>
+        <v>350h EXECUTIVE</v>
       </c>
       <c r="D29" t="str">
-        <v>#LX7304</v>
+        <v>#LX7773</v>
       </c>
       <c r="E29" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1253,13 +1253,13 @@
         <v>2025LexusRX</v>
       </c>
       <c r="B30" t="str">
-        <v>78739</v>
+        <v>60880</v>
       </c>
       <c r="C30" t="str">
-        <v>350h</v>
+        <v>350</v>
       </c>
       <c r="D30" t="str">
-        <v>#LX7756</v>
+        <v>#LX7770</v>
       </c>
       <c r="E30" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1282,26 +1282,9 @@
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="str">
-        <v>2025LexusNX</v>
-      </c>
-      <c r="B32" t="str">
-        <v>54470</v>
-      </c>
-      <c r="C32" t="str">
-        <v>350 PREMIUM</v>
-      </c>
-      <c r="D32" t="str">
-        <v>#LX7654</v>
-      </c>
-      <c r="E32" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E32"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E31"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Projects/scrapping_js/lexus_maritime/Lexus_Inventory.xlsx
+++ b/Projects/scrapping_js/lexus_maritime/Lexus_Inventory.xlsx
@@ -431,7 +431,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2025 UXH NONE</v>
+        <v>2025 IS LUXURY</v>
       </c>
       <c r="B2" t="str">
         <v>All Wheel Drive</v>
@@ -440,16 +440,16 @@
         <v>Automatic</v>
       </c>
       <c r="D2" t="str">
-        <v>2L 4cyl.</v>
+        <v>3.5L 6cyl.</v>
       </c>
       <c r="E2" t="str">
-        <v>$47583</v>
+        <v>$51786</v>
       </c>
       <c r="F2" t="str">
-        <v>JTHUCJDH1S2004921</v>
+        <v>JTHC81F28S5054848</v>
       </c>
       <c r="G2" t="str">
-        <v>25058</v>
+        <v>25121</v>
       </c>
       <c r="H2" t="str">
         <v>Premium</v>
@@ -469,13 +469,13 @@
         <v>2L 4cyl.</v>
       </c>
       <c r="E3" t="str">
-        <v>$53047</v>
+        <v>$52397</v>
       </c>
       <c r="F3" t="str">
-        <v>JTHUCJDH6S2006339</v>
+        <v>JTHUCJDH6S2007944</v>
       </c>
       <c r="G3" t="str">
-        <v>25071</v>
+        <v>25122</v>
       </c>
       <c r="H3" t="str">
         <v>Luxury</v>
@@ -498,10 +498,10 @@
         <v>$53047</v>
       </c>
       <c r="F4" t="str">
-        <v>JTHUCJDH4S2006842</v>
+        <v>JTHUCJDH5S2007594</v>
       </c>
       <c r="G4" t="str">
-        <v>25076</v>
+        <v>25095</v>
       </c>
       <c r="H4" t="str">
         <v>Luxury</v>
@@ -524,10 +524,10 @@
         <v>$53047</v>
       </c>
       <c r="F5" t="str">
-        <v>JTHUCJDH5S2007594</v>
+        <v>JTHUCJDH4S2006842</v>
       </c>
       <c r="G5" t="str">
-        <v>25095</v>
+        <v>25076</v>
       </c>
       <c r="H5" t="str">
         <v>Luxury</v>
@@ -628,10 +628,10 @@
         <v>$56798</v>
       </c>
       <c r="F9" t="str">
-        <v>2T2GGCEZ3SC078425</v>
+        <v>2T2GGCEZ8SC082406</v>
       </c>
       <c r="G9" t="str">
-        <v>25091</v>
+        <v>25127</v>
       </c>
       <c r="H9" t="str">
         <v>Premium</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2025 NXH LUXURY</v>
+        <v>2025 NX LUXURY</v>
       </c>
       <c r="B10" t="str">
         <v>All Wheel Drive</v>
@@ -648,16 +648,16 @@
         <v>Automatic</v>
       </c>
       <c r="D10" t="str">
-        <v>2.5L 4cyl.</v>
+        <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E10" t="str">
-        <v>$59043</v>
+        <v>$56798</v>
       </c>
       <c r="F10" t="str">
-        <v>2T2GKCEZ1SC046670</v>
+        <v>2T2GGCEZXSC082455</v>
       </c>
       <c r="G10" t="str">
-        <v>25082</v>
+        <v>25128</v>
       </c>
       <c r="H10" t="str">
         <v>Premium</v>
@@ -665,7 +665,7 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2025 NXH LUXURY</v>
+        <v>2025 NX LUXURY</v>
       </c>
       <c r="B11" t="str">
         <v>All Wheel Drive</v>
@@ -674,16 +674,16 @@
         <v>Automatic</v>
       </c>
       <c r="D11" t="str">
-        <v>2.5L 4cyl.</v>
+        <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E11" t="str">
-        <v>$59043</v>
+        <v>$56798</v>
       </c>
       <c r="F11" t="str">
-        <v>2T2GKCEZ0SC049124</v>
+        <v>2T2GGCEZ3SC078425</v>
       </c>
       <c r="G11" t="str">
-        <v>25107</v>
+        <v>25091</v>
       </c>
       <c r="H11" t="str">
         <v>Premium</v>
@@ -691,7 +691,7 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2025 NXH LUXURY</v>
+        <v>2025 NX LUXURY</v>
       </c>
       <c r="B12" t="str">
         <v>All Wheel Drive</v>
@@ -700,16 +700,16 @@
         <v>Automatic</v>
       </c>
       <c r="D12" t="str">
-        <v>2.5L 4cyl.</v>
+        <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E12" t="str">
-        <v>$59043</v>
+        <v>$57448</v>
       </c>
       <c r="F12" t="str">
-        <v>2T2GKCEZ2SC047617</v>
+        <v>2T2GGCEZ7SC082350</v>
       </c>
       <c r="G12" t="str">
-        <v>25090</v>
+        <v>25129</v>
       </c>
       <c r="H12" t="str">
         <v>Premium</v>
@@ -732,10 +732,10 @@
         <v>$59043</v>
       </c>
       <c r="F13" t="str">
-        <v>2T2GKCEZ0SC047227</v>
+        <v>2T2GKCEZ3SC050607</v>
       </c>
       <c r="G13" t="str">
-        <v>25079</v>
+        <v>25116</v>
       </c>
       <c r="H13" t="str">
         <v>Premium</v>
@@ -750,7 +750,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -777,13 +777,13 @@
         <v>2025LexusNX</v>
       </c>
       <c r="B2" t="str">
-        <v>60640</v>
+        <v>54470</v>
       </c>
       <c r="C2" t="str">
-        <v>450h+ ULTRA PREMIUM</v>
+        <v>350 PREMIUM</v>
       </c>
       <c r="D2" t="str">
-        <v>#LX7765</v>
+        <v>#LX7793</v>
       </c>
       <c r="E2" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -791,16 +791,16 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2025LexusRX</v>
+        <v>2025LexusIS</v>
       </c>
       <c r="B3" t="str">
-        <v>60880</v>
+        <v>53398</v>
       </c>
       <c r="C3" t="str">
-        <v>350 PREMIUM PACKAGE</v>
+        <v>300 LUXURY PKG</v>
       </c>
       <c r="D3" t="str">
-        <v>#LX7761</v>
+        <v>#LX7785</v>
       </c>
       <c r="E3" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -808,16 +808,16 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2025LexusUX</v>
+        <v>2025LexusRX</v>
       </c>
       <c r="B4" t="str">
-        <v>53382</v>
+        <v>63240</v>
       </c>
       <c r="C4" t="str">
-        <v>300h F SPORT 2</v>
+        <v>350h PREMIUM PKG</v>
       </c>
       <c r="D4" t="str">
-        <v>#LX7755</v>
+        <v>#LX7775</v>
       </c>
       <c r="E4" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -825,16 +825,16 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2025LexusNX</v>
+        <v>2025LexusRX</v>
       </c>
       <c r="B5" t="str">
-        <v>61395</v>
+        <v>60880</v>
       </c>
       <c r="C5" t="str">
-        <v>350h LUXURY</v>
+        <v>350</v>
       </c>
       <c r="D5" t="str">
-        <v>#LX7749</v>
+        <v>#LX7770</v>
       </c>
       <c r="E5" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -842,16 +842,16 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>2025LexusNX</v>
+        <v>2025LexusUX</v>
       </c>
       <c r="B6" t="str">
-        <v>62045</v>
+        <v>53382</v>
       </c>
       <c r="C6" t="str">
-        <v>350h LUXURY</v>
+        <v>300h F SPORT 2</v>
       </c>
       <c r="D6" t="str">
-        <v>#LX7745</v>
+        <v>#LX7755</v>
       </c>
       <c r="E6" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -862,13 +862,13 @@
         <v>2025LexusNX</v>
       </c>
       <c r="B7" t="str">
-        <v>61395</v>
+        <v>57365</v>
       </c>
       <c r="C7" t="str">
-        <v>350h LUXURY</v>
+        <v>350h PREMIUM</v>
       </c>
       <c r="D7" t="str">
-        <v>#LX7746</v>
+        <v>#LX7748</v>
       </c>
       <c r="E7" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -876,16 +876,16 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2025LexusNX</v>
+        <v>2025LexusRX</v>
       </c>
       <c r="B8" t="str">
-        <v>57365</v>
+        <v>78739</v>
       </c>
       <c r="C8" t="str">
-        <v>350h PREMIUM</v>
+        <v>350h EXECUTIVE PKG</v>
       </c>
       <c r="D8" t="str">
-        <v>#LX7748</v>
+        <v>#LX7747</v>
       </c>
       <c r="E8" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -893,16 +893,16 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2025LexusRX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B9" t="str">
-        <v>78739</v>
+        <v>61395</v>
       </c>
       <c r="C9" t="str">
-        <v>350h EXECUTIVE PKG</v>
+        <v>350h LUXURY PKG</v>
       </c>
       <c r="D9" t="str">
-        <v>#LX7747</v>
+        <v>#LX7718</v>
       </c>
       <c r="E9" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -913,13 +913,13 @@
         <v>2025LexusUX</v>
       </c>
       <c r="B10" t="str">
-        <v>50719</v>
+        <v>49719</v>
       </c>
       <c r="C10" t="str">
-        <v>300h LUXURY PKG</v>
+        <v>300h LUXURY PKG (SAMS DEMO)</v>
       </c>
       <c r="D10" t="str">
-        <v>#LX7731</v>
+        <v>#LX7696</v>
       </c>
       <c r="E10" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -927,36 +927,36 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2025LexusUX</v>
+        <v>2025LexusRX</v>
       </c>
       <c r="B11" t="str">
-        <v>50719</v>
+        <v>87500</v>
       </c>
       <c r="C11" t="str">
-        <v>300h LUXURY PKG</v>
+        <v>450h+ EXECUTIVE PKG</v>
       </c>
       <c r="D11" t="str">
-        <v>#LX7723</v>
+        <v>#LX7689</v>
       </c>
       <c r="E11" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2025LexusNX</v>
+        <v>2025LexusRX</v>
       </c>
       <c r="B12" t="str">
-        <v>61395</v>
+        <v>88150</v>
       </c>
       <c r="C12" t="str">
-        <v>350h LUXURY PKG</v>
+        <v>450h+ EXECUTIVE PKG</v>
       </c>
       <c r="D12" t="str">
-        <v>#LX7718</v>
+        <v>#LX7672</v>
       </c>
       <c r="E12" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
       </c>
     </row>
     <row r="13">
@@ -964,13 +964,13 @@
         <v>2025LexusRX</v>
       </c>
       <c r="B13" t="str">
-        <v>68374</v>
+        <v>67624</v>
       </c>
       <c r="C13" t="str">
         <v>350 LUXURY PKG</v>
       </c>
       <c r="D13" t="str">
-        <v>#LX7719</v>
+        <v>#LX7660</v>
       </c>
       <c r="E13" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -978,33 +978,33 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2025LexusUX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B14" t="str">
-        <v>50719</v>
+        <v>86950</v>
       </c>
       <c r="C14" t="str">
-        <v>300h LUXURY PKG</v>
+        <v>450h+ EXECUTIVE PKG</v>
       </c>
       <c r="D14" t="str">
-        <v>#LX7704</v>
+        <v>#LX7639</v>
       </c>
       <c r="E14" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2025LexusUX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B15" t="str">
-        <v>45255</v>
+        <v>77350</v>
       </c>
       <c r="C15" t="str">
-        <v>300h PREMIUM</v>
+        <v>350h EXECUTIVE PKG</v>
       </c>
       <c r="D15" t="str">
-        <v>#LX7705</v>
+        <v>#LX7625</v>
       </c>
       <c r="E15" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1012,67 +1012,67 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>2025LexusUX</v>
+        <v>2025LexusES</v>
       </c>
       <c r="B16" t="str">
-        <v>49719</v>
+        <v>54014</v>
       </c>
       <c r="C16" t="str">
-        <v>300h LUXURY PKG (SAMS DEMO)</v>
+        <v>350 PREMIUM</v>
       </c>
       <c r="D16" t="str">
-        <v>#LX7696</v>
+        <v>#LX7601</v>
       </c>
       <c r="E16" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>2025LexusRX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B17" t="str">
-        <v>87500</v>
+        <v>71500</v>
       </c>
       <c r="C17" t="str">
-        <v>450h+ EXECUTIVE PKG</v>
+        <v>350 ULTRA LUXURY</v>
       </c>
       <c r="D17" t="str">
-        <v>#LX7689</v>
+        <v>#LX7531</v>
       </c>
       <c r="E17" t="str">
-        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>2025LexusRX</v>
+        <v>2024LexusIS</v>
       </c>
       <c r="B18" t="str">
-        <v>88150</v>
+        <v>56350</v>
       </c>
       <c r="C18" t="str">
-        <v>450h+ EXECUTIVE PKG</v>
+        <v>300 ULTRA LUXURY</v>
       </c>
       <c r="D18" t="str">
-        <v>#LX7672</v>
+        <v>#LX7497</v>
       </c>
       <c r="E18" t="str">
-        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>2025LexusRX</v>
+        <v>2024LexusTX</v>
       </c>
       <c r="B19" t="str">
-        <v>67624</v>
+        <v>84200</v>
       </c>
       <c r="C19" t="str">
-        <v>350 LUXURY PKG</v>
+        <v>500h F SPORT PERFORMANCE 2</v>
       </c>
       <c r="D19" t="str">
-        <v>#LX7660</v>
+        <v>#LX7484</v>
       </c>
       <c r="E19" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1080,211 +1080,58 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>2024LexusRX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B20" t="str">
-        <v>87450</v>
+        <v>62842</v>
       </c>
       <c r="C20" t="str">
-        <v>450h+ EXECUTIVE PKG</v>
+        <v>350 F SPORT 2</v>
       </c>
       <c r="D20" t="str">
-        <v>#LX7641</v>
+        <v>#LX7475</v>
       </c>
       <c r="E20" t="str">
-        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>2024LexusRX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B21" t="str">
-        <v>86950</v>
+        <v>54470</v>
       </c>
       <c r="C21" t="str">
-        <v>450h+ EXECUTIVE PKG</v>
+        <v>350 PREMIUM</v>
       </c>
       <c r="D21" t="str">
-        <v>#LX7639</v>
+        <v>#LX7797</v>
       </c>
       <c r="E21" t="str">
-        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>2024LexusRX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B22" t="str">
-        <v>77350</v>
+        <v>56715</v>
       </c>
       <c r="C22" t="str">
-        <v>350h EXECUTIVE PKG</v>
+        <v>350h PREMIUM</v>
       </c>
       <c r="D22" t="str">
-        <v>#LX7625</v>
+        <v>#LX7750</v>
       </c>
       <c r="E22" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>2025LexusES</v>
-      </c>
-      <c r="B23" t="str">
-        <v>54014</v>
-      </c>
-      <c r="C23" t="str">
-        <v>350 PREMIUM</v>
-      </c>
-      <c r="D23" t="str">
-        <v>#LX7601</v>
-      </c>
-      <c r="E23" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>2024LexusRX</v>
-      </c>
-      <c r="B24" t="str">
-        <v>71500</v>
-      </c>
-      <c r="C24" t="str">
-        <v>350 ULTRA LUXURY</v>
-      </c>
-      <c r="D24" t="str">
-        <v>#LX7531</v>
-      </c>
-      <c r="E24" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>2024LexusIS</v>
-      </c>
-      <c r="B25" t="str">
-        <v>56350</v>
-      </c>
-      <c r="C25" t="str">
-        <v>300 ULTRA LUXURY</v>
-      </c>
-      <c r="D25" t="str">
-        <v>#LX7497</v>
-      </c>
-      <c r="E25" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v>2024LexusTX</v>
-      </c>
-      <c r="B26" t="str">
-        <v>84200</v>
-      </c>
-      <c r="C26" t="str">
-        <v>500h F SPORT PERFORMANCE 2</v>
-      </c>
-      <c r="D26" t="str">
-        <v>#LX7484</v>
-      </c>
-      <c r="E26" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>2025LexusNX</v>
-      </c>
-      <c r="B27" t="str">
-        <v>62842</v>
-      </c>
-      <c r="C27" t="str">
-        <v>350 F SPORT 2</v>
-      </c>
-      <c r="D27" t="str">
-        <v>#LX7475</v>
-      </c>
-      <c r="E27" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v>2025LexusRX</v>
-      </c>
-      <c r="B28" t="str">
-        <v>63240</v>
-      </c>
-      <c r="C28" t="str">
-        <v>350h PREMIUM PKG</v>
-      </c>
-      <c r="D28" t="str">
-        <v>#LX7775</v>
-      </c>
-      <c r="E28" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="str">
-        <v>2025LexusNX</v>
-      </c>
-      <c r="B29" t="str">
-        <v>70108</v>
-      </c>
-      <c r="C29" t="str">
-        <v>350h EXECUTIVE</v>
-      </c>
-      <c r="D29" t="str">
-        <v>#LX7773</v>
-      </c>
-      <c r="E29" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="str">
-        <v>2025LexusRX</v>
-      </c>
-      <c r="B30" t="str">
-        <v>60880</v>
-      </c>
-      <c r="C30" t="str">
-        <v>350</v>
-      </c>
-      <c r="D30" t="str">
-        <v>#LX7770</v>
-      </c>
-      <c r="E30" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="str">
-        <v>2025LexusNX</v>
-      </c>
-      <c r="B31" t="str">
-        <v>56715</v>
-      </c>
-      <c r="C31" t="str">
-        <v>350h PREMIUM</v>
-      </c>
-      <c r="D31" t="str">
-        <v>#LX7750</v>
-      </c>
-      <c r="E31" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E22"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Projects/scrapping_js/lexus_maritime/Lexus_Inventory.xlsx
+++ b/Projects/scrapping_js/lexus_maritime/Lexus_Inventory.xlsx
@@ -431,7 +431,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2025 IS LUXURY</v>
+        <v>2025 UXH NONE</v>
       </c>
       <c r="B2" t="str">
         <v>All Wheel Drive</v>
@@ -440,19 +440,19 @@
         <v>Automatic</v>
       </c>
       <c r="D2" t="str">
-        <v>3.5L 6cyl.</v>
+        <v>2L 4cyl.</v>
       </c>
       <c r="E2" t="str">
-        <v>$51786</v>
+        <v>$52397</v>
       </c>
       <c r="F2" t="str">
-        <v>JTHC81F28S5054848</v>
+        <v>JTHUCJDH6S2007944</v>
       </c>
       <c r="G2" t="str">
-        <v>25121</v>
+        <v>25122</v>
       </c>
       <c r="H2" t="str">
-        <v>Premium</v>
+        <v>Luxury</v>
       </c>
     </row>
     <row r="3">
@@ -469,13 +469,13 @@
         <v>2L 4cyl.</v>
       </c>
       <c r="E3" t="str">
-        <v>$52397</v>
+        <v>$53047</v>
       </c>
       <c r="F3" t="str">
-        <v>JTHUCJDH6S2007944</v>
+        <v>JTHUCJDH5S2007594</v>
       </c>
       <c r="G3" t="str">
-        <v>25122</v>
+        <v>25095</v>
       </c>
       <c r="H3" t="str">
         <v>Luxury</v>
@@ -498,10 +498,10 @@
         <v>$53047</v>
       </c>
       <c r="F4" t="str">
-        <v>JTHUCJDH5S2007594</v>
+        <v>JTHUCJDH4S2006842</v>
       </c>
       <c r="G4" t="str">
-        <v>25095</v>
+        <v>25076</v>
       </c>
       <c r="H4" t="str">
         <v>Luxury</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2025 UXH NONE</v>
+        <v>2025 NX LUXURY</v>
       </c>
       <c r="B5" t="str">
         <v>All Wheel Drive</v>
@@ -518,19 +518,19 @@
         <v>Automatic</v>
       </c>
       <c r="D5" t="str">
-        <v>2L 4cyl.</v>
+        <v>2.5L 4cyl.</v>
       </c>
       <c r="E5" t="str">
-        <v>$53047</v>
+        <v>$53793</v>
       </c>
       <c r="F5" t="str">
-        <v>JTHUCJDH4S2006842</v>
+        <v>2T2ADCEZ7SC007081</v>
       </c>
       <c r="G5" t="str">
-        <v>25076</v>
+        <v>25088</v>
       </c>
       <c r="H5" t="str">
-        <v>Luxury</v>
+        <v>Signature</v>
       </c>
     </row>
     <row r="6">
@@ -550,10 +550,10 @@
         <v>$53793</v>
       </c>
       <c r="F6" t="str">
-        <v>2T2ADCEZ7SC007081</v>
+        <v>2T2ADCEZ7SC007128</v>
       </c>
       <c r="G6" t="str">
-        <v>25088</v>
+        <v>25108</v>
       </c>
       <c r="H6" t="str">
         <v>Signature</v>
@@ -561,7 +561,7 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>2025 NX LUXURY</v>
+        <v>2025 UXH NONE</v>
       </c>
       <c r="B7" t="str">
         <v>All Wheel Drive</v>
@@ -570,24 +570,24 @@
         <v>Automatic</v>
       </c>
       <c r="D7" t="str">
-        <v>2.5L 4cyl.</v>
+        <v>2L 4cyl.</v>
       </c>
       <c r="E7" t="str">
-        <v>$53793</v>
+        <v>$55322</v>
       </c>
       <c r="F7" t="str">
-        <v>2T2ADCEZ7SC007128</v>
+        <v>JTHUCJDH4S2006355</v>
       </c>
       <c r="G7" t="str">
-        <v>25108</v>
+        <v>25072</v>
       </c>
       <c r="H7" t="str">
-        <v>Signature</v>
+        <v>F SPORT SÉRIE 2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2025 UXH NONE</v>
+        <v>2025 NX LUXURY</v>
       </c>
       <c r="B8" t="str">
         <v>All Wheel Drive</v>
@@ -596,19 +596,19 @@
         <v>Automatic</v>
       </c>
       <c r="D8" t="str">
-        <v>2L 4cyl.</v>
+        <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E8" t="str">
-        <v>$55322</v>
+        <v>$56798</v>
       </c>
       <c r="F8" t="str">
-        <v>JTHUCJDH4S2006355</v>
+        <v>2T2GGCEZ8SC082406</v>
       </c>
       <c r="G8" t="str">
-        <v>25072</v>
+        <v>25127</v>
       </c>
       <c r="H8" t="str">
-        <v>F SPORT SÉRIE 2</v>
+        <v>Premium</v>
       </c>
     </row>
     <row r="9">
@@ -628,10 +628,10 @@
         <v>$56798</v>
       </c>
       <c r="F9" t="str">
-        <v>2T2GGCEZ8SC082406</v>
+        <v>2T2GGCEZ3SC078425</v>
       </c>
       <c r="G9" t="str">
-        <v>25127</v>
+        <v>25091</v>
       </c>
       <c r="H9" t="str">
         <v>Premium</v>
@@ -677,13 +677,13 @@
         <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E11" t="str">
-        <v>$56798</v>
+        <v>$57448</v>
       </c>
       <c r="F11" t="str">
-        <v>2T2GGCEZ3SC078425</v>
+        <v>2T2GGCEZ6SC082789</v>
       </c>
       <c r="G11" t="str">
-        <v>25091</v>
+        <v>25131</v>
       </c>
       <c r="H11" t="str">
         <v>Premium</v>
@@ -691,7 +691,7 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2025 NX LUXURY</v>
+        <v>2025 NXH LUXURY</v>
       </c>
       <c r="B12" t="str">
         <v>All Wheel Drive</v>
@@ -700,16 +700,16 @@
         <v>Automatic</v>
       </c>
       <c r="D12" t="str">
-        <v>2.4L TURBO 4cyl.</v>
+        <v>2.5L 4cyl.</v>
       </c>
       <c r="E12" t="str">
-        <v>$57448</v>
+        <v>$59043</v>
       </c>
       <c r="F12" t="str">
-        <v>2T2GGCEZ7SC082350</v>
+        <v>2T2GKCEZ3SC050607</v>
       </c>
       <c r="G12" t="str">
-        <v>25129</v>
+        <v>25116</v>
       </c>
       <c r="H12" t="str">
         <v>Premium</v>
@@ -732,10 +732,10 @@
         <v>$59043</v>
       </c>
       <c r="F13" t="str">
-        <v>2T2GKCEZ3SC050607</v>
+        <v>2T2GKCEZ0SC049124</v>
       </c>
       <c r="G13" t="str">
-        <v>25116</v>
+        <v>25107</v>
       </c>
       <c r="H13" t="str">
         <v>Premium</v>
@@ -750,7 +750,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -783,7 +783,7 @@
         <v>350 PREMIUM</v>
       </c>
       <c r="D2" t="str">
-        <v>#LX7793</v>
+        <v>#LX7797</v>
       </c>
       <c r="E2" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -791,16 +791,16 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2025LexusIS</v>
+        <v>2025LexusUX</v>
       </c>
       <c r="B3" t="str">
-        <v>53398</v>
+        <v>53382</v>
       </c>
       <c r="C3" t="str">
-        <v>300 LUXURY PKG</v>
+        <v>300h F SPORT 2</v>
       </c>
       <c r="D3" t="str">
-        <v>#LX7785</v>
+        <v>#LX7755</v>
       </c>
       <c r="E3" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -808,16 +808,16 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2025LexusRX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B4" t="str">
-        <v>63240</v>
+        <v>57365</v>
       </c>
       <c r="C4" t="str">
-        <v>350h PREMIUM PKG</v>
+        <v>350h PREMIUM</v>
       </c>
       <c r="D4" t="str">
-        <v>#LX7775</v>
+        <v>#LX7748</v>
       </c>
       <c r="E4" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -828,13 +828,13 @@
         <v>2025LexusRX</v>
       </c>
       <c r="B5" t="str">
-        <v>60880</v>
+        <v>78739</v>
       </c>
       <c r="C5" t="str">
-        <v>350</v>
+        <v>350h EXECUTIVE PKG</v>
       </c>
       <c r="D5" t="str">
-        <v>#LX7770</v>
+        <v>#LX7747</v>
       </c>
       <c r="E5" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -842,16 +842,16 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>2025LexusUX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B6" t="str">
-        <v>53382</v>
+        <v>61395</v>
       </c>
       <c r="C6" t="str">
-        <v>300h F SPORT 2</v>
+        <v>350h LUXURY PKG</v>
       </c>
       <c r="D6" t="str">
-        <v>#LX7755</v>
+        <v>#LX7718</v>
       </c>
       <c r="E6" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -859,16 +859,16 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>2025LexusNX</v>
+        <v>2025LexusUX</v>
       </c>
       <c r="B7" t="str">
-        <v>57365</v>
+        <v>49719</v>
       </c>
       <c r="C7" t="str">
-        <v>350h PREMIUM</v>
+        <v>300h LUXURY PKG (SAMS DEMO)</v>
       </c>
       <c r="D7" t="str">
-        <v>#LX7748</v>
+        <v>#LX7696</v>
       </c>
       <c r="E7" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -879,47 +879,47 @@
         <v>2025LexusRX</v>
       </c>
       <c r="B8" t="str">
-        <v>78739</v>
+        <v>87500</v>
       </c>
       <c r="C8" t="str">
-        <v>350h EXECUTIVE PKG</v>
+        <v>450h+ EXECUTIVE PKG</v>
       </c>
       <c r="D8" t="str">
-        <v>#LX7747</v>
+        <v>#LX7689</v>
       </c>
       <c r="E8" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2025LexusNX</v>
+        <v>2025LexusRX</v>
       </c>
       <c r="B9" t="str">
-        <v>61395</v>
+        <v>88150</v>
       </c>
       <c r="C9" t="str">
-        <v>350h LUXURY PKG</v>
+        <v>450h+ EXECUTIVE PKG</v>
       </c>
       <c r="D9" t="str">
-        <v>#LX7718</v>
+        <v>#LX7672</v>
       </c>
       <c r="E9" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2025LexusUX</v>
+        <v>2025LexusRX</v>
       </c>
       <c r="B10" t="str">
-        <v>49719</v>
+        <v>67624</v>
       </c>
       <c r="C10" t="str">
-        <v>300h LUXURY PKG (SAMS DEMO)</v>
+        <v>350 LUXURY PKG</v>
       </c>
       <c r="D10" t="str">
-        <v>#LX7696</v>
+        <v>#LX7660</v>
       </c>
       <c r="E10" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -927,16 +927,16 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2025LexusRX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B11" t="str">
-        <v>87500</v>
+        <v>86950</v>
       </c>
       <c r="C11" t="str">
-        <v>450h+ EXECUTIVE PKG</v>
+        <v>450h+</v>
       </c>
       <c r="D11" t="str">
-        <v>#LX7689</v>
+        <v>#LX7639</v>
       </c>
       <c r="E11" t="str">
         <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
@@ -944,33 +944,33 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2025LexusRX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B12" t="str">
-        <v>88150</v>
+        <v>77350</v>
       </c>
       <c r="C12" t="str">
-        <v>450h+ EXECUTIVE PKG</v>
+        <v>350h EXECUTIVE PKG</v>
       </c>
       <c r="D12" t="str">
-        <v>#LX7672</v>
+        <v>#LX7625</v>
       </c>
       <c r="E12" t="str">
-        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2025LexusRX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B13" t="str">
-        <v>67624</v>
+        <v>71500</v>
       </c>
       <c r="C13" t="str">
-        <v>350 LUXURY PKG</v>
+        <v>350 ULTRA LUXURY</v>
       </c>
       <c r="D13" t="str">
-        <v>#LX7660</v>
+        <v>#LX7531</v>
       </c>
       <c r="E13" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -978,33 +978,33 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2024LexusRX</v>
+        <v>2024LexusIS</v>
       </c>
       <c r="B14" t="str">
-        <v>86950</v>
+        <v>56350</v>
       </c>
       <c r="C14" t="str">
-        <v>450h+ EXECUTIVE PKG</v>
+        <v>300 ULTRA LUXURY</v>
       </c>
       <c r="D14" t="str">
-        <v>#LX7639</v>
+        <v>#LX7497</v>
       </c>
       <c r="E14" t="str">
-        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2024LexusRX</v>
+        <v>2024LexusTX</v>
       </c>
       <c r="B15" t="str">
-        <v>77350</v>
+        <v>84200</v>
       </c>
       <c r="C15" t="str">
-        <v>350h EXECUTIVE PKG</v>
+        <v>500h F SPORT PERFORMANCE 2</v>
       </c>
       <c r="D15" t="str">
-        <v>#LX7625</v>
+        <v>#LX7484</v>
       </c>
       <c r="E15" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1012,126 +1012,41 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>2025LexusES</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B16" t="str">
-        <v>54014</v>
+        <v>62842</v>
       </c>
       <c r="C16" t="str">
-        <v>350 PREMIUM</v>
+        <v>350 F SPORT 2</v>
       </c>
       <c r="D16" t="str">
-        <v>#LX7601</v>
+        <v>#LX7475</v>
       </c>
       <c r="E16" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>2024LexusRX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B17" t="str">
-        <v>71500</v>
+        <v>56715</v>
       </c>
       <c r="C17" t="str">
-        <v>350 ULTRA LUXURY</v>
+        <v>350h PREMIUM</v>
       </c>
       <c r="D17" t="str">
-        <v>#LX7531</v>
+        <v>#LX7750</v>
       </c>
       <c r="E17" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>2024LexusIS</v>
-      </c>
-      <c r="B18" t="str">
-        <v>56350</v>
-      </c>
-      <c r="C18" t="str">
-        <v>300 ULTRA LUXURY</v>
-      </c>
-      <c r="D18" t="str">
-        <v>#LX7497</v>
-      </c>
-      <c r="E18" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>2024LexusTX</v>
-      </c>
-      <c r="B19" t="str">
-        <v>84200</v>
-      </c>
-      <c r="C19" t="str">
-        <v>500h F SPORT PERFORMANCE 2</v>
-      </c>
-      <c r="D19" t="str">
-        <v>#LX7484</v>
-      </c>
-      <c r="E19" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>2025LexusNX</v>
-      </c>
-      <c r="B20" t="str">
-        <v>62842</v>
-      </c>
-      <c r="C20" t="str">
-        <v>350 F SPORT 2</v>
-      </c>
-      <c r="D20" t="str">
-        <v>#LX7475</v>
-      </c>
-      <c r="E20" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>2025LexusNX</v>
-      </c>
-      <c r="B21" t="str">
-        <v>54470</v>
-      </c>
-      <c r="C21" t="str">
-        <v>350 PREMIUM</v>
-      </c>
-      <c r="D21" t="str">
-        <v>#LX7797</v>
-      </c>
-      <c r="E21" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v>2025LexusNX</v>
-      </c>
-      <c r="B22" t="str">
-        <v>56715</v>
-      </c>
-      <c r="C22" t="str">
-        <v>350h PREMIUM</v>
-      </c>
-      <c r="D22" t="str">
-        <v>#LX7750</v>
-      </c>
-      <c r="E22" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E22"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E17"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Projects/scrapping_js/lexus_maritime/Lexus_Inventory.xlsx
+++ b/Projects/scrapping_js/lexus_maritime/Lexus_Inventory.xlsx
@@ -521,13 +521,13 @@
         <v>2.5L 4cyl.</v>
       </c>
       <c r="E5" t="str">
-        <v>$53793</v>
+        <v>$53143</v>
       </c>
       <c r="F5" t="str">
-        <v>2T2ADCEZ7SC007081</v>
+        <v>2T2ADCEZ2SC007327</v>
       </c>
       <c r="G5" t="str">
-        <v>25088</v>
+        <v>25141</v>
       </c>
       <c r="H5" t="str">
         <v>Signature</v>
@@ -550,10 +550,10 @@
         <v>$53793</v>
       </c>
       <c r="F6" t="str">
-        <v>2T2ADCEZ7SC007128</v>
+        <v>2T2ADCEZ7SC007081</v>
       </c>
       <c r="G6" t="str">
-        <v>25108</v>
+        <v>25088</v>
       </c>
       <c r="H6" t="str">
         <v>Signature</v>
@@ -561,7 +561,7 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>2025 UXH NONE</v>
+        <v>2025 NX LUXURY</v>
       </c>
       <c r="B7" t="str">
         <v>All Wheel Drive</v>
@@ -570,24 +570,24 @@
         <v>Automatic</v>
       </c>
       <c r="D7" t="str">
-        <v>2L 4cyl.</v>
+        <v>2.5L 4cyl.</v>
       </c>
       <c r="E7" t="str">
-        <v>$55322</v>
+        <v>$53793</v>
       </c>
       <c r="F7" t="str">
-        <v>JTHUCJDH4S2006355</v>
+        <v>2T2ADCEZ7SC007128</v>
       </c>
       <c r="G7" t="str">
-        <v>25072</v>
+        <v>25108</v>
       </c>
       <c r="H7" t="str">
-        <v>F SPORT SÉRIE 2</v>
+        <v>Signature</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2025 NX LUXURY</v>
+        <v>2025 ES NONE</v>
       </c>
       <c r="B8" t="str">
         <v>All Wheel Drive</v>
@@ -596,16 +596,16 @@
         <v>Automatic</v>
       </c>
       <c r="D8" t="str">
-        <v>2.4L TURBO 4cyl.</v>
+        <v>2.5L 4cyl.</v>
       </c>
       <c r="E8" t="str">
-        <v>$56798</v>
+        <v>$56293</v>
       </c>
       <c r="F8" t="str">
-        <v>2T2GGCEZ8SC082406</v>
+        <v>58AD11D13SU013770</v>
       </c>
       <c r="G8" t="str">
-        <v>25127</v>
+        <v>25136</v>
       </c>
       <c r="H8" t="str">
         <v>Premium</v>
@@ -654,10 +654,10 @@
         <v>$56798</v>
       </c>
       <c r="F10" t="str">
-        <v>2T2GGCEZXSC082455</v>
+        <v>2T2GGCEZ8SC082406</v>
       </c>
       <c r="G10" t="str">
-        <v>25128</v>
+        <v>25127</v>
       </c>
       <c r="H10" t="str">
         <v>Premium</v>
@@ -677,13 +677,13 @@
         <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E11" t="str">
-        <v>$57448</v>
+        <v>$56798</v>
       </c>
       <c r="F11" t="str">
-        <v>2T2GGCEZ6SC082789</v>
+        <v>2T2GGCEZXSC082455</v>
       </c>
       <c r="G11" t="str">
-        <v>25131</v>
+        <v>25128</v>
       </c>
       <c r="H11" t="str">
         <v>Premium</v>
@@ -691,7 +691,7 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2025 NXH LUXURY</v>
+        <v>2025 NX LUXURY</v>
       </c>
       <c r="B12" t="str">
         <v>All Wheel Drive</v>
@@ -700,16 +700,16 @@
         <v>Automatic</v>
       </c>
       <c r="D12" t="str">
-        <v>2.5L 4cyl.</v>
+        <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E12" t="str">
-        <v>$59043</v>
+        <v>$57448</v>
       </c>
       <c r="F12" t="str">
-        <v>2T2GKCEZ3SC050607</v>
+        <v>2T2GGCEZ6SC082789</v>
       </c>
       <c r="G12" t="str">
-        <v>25116</v>
+        <v>25131</v>
       </c>
       <c r="H12" t="str">
         <v>Premium</v>
@@ -750,7 +750,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -774,16 +774,16 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2025LexusNX</v>
+        <v>2025LexusUX</v>
       </c>
       <c r="B2" t="str">
-        <v>54470</v>
+        <v>53382</v>
       </c>
       <c r="C2" t="str">
-        <v>350 PREMIUM</v>
+        <v>300h F SPORT 2</v>
       </c>
       <c r="D2" t="str">
-        <v>#LX7797</v>
+        <v>#LX7755</v>
       </c>
       <c r="E2" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -791,16 +791,16 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2025LexusUX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B3" t="str">
-        <v>53382</v>
+        <v>57365</v>
       </c>
       <c r="C3" t="str">
-        <v>300h F SPORT 2</v>
+        <v>350h PREMIUM</v>
       </c>
       <c r="D3" t="str">
-        <v>#LX7755</v>
+        <v>#LX7748</v>
       </c>
       <c r="E3" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -808,16 +808,16 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2025LexusNX</v>
+        <v>2025LexusRX</v>
       </c>
       <c r="B4" t="str">
-        <v>57365</v>
+        <v>78739</v>
       </c>
       <c r="C4" t="str">
-        <v>350h PREMIUM</v>
+        <v>350h EXECUTIVE PKG</v>
       </c>
       <c r="D4" t="str">
-        <v>#LX7748</v>
+        <v>#LX7747</v>
       </c>
       <c r="E4" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -825,16 +825,16 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2025LexusRX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B5" t="str">
-        <v>78739</v>
+        <v>61395</v>
       </c>
       <c r="C5" t="str">
-        <v>350h EXECUTIVE PKG</v>
+        <v>350h LUXURY PKG</v>
       </c>
       <c r="D5" t="str">
-        <v>#LX7747</v>
+        <v>#LX7718</v>
       </c>
       <c r="E5" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -842,16 +842,16 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>2025LexusNX</v>
+        <v>2025LexusUX</v>
       </c>
       <c r="B6" t="str">
-        <v>61395</v>
+        <v>49719</v>
       </c>
       <c r="C6" t="str">
-        <v>350h LUXURY PKG</v>
+        <v>300h LUXURY PKG (SAMS DEMO)</v>
       </c>
       <c r="D6" t="str">
-        <v>#LX7718</v>
+        <v>#LX7696</v>
       </c>
       <c r="E6" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -859,19 +859,19 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>2025LexusUX</v>
+        <v>2025LexusRX</v>
       </c>
       <c r="B7" t="str">
-        <v>49719</v>
+        <v>87500</v>
       </c>
       <c r="C7" t="str">
-        <v>300h LUXURY PKG (SAMS DEMO)</v>
+        <v>450h+ EXECUTIVE PKG</v>
       </c>
       <c r="D7" t="str">
-        <v>#LX7696</v>
+        <v>#LX7689</v>
       </c>
       <c r="E7" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
       </c>
     </row>
     <row r="8">
@@ -879,13 +879,13 @@
         <v>2025LexusRX</v>
       </c>
       <c r="B8" t="str">
-        <v>87500</v>
+        <v>88150</v>
       </c>
       <c r="C8" t="str">
         <v>450h+ EXECUTIVE PKG</v>
       </c>
       <c r="D8" t="str">
-        <v>#LX7689</v>
+        <v>#LX7672</v>
       </c>
       <c r="E8" t="str">
         <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
@@ -896,33 +896,33 @@
         <v>2025LexusRX</v>
       </c>
       <c r="B9" t="str">
-        <v>88150</v>
+        <v>67624</v>
       </c>
       <c r="C9" t="str">
-        <v>450h+ EXECUTIVE PKG</v>
+        <v>350 LUXURY PKG</v>
       </c>
       <c r="D9" t="str">
-        <v>#LX7672</v>
+        <v>#LX7660</v>
       </c>
       <c r="E9" t="str">
-        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2025LexusRX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B10" t="str">
-        <v>67624</v>
+        <v>86950</v>
       </c>
       <c r="C10" t="str">
-        <v>350 LUXURY PKG</v>
+        <v>450h+</v>
       </c>
       <c r="D10" t="str">
-        <v>#LX7660</v>
+        <v>#LX7639</v>
       </c>
       <c r="E10" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
       </c>
     </row>
     <row r="11">
@@ -930,16 +930,16 @@
         <v>2024LexusRX</v>
       </c>
       <c r="B11" t="str">
-        <v>86950</v>
+        <v>77350</v>
       </c>
       <c r="C11" t="str">
-        <v>450h+</v>
+        <v>350h EXECUTIVE PKG</v>
       </c>
       <c r="D11" t="str">
-        <v>#LX7639</v>
+        <v>#LX7625</v>
       </c>
       <c r="E11" t="str">
-        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="12">
@@ -947,13 +947,13 @@
         <v>2024LexusRX</v>
       </c>
       <c r="B12" t="str">
-        <v>77350</v>
+        <v>71500</v>
       </c>
       <c r="C12" t="str">
-        <v>350h EXECUTIVE PKG</v>
+        <v>350 ULTRA LUXURY</v>
       </c>
       <c r="D12" t="str">
-        <v>#LX7625</v>
+        <v>#LX7531</v>
       </c>
       <c r="E12" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -961,16 +961,16 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2024LexusRX</v>
+        <v>2024LexusIS</v>
       </c>
       <c r="B13" t="str">
-        <v>71500</v>
+        <v>56350</v>
       </c>
       <c r="C13" t="str">
-        <v>350 ULTRA LUXURY</v>
+        <v>300 ULTRA LUXURY</v>
       </c>
       <c r="D13" t="str">
-        <v>#LX7531</v>
+        <v>#LX7497</v>
       </c>
       <c r="E13" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -978,16 +978,16 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2024LexusIS</v>
+        <v>2024LexusTX</v>
       </c>
       <c r="B14" t="str">
-        <v>56350</v>
+        <v>84200</v>
       </c>
       <c r="C14" t="str">
-        <v>300 ULTRA LUXURY</v>
+        <v>500h F SPORT PERFORMANCE 2</v>
       </c>
       <c r="D14" t="str">
-        <v>#LX7497</v>
+        <v>#LX7484</v>
       </c>
       <c r="E14" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -995,16 +995,16 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2024LexusTX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B15" t="str">
-        <v>84200</v>
+        <v>62842</v>
       </c>
       <c r="C15" t="str">
-        <v>500h F SPORT PERFORMANCE 2</v>
+        <v>350 F SPORT 2</v>
       </c>
       <c r="D15" t="str">
-        <v>#LX7484</v>
+        <v>#LX7475</v>
       </c>
       <c r="E15" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1015,38 +1015,21 @@
         <v>2025LexusNX</v>
       </c>
       <c r="B16" t="str">
-        <v>62842</v>
+        <v>56715</v>
       </c>
       <c r="C16" t="str">
-        <v>350 F SPORT 2</v>
+        <v>350h PREMIUM</v>
       </c>
       <c r="D16" t="str">
-        <v>#LX7475</v>
+        <v>#LX7750</v>
       </c>
       <c r="E16" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>2025LexusNX</v>
-      </c>
-      <c r="B17" t="str">
-        <v>56715</v>
-      </c>
-      <c r="C17" t="str">
-        <v>350h PREMIUM</v>
-      </c>
-      <c r="D17" t="str">
-        <v>#LX7750</v>
-      </c>
-      <c r="E17" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E17"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E16"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Projects/scrapping_js/lexus_maritime/Lexus_Inventory.xlsx
+++ b/Projects/scrapping_js/lexus_maritime/Lexus_Inventory.xlsx
@@ -443,16 +443,16 @@
         <v>2L 4cyl.</v>
       </c>
       <c r="E2" t="str">
-        <v>$47583</v>
+        <v>$52397</v>
       </c>
       <c r="F2" t="str">
-        <v>JTHUCJDH1S2004921</v>
+        <v>JTHUCJDH6S2007944</v>
       </c>
       <c r="G2" t="str">
-        <v>25058</v>
+        <v>25122</v>
       </c>
       <c r="H2" t="str">
-        <v>Premium</v>
+        <v>Luxury</v>
       </c>
     </row>
     <row r="3">
@@ -472,10 +472,10 @@
         <v>$53047</v>
       </c>
       <c r="F3" t="str">
-        <v>JTHUCJDH6S2006339</v>
+        <v>JTHUCJDH4S2006842</v>
       </c>
       <c r="G3" t="str">
-        <v>25071</v>
+        <v>25076</v>
       </c>
       <c r="H3" t="str">
         <v>Luxury</v>
@@ -498,10 +498,10 @@
         <v>$53047</v>
       </c>
       <c r="F4" t="str">
-        <v>JTHUCJDH4S2006842</v>
+        <v>JTHUCJDH5S2007594</v>
       </c>
       <c r="G4" t="str">
-        <v>25076</v>
+        <v>25095</v>
       </c>
       <c r="H4" t="str">
         <v>Luxury</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2025 UXH NONE</v>
+        <v>2025 NX LUXURY</v>
       </c>
       <c r="B5" t="str">
         <v>All Wheel Drive</v>
@@ -518,24 +518,24 @@
         <v>Automatic</v>
       </c>
       <c r="D5" t="str">
-        <v>2L 4cyl.</v>
+        <v>2.5L 4cyl.</v>
       </c>
       <c r="E5" t="str">
-        <v>$53047</v>
+        <v>$53793</v>
       </c>
       <c r="F5" t="str">
-        <v>JTHUCJDH5S2007594</v>
+        <v>2T2ADCEZ7SC007128</v>
       </c>
       <c r="G5" t="str">
-        <v>25095</v>
+        <v>25108</v>
       </c>
       <c r="H5" t="str">
-        <v>Luxury</v>
+        <v>Signature</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>2025 NX LUXURY</v>
+        <v>2025 ES NONE</v>
       </c>
       <c r="B6" t="str">
         <v>All Wheel Drive</v>
@@ -547,16 +547,16 @@
         <v>2.5L 4cyl.</v>
       </c>
       <c r="E6" t="str">
-        <v>$53793</v>
+        <v>$56293</v>
       </c>
       <c r="F6" t="str">
-        <v>2T2ADCEZ7SC007081</v>
+        <v>58AD11D13SU013770</v>
       </c>
       <c r="G6" t="str">
-        <v>25088</v>
+        <v>25136</v>
       </c>
       <c r="H6" t="str">
-        <v>Signature</v>
+        <v>Premium</v>
       </c>
     </row>
     <row r="7">
@@ -570,24 +570,24 @@
         <v>Automatic</v>
       </c>
       <c r="D7" t="str">
-        <v>2.5L 4cyl.</v>
+        <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E7" t="str">
-        <v>$53793</v>
+        <v>$56798</v>
       </c>
       <c r="F7" t="str">
-        <v>2T2ADCEZ7SC007128</v>
+        <v>2T2GGCEZ8SC082406</v>
       </c>
       <c r="G7" t="str">
-        <v>25108</v>
+        <v>25127</v>
       </c>
       <c r="H7" t="str">
-        <v>Signature</v>
+        <v>Premium</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2025 UXH NONE</v>
+        <v>2025 NX LUXURY</v>
       </c>
       <c r="B8" t="str">
         <v>All Wheel Drive</v>
@@ -596,19 +596,19 @@
         <v>Automatic</v>
       </c>
       <c r="D8" t="str">
-        <v>2L 4cyl.</v>
+        <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E8" t="str">
-        <v>$55322</v>
+        <v>$56798</v>
       </c>
       <c r="F8" t="str">
-        <v>JTHUCJDH4S2006355</v>
+        <v>2T2GGCEZ3SC078425</v>
       </c>
       <c r="G8" t="str">
-        <v>25072</v>
+        <v>25091</v>
       </c>
       <c r="H8" t="str">
-        <v>F SPORT SÉRIE 2</v>
+        <v>Premium</v>
       </c>
     </row>
     <row r="9">
@@ -628,10 +628,10 @@
         <v>$56798</v>
       </c>
       <c r="F9" t="str">
-        <v>2T2GGCEZ3SC078425</v>
+        <v>2T2GGCEZXSC082455</v>
       </c>
       <c r="G9" t="str">
-        <v>25091</v>
+        <v>25128</v>
       </c>
       <c r="H9" t="str">
         <v>Premium</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2025 NXH LUXURY</v>
+        <v>2025 NX LUXURY</v>
       </c>
       <c r="B10" t="str">
         <v>All Wheel Drive</v>
@@ -648,16 +648,16 @@
         <v>Automatic</v>
       </c>
       <c r="D10" t="str">
-        <v>2.5L 4cyl.</v>
+        <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E10" t="str">
-        <v>$59043</v>
+        <v>$57448</v>
       </c>
       <c r="F10" t="str">
-        <v>2T2GKCEZ1SC046670</v>
+        <v>2T2GGCEZ6SC082789</v>
       </c>
       <c r="G10" t="str">
-        <v>25082</v>
+        <v>25131</v>
       </c>
       <c r="H10" t="str">
         <v>Premium</v>
@@ -691,10 +691,10 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2025 NXH LUXURY</v>
+        <v>2025 ESH NONE</v>
       </c>
       <c r="B12" t="str">
-        <v>All Wheel Drive</v>
+        <v>Front Wheel Drive</v>
       </c>
       <c r="C12" t="str">
         <v>Automatic</v>
@@ -703,21 +703,21 @@
         <v>2.5L 4cyl.</v>
       </c>
       <c r="E12" t="str">
-        <v>$59043</v>
+        <v>$64992</v>
       </c>
       <c r="F12" t="str">
-        <v>2T2GKCEZ2SC047617</v>
+        <v>58AB21B11SU015301</v>
       </c>
       <c r="G12" t="str">
-        <v>25090</v>
+        <v>25113</v>
       </c>
       <c r="H12" t="str">
-        <v>Premium</v>
+        <v>Luxury</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2025 NXH LUXURY</v>
+        <v>2025 RX STD</v>
       </c>
       <c r="B13" t="str">
         <v>All Wheel Drive</v>
@@ -726,19 +726,19 @@
         <v>Automatic</v>
       </c>
       <c r="D13" t="str">
-        <v>2.5L 4cyl.</v>
+        <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E13" t="str">
-        <v>$59043</v>
+        <v>$70702</v>
       </c>
       <c r="F13" t="str">
-        <v>2T2GKCEZ0SC047227</v>
+        <v>2T2BAMCA6SC095024</v>
       </c>
       <c r="G13" t="str">
-        <v>25079</v>
+        <v>25078</v>
       </c>
       <c r="H13" t="str">
-        <v>Premium</v>
+        <v>Luxury</v>
       </c>
     </row>
   </sheetData>
@@ -750,7 +750,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -774,16 +774,16 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2025LexusNX</v>
+        <v>2025LexusUX</v>
       </c>
       <c r="B2" t="str">
-        <v>60640</v>
+        <v>53382</v>
       </c>
       <c r="C2" t="str">
-        <v>450h+ ULTRA PREMIUM</v>
+        <v>300h F SPORT 2</v>
       </c>
       <c r="D2" t="str">
-        <v>#LX7765</v>
+        <v>#LX7755</v>
       </c>
       <c r="E2" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -791,16 +791,16 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2025LexusRX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B3" t="str">
-        <v>60880</v>
+        <v>57365</v>
       </c>
       <c r="C3" t="str">
-        <v>350 PREMIUM PACKAGE</v>
+        <v>350h PREMIUM</v>
       </c>
       <c r="D3" t="str">
-        <v>#LX7761</v>
+        <v>#LX7748</v>
       </c>
       <c r="E3" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -808,16 +808,16 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2025LexusUX</v>
+        <v>2025LexusRX</v>
       </c>
       <c r="B4" t="str">
-        <v>53382</v>
+        <v>78739</v>
       </c>
       <c r="C4" t="str">
-        <v>300h F SPORT 2</v>
+        <v>350h EXECUTIVE PKG</v>
       </c>
       <c r="D4" t="str">
-        <v>#LX7755</v>
+        <v>#LX7747</v>
       </c>
       <c r="E4" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -825,16 +825,16 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2025LexusNX</v>
+        <v>2025LexusUX</v>
       </c>
       <c r="B5" t="str">
-        <v>61395</v>
+        <v>49719</v>
       </c>
       <c r="C5" t="str">
-        <v>350h LUXURY</v>
+        <v>300h LUXURY PKG (SAMS DEMO)</v>
       </c>
       <c r="D5" t="str">
-        <v>#LX7749</v>
+        <v>#LX7696</v>
       </c>
       <c r="E5" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -842,50 +842,50 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>2025LexusNX</v>
+        <v>2025LexusRX</v>
       </c>
       <c r="B6" t="str">
-        <v>62045</v>
+        <v>87500</v>
       </c>
       <c r="C6" t="str">
-        <v>350h LUXURY</v>
+        <v>450h+ EXECUTIVE PKG</v>
       </c>
       <c r="D6" t="str">
-        <v>#LX7745</v>
+        <v>#LX7689</v>
       </c>
       <c r="E6" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>2025LexusNX</v>
+        <v>2025LexusRX</v>
       </c>
       <c r="B7" t="str">
-        <v>61395</v>
+        <v>88150</v>
       </c>
       <c r="C7" t="str">
-        <v>350h LUXURY</v>
+        <v>450h+ EXECUTIVE PKG</v>
       </c>
       <c r="D7" t="str">
-        <v>#LX7746</v>
+        <v>#LX7672</v>
       </c>
       <c r="E7" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2025LexusNX</v>
+        <v>2025LexusRX</v>
       </c>
       <c r="B8" t="str">
-        <v>57365</v>
+        <v>67624</v>
       </c>
       <c r="C8" t="str">
-        <v>350h PREMIUM</v>
+        <v>350 LUXURY PKG</v>
       </c>
       <c r="D8" t="str">
-        <v>#LX7748</v>
+        <v>#LX7660</v>
       </c>
       <c r="E8" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -893,33 +893,33 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2025LexusRX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B9" t="str">
-        <v>78739</v>
+        <v>86950</v>
       </c>
       <c r="C9" t="str">
-        <v>350h EXECUTIVE PKG</v>
+        <v>450h+</v>
       </c>
       <c r="D9" t="str">
-        <v>#LX7747</v>
+        <v>#LX7639</v>
       </c>
       <c r="E9" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2025LexusUX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B10" t="str">
-        <v>50719</v>
+        <v>71500</v>
       </c>
       <c r="C10" t="str">
-        <v>300h LUXURY PKG</v>
+        <v>350 ULTRA LUXURY</v>
       </c>
       <c r="D10" t="str">
-        <v>#LX7731</v>
+        <v>#LX7531</v>
       </c>
       <c r="E10" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -927,16 +927,16 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2025LexusUX</v>
+        <v>2024LexusIS</v>
       </c>
       <c r="B11" t="str">
-        <v>50719</v>
+        <v>56350</v>
       </c>
       <c r="C11" t="str">
-        <v>300h LUXURY PKG</v>
+        <v>300 ULTRA LUXURY</v>
       </c>
       <c r="D11" t="str">
-        <v>#LX7723</v>
+        <v>#LX7497</v>
       </c>
       <c r="E11" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -944,16 +944,16 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2025LexusNX</v>
+        <v>2024LexusTX</v>
       </c>
       <c r="B12" t="str">
-        <v>61395</v>
+        <v>84200</v>
       </c>
       <c r="C12" t="str">
-        <v>350h LUXURY PKG</v>
+        <v>500h F SPORT PERFORMANCE 2</v>
       </c>
       <c r="D12" t="str">
-        <v>#LX7718</v>
+        <v>#LX7484</v>
       </c>
       <c r="E12" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -961,16 +961,16 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2025LexusRX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B13" t="str">
-        <v>68374</v>
+        <v>62842</v>
       </c>
       <c r="C13" t="str">
-        <v>350 LUXURY PKG</v>
+        <v>350 F SPORT 2</v>
       </c>
       <c r="D13" t="str">
-        <v>#LX7719</v>
+        <v>#LX7475</v>
       </c>
       <c r="E13" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -978,16 +978,16 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2025LexusUX</v>
+        <v>2025LexusRX</v>
       </c>
       <c r="B14" t="str">
-        <v>50719</v>
+        <v>67724</v>
       </c>
       <c r="C14" t="str">
-        <v>300h LUXURY PKG</v>
+        <v>350 LUXURY PKG</v>
       </c>
       <c r="D14" t="str">
-        <v>#LX7704</v>
+        <v>#LX7818</v>
       </c>
       <c r="E14" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -995,16 +995,16 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2025LexusUX</v>
+        <v>2024LexusTX</v>
       </c>
       <c r="B15" t="str">
-        <v>45255</v>
+        <v>68750</v>
       </c>
       <c r="C15" t="str">
-        <v>300h PREMIUM</v>
+        <v>350 Luxury</v>
       </c>
       <c r="D15" t="str">
-        <v>#LX7705</v>
+        <v>#LX7795</v>
       </c>
       <c r="E15" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1012,279 +1012,24 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>2025LexusUX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B16" t="str">
-        <v>49719</v>
+        <v>56715</v>
       </c>
       <c r="C16" t="str">
-        <v>300h LUXURY PKG (SAMS DEMO)</v>
+        <v>350h PREMIUM</v>
       </c>
       <c r="D16" t="str">
-        <v>#LX7696</v>
+        <v>#LX7750</v>
       </c>
       <c r="E16" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>2025LexusRX</v>
-      </c>
-      <c r="B17" t="str">
-        <v>87500</v>
-      </c>
-      <c r="C17" t="str">
-        <v>450h+ EXECUTIVE PKG</v>
-      </c>
-      <c r="D17" t="str">
-        <v>#LX7689</v>
-      </c>
-      <c r="E17" t="str">
-        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>2025LexusRX</v>
-      </c>
-      <c r="B18" t="str">
-        <v>88150</v>
-      </c>
-      <c r="C18" t="str">
-        <v>450h+ EXECUTIVE PKG</v>
-      </c>
-      <c r="D18" t="str">
-        <v>#LX7672</v>
-      </c>
-      <c r="E18" t="str">
-        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>2025LexusRX</v>
-      </c>
-      <c r="B19" t="str">
-        <v>67624</v>
-      </c>
-      <c r="C19" t="str">
-        <v>350 LUXURY PKG</v>
-      </c>
-      <c r="D19" t="str">
-        <v>#LX7660</v>
-      </c>
-      <c r="E19" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>2024LexusRX</v>
-      </c>
-      <c r="B20" t="str">
-        <v>87450</v>
-      </c>
-      <c r="C20" t="str">
-        <v>450h+ EXECUTIVE PKG</v>
-      </c>
-      <c r="D20" t="str">
-        <v>#LX7641</v>
-      </c>
-      <c r="E20" t="str">
-        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>2024LexusRX</v>
-      </c>
-      <c r="B21" t="str">
-        <v>86950</v>
-      </c>
-      <c r="C21" t="str">
-        <v>450h+ EXECUTIVE PKG</v>
-      </c>
-      <c r="D21" t="str">
-        <v>#LX7639</v>
-      </c>
-      <c r="E21" t="str">
-        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v>2024LexusRX</v>
-      </c>
-      <c r="B22" t="str">
-        <v>77350</v>
-      </c>
-      <c r="C22" t="str">
-        <v>350h EXECUTIVE PKG</v>
-      </c>
-      <c r="D22" t="str">
-        <v>#LX7625</v>
-      </c>
-      <c r="E22" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>2025LexusES</v>
-      </c>
-      <c r="B23" t="str">
-        <v>54014</v>
-      </c>
-      <c r="C23" t="str">
-        <v>350 PREMIUM</v>
-      </c>
-      <c r="D23" t="str">
-        <v>#LX7601</v>
-      </c>
-      <c r="E23" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>2024LexusRX</v>
-      </c>
-      <c r="B24" t="str">
-        <v>71500</v>
-      </c>
-      <c r="C24" t="str">
-        <v>350 ULTRA LUXURY</v>
-      </c>
-      <c r="D24" t="str">
-        <v>#LX7531</v>
-      </c>
-      <c r="E24" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>2024LexusIS</v>
-      </c>
-      <c r="B25" t="str">
-        <v>56350</v>
-      </c>
-      <c r="C25" t="str">
-        <v>300 ULTRA LUXURY</v>
-      </c>
-      <c r="D25" t="str">
-        <v>#LX7497</v>
-      </c>
-      <c r="E25" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v>2024LexusTX</v>
-      </c>
-      <c r="B26" t="str">
-        <v>84200</v>
-      </c>
-      <c r="C26" t="str">
-        <v>500h F SPORT PERFORMANCE 2</v>
-      </c>
-      <c r="D26" t="str">
-        <v>#LX7484</v>
-      </c>
-      <c r="E26" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>2025LexusNX</v>
-      </c>
-      <c r="B27" t="str">
-        <v>62842</v>
-      </c>
-      <c r="C27" t="str">
-        <v>350 F SPORT 2</v>
-      </c>
-      <c r="D27" t="str">
-        <v>#LX7475</v>
-      </c>
-      <c r="E27" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v>2025LexusRX</v>
-      </c>
-      <c r="B28" t="str">
-        <v>63240</v>
-      </c>
-      <c r="C28" t="str">
-        <v>350h PREMIUM PKG</v>
-      </c>
-      <c r="D28" t="str">
-        <v>#LX7775</v>
-      </c>
-      <c r="E28" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="str">
-        <v>2025LexusNX</v>
-      </c>
-      <c r="B29" t="str">
-        <v>70108</v>
-      </c>
-      <c r="C29" t="str">
-        <v>350h EXECUTIVE</v>
-      </c>
-      <c r="D29" t="str">
-        <v>#LX7773</v>
-      </c>
-      <c r="E29" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="str">
-        <v>2025LexusRX</v>
-      </c>
-      <c r="B30" t="str">
-        <v>60880</v>
-      </c>
-      <c r="C30" t="str">
-        <v>350</v>
-      </c>
-      <c r="D30" t="str">
-        <v>#LX7770</v>
-      </c>
-      <c r="E30" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="str">
-        <v>2025LexusNX</v>
-      </c>
-      <c r="B31" t="str">
-        <v>56715</v>
-      </c>
-      <c r="C31" t="str">
-        <v>350h PREMIUM</v>
-      </c>
-      <c r="D31" t="str">
-        <v>#LX7750</v>
-      </c>
-      <c r="E31" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E16"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Projects/scrapping_js/lexus_maritime/Lexus_Inventory.xlsx
+++ b/Projects/scrapping_js/lexus_maritime/Lexus_Inventory.xlsx
@@ -431,7 +431,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2025 UXH NONE</v>
+        <v>2025 IS LUXURY</v>
       </c>
       <c r="B2" t="str">
         <v>All Wheel Drive</v>
@@ -440,24 +440,24 @@
         <v>Automatic</v>
       </c>
       <c r="D2" t="str">
-        <v>2L 4cyl.</v>
+        <v>3.5L 6cyl.</v>
       </c>
       <c r="E2" t="str">
-        <v>$52397</v>
+        <v>$51786</v>
       </c>
       <c r="F2" t="str">
-        <v>JTHUCJDH6S2007944</v>
+        <v>JTHC81F26S5055061</v>
       </c>
       <c r="G2" t="str">
-        <v>25122</v>
+        <v>25149</v>
       </c>
       <c r="H2" t="str">
-        <v>Luxury</v>
+        <v>Premium</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2025 UXH NONE</v>
+        <v>2025 NX LUXURY</v>
       </c>
       <c r="B3" t="str">
         <v>All Wheel Drive</v>
@@ -466,24 +466,24 @@
         <v>Automatic</v>
       </c>
       <c r="D3" t="str">
-        <v>2L 4cyl.</v>
+        <v>2.5L 4cyl.</v>
       </c>
       <c r="E3" t="str">
-        <v>$53047</v>
+        <v>$53793</v>
       </c>
       <c r="F3" t="str">
-        <v>JTHUCJDH4S2006842</v>
+        <v>2T2ADCEZ7SC007128</v>
       </c>
       <c r="G3" t="str">
-        <v>25076</v>
+        <v>25108</v>
       </c>
       <c r="H3" t="str">
-        <v>Luxury</v>
+        <v>Signature</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2025 UXH NONE</v>
+        <v>2025 NX LUXURY</v>
       </c>
       <c r="B4" t="str">
         <v>All Wheel Drive</v>
@@ -492,19 +492,19 @@
         <v>Automatic</v>
       </c>
       <c r="D4" t="str">
-        <v>2L 4cyl.</v>
+        <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E4" t="str">
-        <v>$53047</v>
+        <v>$57448</v>
       </c>
       <c r="F4" t="str">
-        <v>JTHUCJDH5S2007594</v>
+        <v>2T2GGCEZ6SC082789</v>
       </c>
       <c r="G4" t="str">
-        <v>25095</v>
+        <v>25131</v>
       </c>
       <c r="H4" t="str">
-        <v>Luxury</v>
+        <v>Premium</v>
       </c>
     </row>
     <row r="5">
@@ -518,24 +518,24 @@
         <v>Automatic</v>
       </c>
       <c r="D5" t="str">
-        <v>2.5L 4cyl.</v>
+        <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E5" t="str">
-        <v>$53793</v>
+        <v>$57448</v>
       </c>
       <c r="F5" t="str">
-        <v>2T2ADCEZ7SC007128</v>
+        <v>2T2GGCEZ7SC085054</v>
       </c>
       <c r="G5" t="str">
-        <v>25108</v>
+        <v>25148</v>
       </c>
       <c r="H5" t="str">
-        <v>Signature</v>
+        <v>Premium</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>2025 ES NONE</v>
+        <v>2025 RX STD</v>
       </c>
       <c r="B6" t="str">
         <v>All Wheel Drive</v>
@@ -544,16 +544,16 @@
         <v>Automatic</v>
       </c>
       <c r="D6" t="str">
-        <v>2.5L 4cyl.</v>
+        <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E6" t="str">
-        <v>$56293</v>
+        <v>$63208</v>
       </c>
       <c r="F6" t="str">
-        <v>58AD11D13SU013770</v>
+        <v>2T2BAMCA8SC104421</v>
       </c>
       <c r="G6" t="str">
-        <v>25136</v>
+        <v>25150</v>
       </c>
       <c r="H6" t="str">
         <v>Premium</v>
@@ -561,7 +561,7 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>2025 NX LUXURY</v>
+        <v>2025 RXH STD</v>
       </c>
       <c r="B7" t="str">
         <v>All Wheel Drive</v>
@@ -570,16 +570,16 @@
         <v>Automatic</v>
       </c>
       <c r="D7" t="str">
-        <v>2.4L TURBO 4cyl.</v>
+        <v>2.5L 4cyl.</v>
       </c>
       <c r="E7" t="str">
-        <v>$56798</v>
+        <v>$65568</v>
       </c>
       <c r="F7" t="str">
-        <v>2T2GGCEZ8SC082406</v>
+        <v>2T2BBMCA7SC086846</v>
       </c>
       <c r="G7" t="str">
-        <v>25127</v>
+        <v>25147</v>
       </c>
       <c r="H7" t="str">
         <v>Premium</v>
@@ -587,7 +587,7 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2025 NX LUXURY</v>
+        <v>2025 RXH STD</v>
       </c>
       <c r="B8" t="str">
         <v>All Wheel Drive</v>
@@ -596,16 +596,16 @@
         <v>Automatic</v>
       </c>
       <c r="D8" t="str">
-        <v>2.4L TURBO 4cyl.</v>
+        <v>2.5L 4cyl.</v>
       </c>
       <c r="E8" t="str">
-        <v>$56798</v>
+        <v>$65568</v>
       </c>
       <c r="F8" t="str">
-        <v>2T2GGCEZ3SC078425</v>
+        <v>2T2BBMCA5SC084285</v>
       </c>
       <c r="G8" t="str">
-        <v>25091</v>
+        <v>25138</v>
       </c>
       <c r="H8" t="str">
         <v>Premium</v>
@@ -613,59 +613,59 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2025 NX LUXURY</v>
+        <v>2025 ES NONE</v>
       </c>
       <c r="B9" t="str">
-        <v>All Wheel Drive</v>
+        <v>Front Wheel Drive</v>
       </c>
       <c r="C9" t="str">
         <v>Automatic</v>
       </c>
       <c r="D9" t="str">
-        <v>2.4L TURBO 4cyl.</v>
+        <v>3.5L 6cyl.</v>
       </c>
       <c r="E9" t="str">
-        <v>$56798</v>
+        <v>$67469</v>
       </c>
       <c r="F9" t="str">
-        <v>2T2GGCEZXSC082455</v>
+        <v>58AJZ1B14SU201714</v>
       </c>
       <c r="G9" t="str">
-        <v>25128</v>
+        <v>25154</v>
       </c>
       <c r="H9" t="str">
-        <v>Premium</v>
+        <v>Black Line Special Edition</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2025 NX LUXURY</v>
+        <v>2025 ESH NONE</v>
       </c>
       <c r="B10" t="str">
-        <v>All Wheel Drive</v>
+        <v>Front Wheel Drive</v>
       </c>
       <c r="C10" t="str">
         <v>Automatic</v>
       </c>
       <c r="D10" t="str">
-        <v>2.4L TURBO 4cyl.</v>
+        <v>2.5L 4cyl.</v>
       </c>
       <c r="E10" t="str">
-        <v>$57448</v>
+        <v>$69147</v>
       </c>
       <c r="F10" t="str">
-        <v>2T2GGCEZ6SC082789</v>
+        <v>58AB21B1XSU015426</v>
       </c>
       <c r="G10" t="str">
-        <v>25131</v>
+        <v>25153</v>
       </c>
       <c r="H10" t="str">
-        <v>Premium</v>
+        <v>Ultra Luxury</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2025 NXH LUXURY</v>
+        <v>2025 RX STD</v>
       </c>
       <c r="B11" t="str">
         <v>All Wheel Drive</v>
@@ -674,42 +674,42 @@
         <v>Automatic</v>
       </c>
       <c r="D11" t="str">
-        <v>2.5L 4cyl.</v>
+        <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E11" t="str">
-        <v>$59043</v>
+        <v>$70052</v>
       </c>
       <c r="F11" t="str">
-        <v>2T2GKCEZ0SC049124</v>
+        <v>2T2BAMCA3SC102737</v>
       </c>
       <c r="G11" t="str">
-        <v>25107</v>
+        <v>25144</v>
       </c>
       <c r="H11" t="str">
-        <v>Premium</v>
+        <v>Luxury</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2025 ESH NONE</v>
+        <v>2025 RX STD</v>
       </c>
       <c r="B12" t="str">
-        <v>Front Wheel Drive</v>
+        <v>All Wheel Drive</v>
       </c>
       <c r="C12" t="str">
         <v>Automatic</v>
       </c>
       <c r="D12" t="str">
-        <v>2.5L 4cyl.</v>
+        <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E12" t="str">
-        <v>$64992</v>
+        <v>$70702</v>
       </c>
       <c r="F12" t="str">
-        <v>58AB21B11SU015301</v>
+        <v>2T2BAMCA6SC095024</v>
       </c>
       <c r="G12" t="str">
-        <v>25113</v>
+        <v>25078</v>
       </c>
       <c r="H12" t="str">
         <v>Luxury</v>
@@ -717,7 +717,7 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2025 RX STD</v>
+        <v>2025 RXH STD</v>
       </c>
       <c r="B13" t="str">
         <v>All Wheel Drive</v>
@@ -726,16 +726,16 @@
         <v>Automatic</v>
       </c>
       <c r="D13" t="str">
-        <v>2.4L TURBO 4cyl.</v>
+        <v>2.5L 4cyl.</v>
       </c>
       <c r="E13" t="str">
-        <v>$70702</v>
+        <v>$73062</v>
       </c>
       <c r="F13" t="str">
-        <v>2T2BAMCA6SC095024</v>
+        <v>2T2BBMCA6SC075403</v>
       </c>
       <c r="G13" t="str">
-        <v>25078</v>
+        <v>25098</v>
       </c>
       <c r="H13" t="str">
         <v>Luxury</v>
@@ -750,7 +750,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -774,16 +774,16 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2025LexusUX</v>
+        <v>2025LexusRX</v>
       </c>
       <c r="B2" t="str">
-        <v>53382</v>
+        <v>60230</v>
       </c>
       <c r="C2" t="str">
-        <v>300h F SPORT 2</v>
+        <v>350 PREMIUM PKG</v>
       </c>
       <c r="D2" t="str">
-        <v>#LX7755</v>
+        <v>#LX7840</v>
       </c>
       <c r="E2" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -794,13 +794,13 @@
         <v>2025LexusNX</v>
       </c>
       <c r="B3" t="str">
-        <v>57365</v>
+        <v>63117</v>
       </c>
       <c r="C3" t="str">
-        <v>350h PREMIUM</v>
+        <v>350</v>
       </c>
       <c r="D3" t="str">
-        <v>#LX7748</v>
+        <v>#LX7835</v>
       </c>
       <c r="E3" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -808,16 +808,16 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2025LexusRX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B4" t="str">
-        <v>78739</v>
+        <v>54470</v>
       </c>
       <c r="C4" t="str">
-        <v>350h EXECUTIVE PKG</v>
+        <v>350</v>
       </c>
       <c r="D4" t="str">
-        <v>#LX7747</v>
+        <v>#LX7832</v>
       </c>
       <c r="E4" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -825,16 +825,16 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2025LexusUX</v>
+        <v>2025LexusRX</v>
       </c>
       <c r="B5" t="str">
-        <v>49719</v>
+        <v>67724</v>
       </c>
       <c r="C5" t="str">
-        <v>300h LUXURY PKG (SAMS DEMO)</v>
+        <v>350 LUXURY PKG</v>
       </c>
       <c r="D5" t="str">
-        <v>#LX7696</v>
+        <v>#LX7818</v>
       </c>
       <c r="E5" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -842,36 +842,36 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>2025LexusRX</v>
+        <v>2025LexusUX</v>
       </c>
       <c r="B6" t="str">
-        <v>87500</v>
+        <v>53382</v>
       </c>
       <c r="C6" t="str">
-        <v>450h+ EXECUTIVE PKG</v>
+        <v>300h F SPORT 2</v>
       </c>
       <c r="D6" t="str">
-        <v>#LX7689</v>
+        <v>#LX7755</v>
       </c>
       <c r="E6" t="str">
-        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>2025LexusRX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B7" t="str">
-        <v>88150</v>
+        <v>57365</v>
       </c>
       <c r="C7" t="str">
-        <v>450h+ EXECUTIVE PKG</v>
+        <v>350h PREMIUM</v>
       </c>
       <c r="D7" t="str">
-        <v>#LX7672</v>
+        <v>#LX7748</v>
       </c>
       <c r="E7" t="str">
-        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="8">
@@ -879,13 +879,13 @@
         <v>2025LexusRX</v>
       </c>
       <c r="B8" t="str">
-        <v>67624</v>
+        <v>78739</v>
       </c>
       <c r="C8" t="str">
-        <v>350 LUXURY PKG</v>
+        <v>350h EXECUTIVE PKG</v>
       </c>
       <c r="D8" t="str">
-        <v>#LX7660</v>
+        <v>#LX7747</v>
       </c>
       <c r="E8" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -893,67 +893,67 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2024LexusRX</v>
+        <v>2025LexusUX</v>
       </c>
       <c r="B9" t="str">
-        <v>86950</v>
+        <v>49719</v>
       </c>
       <c r="C9" t="str">
-        <v>450h+</v>
+        <v>300h</v>
       </c>
       <c r="D9" t="str">
-        <v>#LX7639</v>
+        <v>#LX7696</v>
       </c>
       <c r="E9" t="str">
-        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2024LexusRX</v>
+        <v>2025LexusRX</v>
       </c>
       <c r="B10" t="str">
-        <v>71500</v>
+        <v>87500</v>
       </c>
       <c r="C10" t="str">
-        <v>350 ULTRA LUXURY</v>
+        <v>450h+ EXECUTIVE PKG</v>
       </c>
       <c r="D10" t="str">
-        <v>#LX7531</v>
+        <v>#LX7689</v>
       </c>
       <c r="E10" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2024LexusIS</v>
+        <v>2025LexusRX</v>
       </c>
       <c r="B11" t="str">
-        <v>56350</v>
+        <v>88150</v>
       </c>
       <c r="C11" t="str">
-        <v>300 ULTRA LUXURY</v>
+        <v>450h+ EXECUTIVE PKG</v>
       </c>
       <c r="D11" t="str">
-        <v>#LX7497</v>
+        <v>#LX7672</v>
       </c>
       <c r="E11" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2024LexusTX</v>
+        <v>2025LexusRX</v>
       </c>
       <c r="B12" t="str">
-        <v>84200</v>
+        <v>67624</v>
       </c>
       <c r="C12" t="str">
-        <v>500h F SPORT PERFORMANCE 2</v>
+        <v>350 LUXURY PKG</v>
       </c>
       <c r="D12" t="str">
-        <v>#LX7484</v>
+        <v>#LX7660</v>
       </c>
       <c r="E12" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -961,33 +961,33 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2025LexusNX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B13" t="str">
-        <v>62842</v>
+        <v>86950</v>
       </c>
       <c r="C13" t="str">
-        <v>350 F SPORT 2</v>
+        <v>450h+</v>
       </c>
       <c r="D13" t="str">
-        <v>#LX7475</v>
+        <v>#LX7639</v>
       </c>
       <c r="E13" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2025LexusRX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B14" t="str">
-        <v>67724</v>
+        <v>71500</v>
       </c>
       <c r="C14" t="str">
-        <v>350 LUXURY PKG</v>
+        <v>350 ULTRA LUXURY</v>
       </c>
       <c r="D14" t="str">
-        <v>#LX7818</v>
+        <v>#LX7531</v>
       </c>
       <c r="E14" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -995,16 +995,16 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2024LexusTX</v>
+        <v>2024LexusIS</v>
       </c>
       <c r="B15" t="str">
-        <v>68750</v>
+        <v>56350</v>
       </c>
       <c r="C15" t="str">
-        <v>350 Luxury</v>
+        <v>300 ULTRA LUXURY</v>
       </c>
       <c r="D15" t="str">
-        <v>#LX7795</v>
+        <v>#LX7497</v>
       </c>
       <c r="E15" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1015,21 +1015,89 @@
         <v>2025LexusNX</v>
       </c>
       <c r="B16" t="str">
-        <v>56715</v>
+        <v>62842</v>
       </c>
       <c r="C16" t="str">
-        <v>350h PREMIUM</v>
+        <v>350 F SPORT 2</v>
       </c>
       <c r="D16" t="str">
-        <v>#LX7750</v>
+        <v>#LX7475</v>
       </c>
       <c r="E16" t="str">
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>2025LexusRX</v>
+      </c>
+      <c r="B17" t="str">
+        <v>87800</v>
+      </c>
+      <c r="C17" t="str">
+        <v>450h+ EXECUTIVE PKG</v>
+      </c>
+      <c r="D17" t="str">
+        <v>#LX7843</v>
+      </c>
+      <c r="E17" t="str">
+        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>2025LexusES</v>
+      </c>
+      <c r="B18" t="str">
+        <v>56014</v>
+      </c>
+      <c r="C18" t="str">
+        <v>300h PREMIUM</v>
+      </c>
+      <c r="D18" t="str">
+        <v>#LX7841</v>
+      </c>
+      <c r="E18" t="str">
+        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>2025LexusES</v>
+      </c>
+      <c r="B19" t="str">
+        <v>65141</v>
+      </c>
+      <c r="C19" t="str">
+        <v>350 F SPORT</v>
+      </c>
+      <c r="D19" t="str">
+        <v>#LX7842</v>
+      </c>
+      <c r="E19" t="str">
+        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>2025LexusRX</v>
+      </c>
+      <c r="B20" t="str">
+        <v>74240</v>
+      </c>
+      <c r="C20" t="str">
+        <v>350h</v>
+      </c>
+      <c r="D20" t="str">
+        <v>#LX7831</v>
+      </c>
+      <c r="E20" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E16"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E20"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Projects/scrapping_js/lexus_maritime/Lexus_Inventory.xlsx
+++ b/Projects/scrapping_js/lexus_maritime/Lexus_Inventory.xlsx
@@ -431,7 +431,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2025 IS LUXURY</v>
+        <v>2025 IS  - LUXURY</v>
       </c>
       <c r="B2" t="str">
         <v>All Wheel Drive</v>
@@ -457,7 +457,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2025 NX LUXURY</v>
+        <v>2025 NX  - LUXURY</v>
       </c>
       <c r="B3" t="str">
         <v>All Wheel Drive</v>
@@ -483,7 +483,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2025 NX LUXURY</v>
+        <v>2025 UXH  - NONE</v>
       </c>
       <c r="B4" t="str">
         <v>All Wheel Drive</v>
@@ -492,24 +492,24 @@
         <v>Automatic</v>
       </c>
       <c r="D4" t="str">
-        <v>2.4L TURBO 4cyl.</v>
+        <v>2L 4cyl.</v>
       </c>
       <c r="E4" t="str">
-        <v>$57448</v>
+        <v>$55322</v>
       </c>
       <c r="F4" t="str">
-        <v>2T2GGCEZ6SC082789</v>
+        <v>JTHUCJDH5S2010057</v>
       </c>
       <c r="G4" t="str">
-        <v>25131</v>
+        <v>25162</v>
       </c>
       <c r="H4" t="str">
-        <v>Premium</v>
+        <v>F SPORT SÉRIE 2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2025 NX LUXURY</v>
+        <v>2025 NX  - LUXURY</v>
       </c>
       <c r="B5" t="str">
         <v>All Wheel Drive</v>
@@ -535,7 +535,7 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>2025 RX STD</v>
+        <v>2025 NX  - LUXURY</v>
       </c>
       <c r="B6" t="str">
         <v>All Wheel Drive</v>
@@ -547,13 +547,13 @@
         <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E6" t="str">
-        <v>$63208</v>
+        <v>$57448</v>
       </c>
       <c r="F6" t="str">
-        <v>2T2BAMCA8SC104421</v>
+        <v>2T2GGCEZ6SC082789</v>
       </c>
       <c r="G6" t="str">
-        <v>25150</v>
+        <v>25131</v>
       </c>
       <c r="H6" t="str">
         <v>Premium</v>
@@ -561,7 +561,7 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>2025 RXH STD</v>
+        <v>2025 NX 450h  - LUXURY</v>
       </c>
       <c r="B7" t="str">
         <v>All Wheel Drive</v>
@@ -573,21 +573,21 @@
         <v>2.5L 4cyl.</v>
       </c>
       <c r="E7" t="str">
-        <v>$65568</v>
+        <v>$62318</v>
       </c>
       <c r="F7" t="str">
-        <v>2T2BBMCA7SC086846</v>
+        <v>JTJHKCFZ4S2065457</v>
       </c>
       <c r="G7" t="str">
-        <v>25147</v>
+        <v>25164</v>
       </c>
       <c r="H7" t="str">
-        <v>Premium</v>
+        <v>Ultra Premium</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2025 RXH STD</v>
+        <v>2025 RX  - STD</v>
       </c>
       <c r="B8" t="str">
         <v>All Wheel Drive</v>
@@ -596,16 +596,16 @@
         <v>Automatic</v>
       </c>
       <c r="D8" t="str">
-        <v>2.5L 4cyl.</v>
+        <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E8" t="str">
-        <v>$65568</v>
+        <v>$63208</v>
       </c>
       <c r="F8" t="str">
-        <v>2T2BBMCA5SC084285</v>
+        <v>2T2BAMCA8SC104421</v>
       </c>
       <c r="G8" t="str">
-        <v>25138</v>
+        <v>25150</v>
       </c>
       <c r="H8" t="str">
         <v>Premium</v>
@@ -613,36 +613,36 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2025 ES NONE</v>
+        <v>2025 RX  - STD</v>
       </c>
       <c r="B9" t="str">
-        <v>Front Wheel Drive</v>
+        <v>All Wheel Drive</v>
       </c>
       <c r="C9" t="str">
         <v>Automatic</v>
       </c>
       <c r="D9" t="str">
-        <v>3.5L 6cyl.</v>
+        <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E9" t="str">
-        <v>$67469</v>
+        <v>$63208</v>
       </c>
       <c r="F9" t="str">
-        <v>58AJZ1B14SU201714</v>
+        <v>2T2BAMCA3SC105461</v>
       </c>
       <c r="G9" t="str">
-        <v>25154</v>
+        <v>25161</v>
       </c>
       <c r="H9" t="str">
-        <v>Black Line Special Edition</v>
+        <v>Premium</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2025 ESH NONE</v>
+        <v>2025 RXH  - STD</v>
       </c>
       <c r="B10" t="str">
-        <v>Front Wheel Drive</v>
+        <v>All Wheel Drive</v>
       </c>
       <c r="C10" t="str">
         <v>Automatic</v>
@@ -651,21 +651,21 @@
         <v>2.5L 4cyl.</v>
       </c>
       <c r="E10" t="str">
-        <v>$69147</v>
+        <v>$65568</v>
       </c>
       <c r="F10" t="str">
-        <v>58AB21B1XSU015426</v>
+        <v>2T2BBMCA5SC088613</v>
       </c>
       <c r="G10" t="str">
-        <v>25153</v>
+        <v>25158</v>
       </c>
       <c r="H10" t="str">
-        <v>Ultra Luxury</v>
+        <v>Premium</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2025 RX STD</v>
+        <v>2025 RXH  - STD</v>
       </c>
       <c r="B11" t="str">
         <v>All Wheel Drive</v>
@@ -674,24 +674,24 @@
         <v>Automatic</v>
       </c>
       <c r="D11" t="str">
-        <v>2.4L TURBO 4cyl.</v>
+        <v>2.5L 4cyl.</v>
       </c>
       <c r="E11" t="str">
-        <v>$70052</v>
+        <v>$65568</v>
       </c>
       <c r="F11" t="str">
-        <v>2T2BAMCA3SC102737</v>
+        <v>2T2BBMCA1SC088723</v>
       </c>
       <c r="G11" t="str">
-        <v>25144</v>
+        <v>25159</v>
       </c>
       <c r="H11" t="str">
-        <v>Luxury</v>
+        <v>Premium</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2025 RX STD</v>
+        <v>2025 RXH  - STD</v>
       </c>
       <c r="B12" t="str">
         <v>All Wheel Drive</v>
@@ -700,45 +700,45 @@
         <v>Automatic</v>
       </c>
       <c r="D12" t="str">
-        <v>2.4L TURBO 4cyl.</v>
+        <v>2.5L 4cyl.</v>
       </c>
       <c r="E12" t="str">
-        <v>$70702</v>
+        <v>$65568</v>
       </c>
       <c r="F12" t="str">
-        <v>2T2BAMCA6SC095024</v>
+        <v>2T2BBMCA7SC086846</v>
       </c>
       <c r="G12" t="str">
-        <v>25078</v>
+        <v>25147</v>
       </c>
       <c r="H12" t="str">
-        <v>Luxury</v>
+        <v>Premium</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2025 RXH STD</v>
+        <v>2025 ES  - NONE</v>
       </c>
       <c r="B13" t="str">
-        <v>All Wheel Drive</v>
+        <v>Front Wheel Drive</v>
       </c>
       <c r="C13" t="str">
         <v>Automatic</v>
       </c>
       <c r="D13" t="str">
-        <v>2.5L 4cyl.</v>
+        <v>3.5L 6cyl.</v>
       </c>
       <c r="E13" t="str">
-        <v>$73062</v>
+        <v>$67469</v>
       </c>
       <c r="F13" t="str">
-        <v>2T2BBMCA6SC075403</v>
+        <v>58AJZ1B14SU201714</v>
       </c>
       <c r="G13" t="str">
-        <v>25098</v>
+        <v>25154</v>
       </c>
       <c r="H13" t="str">
-        <v>Luxury</v>
+        <v>Black Line Special Edition</v>
       </c>
     </row>
   </sheetData>
@@ -750,7 +750,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -777,33 +777,33 @@
         <v>2025LexusRX</v>
       </c>
       <c r="B2" t="str">
-        <v>60230</v>
+        <v>87800</v>
       </c>
       <c r="C2" t="str">
-        <v>350 PREMIUM PKG</v>
+        <v>450h+</v>
       </c>
       <c r="D2" t="str">
-        <v>#LX7840</v>
+        <v>#LX7843</v>
       </c>
       <c r="E2" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2025LexusNX</v>
+        <v>2025LexusES</v>
       </c>
       <c r="B3" t="str">
-        <v>63117</v>
+        <v>65141</v>
       </c>
       <c r="C3" t="str">
-        <v>350</v>
+        <v>350 F SPORT</v>
       </c>
       <c r="D3" t="str">
-        <v>#LX7835</v>
+        <v>#LX7842</v>
       </c>
       <c r="E3" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
       </c>
     </row>
     <row r="4">
@@ -814,7 +814,7 @@
         <v>54470</v>
       </c>
       <c r="C4" t="str">
-        <v>350</v>
+        <v>350 350- TEST DRIVE UNIT</v>
       </c>
       <c r="D4" t="str">
         <v>#LX7832</v>
@@ -825,16 +825,16 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2025LexusRX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B5" t="str">
-        <v>67724</v>
+        <v>57365</v>
       </c>
       <c r="C5" t="str">
-        <v>350 LUXURY PKG</v>
+        <v>350h PREMIUM</v>
       </c>
       <c r="D5" t="str">
-        <v>#LX7818</v>
+        <v>#LX7748</v>
       </c>
       <c r="E5" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -842,16 +842,16 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>2025LexusUX</v>
+        <v>2025LexusRX</v>
       </c>
       <c r="B6" t="str">
-        <v>53382</v>
+        <v>78739</v>
       </c>
       <c r="C6" t="str">
-        <v>300h F SPORT 2</v>
+        <v>350h EXECUTIVE PKG</v>
       </c>
       <c r="D6" t="str">
-        <v>#LX7755</v>
+        <v>#LX7747</v>
       </c>
       <c r="E6" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -859,16 +859,16 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>2025LexusNX</v>
+        <v>2025LexusUX</v>
       </c>
       <c r="B7" t="str">
-        <v>57365</v>
+        <v>49719</v>
       </c>
       <c r="C7" t="str">
-        <v>350h PREMIUM</v>
+        <v>300h</v>
       </c>
       <c r="D7" t="str">
-        <v>#LX7748</v>
+        <v>#LX7696</v>
       </c>
       <c r="E7" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -879,33 +879,33 @@
         <v>2025LexusRX</v>
       </c>
       <c r="B8" t="str">
-        <v>78739</v>
+        <v>87500</v>
       </c>
       <c r="C8" t="str">
-        <v>350h EXECUTIVE PKG</v>
+        <v>450h+ EXECUTIVE PKG</v>
       </c>
       <c r="D8" t="str">
-        <v>#LX7747</v>
+        <v>#LX7689</v>
       </c>
       <c r="E8" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2025LexusUX</v>
+        <v>2025LexusRX</v>
       </c>
       <c r="B9" t="str">
-        <v>49719</v>
+        <v>88150</v>
       </c>
       <c r="C9" t="str">
-        <v>300h</v>
+        <v>450h+</v>
       </c>
       <c r="D9" t="str">
-        <v>#LX7696</v>
+        <v>#LX7672</v>
       </c>
       <c r="E9" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
       </c>
     </row>
     <row r="10">
@@ -913,47 +913,47 @@
         <v>2025LexusRX</v>
       </c>
       <c r="B10" t="str">
-        <v>87500</v>
+        <v>67624</v>
       </c>
       <c r="C10" t="str">
-        <v>450h+ EXECUTIVE PKG</v>
+        <v>350 LUXURY PKG</v>
       </c>
       <c r="D10" t="str">
-        <v>#LX7689</v>
+        <v>#LX7660</v>
       </c>
       <c r="E10" t="str">
-        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2025LexusRX</v>
+        <v>2024LexusRX</v>
       </c>
       <c r="B11" t="str">
-        <v>88150</v>
+        <v>71500</v>
       </c>
       <c r="C11" t="str">
-        <v>450h+ EXECUTIVE PKG</v>
+        <v>350 ULTRA LUXURY</v>
       </c>
       <c r="D11" t="str">
-        <v>#LX7672</v>
+        <v>#LX7531</v>
       </c>
       <c r="E11" t="str">
-        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2025LexusRX</v>
+        <v>2024LexusIS</v>
       </c>
       <c r="B12" t="str">
-        <v>67624</v>
+        <v>56350</v>
       </c>
       <c r="C12" t="str">
-        <v>350 LUXURY PKG</v>
+        <v>300 ULTRA LUXURY</v>
       </c>
       <c r="D12" t="str">
-        <v>#LX7660</v>
+        <v>#LX7497</v>
       </c>
       <c r="E12" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -961,33 +961,33 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2024LexusRX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B13" t="str">
-        <v>86950</v>
+        <v>62842</v>
       </c>
       <c r="C13" t="str">
-        <v>450h+</v>
+        <v>350</v>
       </c>
       <c r="D13" t="str">
-        <v>#LX7639</v>
+        <v>#LX7475</v>
       </c>
       <c r="E13" t="str">
-        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2024LexusRX</v>
+        <v>2025LexusUX</v>
       </c>
       <c r="B14" t="str">
-        <v>71500</v>
+        <v>44605</v>
       </c>
       <c r="C14" t="str">
-        <v>350 ULTRA LUXURY</v>
+        <v>300h PREMIUM PKG</v>
       </c>
       <c r="D14" t="str">
-        <v>#LX7531</v>
+        <v>#LX7865</v>
       </c>
       <c r="E14" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -995,33 +995,33 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2024LexusIS</v>
+        <v>2025LexusRX</v>
       </c>
       <c r="B15" t="str">
-        <v>56350</v>
+        <v>88450</v>
       </c>
       <c r="C15" t="str">
-        <v>300 ULTRA LUXURY</v>
+        <v>450h+ EXECUTIVE PKG</v>
       </c>
       <c r="D15" t="str">
-        <v>#LX7497</v>
+        <v>#LX7864</v>
       </c>
       <c r="E15" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>2025LexusNX</v>
+        <v>2025LexusUX</v>
       </c>
       <c r="B16" t="str">
-        <v>62842</v>
+        <v>44605</v>
       </c>
       <c r="C16" t="str">
-        <v>350 F SPORT 2</v>
+        <v>300h PREMIUM PKG</v>
       </c>
       <c r="D16" t="str">
-        <v>#LX7475</v>
+        <v>#LX7959</v>
       </c>
       <c r="E16" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1032,13 +1032,13 @@
         <v>2025LexusRX</v>
       </c>
       <c r="B17" t="str">
-        <v>87800</v>
+        <v>88450</v>
       </c>
       <c r="C17" t="str">
         <v>450h+ EXECUTIVE PKG</v>
       </c>
       <c r="D17" t="str">
-        <v>#LX7843</v>
+        <v>#LX7852</v>
       </c>
       <c r="E17" t="str">
         <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
@@ -1046,58 +1046,92 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>2025LexusES</v>
+        <v>2025LexusRX</v>
       </c>
       <c r="B18" t="str">
-        <v>56014</v>
+        <v>87800</v>
       </c>
       <c r="C18" t="str">
-        <v>300h PREMIUM</v>
+        <v>450h+ EXECUTIVE PKG</v>
       </c>
       <c r="D18" t="str">
-        <v>#LX7841</v>
+        <v>#LX7854</v>
       </c>
       <c r="E18" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
+        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>2025LexusES</v>
+        <v>2025LexusUX</v>
       </c>
       <c r="B19" t="str">
-        <v>65141</v>
+        <v>45255</v>
       </c>
       <c r="C19" t="str">
-        <v>350 F SPORT</v>
+        <v>300h PREMIUM</v>
       </c>
       <c r="D19" t="str">
-        <v>#LX7842</v>
+        <v>#LX7853</v>
       </c>
       <c r="E19" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>2025LexusRX</v>
+        <v>2025LexusUX</v>
       </c>
       <c r="B20" t="str">
-        <v>74240</v>
+        <v>50719</v>
       </c>
       <c r="C20" t="str">
-        <v>350h</v>
+        <v>300h LUXURY PKG</v>
       </c>
       <c r="D20" t="str">
-        <v>#LX7831</v>
+        <v>#LX7851</v>
       </c>
       <c r="E20" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>2025LexusNX</v>
+      </c>
+      <c r="B21" t="str">
+        <v>51465</v>
+      </c>
+      <c r="C21" t="str">
+        <v>250 SIGNATURE</v>
+      </c>
+      <c r="D21" t="str">
+        <v>#LX7850</v>
+      </c>
+      <c r="E21" t="str">
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>2025LexusES</v>
+      </c>
+      <c r="B22" t="str">
+        <v>56014</v>
+      </c>
+      <c r="C22" t="str">
+        <v>300h PREMIUM</v>
+      </c>
+      <c r="D22" t="str">
+        <v>#LX7841</v>
+      </c>
+      <c r="E22" t="str">
+        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E20"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E22"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Projects/scrapping_js/lexus_maritime/Lexus_Inventory.xlsx
+++ b/Projects/scrapping_js/lexus_maritime/Lexus_Inventory.xlsx
@@ -431,7 +431,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2025 IS  - LUXURY</v>
+        <v>2025 IS  - 300 AWD</v>
       </c>
       <c r="B2" t="str">
         <v>All Wheel Drive</v>
@@ -457,7 +457,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2025 NX  - LUXURY</v>
+        <v>2025 NX  - 250 SIGNATURE</v>
       </c>
       <c r="B3" t="str">
         <v>All Wheel Drive</v>
@@ -483,7 +483,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2025 UXH  - NONE</v>
+        <v>2025 UX HYBRID  - F SPORT</v>
       </c>
       <c r="B4" t="str">
         <v>All Wheel Drive</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2025 NX  - LUXURY</v>
+        <v>2025 RX  - 350</v>
       </c>
       <c r="B5" t="str">
         <v>All Wheel Drive</v>
@@ -521,13 +521,13 @@
         <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E5" t="str">
-        <v>$57448</v>
+        <v>$63208</v>
       </c>
       <c r="F5" t="str">
-        <v>2T2GGCEZ7SC085054</v>
+        <v>2T2BAMCA3SC105461</v>
       </c>
       <c r="G5" t="str">
-        <v>25148</v>
+        <v>25161</v>
       </c>
       <c r="H5" t="str">
         <v>Premium</v>
@@ -535,7 +535,7 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>2025 NX  - LUXURY</v>
+        <v>2025 RX HYBRID  - 350h</v>
       </c>
       <c r="B6" t="str">
         <v>All Wheel Drive</v>
@@ -544,16 +544,16 @@
         <v>Automatic</v>
       </c>
       <c r="D6" t="str">
-        <v>2.4L TURBO 4cyl.</v>
+        <v>2.5L 4cyl.</v>
       </c>
       <c r="E6" t="str">
-        <v>$57448</v>
+        <v>$65568</v>
       </c>
       <c r="F6" t="str">
-        <v>2T2GGCEZ6SC082789</v>
+        <v>2T2BBMCA7SC086846</v>
       </c>
       <c r="G6" t="str">
-        <v>25131</v>
+        <v>25147</v>
       </c>
       <c r="H6" t="str">
         <v>Premium</v>
@@ -561,7 +561,7 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>2025 NX 450h  - LUXURY</v>
+        <v>2025 RX  - 350 F SPORT</v>
       </c>
       <c r="B7" t="str">
         <v>All Wheel Drive</v>
@@ -570,76 +570,76 @@
         <v>Automatic</v>
       </c>
       <c r="D7" t="str">
-        <v>2.5L 4cyl.</v>
+        <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E7" t="str">
-        <v>$62318</v>
+        <v>$67158</v>
       </c>
       <c r="F7" t="str">
-        <v>JTJHKCFZ4S2065457</v>
+        <v>2T2BAMCA1SC107581</v>
       </c>
       <c r="G7" t="str">
-        <v>25164</v>
+        <v>25170</v>
       </c>
       <c r="H7" t="str">
-        <v>Ultra Premium</v>
+        <v>F SPORT 1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2025 RX  - STD</v>
+        <v>2025 ES  - Black Line Special Edition</v>
       </c>
       <c r="B8" t="str">
-        <v>All Wheel Drive</v>
+        <v>Front Wheel Drive</v>
       </c>
       <c r="C8" t="str">
         <v>Automatic</v>
       </c>
       <c r="D8" t="str">
-        <v>2.4L TURBO 4cyl.</v>
+        <v>3.5L 6cyl.</v>
       </c>
       <c r="E8" t="str">
-        <v>$63208</v>
+        <v>$67469</v>
       </c>
       <c r="F8" t="str">
-        <v>2T2BAMCA8SC104421</v>
+        <v>58AJZ1B14SU201714</v>
       </c>
       <c r="G8" t="str">
-        <v>25150</v>
+        <v>25154</v>
       </c>
       <c r="H8" t="str">
-        <v>Premium</v>
+        <v>Black Line Special Edition</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2025 RX  - STD</v>
+        <v>2025 ES HYBRID  - Ultra Luxury</v>
       </c>
       <c r="B9" t="str">
-        <v>All Wheel Drive</v>
+        <v>Front Wheel Drive</v>
       </c>
       <c r="C9" t="str">
         <v>Automatic</v>
       </c>
       <c r="D9" t="str">
-        <v>2.4L TURBO 4cyl.</v>
+        <v>2.5L 4cyl.</v>
       </c>
       <c r="E9" t="str">
-        <v>$63208</v>
+        <v>$69147</v>
       </c>
       <c r="F9" t="str">
-        <v>2T2BAMCA3SC105461</v>
+        <v>58AB21B1XSU015426</v>
       </c>
       <c r="G9" t="str">
-        <v>25161</v>
+        <v>25153</v>
       </c>
       <c r="H9" t="str">
-        <v>Premium</v>
+        <v>Ultra Luxury</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2025 RXH  - STD</v>
+        <v>2025 RX  - 350</v>
       </c>
       <c r="B10" t="str">
         <v>All Wheel Drive</v>
@@ -648,24 +648,24 @@
         <v>Automatic</v>
       </c>
       <c r="D10" t="str">
-        <v>2.5L 4cyl.</v>
+        <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E10" t="str">
-        <v>$65568</v>
+        <v>$70702</v>
       </c>
       <c r="F10" t="str">
-        <v>2T2BBMCA5SC088613</v>
+        <v>2T2BAMCA2SC105449</v>
       </c>
       <c r="G10" t="str">
-        <v>25158</v>
+        <v>25169</v>
       </c>
       <c r="H10" t="str">
-        <v>Premium</v>
+        <v>Luxury</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2025 RXH  - STD</v>
+        <v>2025 RZ  - LUXURY</v>
       </c>
       <c r="B11" t="str">
         <v>All Wheel Drive</v>
@@ -674,24 +674,24 @@
         <v>Automatic</v>
       </c>
       <c r="D11" t="str">
-        <v>2.5L 4cyl.</v>
+        <v>0L</v>
       </c>
       <c r="E11" t="str">
-        <v>$65568</v>
+        <v>$73298</v>
       </c>
       <c r="F11" t="str">
-        <v>2T2BBMCA1SC088723</v>
+        <v>JTJAAAAB0SA029385</v>
       </c>
       <c r="G11" t="str">
-        <v>25159</v>
+        <v>25130</v>
       </c>
       <c r="H11" t="str">
-        <v>Premium</v>
+        <v>Eminent White Pearl</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2025 RXH  - STD</v>
+        <v>2025 RX  - 350</v>
       </c>
       <c r="B12" t="str">
         <v>All Wheel Drive</v>
@@ -700,45 +700,45 @@
         <v>Automatic</v>
       </c>
       <c r="D12" t="str">
-        <v>2.5L 4cyl.</v>
+        <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E12" t="str">
-        <v>$65568</v>
+        <v>$78057</v>
       </c>
       <c r="F12" t="str">
-        <v>2T2BBMCA7SC086846</v>
+        <v>2T2BAMCA4SC106554</v>
       </c>
       <c r="G12" t="str">
-        <v>25147</v>
+        <v>25166</v>
       </c>
       <c r="H12" t="str">
-        <v>Premium</v>
+        <v>Executive</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2025 ES  - NONE</v>
+        <v>2025 RX  - 350 F SPORT</v>
       </c>
       <c r="B13" t="str">
-        <v>Front Wheel Drive</v>
+        <v>All Wheel Drive</v>
       </c>
       <c r="C13" t="str">
         <v>Automatic</v>
       </c>
       <c r="D13" t="str">
-        <v>3.5L 6cyl.</v>
+        <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E13" t="str">
-        <v>$67469</v>
+        <v>$78707</v>
       </c>
       <c r="F13" t="str">
-        <v>58AJZ1B14SU201714</v>
+        <v>2T2BAMCA6SC100870</v>
       </c>
       <c r="G13" t="str">
-        <v>25154</v>
+        <v>25124</v>
       </c>
       <c r="H13" t="str">
-        <v>Black Line Special Edition</v>
+        <v>F SPORT 3</v>
       </c>
     </row>
   </sheetData>
@@ -774,50 +774,50 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2025LexusRX</v>
+        <v>2025LexusIS</v>
       </c>
       <c r="B2" t="str">
-        <v>87800</v>
+        <v>64048</v>
       </c>
       <c r="C2" t="str">
-        <v>450h+</v>
+        <v>350 F SPORT 3</v>
       </c>
       <c r="D2" t="str">
-        <v>#LX7843</v>
+        <v>#LX7877</v>
       </c>
       <c r="E2" t="str">
-        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2025LexusES</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B3" t="str">
-        <v>65141</v>
+        <v>59990</v>
       </c>
       <c r="C3" t="str">
-        <v>350 F SPORT</v>
+        <v>450h+ ULTRA PREMIUM</v>
       </c>
       <c r="D3" t="str">
-        <v>#LX7842</v>
+        <v>#LX7873</v>
       </c>
       <c r="E3" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2025LexusNX</v>
+        <v>2025LexusUX</v>
       </c>
       <c r="B4" t="str">
-        <v>54470</v>
+        <v>44605</v>
       </c>
       <c r="C4" t="str">
-        <v>350 350- TEST DRIVE UNIT</v>
+        <v>300h PREMIUM PKG</v>
       </c>
       <c r="D4" t="str">
-        <v>#LX7832</v>
+        <v>#LX7865</v>
       </c>
       <c r="E4" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -825,16 +825,16 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2025LexusNX</v>
+        <v>2025LexusUX</v>
       </c>
       <c r="B5" t="str">
-        <v>57365</v>
+        <v>44605</v>
       </c>
       <c r="C5" t="str">
-        <v>350h PREMIUM</v>
+        <v>300h PREMIUM PKG</v>
       </c>
       <c r="D5" t="str">
-        <v>#LX7748</v>
+        <v>#LX7859</v>
       </c>
       <c r="E5" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -845,16 +845,16 @@
         <v>2025LexusRX</v>
       </c>
       <c r="B6" t="str">
-        <v>78739</v>
+        <v>87800</v>
       </c>
       <c r="C6" t="str">
-        <v>350h EXECUTIVE PKG</v>
+        <v>450h+ EXECUTIVE PKG</v>
       </c>
       <c r="D6" t="str">
-        <v>#LX7747</v>
+        <v>#LX7854</v>
       </c>
       <c r="E6" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
       </c>
     </row>
     <row r="7">
@@ -862,13 +862,13 @@
         <v>2025LexusUX</v>
       </c>
       <c r="B7" t="str">
-        <v>49719</v>
+        <v>45255</v>
       </c>
       <c r="C7" t="str">
-        <v>300h</v>
+        <v>300h PREMIUM</v>
       </c>
       <c r="D7" t="str">
-        <v>#LX7696</v>
+        <v>#LX7853</v>
       </c>
       <c r="E7" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -876,19 +876,19 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2025LexusRX</v>
+        <v>2025LexusUX</v>
       </c>
       <c r="B8" t="str">
-        <v>87500</v>
+        <v>50719</v>
       </c>
       <c r="C8" t="str">
-        <v>450h+ EXECUTIVE PKG</v>
+        <v>300h LUXURY PKG</v>
       </c>
       <c r="D8" t="str">
-        <v>#LX7689</v>
+        <v>#LX7851</v>
       </c>
       <c r="E8" t="str">
-        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="9">
@@ -896,13 +896,13 @@
         <v>2025LexusRX</v>
       </c>
       <c r="B9" t="str">
-        <v>88150</v>
+        <v>87800</v>
       </c>
       <c r="C9" t="str">
         <v>450h+</v>
       </c>
       <c r="D9" t="str">
-        <v>#LX7672</v>
+        <v>#LX7843</v>
       </c>
       <c r="E9" t="str">
         <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
@@ -910,33 +910,33 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2025LexusRX</v>
+        <v>2025LexusES</v>
       </c>
       <c r="B10" t="str">
-        <v>67624</v>
+        <v>65141</v>
       </c>
       <c r="C10" t="str">
-        <v>350 LUXURY PKG</v>
+        <v>350 F SPORT</v>
       </c>
       <c r="D10" t="str">
-        <v>#LX7660</v>
+        <v>#LX7842</v>
       </c>
       <c r="E10" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2024LexusRX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B11" t="str">
-        <v>71500</v>
+        <v>54470</v>
       </c>
       <c r="C11" t="str">
-        <v>350 ULTRA LUXURY</v>
+        <v>350 350- TEST DRIVE UNIT</v>
       </c>
       <c r="D11" t="str">
-        <v>#LX7531</v>
+        <v>#LX7832</v>
       </c>
       <c r="E11" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -944,16 +944,16 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2024LexusIS</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B12" t="str">
-        <v>56350</v>
+        <v>57365</v>
       </c>
       <c r="C12" t="str">
-        <v>300 ULTRA LUXURY</v>
+        <v>350h PREMIUM</v>
       </c>
       <c r="D12" t="str">
-        <v>#LX7497</v>
+        <v>#LX7748</v>
       </c>
       <c r="E12" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -961,16 +961,16 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2025LexusNX</v>
+        <v>2025LexusRX</v>
       </c>
       <c r="B13" t="str">
-        <v>62842</v>
+        <v>78739</v>
       </c>
       <c r="C13" t="str">
-        <v>350</v>
+        <v>350h EXECUTIVE PKG</v>
       </c>
       <c r="D13" t="str">
-        <v>#LX7475</v>
+        <v>#LX7747</v>
       </c>
       <c r="E13" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -981,13 +981,13 @@
         <v>2025LexusUX</v>
       </c>
       <c r="B14" t="str">
-        <v>44605</v>
+        <v>49719</v>
       </c>
       <c r="C14" t="str">
-        <v>300h PREMIUM PKG</v>
+        <v>300h</v>
       </c>
       <c r="D14" t="str">
-        <v>#LX7865</v>
+        <v>#LX7696</v>
       </c>
       <c r="E14" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -998,13 +998,13 @@
         <v>2025LexusRX</v>
       </c>
       <c r="B15" t="str">
-        <v>88450</v>
+        <v>87500</v>
       </c>
       <c r="C15" t="str">
         <v>450h+ EXECUTIVE PKG</v>
       </c>
       <c r="D15" t="str">
-        <v>#LX7864</v>
+        <v>#LX7689</v>
       </c>
       <c r="E15" t="str">
         <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
@@ -1012,19 +1012,19 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>2025LexusUX</v>
+        <v>2025LexusRX</v>
       </c>
       <c r="B16" t="str">
-        <v>44605</v>
+        <v>88150</v>
       </c>
       <c r="C16" t="str">
-        <v>300h PREMIUM PKG</v>
+        <v>450h+</v>
       </c>
       <c r="D16" t="str">
-        <v>#LX7959</v>
+        <v>#LX7672</v>
       </c>
       <c r="E16" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
       </c>
     </row>
     <row r="17">
@@ -1032,47 +1032,47 @@
         <v>2025LexusRX</v>
       </c>
       <c r="B17" t="str">
-        <v>88450</v>
+        <v>67624</v>
       </c>
       <c r="C17" t="str">
-        <v>450h+ EXECUTIVE PKG</v>
+        <v>350 LUXURY PKG</v>
       </c>
       <c r="D17" t="str">
-        <v>#LX7852</v>
+        <v>#LX7660</v>
       </c>
       <c r="E17" t="str">
-        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>2025LexusRX</v>
+        <v>2024LexusIS</v>
       </c>
       <c r="B18" t="str">
-        <v>87800</v>
+        <v>56350</v>
       </c>
       <c r="C18" t="str">
-        <v>450h+ EXECUTIVE PKG</v>
+        <v>300 ULTRA LUXURY</v>
       </c>
       <c r="D18" t="str">
-        <v>#LX7854</v>
+        <v>#LX7497</v>
       </c>
       <c r="E18" t="str">
-        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>2025LexusUX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B19" t="str">
-        <v>45255</v>
+        <v>62842</v>
       </c>
       <c r="C19" t="str">
-        <v>300h PREMIUM</v>
+        <v>350</v>
       </c>
       <c r="D19" t="str">
-        <v>#LX7853</v>
+        <v>#LX7475</v>
       </c>
       <c r="E19" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1080,19 +1080,19 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>2025LexusUX</v>
+        <v>2025LexusES</v>
       </c>
       <c r="B20" t="str">
-        <v>50719</v>
+        <v>63314</v>
       </c>
       <c r="C20" t="str">
-        <v>300h LUXURY PKG</v>
+        <v>300h LUXURY</v>
       </c>
       <c r="D20" t="str">
-        <v>#LX7851</v>
+        <v>#LX7883</v>
       </c>
       <c r="E20" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
       </c>
     </row>
     <row r="21">
@@ -1100,13 +1100,13 @@
         <v>2025LexusNX</v>
       </c>
       <c r="B21" t="str">
-        <v>51465</v>
+        <v>54470</v>
       </c>
       <c r="C21" t="str">
-        <v>250 SIGNATURE</v>
+        <v>350 PREMIUM</v>
       </c>
       <c r="D21" t="str">
-        <v>#LX7850</v>
+        <v>#LX7882</v>
       </c>
       <c r="E21" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>

--- a/Projects/scrapping_js/lexus_maritime/Lexus_Inventory.xlsx
+++ b/Projects/scrapping_js/lexus_maritime/Lexus_Inventory.xlsx
@@ -443,7 +443,7 @@
         <v>3.5L 6cyl.</v>
       </c>
       <c r="E2" t="str">
-        <v>$51786</v>
+        <v>$51136</v>
       </c>
       <c r="F2" t="str">
         <v>JTHC81F26S5055061</v>
@@ -483,7 +483,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2025 UX HYBRID  - F SPORT</v>
+        <v>2025 NX Plug-In Hybrid  - 450h</v>
       </c>
       <c r="B4" t="str">
         <v>All Wheel Drive</v>
@@ -492,24 +492,24 @@
         <v>Automatic</v>
       </c>
       <c r="D4" t="str">
-        <v>2L 4cyl.</v>
+        <v>2.5L 4cyl.</v>
       </c>
       <c r="E4" t="str">
-        <v>$55322</v>
+        <v>$62318</v>
       </c>
       <c r="F4" t="str">
-        <v>JTHUCJDH5S2010057</v>
+        <v>JTJHKCFZ8S2067261</v>
       </c>
       <c r="G4" t="str">
-        <v>25162</v>
+        <v>25174</v>
       </c>
       <c r="H4" t="str">
-        <v>F SPORT SÉRIE 2</v>
+        <v>Ultra Premium</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2025 RX  - 350</v>
+        <v>2025 NX Plug-In Hybrid  - 450h</v>
       </c>
       <c r="B5" t="str">
         <v>All Wheel Drive</v>
@@ -518,24 +518,24 @@
         <v>Automatic</v>
       </c>
       <c r="D5" t="str">
-        <v>2.4L TURBO 4cyl.</v>
+        <v>2.5L 4cyl.</v>
       </c>
       <c r="E5" t="str">
-        <v>$63208</v>
+        <v>$62318</v>
       </c>
       <c r="F5" t="str">
-        <v>2T2BAMCA3SC105461</v>
+        <v>JTJHKCFZ4S2067161</v>
       </c>
       <c r="G5" t="str">
-        <v>25161</v>
+        <v>25182</v>
       </c>
       <c r="H5" t="str">
-        <v>Premium</v>
+        <v>Ultra Premium</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>2025 RX HYBRID  - 350h</v>
+        <v>2025 RX  - 350</v>
       </c>
       <c r="B6" t="str">
         <v>All Wheel Drive</v>
@@ -544,16 +544,16 @@
         <v>Automatic</v>
       </c>
       <c r="D6" t="str">
-        <v>2.5L 4cyl.</v>
+        <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E6" t="str">
-        <v>$65568</v>
+        <v>$63208</v>
       </c>
       <c r="F6" t="str">
-        <v>2T2BBMCA7SC086846</v>
+        <v>2T2BAMCA3SC105461</v>
       </c>
       <c r="G6" t="str">
-        <v>25147</v>
+        <v>25161</v>
       </c>
       <c r="H6" t="str">
         <v>Premium</v>
@@ -561,7 +561,7 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>2025 RX  - 350 F SPORT</v>
+        <v>2025 RX  - 350</v>
       </c>
       <c r="B7" t="str">
         <v>All Wheel Drive</v>
@@ -573,47 +573,47 @@
         <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E7" t="str">
-        <v>$67158</v>
+        <v>$63208</v>
       </c>
       <c r="F7" t="str">
-        <v>2T2BAMCA1SC107581</v>
+        <v>2T2BAMCA2SC108898</v>
       </c>
       <c r="G7" t="str">
-        <v>25170</v>
+        <v>25180</v>
       </c>
       <c r="H7" t="str">
-        <v>F SPORT 1</v>
+        <v>Premium</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2025 ES  - Black Line Special Edition</v>
+        <v>2025 RX HYBRID  - 350h</v>
       </c>
       <c r="B8" t="str">
-        <v>Front Wheel Drive</v>
+        <v>All Wheel Drive</v>
       </c>
       <c r="C8" t="str">
         <v>Automatic</v>
       </c>
       <c r="D8" t="str">
-        <v>3.5L 6cyl.</v>
+        <v>2.5L 4cyl.</v>
       </c>
       <c r="E8" t="str">
-        <v>$67469</v>
+        <v>$65568</v>
       </c>
       <c r="F8" t="str">
-        <v>58AJZ1B14SU201714</v>
+        <v>2T2BBMCA7SC086846</v>
       </c>
       <c r="G8" t="str">
-        <v>25154</v>
+        <v>25147</v>
       </c>
       <c r="H8" t="str">
-        <v>Black Line Special Edition</v>
+        <v>Premium</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2025 ES HYBRID  - Ultra Luxury</v>
+        <v>2025 ES  - Black Line Special Edition</v>
       </c>
       <c r="B9" t="str">
         <v>Front Wheel Drive</v>
@@ -622,45 +622,45 @@
         <v>Automatic</v>
       </c>
       <c r="D9" t="str">
-        <v>2.5L 4cyl.</v>
+        <v>3.5L 6cyl.</v>
       </c>
       <c r="E9" t="str">
-        <v>$69147</v>
+        <v>$67469</v>
       </c>
       <c r="F9" t="str">
-        <v>58AB21B1XSU015426</v>
+        <v>58AJZ1B14SU201714</v>
       </c>
       <c r="G9" t="str">
-        <v>25153</v>
+        <v>25154</v>
       </c>
       <c r="H9" t="str">
-        <v>Ultra Luxury</v>
+        <v>Black Line Special Edition</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2025 RX  - 350</v>
+        <v>2025 ES HYBRID  - Ultra Luxury</v>
       </c>
       <c r="B10" t="str">
-        <v>All Wheel Drive</v>
+        <v>Front Wheel Drive</v>
       </c>
       <c r="C10" t="str">
         <v>Automatic</v>
       </c>
       <c r="D10" t="str">
-        <v>2.4L TURBO 4cyl.</v>
+        <v>2.5L 4cyl.</v>
       </c>
       <c r="E10" t="str">
-        <v>$70702</v>
+        <v>$69147</v>
       </c>
       <c r="F10" t="str">
-        <v>2T2BAMCA2SC105449</v>
+        <v>58AB21B1XSU015426</v>
       </c>
       <c r="G10" t="str">
-        <v>25169</v>
+        <v>25153</v>
       </c>
       <c r="H10" t="str">
-        <v>Luxury</v>
+        <v>Ultra Luxury</v>
       </c>
     </row>
     <row r="11">
@@ -703,21 +703,21 @@
         <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E12" t="str">
-        <v>$78057</v>
+        <v>$74208</v>
       </c>
       <c r="F12" t="str">
-        <v>2T2BAMCA4SC106554</v>
+        <v>2T2BAMCA9SC108574</v>
       </c>
       <c r="G12" t="str">
-        <v>25166</v>
+        <v>25177</v>
       </c>
       <c r="H12" t="str">
-        <v>Executive</v>
+        <v>Ultra Luxury</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2025 RX  - 350 F SPORT</v>
+        <v>2025 RX  - 350</v>
       </c>
       <c r="B13" t="str">
         <v>All Wheel Drive</v>
@@ -729,16 +729,16 @@
         <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E13" t="str">
-        <v>$78707</v>
+        <v>$78057</v>
       </c>
       <c r="F13" t="str">
-        <v>2T2BAMCA6SC100870</v>
+        <v>2T2BAMCA4SC106554</v>
       </c>
       <c r="G13" t="str">
-        <v>25124</v>
+        <v>25166</v>
       </c>
       <c r="H13" t="str">
-        <v>F SPORT 3</v>
+        <v>Executive</v>
       </c>
     </row>
   </sheetData>
@@ -750,7 +750,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -774,33 +774,33 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2025LexusIS</v>
+        <v>2025LexusTX</v>
       </c>
       <c r="B2" t="str">
-        <v>64048</v>
+        <v>71856</v>
       </c>
       <c r="C2" t="str">
-        <v>350 F SPORT 3</v>
+        <v>350 Luxury PKG</v>
       </c>
       <c r="D2" t="str">
-        <v>#LX7877</v>
+        <v>#LX7896</v>
       </c>
       <c r="E2" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2025LexusNX</v>
+        <v>2025LexusIS</v>
       </c>
       <c r="B3" t="str">
-        <v>59990</v>
+        <v>51649</v>
       </c>
       <c r="C3" t="str">
-        <v>450h+ ULTRA PREMIUM</v>
+        <v>300 PREMIUM PKG</v>
       </c>
       <c r="D3" t="str">
-        <v>#LX7873</v>
+        <v>#LX7890</v>
       </c>
       <c r="E3" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -808,16 +808,16 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2025LexusUX</v>
+        <v>2025LexusIS</v>
       </c>
       <c r="B4" t="str">
-        <v>44605</v>
+        <v>60889</v>
       </c>
       <c r="C4" t="str">
-        <v>300h PREMIUM PKG</v>
+        <v>300 ULTRA LUXURY</v>
       </c>
       <c r="D4" t="str">
-        <v>#LX7865</v>
+        <v>#LX7889</v>
       </c>
       <c r="E4" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -825,16 +825,16 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2025LexusUX</v>
+        <v>2025LexusRX</v>
       </c>
       <c r="B5" t="str">
-        <v>44605</v>
+        <v>70565</v>
       </c>
       <c r="C5" t="str">
-        <v>300h PREMIUM PKG</v>
+        <v>350</v>
       </c>
       <c r="D5" t="str">
-        <v>#LX7859</v>
+        <v>#LX7888</v>
       </c>
       <c r="E5" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -842,33 +842,33 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>2025LexusRX</v>
+        <v>2025LexusES</v>
       </c>
       <c r="B6" t="str">
-        <v>87800</v>
+        <v>66155</v>
       </c>
       <c r="C6" t="str">
-        <v>450h+ EXECUTIVE PKG</v>
+        <v>300h LUXURY</v>
       </c>
       <c r="D6" t="str">
-        <v>#LX7854</v>
+        <v>#LX7883</v>
       </c>
       <c r="E6" t="str">
-        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
+        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>2025LexusUX</v>
+        <v>2025LexusIS</v>
       </c>
       <c r="B7" t="str">
-        <v>45255</v>
+        <v>66889</v>
       </c>
       <c r="C7" t="str">
-        <v>300h PREMIUM</v>
+        <v>350 F SPORT 3</v>
       </c>
       <c r="D7" t="str">
-        <v>#LX7853</v>
+        <v>#LX7877</v>
       </c>
       <c r="E7" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -876,16 +876,16 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2025LexusUX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B8" t="str">
-        <v>50719</v>
+        <v>62831</v>
       </c>
       <c r="C8" t="str">
-        <v>300h LUXURY PKG</v>
+        <v>450h+ ULTRA PREMIUM</v>
       </c>
       <c r="D8" t="str">
-        <v>#LX7851</v>
+        <v>#LX7873</v>
       </c>
       <c r="E8" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -893,50 +893,50 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2025LexusRX</v>
+        <v>2025LexusUX</v>
       </c>
       <c r="B9" t="str">
-        <v>87800</v>
+        <v>47446</v>
       </c>
       <c r="C9" t="str">
-        <v>450h+</v>
+        <v>300h PREMIUM PKG</v>
       </c>
       <c r="D9" t="str">
-        <v>#LX7843</v>
+        <v>#LX7859</v>
       </c>
       <c r="E9" t="str">
-        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2025LexusES</v>
+        <v>2025LexusRX</v>
       </c>
       <c r="B10" t="str">
-        <v>65141</v>
+        <v>90641</v>
       </c>
       <c r="C10" t="str">
-        <v>350 F SPORT</v>
+        <v>450h+ EXECUTIVE PKG</v>
       </c>
       <c r="D10" t="str">
-        <v>#LX7842</v>
+        <v>#LX7854</v>
       </c>
       <c r="E10" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
+        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2025LexusNX</v>
+        <v>2025LexusUX</v>
       </c>
       <c r="B11" t="str">
-        <v>54470</v>
+        <v>48096</v>
       </c>
       <c r="C11" t="str">
-        <v>350 350- TEST DRIVE UNIT</v>
+        <v>300h PREMIUM</v>
       </c>
       <c r="D11" t="str">
-        <v>#LX7832</v>
+        <v>#LX7853</v>
       </c>
       <c r="E11" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -944,16 +944,16 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2025LexusNX</v>
+        <v>2025LexusUX</v>
       </c>
       <c r="B12" t="str">
-        <v>57365</v>
+        <v>53560</v>
       </c>
       <c r="C12" t="str">
-        <v>350h PREMIUM</v>
+        <v>300h LUXURY PKG</v>
       </c>
       <c r="D12" t="str">
-        <v>#LX7748</v>
+        <v>#LX7851</v>
       </c>
       <c r="E12" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -964,67 +964,67 @@
         <v>2025LexusRX</v>
       </c>
       <c r="B13" t="str">
-        <v>78739</v>
+        <v>90641</v>
       </c>
       <c r="C13" t="str">
-        <v>350h EXECUTIVE PKG</v>
+        <v>450h+</v>
       </c>
       <c r="D13" t="str">
-        <v>#LX7747</v>
+        <v>#LX7843</v>
       </c>
       <c r="E13" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2025LexusUX</v>
+        <v>2025LexusES</v>
       </c>
       <c r="B14" t="str">
-        <v>49719</v>
+        <v>67982</v>
       </c>
       <c r="C14" t="str">
-        <v>300h</v>
+        <v>350 F SPORT</v>
       </c>
       <c r="D14" t="str">
-        <v>#LX7696</v>
+        <v>#LX7842</v>
       </c>
       <c r="E14" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2025LexusRX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B15" t="str">
-        <v>87500</v>
+        <v>57311</v>
       </c>
       <c r="C15" t="str">
-        <v>450h+ EXECUTIVE PKG</v>
+        <v>350 350- TEST DRIVE UNIT</v>
       </c>
       <c r="D15" t="str">
-        <v>#LX7689</v>
+        <v>#LX7832</v>
       </c>
       <c r="E15" t="str">
-        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>2025LexusRX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B16" t="str">
-        <v>88150</v>
+        <v>60206</v>
       </c>
       <c r="C16" t="str">
-        <v>450h+</v>
+        <v>350h PREMIUM</v>
       </c>
       <c r="D16" t="str">
-        <v>#LX7672</v>
+        <v>#LX7748</v>
       </c>
       <c r="E16" t="str">
-        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="17">
@@ -1032,13 +1032,13 @@
         <v>2025LexusRX</v>
       </c>
       <c r="B17" t="str">
-        <v>67624</v>
+        <v>81580</v>
       </c>
       <c r="C17" t="str">
-        <v>350 LUXURY PKG</v>
+        <v>350h EXECUTIVE PKG</v>
       </c>
       <c r="D17" t="str">
-        <v>#LX7660</v>
+        <v>#LX7747</v>
       </c>
       <c r="E17" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1046,67 +1046,67 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>2024LexusIS</v>
+        <v>2025LexusRX</v>
       </c>
       <c r="B18" t="str">
-        <v>56350</v>
+        <v>90341</v>
       </c>
       <c r="C18" t="str">
-        <v>300 ULTRA LUXURY</v>
+        <v>450h+ EXECUTIVE PKG</v>
       </c>
       <c r="D18" t="str">
-        <v>#LX7497</v>
+        <v>#LX7689</v>
       </c>
       <c r="E18" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>2025LexusNX</v>
+        <v>2025LexusRX</v>
       </c>
       <c r="B19" t="str">
-        <v>62842</v>
+        <v>90991</v>
       </c>
       <c r="C19" t="str">
-        <v>350</v>
+        <v>450h+</v>
       </c>
       <c r="D19" t="str">
-        <v>#LX7475</v>
+        <v>#LX7672</v>
       </c>
       <c r="E19" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>2025LexusES</v>
+        <v>2025LexusRX</v>
       </c>
       <c r="B20" t="str">
-        <v>63314</v>
+        <v>70465</v>
       </c>
       <c r="C20" t="str">
-        <v>300h LUXURY</v>
+        <v>350 LUXURY PKG</v>
       </c>
       <c r="D20" t="str">
-        <v>#LX7883</v>
+        <v>#LX7660</v>
       </c>
       <c r="E20" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>2025LexusNX</v>
+        <v>2024LexusIS</v>
       </c>
       <c r="B21" t="str">
-        <v>54470</v>
+        <v>59191</v>
       </c>
       <c r="C21" t="str">
-        <v>350 PREMIUM</v>
+        <v>300 ULTRA LUXURY</v>
       </c>
       <c r="D21" t="str">
-        <v>#LX7882</v>
+        <v>#LX7497</v>
       </c>
       <c r="E21" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1114,24 +1114,92 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
+        <v>2025LexusNX</v>
+      </c>
+      <c r="B22" t="str">
+        <v>65683</v>
+      </c>
+      <c r="C22" t="str">
+        <v>350</v>
+      </c>
+      <c r="D22" t="str">
+        <v>#LX7475</v>
+      </c>
+      <c r="E22" t="str">
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>2025LexusNX</v>
+      </c>
+      <c r="B23" t="str">
+        <v>80106</v>
+      </c>
+      <c r="C23" t="str">
+        <v>450h+ F SPORT 3</v>
+      </c>
+      <c r="D23" t="str">
+        <v>#LX7899</v>
+      </c>
+      <c r="E23" t="str">
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>2025LexusNX</v>
+      </c>
+      <c r="B24" t="str">
+        <v>62831</v>
+      </c>
+      <c r="C24" t="str">
+        <v>450h+ ULTRA PREMIUM</v>
+      </c>
+      <c r="D24" t="str">
+        <v>#LX7894</v>
+      </c>
+      <c r="E24" t="str">
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>2025LexusGX</v>
+      </c>
+      <c r="B25" t="str">
+        <v>98587</v>
+      </c>
+      <c r="C25" t="str">
+        <v>550 OVERTRAIL</v>
+      </c>
+      <c r="D25" t="str">
+        <v>#LX7892</v>
+      </c>
+      <c r="E25" t="str">
+        <v>4x4, Active Park Assist, Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
         <v>2025LexusES</v>
       </c>
-      <c r="B22" t="str">
-        <v>56014</v>
-      </c>
-      <c r="C22" t="str">
+      <c r="B26" t="str">
+        <v>58855</v>
+      </c>
+      <c r="C26" t="str">
         <v>300h PREMIUM</v>
       </c>
-      <c r="D22" t="str">
+      <c r="D26" t="str">
         <v>#LX7841</v>
       </c>
-      <c r="E22" t="str">
+      <c r="E26" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E22"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E26"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Projects/scrapping_js/lexus_maritime/Lexus_Inventory.xlsx
+++ b/Projects/scrapping_js/lexus_maritime/Lexus_Inventory.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2025 NX  - 250 SIGNATURE</v>
+        <v>2025 NX Plug-In Hybrid  - 450h</v>
       </c>
       <c r="B3" t="str">
         <v>All Wheel Drive</v>
@@ -469,16 +469,16 @@
         <v>2.5L 4cyl.</v>
       </c>
       <c r="E3" t="str">
-        <v>$53793</v>
+        <v>$62318</v>
       </c>
       <c r="F3" t="str">
-        <v>2T2ADCEZ7SC007128</v>
+        <v>JTJHKCFZ8S2067261</v>
       </c>
       <c r="G3" t="str">
-        <v>25108</v>
+        <v>25174</v>
       </c>
       <c r="H3" t="str">
-        <v>Signature</v>
+        <v>Ultra Premium</v>
       </c>
     </row>
     <row r="4">
@@ -498,10 +498,10 @@
         <v>$62318</v>
       </c>
       <c r="F4" t="str">
-        <v>JTJHKCFZ8S2067261</v>
+        <v>JTJHKCFZ4S2067161</v>
       </c>
       <c r="G4" t="str">
-        <v>25174</v>
+        <v>25182</v>
       </c>
       <c r="H4" t="str">
         <v>Ultra Premium</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2025 NX Plug-In Hybrid  - 450h</v>
+        <v>2025 RX  - 350</v>
       </c>
       <c r="B5" t="str">
         <v>All Wheel Drive</v>
@@ -518,24 +518,24 @@
         <v>Automatic</v>
       </c>
       <c r="D5" t="str">
-        <v>2.5L 4cyl.</v>
+        <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E5" t="str">
-        <v>$62318</v>
+        <v>$63208</v>
       </c>
       <c r="F5" t="str">
-        <v>JTJHKCFZ4S2067161</v>
+        <v>2T2BAMCA2SC108898</v>
       </c>
       <c r="G5" t="str">
-        <v>25182</v>
+        <v>25180</v>
       </c>
       <c r="H5" t="str">
-        <v>Ultra Premium</v>
+        <v>Premium</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>2025 RX  - 350</v>
+        <v>2025 RX HYBRID  - 350h</v>
       </c>
       <c r="B6" t="str">
         <v>All Wheel Drive</v>
@@ -544,16 +544,16 @@
         <v>Automatic</v>
       </c>
       <c r="D6" t="str">
-        <v>2.4L TURBO 4cyl.</v>
+        <v>2.5L 4cyl.</v>
       </c>
       <c r="E6" t="str">
-        <v>$63208</v>
+        <v>$65568</v>
       </c>
       <c r="F6" t="str">
-        <v>2T2BAMCA3SC105461</v>
+        <v>2T2BBMCA5SC091026</v>
       </c>
       <c r="G6" t="str">
-        <v>25161</v>
+        <v>25186</v>
       </c>
       <c r="H6" t="str">
         <v>Premium</v>
@@ -561,7 +561,7 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>2025 RX  - 350</v>
+        <v>2025 RX HYBRID  - 350h</v>
       </c>
       <c r="B7" t="str">
         <v>All Wheel Drive</v>
@@ -570,16 +570,16 @@
         <v>Automatic</v>
       </c>
       <c r="D7" t="str">
-        <v>2.4L TURBO 4cyl.</v>
+        <v>2.5L 4cyl.</v>
       </c>
       <c r="E7" t="str">
-        <v>$63208</v>
+        <v>$65568</v>
       </c>
       <c r="F7" t="str">
-        <v>2T2BAMCA2SC108898</v>
+        <v>2T2BBMCA7SC086846</v>
       </c>
       <c r="G7" t="str">
-        <v>25180</v>
+        <v>25147</v>
       </c>
       <c r="H7" t="str">
         <v>Premium</v>
@@ -587,33 +587,33 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2025 RX HYBRID  - 350h</v>
+        <v>2025 ES  - Black Line Special Edition</v>
       </c>
       <c r="B8" t="str">
-        <v>All Wheel Drive</v>
+        <v>Front Wheel Drive</v>
       </c>
       <c r="C8" t="str">
         <v>Automatic</v>
       </c>
       <c r="D8" t="str">
-        <v>2.5L 4cyl.</v>
+        <v>3.5L 6cyl.</v>
       </c>
       <c r="E8" t="str">
-        <v>$65568</v>
+        <v>$67469</v>
       </c>
       <c r="F8" t="str">
-        <v>2T2BBMCA7SC086846</v>
+        <v>58AJZ1B14SU201714</v>
       </c>
       <c r="G8" t="str">
-        <v>25147</v>
+        <v>25154</v>
       </c>
       <c r="H8" t="str">
-        <v>Premium</v>
+        <v>Black Line Special Edition</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2025 ES  - Black Line Special Edition</v>
+        <v>2025 ES HYBRID  - Ultra Luxury</v>
       </c>
       <c r="B9" t="str">
         <v>Front Wheel Drive</v>
@@ -622,50 +622,50 @@
         <v>Automatic</v>
       </c>
       <c r="D9" t="str">
-        <v>3.5L 6cyl.</v>
+        <v>2.5L 4cyl.</v>
       </c>
       <c r="E9" t="str">
-        <v>$67469</v>
+        <v>$69147</v>
       </c>
       <c r="F9" t="str">
-        <v>58AJZ1B14SU201714</v>
+        <v>58AB21B1XSU015426</v>
       </c>
       <c r="G9" t="str">
-        <v>25154</v>
+        <v>25153</v>
       </c>
       <c r="H9" t="str">
-        <v>Black Line Special Edition</v>
+        <v>Ultra Luxury</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2025 ES HYBRID  - Ultra Luxury</v>
+        <v>2025 RZ  - LUXURY</v>
       </c>
       <c r="B10" t="str">
-        <v>Front Wheel Drive</v>
+        <v>All Wheel Drive</v>
       </c>
       <c r="C10" t="str">
         <v>Automatic</v>
       </c>
       <c r="D10" t="str">
-        <v>2.5L 4cyl.</v>
+        <v>0L</v>
       </c>
       <c r="E10" t="str">
-        <v>$69147</v>
+        <v>$73298</v>
       </c>
       <c r="F10" t="str">
-        <v>58AB21B1XSU015426</v>
+        <v>JTJAAAAB0SA029385</v>
       </c>
       <c r="G10" t="str">
-        <v>25153</v>
+        <v>25130</v>
       </c>
       <c r="H10" t="str">
-        <v>Ultra Luxury</v>
+        <v>Eminent White Pearl</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2025 RZ  - LUXURY</v>
+        <v>2025 RX  - 350</v>
       </c>
       <c r="B11" t="str">
         <v>All Wheel Drive</v>
@@ -674,19 +674,19 @@
         <v>Automatic</v>
       </c>
       <c r="D11" t="str">
-        <v>0L</v>
+        <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E11" t="str">
-        <v>$73298</v>
+        <v>$74208</v>
       </c>
       <c r="F11" t="str">
-        <v>JTJAAAAB0SA029385</v>
+        <v>2T2BAMCA9SC108574</v>
       </c>
       <c r="G11" t="str">
-        <v>25130</v>
+        <v>25177</v>
       </c>
       <c r="H11" t="str">
-        <v>Eminent White Pearl</v>
+        <v>Ultra Luxury</v>
       </c>
     </row>
     <row r="12">
@@ -703,21 +703,21 @@
         <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E12" t="str">
-        <v>$74208</v>
+        <v>$78057</v>
       </c>
       <c r="F12" t="str">
-        <v>2T2BAMCA9SC108574</v>
+        <v>2T2BAMCA4SC106554</v>
       </c>
       <c r="G12" t="str">
-        <v>25177</v>
+        <v>25166</v>
       </c>
       <c r="H12" t="str">
-        <v>Ultra Luxury</v>
+        <v>Executive</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2025 RX  - 350</v>
+        <v>2025 RX  - 350 F SPORT</v>
       </c>
       <c r="B13" t="str">
         <v>All Wheel Drive</v>
@@ -729,16 +729,16 @@
         <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E13" t="str">
-        <v>$78057</v>
+        <v>$78707</v>
       </c>
       <c r="F13" t="str">
-        <v>2T2BAMCA4SC106554</v>
+        <v>2T2BAMCA6SC100870</v>
       </c>
       <c r="G13" t="str">
-        <v>25166</v>
+        <v>25124</v>
       </c>
       <c r="H13" t="str">
-        <v>Executive</v>
+        <v>F SPORT 3</v>
       </c>
     </row>
   </sheetData>
@@ -750,7 +750,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -774,50 +774,50 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2025LexusTX</v>
+        <v>2025LexusRX</v>
       </c>
       <c r="B2" t="str">
-        <v>71856</v>
+        <v>79220</v>
       </c>
       <c r="C2" t="str">
-        <v>350 Luxury PKG</v>
+        <v>350 EXECUTIVE PKG</v>
       </c>
       <c r="D2" t="str">
-        <v>#LX7896</v>
+        <v>#LX7909</v>
       </c>
       <c r="E2" t="str">
-        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2025LexusIS</v>
+        <v>2025LexusTX</v>
       </c>
       <c r="B3" t="str">
-        <v>51649</v>
+        <v>71856</v>
       </c>
       <c r="C3" t="str">
-        <v>300 PREMIUM PKG</v>
+        <v>350 Luxury PKG</v>
       </c>
       <c r="D3" t="str">
-        <v>#LX7890</v>
+        <v>#LX7896</v>
       </c>
       <c r="E3" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2025LexusIS</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B4" t="str">
-        <v>60889</v>
+        <v>62831</v>
       </c>
       <c r="C4" t="str">
-        <v>300 ULTRA LUXURY</v>
+        <v>450h+ ULTRA PREMIUM</v>
       </c>
       <c r="D4" t="str">
-        <v>#LX7889</v>
+        <v>#LX7894</v>
       </c>
       <c r="E4" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -825,16 +825,16 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2025LexusRX</v>
+        <v>2025LexusIS</v>
       </c>
       <c r="B5" t="str">
-        <v>70565</v>
+        <v>51649</v>
       </c>
       <c r="C5" t="str">
-        <v>350</v>
+        <v>300 PREMIUM PKG</v>
       </c>
       <c r="D5" t="str">
-        <v>#LX7888</v>
+        <v>#LX7890</v>
       </c>
       <c r="E5" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -842,33 +842,33 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>2025LexusES</v>
+        <v>2025LexusIS</v>
       </c>
       <c r="B6" t="str">
-        <v>66155</v>
+        <v>60889</v>
       </c>
       <c r="C6" t="str">
-        <v>300h LUXURY</v>
+        <v>300 ULTRA LUXURY</v>
       </c>
       <c r="D6" t="str">
-        <v>#LX7883</v>
+        <v>#LX7889</v>
       </c>
       <c r="E6" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>2025LexusIS</v>
+        <v>2025LexusRX</v>
       </c>
       <c r="B7" t="str">
-        <v>66889</v>
+        <v>70565</v>
       </c>
       <c r="C7" t="str">
-        <v>350 F SPORT 3</v>
+        <v>350</v>
       </c>
       <c r="D7" t="str">
-        <v>#LX7877</v>
+        <v>#LX7888</v>
       </c>
       <c r="E7" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -876,33 +876,33 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2025LexusNX</v>
+        <v>2025LexusES</v>
       </c>
       <c r="B8" t="str">
-        <v>62831</v>
+        <v>66155</v>
       </c>
       <c r="C8" t="str">
-        <v>450h+ ULTRA PREMIUM</v>
+        <v>300h LUXURY</v>
       </c>
       <c r="D8" t="str">
-        <v>#LX7873</v>
+        <v>#LX7883</v>
       </c>
       <c r="E8" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2025LexusUX</v>
+        <v>2025LexusIS</v>
       </c>
       <c r="B9" t="str">
-        <v>47446</v>
+        <v>66889</v>
       </c>
       <c r="C9" t="str">
-        <v>300h PREMIUM PKG</v>
+        <v>350 F SPORT 3</v>
       </c>
       <c r="D9" t="str">
-        <v>#LX7859</v>
+        <v>#LX7877</v>
       </c>
       <c r="E9" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -910,36 +910,36 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2025LexusRX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B10" t="str">
-        <v>90641</v>
+        <v>62831</v>
       </c>
       <c r="C10" t="str">
-        <v>450h+ EXECUTIVE PKG</v>
+        <v>450h+ ULTRA PREMIUM</v>
       </c>
       <c r="D10" t="str">
-        <v>#LX7854</v>
+        <v>#LX7873</v>
       </c>
       <c r="E10" t="str">
-        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2025LexusUX</v>
+        <v>2025LexusRX</v>
       </c>
       <c r="B11" t="str">
-        <v>48096</v>
+        <v>90641</v>
       </c>
       <c r="C11" t="str">
-        <v>300h PREMIUM</v>
+        <v>450h+ EXECUTIVE PKG</v>
       </c>
       <c r="D11" t="str">
-        <v>#LX7853</v>
+        <v>#LX7854</v>
       </c>
       <c r="E11" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
       </c>
     </row>
     <row r="12">
@@ -947,13 +947,13 @@
         <v>2025LexusUX</v>
       </c>
       <c r="B12" t="str">
-        <v>53560</v>
+        <v>48096</v>
       </c>
       <c r="C12" t="str">
-        <v>300h LUXURY PKG</v>
+        <v>300h PREMIUM</v>
       </c>
       <c r="D12" t="str">
-        <v>#LX7851</v>
+        <v>#LX7853</v>
       </c>
       <c r="E12" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -961,53 +961,53 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2025LexusRX</v>
+        <v>2025LexusUX</v>
       </c>
       <c r="B13" t="str">
-        <v>90641</v>
+        <v>53560</v>
       </c>
       <c r="C13" t="str">
-        <v>450h+</v>
+        <v>300h LUXURY PKG</v>
       </c>
       <c r="D13" t="str">
-        <v>#LX7843</v>
+        <v>#LX7851</v>
       </c>
       <c r="E13" t="str">
-        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2025LexusES</v>
+        <v>2025LexusRX</v>
       </c>
       <c r="B14" t="str">
-        <v>67982</v>
+        <v>90641</v>
       </c>
       <c r="C14" t="str">
-        <v>350 F SPORT</v>
+        <v>450h+</v>
       </c>
       <c r="D14" t="str">
-        <v>#LX7842</v>
+        <v>#LX7843</v>
       </c>
       <c r="E14" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
+        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2025LexusNX</v>
+        <v>2025LexusES</v>
       </c>
       <c r="B15" t="str">
-        <v>57311</v>
+        <v>67982</v>
       </c>
       <c r="C15" t="str">
-        <v>350 350- TEST DRIVE UNIT</v>
+        <v>350 F SPORT</v>
       </c>
       <c r="D15" t="str">
-        <v>#LX7832</v>
+        <v>#LX7842</v>
       </c>
       <c r="E15" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
       </c>
     </row>
     <row r="16">
@@ -1015,13 +1015,13 @@
         <v>2025LexusNX</v>
       </c>
       <c r="B16" t="str">
-        <v>60206</v>
+        <v>57311</v>
       </c>
       <c r="C16" t="str">
-        <v>350h PREMIUM</v>
+        <v>350 350- TEST DRIVE UNIT</v>
       </c>
       <c r="D16" t="str">
-        <v>#LX7748</v>
+        <v>#LX7832</v>
       </c>
       <c r="E16" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1029,16 +1029,16 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>2025LexusRX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B17" t="str">
-        <v>81580</v>
+        <v>60206</v>
       </c>
       <c r="C17" t="str">
-        <v>350h EXECUTIVE PKG</v>
+        <v>350h PREMIUM</v>
       </c>
       <c r="D17" t="str">
-        <v>#LX7747</v>
+        <v>#LX7748</v>
       </c>
       <c r="E17" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1049,16 +1049,16 @@
         <v>2025LexusRX</v>
       </c>
       <c r="B18" t="str">
-        <v>90341</v>
+        <v>81580</v>
       </c>
       <c r="C18" t="str">
-        <v>450h+ EXECUTIVE PKG</v>
+        <v>350h EXECUTIVE PKG</v>
       </c>
       <c r="D18" t="str">
-        <v>#LX7689</v>
+        <v>#LX7747</v>
       </c>
       <c r="E18" t="str">
-        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="19">
@@ -1066,13 +1066,13 @@
         <v>2025LexusRX</v>
       </c>
       <c r="B19" t="str">
-        <v>90991</v>
+        <v>90341</v>
       </c>
       <c r="C19" t="str">
-        <v>450h+</v>
+        <v>450h+ EXECUTIVE PKG</v>
       </c>
       <c r="D19" t="str">
-        <v>#LX7672</v>
+        <v>#LX7689</v>
       </c>
       <c r="E19" t="str">
         <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
@@ -1083,30 +1083,30 @@
         <v>2025LexusRX</v>
       </c>
       <c r="B20" t="str">
-        <v>70465</v>
+        <v>90991</v>
       </c>
       <c r="C20" t="str">
-        <v>350 LUXURY PKG</v>
+        <v>450h+</v>
       </c>
       <c r="D20" t="str">
-        <v>#LX7660</v>
+        <v>#LX7672</v>
       </c>
       <c r="E20" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>2024LexusIS</v>
+        <v>2025LexusRX</v>
       </c>
       <c r="B21" t="str">
-        <v>59191</v>
+        <v>70465</v>
       </c>
       <c r="C21" t="str">
-        <v>300 ULTRA LUXURY</v>
+        <v>350 LUXURY PKG</v>
       </c>
       <c r="D21" t="str">
-        <v>#LX7497</v>
+        <v>#LX7660</v>
       </c>
       <c r="E21" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1114,16 +1114,16 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>2025LexusNX</v>
+        <v>2024LexusIS</v>
       </c>
       <c r="B22" t="str">
-        <v>65683</v>
+        <v>59191</v>
       </c>
       <c r="C22" t="str">
-        <v>350</v>
+        <v>300 ULTRA LUXURY</v>
       </c>
       <c r="D22" t="str">
-        <v>#LX7475</v>
+        <v>#LX7497</v>
       </c>
       <c r="E22" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1134,13 +1134,13 @@
         <v>2025LexusNX</v>
       </c>
       <c r="B23" t="str">
-        <v>80106</v>
+        <v>65683</v>
       </c>
       <c r="C23" t="str">
-        <v>450h+ F SPORT 3</v>
+        <v>350</v>
       </c>
       <c r="D23" t="str">
-        <v>#LX7899</v>
+        <v>#LX7475</v>
       </c>
       <c r="E23" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1148,58 +1148,109 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>2025LexusNX</v>
+        <v>2025LexusRX</v>
       </c>
       <c r="B24" t="str">
-        <v>62831</v>
+        <v>91291</v>
       </c>
       <c r="C24" t="str">
-        <v>450h+ ULTRA PREMIUM</v>
+        <v>450h+ EXECUTIVE PKG</v>
       </c>
       <c r="D24" t="str">
-        <v>#LX7894</v>
+        <v>#LX7915</v>
       </c>
       <c r="E24" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>2025LexusGX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B25" t="str">
-        <v>98587</v>
+        <v>80636</v>
       </c>
       <c r="C25" t="str">
-        <v>550 OVERTRAIL</v>
+        <v>450h+ EXECUTIVE</v>
       </c>
       <c r="D25" t="str">
-        <v>#LX7892</v>
+        <v>#LX7914</v>
       </c>
       <c r="E25" t="str">
-        <v>4x4, Active Park Assist, Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
+        <v>2025LexusGX</v>
+      </c>
+      <c r="B26" t="str">
+        <v>111471</v>
+      </c>
+      <c r="C26" t="str">
+        <v>550 OVERTRAIL</v>
+      </c>
+      <c r="D26" t="str">
+        <v>#LX7902</v>
+      </c>
+      <c r="E26" t="str">
+        <v>4x4, Active Park Assist, Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>2025LexusNX</v>
+      </c>
+      <c r="B27" t="str">
+        <v>80106</v>
+      </c>
+      <c r="C27" t="str">
+        <v>450h+ F SPORT 3</v>
+      </c>
+      <c r="D27" t="str">
+        <v>#LX7899</v>
+      </c>
+      <c r="E27" t="str">
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>2025LexusGX</v>
+      </c>
+      <c r="B28" t="str">
+        <v>98587</v>
+      </c>
+      <c r="C28" t="str">
+        <v>550 OVERTRAIL</v>
+      </c>
+      <c r="D28" t="str">
+        <v>#LX7892</v>
+      </c>
+      <c r="E28" t="str">
+        <v>4x4, Active Park Assist, Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
         <v>2025LexusES</v>
       </c>
-      <c r="B26" t="str">
+      <c r="B29" t="str">
         <v>58855</v>
       </c>
-      <c r="C26" t="str">
+      <c r="C29" t="str">
         <v>300h PREMIUM</v>
       </c>
-      <c r="D26" t="str">
+      <c r="D29" t="str">
         <v>#LX7841</v>
       </c>
-      <c r="E26" t="str">
+      <c r="E29" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E26"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E29"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Projects/scrapping_js/lexus_maritime/Lexus_Inventory.xlsx
+++ b/Projects/scrapping_js/lexus_maritime/Lexus_Inventory.xlsx
@@ -443,7 +443,7 @@
         <v>3.5L 6cyl.</v>
       </c>
       <c r="E2" t="str">
-        <v>$51786</v>
+        <v>$51136</v>
       </c>
       <c r="F2" t="str">
         <v>JTHC81F26S5055061</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2025 RX  - 350</v>
+        <v>2025 NX  - 350</v>
       </c>
       <c r="B5" t="str">
         <v>All Wheel Drive</v>
@@ -521,13 +521,13 @@
         <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E5" t="str">
-        <v>$63208</v>
+        <v>$56798</v>
       </c>
       <c r="F5" t="str">
-        <v>2T2BAMCA3SC105461</v>
+        <v>2T2GGCEZXSC082455</v>
       </c>
       <c r="G5" t="str">
-        <v>25161</v>
+        <v>25128</v>
       </c>
       <c r="H5" t="str">
         <v>Premium</v>
@@ -535,7 +535,7 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>2025 RX HYBRID  - 350h</v>
+        <v>2025 NX Plug-In Hybrid  - 450h</v>
       </c>
       <c r="B6" t="str">
         <v>All Wheel Drive</v>
@@ -547,21 +547,21 @@
         <v>2.5L 4cyl.</v>
       </c>
       <c r="E6" t="str">
-        <v>$65568</v>
+        <v>$62318</v>
       </c>
       <c r="F6" t="str">
-        <v>2T2BBMCA7SC086846</v>
+        <v>JTJHKCFZ8S2067261</v>
       </c>
       <c r="G6" t="str">
-        <v>25147</v>
+        <v>25174</v>
       </c>
       <c r="H6" t="str">
-        <v>Premium</v>
+        <v>Ultra Premium</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>2025 RX  - 350 F SPORT</v>
+        <v>2025 NX Plug-In Hybrid  - 450h</v>
       </c>
       <c r="B7" t="str">
         <v>All Wheel Drive</v>
@@ -570,76 +570,76 @@
         <v>Automatic</v>
       </c>
       <c r="D7" t="str">
-        <v>2.4L TURBO 4cyl.</v>
+        <v>2.5L 4cyl.</v>
       </c>
       <c r="E7" t="str">
-        <v>$67158</v>
+        <v>$62318</v>
       </c>
       <c r="F7" t="str">
-        <v>2T2BAMCA1SC107581</v>
+        <v>JTJHKCFZ4S2067161</v>
       </c>
       <c r="G7" t="str">
-        <v>25170</v>
+        <v>25182</v>
       </c>
       <c r="H7" t="str">
-        <v>F SPORT 1</v>
+        <v>Ultra Premium</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2025 ES  - Black Line Special Edition</v>
+        <v>2025 RX  - 350</v>
       </c>
       <c r="B8" t="str">
-        <v>Front Wheel Drive</v>
+        <v>All Wheel Drive</v>
       </c>
       <c r="C8" t="str">
         <v>Automatic</v>
       </c>
       <c r="D8" t="str">
-        <v>3.5L 6cyl.</v>
+        <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E8" t="str">
-        <v>$67469</v>
+        <v>$63208</v>
       </c>
       <c r="F8" t="str">
-        <v>58AJZ1B14SU201714</v>
+        <v>2T2BAMCA3SC105461</v>
       </c>
       <c r="G8" t="str">
-        <v>25154</v>
+        <v>25161</v>
       </c>
       <c r="H8" t="str">
-        <v>Black Line Special Edition</v>
+        <v>Premium</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2025 ES HYBRID  - Ultra Luxury</v>
+        <v>2025 RX  - 350</v>
       </c>
       <c r="B9" t="str">
-        <v>Front Wheel Drive</v>
+        <v>All Wheel Drive</v>
       </c>
       <c r="C9" t="str">
         <v>Automatic</v>
       </c>
       <c r="D9" t="str">
-        <v>2.5L 4cyl.</v>
+        <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E9" t="str">
-        <v>$69147</v>
+        <v>$63208</v>
       </c>
       <c r="F9" t="str">
-        <v>58AB21B1XSU015426</v>
+        <v>2T2BAMCA2SC108898</v>
       </c>
       <c r="G9" t="str">
-        <v>25153</v>
+        <v>25180</v>
       </c>
       <c r="H9" t="str">
-        <v>Ultra Luxury</v>
+        <v>Premium</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2025 RX  - 350</v>
+        <v>2025 RX HYBRID  - 350h</v>
       </c>
       <c r="B10" t="str">
         <v>All Wheel Drive</v>
@@ -648,76 +648,76 @@
         <v>Automatic</v>
       </c>
       <c r="D10" t="str">
-        <v>2.4L TURBO 4cyl.</v>
+        <v>2.5L 4cyl.</v>
       </c>
       <c r="E10" t="str">
-        <v>$70702</v>
+        <v>$65568</v>
       </c>
       <c r="F10" t="str">
-        <v>2T2BAMCA2SC105449</v>
+        <v>2T2BBMCA7SC086846</v>
       </c>
       <c r="G10" t="str">
-        <v>25169</v>
+        <v>25147</v>
       </c>
       <c r="H10" t="str">
-        <v>Luxury</v>
+        <v>Premium</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2025 RZ  - LUXURY</v>
+        <v>2025 ES  - Black Line Special Edition</v>
       </c>
       <c r="B11" t="str">
-        <v>All Wheel Drive</v>
+        <v>Front Wheel Drive</v>
       </c>
       <c r="C11" t="str">
         <v>Automatic</v>
       </c>
       <c r="D11" t="str">
-        <v>0L</v>
+        <v>3.5L 6cyl.</v>
       </c>
       <c r="E11" t="str">
-        <v>$73298</v>
+        <v>$67469</v>
       </c>
       <c r="F11" t="str">
-        <v>JTJAAAAB0SA029385</v>
+        <v>58AJZ1B14SU201714</v>
       </c>
       <c r="G11" t="str">
-        <v>25130</v>
+        <v>25154</v>
       </c>
       <c r="H11" t="str">
-        <v>Eminent White Pearl</v>
+        <v>Black Line Special Edition</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2025 RX  - 350</v>
+        <v>2025 ES HYBRID  - Ultra Luxury</v>
       </c>
       <c r="B12" t="str">
-        <v>All Wheel Drive</v>
+        <v>Front Wheel Drive</v>
       </c>
       <c r="C12" t="str">
         <v>Automatic</v>
       </c>
       <c r="D12" t="str">
-        <v>2.4L TURBO 4cyl.</v>
+        <v>2.5L 4cyl.</v>
       </c>
       <c r="E12" t="str">
-        <v>$78057</v>
+        <v>$69147</v>
       </c>
       <c r="F12" t="str">
-        <v>2T2BAMCA4SC106554</v>
+        <v>58AB21B1XSU015426</v>
       </c>
       <c r="G12" t="str">
-        <v>25166</v>
+        <v>25153</v>
       </c>
       <c r="H12" t="str">
-        <v>Executive</v>
+        <v>Ultra Luxury</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2025 RX  - 350 F SPORT</v>
+        <v>2025 RX  - 350</v>
       </c>
       <c r="B13" t="str">
         <v>All Wheel Drive</v>
@@ -729,16 +729,16 @@
         <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E13" t="str">
-        <v>$78707</v>
+        <v>$70702</v>
       </c>
       <c r="F13" t="str">
-        <v>2T2BAMCA6SC100870</v>
+        <v>2T2BAMCA2SC105449</v>
       </c>
       <c r="G13" t="str">
-        <v>25124</v>
+        <v>25169</v>
       </c>
       <c r="H13" t="str">
-        <v>F SPORT 3</v>
+        <v>Luxury</v>
       </c>
     </row>
   </sheetData>
@@ -750,7 +750,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -774,16 +774,16 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2025LexusIS</v>
+        <v>2025LexusRX</v>
       </c>
       <c r="B2" t="str">
-        <v>64048</v>
+        <v>70565</v>
       </c>
       <c r="C2" t="str">
-        <v>350 F SPORT 3</v>
+        <v>350</v>
       </c>
       <c r="D2" t="str">
-        <v>#LX7877</v>
+        <v>#LX7888</v>
       </c>
       <c r="E2" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -791,33 +791,33 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2025LexusNX</v>
+        <v>2025LexusES</v>
       </c>
       <c r="B3" t="str">
-        <v>59990</v>
+        <v>66155</v>
       </c>
       <c r="C3" t="str">
-        <v>450h+ ULTRA PREMIUM</v>
+        <v>300h LUXURY</v>
       </c>
       <c r="D3" t="str">
-        <v>#LX7873</v>
+        <v>#LX7883</v>
       </c>
       <c r="E3" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2025LexusUX</v>
+        <v>2025LexusIS</v>
       </c>
       <c r="B4" t="str">
-        <v>44605</v>
+        <v>66889</v>
       </c>
       <c r="C4" t="str">
-        <v>300h PREMIUM PKG</v>
+        <v>350 F SPORT 3</v>
       </c>
       <c r="D4" t="str">
-        <v>#LX7865</v>
+        <v>#LX7877</v>
       </c>
       <c r="E4" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -825,16 +825,16 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2025LexusUX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B5" t="str">
-        <v>44605</v>
+        <v>62831</v>
       </c>
       <c r="C5" t="str">
-        <v>300h PREMIUM PKG</v>
+        <v>450h+ ULTRA PREMIUM</v>
       </c>
       <c r="D5" t="str">
-        <v>#LX7859</v>
+        <v>#LX7873</v>
       </c>
       <c r="E5" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -842,19 +842,19 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>2025LexusRX</v>
+        <v>2025LexusUX</v>
       </c>
       <c r="B6" t="str">
-        <v>87800</v>
+        <v>47446</v>
       </c>
       <c r="C6" t="str">
-        <v>450h+ EXECUTIVE PKG</v>
+        <v>300h PREMIUM PKG</v>
       </c>
       <c r="D6" t="str">
-        <v>#LX7854</v>
+        <v>#LX7865</v>
       </c>
       <c r="E6" t="str">
-        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="7">
@@ -862,13 +862,13 @@
         <v>2025LexusUX</v>
       </c>
       <c r="B7" t="str">
-        <v>45255</v>
+        <v>47446</v>
       </c>
       <c r="C7" t="str">
-        <v>300h PREMIUM</v>
+        <v>300h PREMIUM PKG</v>
       </c>
       <c r="D7" t="str">
-        <v>#LX7853</v>
+        <v>#LX7859</v>
       </c>
       <c r="E7" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -876,101 +876,101 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2025LexusUX</v>
+        <v>2025LexusRX</v>
       </c>
       <c r="B8" t="str">
-        <v>50719</v>
+        <v>90641</v>
       </c>
       <c r="C8" t="str">
-        <v>300h LUXURY PKG</v>
+        <v>450h+ EXECUTIVE PKG</v>
       </c>
       <c r="D8" t="str">
-        <v>#LX7851</v>
+        <v>#LX7854</v>
       </c>
       <c r="E8" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2025LexusRX</v>
+        <v>2025LexusUX</v>
       </c>
       <c r="B9" t="str">
-        <v>87800</v>
+        <v>48096</v>
       </c>
       <c r="C9" t="str">
-        <v>450h+</v>
+        <v>300h PREMIUM</v>
       </c>
       <c r="D9" t="str">
-        <v>#LX7843</v>
+        <v>#LX7853</v>
       </c>
       <c r="E9" t="str">
-        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2025LexusES</v>
+        <v>2025LexusUX</v>
       </c>
       <c r="B10" t="str">
-        <v>65141</v>
+        <v>53560</v>
       </c>
       <c r="C10" t="str">
-        <v>350 F SPORT</v>
+        <v>300h LUXURY PKG</v>
       </c>
       <c r="D10" t="str">
-        <v>#LX7842</v>
+        <v>#LX7851</v>
       </c>
       <c r="E10" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2025LexusNX</v>
+        <v>2025LexusRX</v>
       </c>
       <c r="B11" t="str">
-        <v>54470</v>
+        <v>90641</v>
       </c>
       <c r="C11" t="str">
-        <v>350 350- TEST DRIVE UNIT</v>
+        <v>450h+</v>
       </c>
       <c r="D11" t="str">
-        <v>#LX7832</v>
+        <v>#LX7843</v>
       </c>
       <c r="E11" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2025LexusNX</v>
+        <v>2025LexusES</v>
       </c>
       <c r="B12" t="str">
-        <v>57365</v>
+        <v>67982</v>
       </c>
       <c r="C12" t="str">
-        <v>350h PREMIUM</v>
+        <v>350 F SPORT</v>
       </c>
       <c r="D12" t="str">
-        <v>#LX7748</v>
+        <v>#LX7842</v>
       </c>
       <c r="E12" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2025LexusRX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B13" t="str">
-        <v>78739</v>
+        <v>57311</v>
       </c>
       <c r="C13" t="str">
-        <v>350h EXECUTIVE PKG</v>
+        <v>350 350- TEST DRIVE UNIT</v>
       </c>
       <c r="D13" t="str">
-        <v>#LX7747</v>
+        <v>#LX7832</v>
       </c>
       <c r="E13" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -978,16 +978,16 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2025LexusUX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B14" t="str">
-        <v>49719</v>
+        <v>60206</v>
       </c>
       <c r="C14" t="str">
-        <v>300h</v>
+        <v>350h PREMIUM</v>
       </c>
       <c r="D14" t="str">
-        <v>#LX7696</v>
+        <v>#LX7748</v>
       </c>
       <c r="E14" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -998,16 +998,16 @@
         <v>2025LexusRX</v>
       </c>
       <c r="B15" t="str">
-        <v>87500</v>
+        <v>81580</v>
       </c>
       <c r="C15" t="str">
-        <v>450h+ EXECUTIVE PKG</v>
+        <v>350h EXECUTIVE PKG</v>
       </c>
       <c r="D15" t="str">
-        <v>#LX7689</v>
+        <v>#LX7747</v>
       </c>
       <c r="E15" t="str">
-        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="16">
@@ -1015,13 +1015,13 @@
         <v>2025LexusRX</v>
       </c>
       <c r="B16" t="str">
-        <v>88150</v>
+        <v>90341</v>
       </c>
       <c r="C16" t="str">
-        <v>450h+</v>
+        <v>450h+ EXECUTIVE PKG</v>
       </c>
       <c r="D16" t="str">
-        <v>#LX7672</v>
+        <v>#LX7689</v>
       </c>
       <c r="E16" t="str">
         <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
@@ -1032,30 +1032,30 @@
         <v>2025LexusRX</v>
       </c>
       <c r="B17" t="str">
-        <v>67624</v>
+        <v>90991</v>
       </c>
       <c r="C17" t="str">
-        <v>350 LUXURY PKG</v>
+        <v>450h+</v>
       </c>
       <c r="D17" t="str">
-        <v>#LX7660</v>
+        <v>#LX7672</v>
       </c>
       <c r="E17" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>2024LexusIS</v>
+        <v>2025LexusRX</v>
       </c>
       <c r="B18" t="str">
-        <v>56350</v>
+        <v>70465</v>
       </c>
       <c r="C18" t="str">
-        <v>300 ULTRA LUXURY</v>
+        <v>350 LUXURY PKG</v>
       </c>
       <c r="D18" t="str">
-        <v>#LX7497</v>
+        <v>#LX7660</v>
       </c>
       <c r="E18" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1063,16 +1063,16 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>2025LexusNX</v>
+        <v>2024LexusIS</v>
       </c>
       <c r="B19" t="str">
-        <v>62842</v>
+        <v>59191</v>
       </c>
       <c r="C19" t="str">
-        <v>350</v>
+        <v>300 ULTRA LUXURY</v>
       </c>
       <c r="D19" t="str">
-        <v>#LX7475</v>
+        <v>#LX7497</v>
       </c>
       <c r="E19" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1080,58 +1080,92 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>2025LexusES</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B20" t="str">
-        <v>63314</v>
+        <v>65683</v>
       </c>
       <c r="C20" t="str">
-        <v>300h LUXURY</v>
+        <v>350</v>
       </c>
       <c r="D20" t="str">
-        <v>#LX7883</v>
+        <v>#LX7475</v>
       </c>
       <c r="E20" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>2025LexusNX</v>
+        <v>2025LexusGX</v>
       </c>
       <c r="B21" t="str">
-        <v>54470</v>
+        <v>98587</v>
       </c>
       <c r="C21" t="str">
-        <v>350 PREMIUM</v>
+        <v>550 OVERTRAIL</v>
       </c>
       <c r="D21" t="str">
-        <v>#LX7882</v>
+        <v>#LX7892</v>
       </c>
       <c r="E21" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>4x4, Active Park Assist, Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
+        <v>2025LexusIS</v>
+      </c>
+      <c r="B22" t="str">
+        <v>51649</v>
+      </c>
+      <c r="C22" t="str">
+        <v>300 PREMIUM PKG</v>
+      </c>
+      <c r="D22" t="str">
+        <v>#LX7890</v>
+      </c>
+      <c r="E22" t="str">
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>2025LexusIS</v>
+      </c>
+      <c r="B23" t="str">
+        <v>60889</v>
+      </c>
+      <c r="C23" t="str">
+        <v>300 ULTRA LUXURY</v>
+      </c>
+      <c r="D23" t="str">
+        <v>#LX7889</v>
+      </c>
+      <c r="E23" t="str">
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
         <v>2025LexusES</v>
       </c>
-      <c r="B22" t="str">
-        <v>56014</v>
-      </c>
-      <c r="C22" t="str">
+      <c r="B24" t="str">
+        <v>58855</v>
+      </c>
+      <c r="C24" t="str">
         <v>300h PREMIUM</v>
       </c>
-      <c r="D22" t="str">
+      <c r="D24" t="str">
         <v>#LX7841</v>
       </c>
-      <c r="E22" t="str">
+      <c r="E24" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E22"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E24"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Projects/scrapping_js/lexus_maritime/Lexus_Inventory.xlsx
+++ b/Projects/scrapping_js/lexus_maritime/Lexus_Inventory.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2025 NX  - 250 SIGNATURE</v>
+        <v>2025 NX HYBRID  - 350h</v>
       </c>
       <c r="B3" t="str">
         <v>All Wheel Drive</v>
@@ -469,21 +469,21 @@
         <v>2.5L 4cyl.</v>
       </c>
       <c r="E3" t="str">
-        <v>$53793</v>
+        <v>$59043</v>
       </c>
       <c r="F3" t="str">
-        <v>2T2ADCEZ7SC007128</v>
+        <v>2T2GKCEZ9SC055150</v>
       </c>
       <c r="G3" t="str">
-        <v>25108</v>
+        <v>25189</v>
       </c>
       <c r="H3" t="str">
-        <v>Signature</v>
+        <v>Premium</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2025 UX HYBRID  - F SPORT</v>
+        <v>2025 NX HYBRID  - 350h</v>
       </c>
       <c r="B4" t="str">
         <v>All Wheel Drive</v>
@@ -492,50 +492,50 @@
         <v>Automatic</v>
       </c>
       <c r="D4" t="str">
-        <v>2L 4cyl.</v>
+        <v>2.5L 4cyl.</v>
       </c>
       <c r="E4" t="str">
-        <v>$55322</v>
+        <v>$59043</v>
       </c>
       <c r="F4" t="str">
-        <v>JTHUCJDH5S2010057</v>
+        <v>2T2GKCEZ8SC054989</v>
       </c>
       <c r="G4" t="str">
-        <v>25162</v>
+        <v>25187</v>
       </c>
       <c r="H4" t="str">
-        <v>F SPORT SÉRIE 2</v>
+        <v>Premium</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2025 NX  - 350</v>
+        <v>2025 RX  - STD</v>
       </c>
       <c r="B5" t="str">
-        <v>All Wheel Drive</v>
+        <v/>
       </c>
       <c r="C5" t="str">
-        <v>Automatic</v>
+        <v/>
       </c>
       <c r="D5" t="str">
-        <v>2.4L TURBO 4cyl.</v>
+        <v>4 Cylinder Engine 2.4L</v>
       </c>
       <c r="E5" t="str">
-        <v>$56798</v>
+        <v>$60253</v>
       </c>
       <c r="F5" t="str">
-        <v>2T2GGCEZXSC082455</v>
+        <v>2T2BAMCA6SC111464</v>
       </c>
       <c r="G5" t="str">
-        <v>25128</v>
+        <v>25191</v>
       </c>
       <c r="H5" t="str">
-        <v>Premium</v>
+        <v>Caviar</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>2025 NX Plug-In Hybrid  - 450h</v>
+        <v>2025 NX  - F SPORT</v>
       </c>
       <c r="B6" t="str">
         <v>All Wheel Drive</v>
@@ -544,19 +544,19 @@
         <v>Automatic</v>
       </c>
       <c r="D6" t="str">
-        <v>2.5L 4cyl.</v>
+        <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E6" t="str">
-        <v>$62318</v>
+        <v>$61618</v>
       </c>
       <c r="F6" t="str">
-        <v>JTJHKCFZ8S2067261</v>
+        <v>2T2KGCEZ7SC090376</v>
       </c>
       <c r="G6" t="str">
-        <v>25174</v>
+        <v>25188</v>
       </c>
       <c r="H6" t="str">
-        <v>Ultra Premium</v>
+        <v>F SPORT 1</v>
       </c>
     </row>
     <row r="7">
@@ -602,10 +602,10 @@
         <v>$63208</v>
       </c>
       <c r="F8" t="str">
-        <v>2T2BAMCA3SC105461</v>
+        <v>2T2BAMCA2SC108898</v>
       </c>
       <c r="G8" t="str">
-        <v>25161</v>
+        <v>25180</v>
       </c>
       <c r="H8" t="str">
         <v>Premium</v>
@@ -613,36 +613,36 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2025 RX  - 350</v>
+        <v>2025 ES  - Black Line Special Edition</v>
       </c>
       <c r="B9" t="str">
-        <v>All Wheel Drive</v>
+        <v>Front Wheel Drive</v>
       </c>
       <c r="C9" t="str">
         <v>Automatic</v>
       </c>
       <c r="D9" t="str">
-        <v>2.4L TURBO 4cyl.</v>
+        <v>3.5L 6cyl.</v>
       </c>
       <c r="E9" t="str">
-        <v>$63208</v>
+        <v>$67469</v>
       </c>
       <c r="F9" t="str">
-        <v>2T2BAMCA2SC108898</v>
+        <v>58AJZ1B14SU201714</v>
       </c>
       <c r="G9" t="str">
-        <v>25180</v>
+        <v>25154</v>
       </c>
       <c r="H9" t="str">
-        <v>Premium</v>
+        <v>Black Line Special Edition</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2025 RX HYBRID  - 350h</v>
+        <v>2025 ES HYBRID  - Ultra Luxury</v>
       </c>
       <c r="B10" t="str">
-        <v>All Wheel Drive</v>
+        <v>Front Wheel Drive</v>
       </c>
       <c r="C10" t="str">
         <v>Automatic</v>
@@ -651,65 +651,65 @@
         <v>2.5L 4cyl.</v>
       </c>
       <c r="E10" t="str">
-        <v>$65568</v>
+        <v>$69147</v>
       </c>
       <c r="F10" t="str">
-        <v>2T2BBMCA7SC086846</v>
+        <v>58AB21B1XSU015426</v>
       </c>
       <c r="G10" t="str">
-        <v>25147</v>
+        <v>25153</v>
       </c>
       <c r="H10" t="str">
-        <v>Premium</v>
+        <v>Ultra Luxury</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2025 ES  - Black Line Special Edition</v>
+        <v>2025 RZ  - LUXURY</v>
       </c>
       <c r="B11" t="str">
-        <v>Front Wheel Drive</v>
+        <v>All Wheel Drive</v>
       </c>
       <c r="C11" t="str">
         <v>Automatic</v>
       </c>
       <c r="D11" t="str">
-        <v>3.5L 6cyl.</v>
+        <v>0L</v>
       </c>
       <c r="E11" t="str">
-        <v>$67469</v>
+        <v>$73298</v>
       </c>
       <c r="F11" t="str">
-        <v>58AJZ1B14SU201714</v>
+        <v>JTJAAAAB0SA029385</v>
       </c>
       <c r="G11" t="str">
-        <v>25154</v>
+        <v>25130</v>
       </c>
       <c r="H11" t="str">
-        <v>Black Line Special Edition</v>
+        <v>Eminent White Pearl</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2025 ES HYBRID  - Ultra Luxury</v>
+        <v>2025 RX  - 350</v>
       </c>
       <c r="B12" t="str">
-        <v>Front Wheel Drive</v>
+        <v>All Wheel Drive</v>
       </c>
       <c r="C12" t="str">
         <v>Automatic</v>
       </c>
       <c r="D12" t="str">
-        <v>2.5L 4cyl.</v>
+        <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E12" t="str">
-        <v>$69147</v>
+        <v>$74208</v>
       </c>
       <c r="F12" t="str">
-        <v>58AB21B1XSU015426</v>
+        <v>2T2BAMCA9SC108574</v>
       </c>
       <c r="G12" t="str">
-        <v>25153</v>
+        <v>25177</v>
       </c>
       <c r="H12" t="str">
         <v>Ultra Luxury</v>
@@ -717,7 +717,7 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2025 RX  - 350</v>
+        <v>2025 RX  - 350 F SPORT</v>
       </c>
       <c r="B13" t="str">
         <v>All Wheel Drive</v>
@@ -729,16 +729,16 @@
         <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E13" t="str">
-        <v>$70702</v>
+        <v>$78707</v>
       </c>
       <c r="F13" t="str">
-        <v>2T2BAMCA2SC105449</v>
+        <v>2T2BAMCA6SC100870</v>
       </c>
       <c r="G13" t="str">
-        <v>25169</v>
+        <v>25124</v>
       </c>
       <c r="H13" t="str">
-        <v>Luxury</v>
+        <v>F SPORT 3</v>
       </c>
     </row>
   </sheetData>
@@ -750,7 +750,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -777,47 +777,47 @@
         <v>2025LexusRX</v>
       </c>
       <c r="B2" t="str">
-        <v>70565</v>
+        <v>91291</v>
       </c>
       <c r="C2" t="str">
-        <v>350</v>
+        <v>450h+ EXECUTIVE PKG</v>
       </c>
       <c r="D2" t="str">
-        <v>#LX7888</v>
+        <v>#LX7915</v>
       </c>
       <c r="E2" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2025LexusES</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B3" t="str">
-        <v>66155</v>
+        <v>80636</v>
       </c>
       <c r="C3" t="str">
-        <v>300h LUXURY</v>
+        <v>450h+ EXECUTIVE</v>
       </c>
       <c r="D3" t="str">
-        <v>#LX7883</v>
+        <v>#LX7914</v>
       </c>
       <c r="E3" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2025LexusIS</v>
+        <v>2025LexusRX</v>
       </c>
       <c r="B4" t="str">
-        <v>66889</v>
+        <v>79220</v>
       </c>
       <c r="C4" t="str">
-        <v>350 F SPORT 3</v>
+        <v>350 EXECUTIVE PKG</v>
       </c>
       <c r="D4" t="str">
-        <v>#LX7877</v>
+        <v>#LX7909</v>
       </c>
       <c r="E4" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -834,7 +834,7 @@
         <v>450h+ ULTRA PREMIUM</v>
       </c>
       <c r="D5" t="str">
-        <v>#LX7873</v>
+        <v>#LX7894</v>
       </c>
       <c r="E5" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -842,16 +842,16 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>2025LexusUX</v>
+        <v>2025LexusIS</v>
       </c>
       <c r="B6" t="str">
-        <v>47446</v>
+        <v>60889</v>
       </c>
       <c r="C6" t="str">
-        <v>300h PREMIUM PKG</v>
+        <v>300 ULTRA LUXURY</v>
       </c>
       <c r="D6" t="str">
-        <v>#LX7865</v>
+        <v>#LX7889</v>
       </c>
       <c r="E6" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -859,16 +859,16 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>2025LexusUX</v>
+        <v>2025LexusRX</v>
       </c>
       <c r="B7" t="str">
-        <v>47446</v>
+        <v>70565</v>
       </c>
       <c r="C7" t="str">
-        <v>300h PREMIUM PKG</v>
+        <v>350</v>
       </c>
       <c r="D7" t="str">
-        <v>#LX7859</v>
+        <v>#LX7888</v>
       </c>
       <c r="E7" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -876,33 +876,33 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2025LexusRX</v>
+        <v>2025LexusES</v>
       </c>
       <c r="B8" t="str">
-        <v>90641</v>
+        <v>66155</v>
       </c>
       <c r="C8" t="str">
-        <v>450h+ EXECUTIVE PKG</v>
+        <v>300h LUXURY</v>
       </c>
       <c r="D8" t="str">
-        <v>#LX7854</v>
+        <v>#LX7883</v>
       </c>
       <c r="E8" t="str">
-        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
+        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2025LexusUX</v>
+        <v>2025LexusIS</v>
       </c>
       <c r="B9" t="str">
-        <v>48096</v>
+        <v>66889</v>
       </c>
       <c r="C9" t="str">
-        <v>300h PREMIUM</v>
+        <v>350 F SPORT 3</v>
       </c>
       <c r="D9" t="str">
-        <v>#LX7853</v>
+        <v>#LX7877</v>
       </c>
       <c r="E9" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -910,101 +910,101 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2025LexusUX</v>
+        <v>2025LexusRX</v>
       </c>
       <c r="B10" t="str">
-        <v>53560</v>
+        <v>90641</v>
       </c>
       <c r="C10" t="str">
-        <v>300h LUXURY PKG</v>
+        <v>450h+ EXECUTIVE PKG</v>
       </c>
       <c r="D10" t="str">
-        <v>#LX7851</v>
+        <v>#LX7854</v>
       </c>
       <c r="E10" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2025LexusRX</v>
+        <v>2025LexusUX</v>
       </c>
       <c r="B11" t="str">
-        <v>90641</v>
+        <v>48096</v>
       </c>
       <c r="C11" t="str">
-        <v>450h+</v>
+        <v>300h PREMIUM</v>
       </c>
       <c r="D11" t="str">
-        <v>#LX7843</v>
+        <v>#LX7853</v>
       </c>
       <c r="E11" t="str">
-        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2025LexusES</v>
+        <v>2025LexusUX</v>
       </c>
       <c r="B12" t="str">
-        <v>67982</v>
+        <v>53560</v>
       </c>
       <c r="C12" t="str">
-        <v>350 F SPORT</v>
+        <v>300h LUXURY PKG</v>
       </c>
       <c r="D12" t="str">
-        <v>#LX7842</v>
+        <v>#LX7851</v>
       </c>
       <c r="E12" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2025LexusNX</v>
+        <v>2025LexusRX</v>
       </c>
       <c r="B13" t="str">
-        <v>57311</v>
+        <v>90641</v>
       </c>
       <c r="C13" t="str">
-        <v>350 350- TEST DRIVE UNIT</v>
+        <v>450h+</v>
       </c>
       <c r="D13" t="str">
-        <v>#LX7832</v>
+        <v>#LX7843</v>
       </c>
       <c r="E13" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2025LexusNX</v>
+        <v>2025LexusES</v>
       </c>
       <c r="B14" t="str">
-        <v>60206</v>
+        <v>67982</v>
       </c>
       <c r="C14" t="str">
-        <v>350h PREMIUM</v>
+        <v>350 F SPORT</v>
       </c>
       <c r="D14" t="str">
-        <v>#LX7748</v>
+        <v>#LX7842</v>
       </c>
       <c r="E14" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2025LexusRX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B15" t="str">
-        <v>81580</v>
+        <v>60206</v>
       </c>
       <c r="C15" t="str">
-        <v>350h EXECUTIVE PKG</v>
+        <v>350h PREMIUM</v>
       </c>
       <c r="D15" t="str">
-        <v>#LX7747</v>
+        <v>#LX7748</v>
       </c>
       <c r="E15" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1015,16 +1015,16 @@
         <v>2025LexusRX</v>
       </c>
       <c r="B16" t="str">
-        <v>90341</v>
+        <v>81580</v>
       </c>
       <c r="C16" t="str">
-        <v>450h+ EXECUTIVE PKG</v>
+        <v>350h EXECUTIVE PKG</v>
       </c>
       <c r="D16" t="str">
-        <v>#LX7689</v>
+        <v>#LX7747</v>
       </c>
       <c r="E16" t="str">
-        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="17">
@@ -1032,13 +1032,13 @@
         <v>2025LexusRX</v>
       </c>
       <c r="B17" t="str">
-        <v>90991</v>
+        <v>90341</v>
       </c>
       <c r="C17" t="str">
-        <v>450h+</v>
+        <v>450h+ EXECUTIVE PKG</v>
       </c>
       <c r="D17" t="str">
-        <v>#LX7672</v>
+        <v>#LX7689</v>
       </c>
       <c r="E17" t="str">
         <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
@@ -1049,30 +1049,30 @@
         <v>2025LexusRX</v>
       </c>
       <c r="B18" t="str">
-        <v>70465</v>
+        <v>90991</v>
       </c>
       <c r="C18" t="str">
-        <v>350 LUXURY PKG</v>
+        <v>450h+</v>
       </c>
       <c r="D18" t="str">
-        <v>#LX7660</v>
+        <v>#LX7672</v>
       </c>
       <c r="E18" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>2024LexusIS</v>
+        <v>2025LexusRX</v>
       </c>
       <c r="B19" t="str">
-        <v>59191</v>
+        <v>70465</v>
       </c>
       <c r="C19" t="str">
-        <v>300 ULTRA LUXURY</v>
+        <v>350 LUXURY PKG</v>
       </c>
       <c r="D19" t="str">
-        <v>#LX7497</v>
+        <v>#LX7660</v>
       </c>
       <c r="E19" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1097,19 +1097,19 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>2025LexusGX</v>
+        <v>2025LexusES</v>
       </c>
       <c r="B21" t="str">
-        <v>98587</v>
+        <v>66155</v>
       </c>
       <c r="C21" t="str">
-        <v>550 OVERTRAIL</v>
+        <v>300h LUXURY</v>
       </c>
       <c r="D21" t="str">
-        <v>#LX7892</v>
+        <v>#LX7919</v>
       </c>
       <c r="E21" t="str">
-        <v>4x4, Active Park Assist, Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
+        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
       </c>
     </row>
     <row r="22">
@@ -1117,13 +1117,13 @@
         <v>2025LexusIS</v>
       </c>
       <c r="B22" t="str">
-        <v>51649</v>
+        <v>53754</v>
       </c>
       <c r="C22" t="str">
-        <v>300 PREMIUM PKG</v>
+        <v>300 F SPORT DESIGN</v>
       </c>
       <c r="D22" t="str">
-        <v>#LX7890</v>
+        <v>#LX7917</v>
       </c>
       <c r="E22" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1131,41 +1131,58 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>2025LexusIS</v>
+        <v>2025LexusGX</v>
       </c>
       <c r="B23" t="str">
-        <v>60889</v>
+        <v>111471</v>
       </c>
       <c r="C23" t="str">
-        <v>300 ULTRA LUXURY</v>
+        <v>550 OVERTRAIL</v>
       </c>
       <c r="D23" t="str">
-        <v>#LX7889</v>
+        <v>#LX7902</v>
       </c>
       <c r="E23" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>4x4, Active Park Assist, Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
+        <v>2025LexusNX</v>
+      </c>
+      <c r="B24" t="str">
+        <v>80106</v>
+      </c>
+      <c r="C24" t="str">
+        <v>450h+ F SPORT 3</v>
+      </c>
+      <c r="D24" t="str">
+        <v>#LX7899</v>
+      </c>
+      <c r="E24" t="str">
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
         <v>2025LexusES</v>
       </c>
-      <c r="B24" t="str">
+      <c r="B25" t="str">
         <v>58855</v>
       </c>
-      <c r="C24" t="str">
+      <c r="C25" t="str">
         <v>300h PREMIUM</v>
       </c>
-      <c r="D24" t="str">
+      <c r="D25" t="str">
         <v>#LX7841</v>
       </c>
-      <c r="E24" t="str">
+      <c r="E25" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E24"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E25"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Projects/scrapping_js/lexus_maritime/Lexus_Inventory.xlsx
+++ b/Projects/scrapping_js/lexus_maritime/Lexus_Inventory.xlsx
@@ -509,33 +509,33 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2025 RX  - STD</v>
+        <v>2025 NX  - F SPORT</v>
       </c>
       <c r="B5" t="str">
-        <v/>
+        <v>All Wheel Drive</v>
       </c>
       <c r="C5" t="str">
-        <v/>
+        <v>Automatic</v>
       </c>
       <c r="D5" t="str">
-        <v>4 Cylinder Engine 2.4L</v>
+        <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E5" t="str">
-        <v>$60253</v>
+        <v>$61618</v>
       </c>
       <c r="F5" t="str">
-        <v>2T2BAMCA6SC111464</v>
+        <v>2T2KGCEZ7SC090376</v>
       </c>
       <c r="G5" t="str">
-        <v>25191</v>
+        <v>25188</v>
       </c>
       <c r="H5" t="str">
-        <v>Caviar</v>
+        <v>F SPORT 1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>2025 NX  - F SPORT</v>
+        <v>2025 NX Plug-In Hybrid  - 450h</v>
       </c>
       <c r="B6" t="str">
         <v>All Wheel Drive</v>
@@ -544,24 +544,24 @@
         <v>Automatic</v>
       </c>
       <c r="D6" t="str">
-        <v>2.4L TURBO 4cyl.</v>
+        <v>2.5L 4cyl.</v>
       </c>
       <c r="E6" t="str">
-        <v>$61618</v>
+        <v>$62318</v>
       </c>
       <c r="F6" t="str">
-        <v>2T2KGCEZ7SC090376</v>
+        <v>JTJHKCFZ4S2067161</v>
       </c>
       <c r="G6" t="str">
-        <v>25188</v>
+        <v>25182</v>
       </c>
       <c r="H6" t="str">
-        <v>F SPORT 1</v>
+        <v>Ultra Premium</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>2025 NX Plug-In Hybrid  - 450h</v>
+        <v>2025 RX  - 350</v>
       </c>
       <c r="B7" t="str">
         <v>All Wheel Drive</v>
@@ -570,19 +570,19 @@
         <v>Automatic</v>
       </c>
       <c r="D7" t="str">
-        <v>2.5L 4cyl.</v>
+        <v>2.4L TURBO 4cyl.</v>
       </c>
       <c r="E7" t="str">
-        <v>$62318</v>
+        <v>$62558</v>
       </c>
       <c r="F7" t="str">
-        <v>JTJHKCFZ4S2067161</v>
+        <v>2T2BAMCA6SC111464</v>
       </c>
       <c r="G7" t="str">
-        <v>25182</v>
+        <v>25191</v>
       </c>
       <c r="H7" t="str">
-        <v>Ultra Premium</v>
+        <v>Premium</v>
       </c>
     </row>
     <row r="8">
@@ -717,7 +717,7 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2025 RX  - 350 F SPORT</v>
+        <v>2025 NX Plug-In Hybrid  - 450h F SPORT</v>
       </c>
       <c r="B13" t="str">
         <v>All Wheel Drive</v>
@@ -726,16 +726,16 @@
         <v>Automatic</v>
       </c>
       <c r="D13" t="str">
-        <v>2.4L TURBO 4cyl.</v>
+        <v>2.5L 4cyl.</v>
       </c>
       <c r="E13" t="str">
-        <v>$78707</v>
+        <v>$80243</v>
       </c>
       <c r="F13" t="str">
-        <v>2T2BAMCA6SC100870</v>
+        <v>JTJKKCFZ9S2067081</v>
       </c>
       <c r="G13" t="str">
-        <v>25124</v>
+        <v>25175</v>
       </c>
       <c r="H13" t="str">
         <v>F SPORT 3</v>
@@ -750,7 +750,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -774,19 +774,19 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2025LexusRX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B2" t="str">
-        <v>91291</v>
+        <v>63481</v>
       </c>
       <c r="C2" t="str">
-        <v>450h+ EXECUTIVE PKG</v>
+        <v>450h+ ULTRA PREMIUM</v>
       </c>
       <c r="D2" t="str">
-        <v>#LX7915</v>
+        <v>#LX7926</v>
       </c>
       <c r="E2" t="str">
-        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="3">
@@ -794,13 +794,13 @@
         <v>2025LexusNX</v>
       </c>
       <c r="B3" t="str">
-        <v>80636</v>
+        <v>63481</v>
       </c>
       <c r="C3" t="str">
-        <v>450h+ EXECUTIVE</v>
+        <v>450h+ ULTRA PREMIUM</v>
       </c>
       <c r="D3" t="str">
-        <v>#LX7914</v>
+        <v>#LX7928</v>
       </c>
       <c r="E3" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -808,33 +808,33 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2025LexusRX</v>
+        <v>2025LexusES</v>
       </c>
       <c r="B4" t="str">
-        <v>79220</v>
+        <v>66155</v>
       </c>
       <c r="C4" t="str">
-        <v>350 EXECUTIVE PKG</v>
+        <v>300h LUXURY</v>
       </c>
       <c r="D4" t="str">
-        <v>#LX7909</v>
+        <v>#LX7919</v>
       </c>
       <c r="E4" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2025LexusNX</v>
+        <v>2025LexusIS</v>
       </c>
       <c r="B5" t="str">
-        <v>62831</v>
+        <v>53754</v>
       </c>
       <c r="C5" t="str">
-        <v>450h+ ULTRA PREMIUM</v>
+        <v>300 F SPORT DESIGN</v>
       </c>
       <c r="D5" t="str">
-        <v>#LX7894</v>
+        <v>#LX7917</v>
       </c>
       <c r="E5" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -842,33 +842,33 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>2025LexusIS</v>
+        <v>2025LexusRX</v>
       </c>
       <c r="B6" t="str">
-        <v>60889</v>
+        <v>91291</v>
       </c>
       <c r="C6" t="str">
-        <v>300 ULTRA LUXURY</v>
+        <v>450h+ EXECUTIVE PKG</v>
       </c>
       <c r="D6" t="str">
-        <v>#LX7889</v>
+        <v>#LX7915</v>
       </c>
       <c r="E6" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>2025LexusRX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B7" t="str">
-        <v>70565</v>
+        <v>80636</v>
       </c>
       <c r="C7" t="str">
-        <v>350</v>
+        <v>450h+ EXECUTIVE</v>
       </c>
       <c r="D7" t="str">
-        <v>#LX7888</v>
+        <v>#LX7914</v>
       </c>
       <c r="E7" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -876,33 +876,33 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2025LexusES</v>
+        <v>2025LexusRX</v>
       </c>
       <c r="B8" t="str">
-        <v>66155</v>
+        <v>79220</v>
       </c>
       <c r="C8" t="str">
-        <v>300h LUXURY</v>
+        <v>350 EXECUTIVE PKG</v>
       </c>
       <c r="D8" t="str">
-        <v>#LX7883</v>
+        <v>#LX7909</v>
       </c>
       <c r="E8" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2025LexusIS</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B9" t="str">
-        <v>66889</v>
+        <v>62831</v>
       </c>
       <c r="C9" t="str">
-        <v>350 F SPORT 3</v>
+        <v>450h+ ULTRA PREMIUM</v>
       </c>
       <c r="D9" t="str">
-        <v>#LX7877</v>
+        <v>#LX7894</v>
       </c>
       <c r="E9" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -913,47 +913,47 @@
         <v>2025LexusRX</v>
       </c>
       <c r="B10" t="str">
-        <v>90641</v>
+        <v>70565</v>
       </c>
       <c r="C10" t="str">
-        <v>450h+ EXECUTIVE PKG</v>
+        <v>350</v>
       </c>
       <c r="D10" t="str">
-        <v>#LX7854</v>
+        <v>#LX7888</v>
       </c>
       <c r="E10" t="str">
-        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2025LexusUX</v>
+        <v>2025LexusES</v>
       </c>
       <c r="B11" t="str">
-        <v>48096</v>
+        <v>66155</v>
       </c>
       <c r="C11" t="str">
-        <v>300h PREMIUM</v>
+        <v>300h LUXURY</v>
       </c>
       <c r="D11" t="str">
-        <v>#LX7853</v>
+        <v>#LX7883</v>
       </c>
       <c r="E11" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2025LexusUX</v>
+        <v>2025LexusIS</v>
       </c>
       <c r="B12" t="str">
-        <v>53560</v>
+        <v>66889</v>
       </c>
       <c r="C12" t="str">
-        <v>300h LUXURY PKG</v>
+        <v>350 F SPORT 3</v>
       </c>
       <c r="D12" t="str">
-        <v>#LX7851</v>
+        <v>#LX7877</v>
       </c>
       <c r="E12" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -967,10 +967,10 @@
         <v>90641</v>
       </c>
       <c r="C13" t="str">
-        <v>450h+</v>
+        <v>450h+ EXECUTIVE PKG</v>
       </c>
       <c r="D13" t="str">
-        <v>#LX7843</v>
+        <v>#LX7854</v>
       </c>
       <c r="E13" t="str">
         <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
@@ -978,33 +978,33 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2025LexusES</v>
+        <v>2025LexusUX</v>
       </c>
       <c r="B14" t="str">
-        <v>67982</v>
+        <v>48096</v>
       </c>
       <c r="C14" t="str">
-        <v>350 F SPORT</v>
+        <v>300h PREMIUM</v>
       </c>
       <c r="D14" t="str">
-        <v>#LX7842</v>
+        <v>#LX7853</v>
       </c>
       <c r="E14" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2025LexusNX</v>
+        <v>2025LexusUX</v>
       </c>
       <c r="B15" t="str">
-        <v>60206</v>
+        <v>53560</v>
       </c>
       <c r="C15" t="str">
-        <v>350h PREMIUM</v>
+        <v>300h LUXURY PKG</v>
       </c>
       <c r="D15" t="str">
-        <v>#LX7748</v>
+        <v>#LX7851</v>
       </c>
       <c r="E15" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1015,50 +1015,50 @@
         <v>2025LexusRX</v>
       </c>
       <c r="B16" t="str">
-        <v>81580</v>
+        <v>90641</v>
       </c>
       <c r="C16" t="str">
-        <v>350h EXECUTIVE PKG</v>
+        <v>450h+</v>
       </c>
       <c r="D16" t="str">
-        <v>#LX7747</v>
+        <v>#LX7843</v>
       </c>
       <c r="E16" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>2025LexusRX</v>
+        <v>2025LexusES</v>
       </c>
       <c r="B17" t="str">
-        <v>90341</v>
+        <v>67982</v>
       </c>
       <c r="C17" t="str">
-        <v>450h+ EXECUTIVE PKG</v>
+        <v>350 F SPORT</v>
       </c>
       <c r="D17" t="str">
-        <v>#LX7689</v>
+        <v>#LX7842</v>
       </c>
       <c r="E17" t="str">
-        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
+        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>2025LexusRX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B18" t="str">
-        <v>90991</v>
+        <v>60206</v>
       </c>
       <c r="C18" t="str">
-        <v>450h+</v>
+        <v>350h PREMIUM</v>
       </c>
       <c r="D18" t="str">
-        <v>#LX7672</v>
+        <v>#LX7748</v>
       </c>
       <c r="E18" t="str">
-        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="19">
@@ -1066,13 +1066,13 @@
         <v>2025LexusRX</v>
       </c>
       <c r="B19" t="str">
-        <v>70465</v>
+        <v>81580</v>
       </c>
       <c r="C19" t="str">
-        <v>350 LUXURY PKG</v>
+        <v>350h EXECUTIVE PKG</v>
       </c>
       <c r="D19" t="str">
-        <v>#LX7660</v>
+        <v>#LX7747</v>
       </c>
       <c r="E19" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1080,50 +1080,50 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>2025LexusNX</v>
+        <v>2025LexusRX</v>
       </c>
       <c r="B20" t="str">
-        <v>65683</v>
+        <v>90341</v>
       </c>
       <c r="C20" t="str">
-        <v>350</v>
+        <v>450h+ EXECUTIVE PKG</v>
       </c>
       <c r="D20" t="str">
-        <v>#LX7475</v>
+        <v>#LX7689</v>
       </c>
       <c r="E20" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>2025LexusES</v>
+        <v>2025LexusRX</v>
       </c>
       <c r="B21" t="str">
-        <v>66155</v>
+        <v>90991</v>
       </c>
       <c r="C21" t="str">
-        <v>300h LUXURY</v>
+        <v>450h+</v>
       </c>
       <c r="D21" t="str">
-        <v>#LX7919</v>
+        <v>#LX7672</v>
       </c>
       <c r="E21" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
+        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>2025LexusIS</v>
+        <v>2025LexusRX</v>
       </c>
       <c r="B22" t="str">
-        <v>53754</v>
+        <v>70465</v>
       </c>
       <c r="C22" t="str">
-        <v>300 F SPORT DESIGN</v>
+        <v>350 LUXURY PKG</v>
       </c>
       <c r="D22" t="str">
-        <v>#LX7917</v>
+        <v>#LX7660</v>
       </c>
       <c r="E22" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1131,33 +1131,33 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>2025LexusGX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B23" t="str">
-        <v>111471</v>
+        <v>65683</v>
       </c>
       <c r="C23" t="str">
-        <v>550 OVERTRAIL</v>
+        <v>350</v>
       </c>
       <c r="D23" t="str">
-        <v>#LX7902</v>
+        <v>#LX7475</v>
       </c>
       <c r="E23" t="str">
-        <v>4x4, Active Park Assist, Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>2025LexusNX</v>
+        <v>2025LexusTX</v>
       </c>
       <c r="B24" t="str">
-        <v>80106</v>
+        <v>87301</v>
       </c>
       <c r="C24" t="str">
-        <v>450h+ F SPORT 3</v>
+        <v>500h F SPORT PERFORMANCE 2</v>
       </c>
       <c r="D24" t="str">
-        <v>#LX7899</v>
+        <v>#LX7927</v>
       </c>
       <c r="E24" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1165,24 +1165,58 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
+        <v>2025LexusGX</v>
+      </c>
+      <c r="B25" t="str">
+        <v>111471</v>
+      </c>
+      <c r="C25" t="str">
+        <v>550 OVERTRAIL</v>
+      </c>
+      <c r="D25" t="str">
+        <v>#LX7902</v>
+      </c>
+      <c r="E25" t="str">
+        <v>4x4, Active Park Assist, Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>2025LexusNX</v>
+      </c>
+      <c r="B26" t="str">
+        <v>80106</v>
+      </c>
+      <c r="C26" t="str">
+        <v>450h+ F SPORT 3</v>
+      </c>
+      <c r="D26" t="str">
+        <v>#LX7899</v>
+      </c>
+      <c r="E26" t="str">
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
         <v>2025LexusES</v>
       </c>
-      <c r="B25" t="str">
+      <c r="B27" t="str">
         <v>58855</v>
       </c>
-      <c r="C25" t="str">
+      <c r="C27" t="str">
         <v>300h PREMIUM</v>
       </c>
-      <c r="D25" t="str">
+      <c r="D27" t="str">
         <v>#LX7841</v>
       </c>
-      <c r="E25" t="str">
+      <c r="E27" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E25"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E27"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Projects/scrapping_js/lexus_maritime/Lexus_Inventory.xlsx
+++ b/Projects/scrapping_js/lexus_maritime/Lexus_Inventory.xlsx
@@ -550,10 +550,10 @@
         <v>$62318</v>
       </c>
       <c r="F6" t="str">
-        <v>JTJHKCFZ4S2067161</v>
+        <v>JTJHKCFZ4S2068245</v>
       </c>
       <c r="G6" t="str">
-        <v>25182</v>
+        <v>25192</v>
       </c>
       <c r="H6" t="str">
         <v>Ultra Premium</v>
@@ -750,7 +750,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -774,19 +774,19 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2025LexusNX</v>
+        <v>2025LexusTX</v>
       </c>
       <c r="B2" t="str">
-        <v>63481</v>
+        <v>82862</v>
       </c>
       <c r="C2" t="str">
-        <v>450h+ ULTRA PREMIUM</v>
+        <v>350 EXECUTIVE PKG</v>
       </c>
       <c r="D2" t="str">
-        <v>#LX7926</v>
+        <v>#LX7933</v>
       </c>
       <c r="E2" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
       </c>
     </row>
     <row r="3">
@@ -800,7 +800,7 @@
         <v>450h+ ULTRA PREMIUM</v>
       </c>
       <c r="D3" t="str">
-        <v>#LX7928</v>
+        <v>#LX7926</v>
       </c>
       <c r="E3" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -808,84 +808,84 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2025LexusES</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B4" t="str">
-        <v>66155</v>
+        <v>63481</v>
       </c>
       <c r="C4" t="str">
-        <v>300h LUXURY</v>
+        <v>450h+ ULTRA PREMIUM</v>
       </c>
       <c r="D4" t="str">
-        <v>#LX7919</v>
+        <v>#LX7928</v>
       </c>
       <c r="E4" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2025LexusIS</v>
+        <v>2025LexusES</v>
       </c>
       <c r="B5" t="str">
-        <v>53754</v>
+        <v>66155</v>
       </c>
       <c r="C5" t="str">
-        <v>300 F SPORT DESIGN</v>
+        <v>300h LUXURY</v>
       </c>
       <c r="D5" t="str">
-        <v>#LX7917</v>
+        <v>#LX7919</v>
       </c>
       <c r="E5" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>2025LexusRX</v>
+        <v>2025LexusIS</v>
       </c>
       <c r="B6" t="str">
-        <v>91291</v>
+        <v>53754</v>
       </c>
       <c r="C6" t="str">
-        <v>450h+ EXECUTIVE PKG</v>
+        <v>300 F SPORT DESIGN</v>
       </c>
       <c r="D6" t="str">
-        <v>#LX7915</v>
+        <v>#LX7917</v>
       </c>
       <c r="E6" t="str">
-        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>2025LexusNX</v>
+        <v>2025LexusRX</v>
       </c>
       <c r="B7" t="str">
-        <v>80636</v>
+        <v>91291</v>
       </c>
       <c r="C7" t="str">
-        <v>450h+ EXECUTIVE</v>
+        <v>450h+ EXECUTIVE PKG</v>
       </c>
       <c r="D7" t="str">
-        <v>#LX7914</v>
+        <v>#LX7915</v>
       </c>
       <c r="E7" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2025LexusRX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B8" t="str">
-        <v>79220</v>
+        <v>80636</v>
       </c>
       <c r="C8" t="str">
-        <v>350 EXECUTIVE PKG</v>
+        <v>450h+ EXECUTIVE</v>
       </c>
       <c r="D8" t="str">
-        <v>#LX7909</v>
+        <v>#LX7914</v>
       </c>
       <c r="E8" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -893,16 +893,16 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2025LexusNX</v>
+        <v>2025LexusRX</v>
       </c>
       <c r="B9" t="str">
-        <v>62831</v>
+        <v>79220</v>
       </c>
       <c r="C9" t="str">
-        <v>450h+ ULTRA PREMIUM</v>
+        <v>350 EXECUTIVE PKG</v>
       </c>
       <c r="D9" t="str">
-        <v>#LX7894</v>
+        <v>#LX7909</v>
       </c>
       <c r="E9" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -910,16 +910,16 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2025LexusRX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B10" t="str">
-        <v>70565</v>
+        <v>62831</v>
       </c>
       <c r="C10" t="str">
-        <v>350</v>
+        <v>450h+ ULTRA PREMIUM</v>
       </c>
       <c r="D10" t="str">
-        <v>#LX7888</v>
+        <v>#LX7894</v>
       </c>
       <c r="E10" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1046,16 +1046,16 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>2025LexusNX</v>
+        <v>2025LexusRX</v>
       </c>
       <c r="B18" t="str">
-        <v>60206</v>
+        <v>63071</v>
       </c>
       <c r="C18" t="str">
-        <v>350h PREMIUM</v>
+        <v>350 PREMIUM PKG- TEST DRIVE UNIT</v>
       </c>
       <c r="D18" t="str">
-        <v>#LX7748</v>
+        <v>#LX7840</v>
       </c>
       <c r="E18" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1063,16 +1063,16 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>2025LexusRX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B19" t="str">
-        <v>81580</v>
+        <v>65958</v>
       </c>
       <c r="C19" t="str">
-        <v>350h EXECUTIVE PKG</v>
+        <v>350</v>
       </c>
       <c r="D19" t="str">
-        <v>#LX7747</v>
+        <v>#LX7835</v>
       </c>
       <c r="E19" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1080,19 +1080,19 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>2025LexusRX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B20" t="str">
-        <v>90341</v>
+        <v>60206</v>
       </c>
       <c r="C20" t="str">
-        <v>450h+ EXECUTIVE PKG</v>
+        <v>350h PREMIUM</v>
       </c>
       <c r="D20" t="str">
-        <v>#LX7689</v>
+        <v>#LX7748</v>
       </c>
       <c r="E20" t="str">
-        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="21">
@@ -1100,16 +1100,16 @@
         <v>2025LexusRX</v>
       </c>
       <c r="B21" t="str">
-        <v>90991</v>
+        <v>81580</v>
       </c>
       <c r="C21" t="str">
-        <v>450h+</v>
+        <v>350h EXECUTIVE PKG</v>
       </c>
       <c r="D21" t="str">
-        <v>#LX7672</v>
+        <v>#LX7747</v>
       </c>
       <c r="E21" t="str">
-        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="22">
@@ -1117,47 +1117,47 @@
         <v>2025LexusRX</v>
       </c>
       <c r="B22" t="str">
-        <v>70465</v>
+        <v>90341</v>
       </c>
       <c r="C22" t="str">
-        <v>350 LUXURY PKG</v>
+        <v>450h+ EXECUTIVE PKG</v>
       </c>
       <c r="D22" t="str">
-        <v>#LX7660</v>
+        <v>#LX7689</v>
       </c>
       <c r="E22" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>2025LexusNX</v>
+        <v>2025LexusRX</v>
       </c>
       <c r="B23" t="str">
-        <v>65683</v>
+        <v>90991</v>
       </c>
       <c r="C23" t="str">
-        <v>350</v>
+        <v>450h+</v>
       </c>
       <c r="D23" t="str">
-        <v>#LX7475</v>
+        <v>#LX7672</v>
       </c>
       <c r="E23" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>2025LexusTX</v>
+        <v>2025LexusRX</v>
       </c>
       <c r="B24" t="str">
-        <v>87301</v>
+        <v>70465</v>
       </c>
       <c r="C24" t="str">
-        <v>500h F SPORT PERFORMANCE 2</v>
+        <v>350 LUXURY PKG</v>
       </c>
       <c r="D24" t="str">
-        <v>#LX7927</v>
+        <v>#LX7660</v>
       </c>
       <c r="E24" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
@@ -1165,58 +1165,109 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>2025LexusGX</v>
+        <v>2025LexusNX</v>
       </c>
       <c r="B25" t="str">
-        <v>111471</v>
+        <v>65683</v>
       </c>
       <c r="C25" t="str">
-        <v>550 OVERTRAIL</v>
+        <v>350</v>
       </c>
       <c r="D25" t="str">
-        <v>#LX7902</v>
+        <v>#LX7475</v>
       </c>
       <c r="E25" t="str">
-        <v>4x4, Active Park Assist, Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>2025LexusNX</v>
+        <v>2025LexusTX</v>
       </c>
       <c r="B26" t="str">
-        <v>80106</v>
+        <v>84632</v>
       </c>
       <c r="C26" t="str">
-        <v>450h+ F SPORT 3</v>
+        <v>350 F SPORT 3</v>
       </c>
       <c r="D26" t="str">
-        <v>#LX7899</v>
+        <v>#LX7934</v>
       </c>
       <c r="E26" t="str">
-        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+        <v>Active Park Assist, Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
+        <v>2025LexusRX</v>
+      </c>
+      <c r="B27" t="str">
+        <v>65431</v>
+      </c>
+      <c r="C27" t="str">
+        <v>350h PREMIUM PKG</v>
+      </c>
+      <c r="D27" t="str">
+        <v>#LX7931</v>
+      </c>
+      <c r="E27" t="str">
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>2025LexusTX</v>
+      </c>
+      <c r="B28" t="str">
+        <v>87301</v>
+      </c>
+      <c r="C28" t="str">
+        <v>500h F SPORT PERFORMANCE 2</v>
+      </c>
+      <c r="D28" t="str">
+        <v>#LX7927</v>
+      </c>
+      <c r="E28" t="str">
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>2025LexusNX</v>
+      </c>
+      <c r="B29" t="str">
+        <v>80106</v>
+      </c>
+      <c r="C29" t="str">
+        <v>450h+ F SPORT 3</v>
+      </c>
+      <c r="D29" t="str">
+        <v>#LX7899</v>
+      </c>
+      <c r="E29" t="str">
+        <v>Adaptive Cruise Control, Air Conditioning, All Wheel Drive, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front)</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
         <v>2025LexusES</v>
       </c>
-      <c r="B27" t="str">
+      <c r="B30" t="str">
         <v>58855</v>
       </c>
-      <c r="C27" t="str">
+      <c r="C30" t="str">
         <v>300h PREMIUM</v>
       </c>
-      <c r="D27" t="str">
+      <c r="D30" t="str">
         <v>#LX7841</v>
       </c>
-      <c r="E27" t="str">
+      <c r="E30" t="str">
         <v>Adaptive Cruise Control, Air Conditioning, Anti-Lock Brakes, Backup Camera, Bluetooth, Cruise Control, Heated Seats (Front), Keyless Entry</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E27"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E30"/>
   </ignoredErrors>
 </worksheet>
 </file>